--- a/backend/v1.0/tools/DB_Mapping.xlsx
+++ b/backend/v1.0/tools/DB_Mapping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SMARTGRID_CALI\backend\v1.0\tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EUSSE\Desktop\proyecto-cali-backend\backend\v1.0\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347F9AFA-138D-41D9-B713-4747CEDD1925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052B4116-B692-42F3-B582-127247D5C698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConexionDB" sheetId="4" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="528">
   <si>
     <t xml:space="preserve">0x0002 </t>
   </si>
@@ -1653,6 +1653,12 @@
   </si>
   <si>
     <t>EI001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test </t>
+  </si>
+  <si>
+    <t>Laboratorio0. Token</t>
   </si>
 </sst>
 </file>
@@ -2035,8 +2041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FC6858-70D5-49A5-93A4-2D625DB38246}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2103,6 +2109,26 @@
       </c>
       <c r="F3" t="s">
         <v>464</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>526</v>
+      </c>
+      <c r="B4" t="s">
+        <v>437</v>
+      </c>
+      <c r="C4">
+        <v>8086</v>
+      </c>
+      <c r="D4" t="s">
+        <v>440</v>
+      </c>
+      <c r="E4" t="s">
+        <v>438</v>
+      </c>
+      <c r="F4" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -6101,7 +6127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D5969C-509B-4D3C-BD42-B92347445C5B}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>

--- a/backend/v1.0/tools/DB_Mapping.xlsx
+++ b/backend/v1.0/tools/DB_Mapping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EUSSE\Desktop\proyecto-cali-backend\backend\v1.0\tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SMARTGRID_CALI\backend\v1.0\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052B4116-B692-42F3-B582-127247D5C698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF18C2C8-D5B4-4E78-AA05-D0055054A8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConexionDB" sheetId="4" r:id="rId1"/>
@@ -2041,7 +2041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FC6858-70D5-49A5-93A4-2D625DB38246}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -6127,8 +6127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D5969C-509B-4D3C-BD42-B92347445C5B}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6220,7 +6220,7 @@
         <v>478</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6234,7 +6234,7 @@
         <v>480</v>
       </c>
       <c r="D7">
-        <v>100</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6291,7 +6291,7 @@
       </c>
       <c r="D11">
         <f>D13/D9</f>
-        <v>15</v>
+        <v>290.625</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6306,7 +6306,7 @@
       </c>
       <c r="D12">
         <f>D13/D10</f>
-        <v>7.5</v>
+        <v>145.3125</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -6321,7 +6321,7 @@
       </c>
       <c r="D13">
         <f>D6*D7*0.75</f>
-        <v>600</v>
+        <v>11625</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -6336,7 +6336,7 @@
       </c>
       <c r="D14">
         <f>D6*D7*0.78</f>
-        <v>624</v>
+        <v>12090</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -6365,7 +6365,7 @@
       </c>
       <c r="D16">
         <f>D13*0.9/D15</f>
-        <v>21.513944223107568</v>
+        <v>416.83266932270914</v>
       </c>
     </row>
     <row r="17" spans="1:4">

--- a/backend/v1.0/tools/DB_Mapping.xlsx
+++ b/backend/v1.0/tools/DB_Mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SMARTGRID_CALI\backend\v1.0\tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconet-my.sharepoint.com/personal/sarango_uco_edu_co/Documents/Documents/GitHub/project-cali/backend/v1.0/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF18C2C8-D5B4-4E78-AA05-D0055054A8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{CF18C2C8-D5B4-4E78-AA05-D0055054A8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D2E6C96-B611-4345-A10A-CE3B5546FBDC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConexionDB" sheetId="4" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="651">
   <si>
     <t xml:space="preserve">0x0002 </t>
   </si>
@@ -1478,9 +1478,6 @@
     <t>Tag</t>
   </si>
   <si>
-    <t>Value</t>
-  </si>
-  <si>
     <t>Módulo de turbinas</t>
   </si>
   <si>
@@ -1659,16 +1656,385 @@
   </si>
   <si>
     <t>Laboratorio0. Token</t>
+  </si>
+  <si>
+    <t>QM7Xx79NnvECxQt3j3t-js3QSDVpwGaUibCfmO5ECe-4UYGmgQgoESvYSQ-PctdoksZ0aNZe6-S4Y9QOkc4-bQ==</t>
+  </si>
+  <si>
+    <t>Planta Biogas</t>
+  </si>
+  <si>
+    <t>Caudal bomba P-104</t>
+  </si>
+  <si>
+    <t>SE-104</t>
+  </si>
+  <si>
+    <t>Temperatura 1 Reactor 1</t>
+  </si>
+  <si>
+    <t>TE-101A</t>
+  </si>
+  <si>
+    <t>Temperatura 2 Reactor 1</t>
+  </si>
+  <si>
+    <t>TE-101B</t>
+  </si>
+  <si>
+    <t>Ph reactor 1</t>
+  </si>
+  <si>
+    <t>AT-101</t>
+  </si>
+  <si>
+    <t>Concentración CH4 V-101</t>
+  </si>
+  <si>
+    <t>AT-103A1</t>
+  </si>
+  <si>
+    <t>Concentracion CO2 V-101</t>
+  </si>
+  <si>
+    <t>AT-103A2</t>
+  </si>
+  <si>
+    <t>Concentración H2S V-101</t>
+  </si>
+  <si>
+    <t>AT-103A3</t>
+  </si>
+  <si>
+    <t>Concentración O2 V-101</t>
+  </si>
+  <si>
+    <t>AT-103A4</t>
+  </si>
+  <si>
+    <t>Concentracion H2 V-101</t>
+  </si>
+  <si>
+    <t>AT-103A5</t>
+  </si>
+  <si>
+    <t>Humedad relativa biogás V-101</t>
+  </si>
+  <si>
+    <t>AT-103B</t>
+  </si>
+  <si>
+    <t>Sólidos totales sustrato</t>
+  </si>
+  <si>
+    <t>M-ST</t>
+  </si>
+  <si>
+    <t>Sólidos volátiles del sustrato</t>
+  </si>
+  <si>
+    <t>M-SV</t>
+  </si>
+  <si>
+    <t>Concentración de carbono átomico en base seca</t>
+  </si>
+  <si>
+    <t>M-Cc</t>
+  </si>
+  <si>
+    <t>Conentración de hidrógeno átomico en base seca</t>
+  </si>
+  <si>
+    <t>M-Ch</t>
+  </si>
+  <si>
+    <t>Concentración de oxígeno átomico en base seca</t>
+  </si>
+  <si>
+    <t>M-Co</t>
+  </si>
+  <si>
+    <t>Concentración de nitrógeno atómico en base seca</t>
+  </si>
+  <si>
+    <t>M-Cn</t>
+  </si>
+  <si>
+    <t>Concentración de azufre atómico en base seca</t>
+  </si>
+  <si>
+    <t>M-Cs</t>
+  </si>
+  <si>
+    <t>Densidad del sustrato</t>
+  </si>
+  <si>
+    <t>M-d</t>
+  </si>
+  <si>
+    <t>Presión de biogás en Reactor 1</t>
+  </si>
+  <si>
+    <t>PT-101</t>
+  </si>
+  <si>
+    <t>Presión de biogás en V-101</t>
+  </si>
+  <si>
+    <t>PT-103</t>
+  </si>
+  <si>
+    <t>Temperatura de biogás en V-101</t>
+  </si>
+  <si>
+    <t>TT-103</t>
+  </si>
+  <si>
+    <t>Velocidad agitación Reactor 1</t>
+  </si>
+  <si>
+    <t>SE-108</t>
+  </si>
+  <si>
+    <t>Caudal bomba P-101</t>
+  </si>
+  <si>
+    <t>SE-101</t>
+  </si>
+  <si>
+    <t>Temperatura 1 Reactor 2</t>
+  </si>
+  <si>
+    <t>TE-102A</t>
+  </si>
+  <si>
+    <t>Temperatura 2 Reactor 2</t>
+  </si>
+  <si>
+    <t>TE-102B</t>
+  </si>
+  <si>
+    <t>Ph reactor 2</t>
+  </si>
+  <si>
+    <t>AT-102</t>
+  </si>
+  <si>
+    <t>Concentración CH4 V-102</t>
+  </si>
+  <si>
+    <t>AT-104A1</t>
+  </si>
+  <si>
+    <t>Concentracion CO2 V-102</t>
+  </si>
+  <si>
+    <t>AT-104A2</t>
+  </si>
+  <si>
+    <t>Concentración H2S V-102</t>
+  </si>
+  <si>
+    <t>AT-104A3</t>
+  </si>
+  <si>
+    <t>Concentración O2 V-102</t>
+  </si>
+  <si>
+    <t>AT-104A4</t>
+  </si>
+  <si>
+    <t>Concentracion H2 V-102</t>
+  </si>
+  <si>
+    <t>AT-104A5</t>
+  </si>
+  <si>
+    <t>Humedad relativa biogás V-102</t>
+  </si>
+  <si>
+    <t>AT-104B</t>
+  </si>
+  <si>
+    <t>Presión biogás en Reactor 2</t>
+  </si>
+  <si>
+    <t>PT-102</t>
+  </si>
+  <si>
+    <t>Presión biogás en V-102</t>
+  </si>
+  <si>
+    <t>PT-104</t>
+  </si>
+  <si>
+    <t>Velocidad agitación Reactor 2</t>
+  </si>
+  <si>
+    <t>SE-109</t>
+  </si>
+  <si>
+    <t>Caudal bomba P-102</t>
+  </si>
+  <si>
+    <t>SE-102</t>
+  </si>
+  <si>
+    <t>Temperatura en V-107</t>
+  </si>
+  <si>
+    <t>TT-105</t>
+  </si>
+  <si>
+    <t>Presión en V-107</t>
+  </si>
+  <si>
+    <t>PT-105</t>
+  </si>
+  <si>
+    <t>Concentración CH4 V-107</t>
+  </si>
+  <si>
+    <t>AT-105A1</t>
+  </si>
+  <si>
+    <t>Concentracion CO2 V-107</t>
+  </si>
+  <si>
+    <t>AT-105A2</t>
+  </si>
+  <si>
+    <t>Concentración H2S V-107</t>
+  </si>
+  <si>
+    <t>AT-105A3</t>
+  </si>
+  <si>
+    <t>Concentración O2 V-107</t>
+  </si>
+  <si>
+    <t>AT-105A4</t>
+  </si>
+  <si>
+    <t>Concentracion H2 V-107</t>
+  </si>
+  <si>
+    <t>AT-105A5</t>
+  </si>
+  <si>
+    <t>Humedad relativa biogás V-107</t>
+  </si>
+  <si>
+    <t>AT-105B</t>
+  </si>
+  <si>
+    <t>Tiempo de retención Hidáulico</t>
+  </si>
+  <si>
+    <t>M-TRH</t>
+  </si>
+  <si>
+    <t>Numero de alimentaciones diarias P-104</t>
+  </si>
+  <si>
+    <t>M-FT-P-104</t>
+  </si>
+  <si>
+    <t>Tiempo de encendido de la bomba P-104</t>
+  </si>
+  <si>
+    <t>M-TTO-P-104</t>
+  </si>
+  <si>
+    <t>Numero de alimentaciones diarias P-101</t>
+  </si>
+  <si>
+    <t>M-FT-P-101</t>
+  </si>
+  <si>
+    <t>DTPlantaBiogas</t>
+  </si>
+  <si>
+    <t>Caudal Manual P-104</t>
+  </si>
+  <si>
+    <t>SE-104v</t>
+  </si>
+  <si>
+    <t>Temperatura Manual R-101</t>
+  </si>
+  <si>
+    <t>TE-101v</t>
+  </si>
+  <si>
+    <t>Volumen normal de biogás (almacenadas)</t>
+  </si>
+  <si>
+    <t>M-VGA</t>
+  </si>
+  <si>
+    <t>Volumen parcial  metano (almacenadas)</t>
+  </si>
+  <si>
+    <t>M-PA_CH4</t>
+  </si>
+  <si>
+    <t>moles metano (almacenadas)</t>
+  </si>
+  <si>
+    <t>M-molA_CH4</t>
+  </si>
+  <si>
+    <t>Presión acumulada</t>
+  </si>
+  <si>
+    <t>P_acum</t>
+  </si>
+  <si>
+    <t>Volumen normal de biogas (Total)</t>
+  </si>
+  <si>
+    <t>M-VG</t>
+  </si>
+  <si>
+    <t>Volumen parcial  metano (Total)</t>
+  </si>
+  <si>
+    <t>M-P_CH4</t>
+  </si>
+  <si>
+    <t>M-mol_CH4</t>
+  </si>
+  <si>
+    <t>Moles Sustrato</t>
+  </si>
+  <si>
+    <t>Msus_exp</t>
+  </si>
+  <si>
+    <t>Concentracion Sustrato planta</t>
+  </si>
+  <si>
+    <t>Csus_exp</t>
+  </si>
+  <si>
+    <t>K_mean</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Concentracion Sustrato Modelo</t>
+  </si>
+  <si>
+    <t>Csus_model</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-  </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1707,6 +2073,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -1743,7 +2110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1755,10 +2122,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1774,6 +2138,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2041,17 +2409,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FC6858-70D5-49A5-93A4-2D625DB38246}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="95.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="95.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>275</v>
       </c>
@@ -2071,7 +2439,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>436</v>
       </c>
@@ -2091,7 +2459,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>436</v>
       </c>
@@ -2111,9 +2479,9 @@
         <v>464</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B4" t="s">
         <v>437</v>
@@ -2128,14 +2496,35 @@
         <v>438</v>
       </c>
       <c r="F4" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>436</v>
+      </c>
+      <c r="B5" t="s">
+        <v>437</v>
+      </c>
+      <c r="C5">
+        <v>8086</v>
+      </c>
+      <c r="D5" t="s">
+        <v>440</v>
+      </c>
+      <c r="E5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F5" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E10" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2147,13 +2536,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>275</v>
       </c>
@@ -2167,7 +2556,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>435</v>
       </c>
@@ -2191,17 +2580,17 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>428</v>
       </c>
@@ -2212,7 +2601,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1">
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2223,7 +2612,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2234,7 +2623,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2245,7 +2634,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2256,7 +2645,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2267,7 +2656,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2278,7 +2667,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2289,7 +2678,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2300,7 +2689,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2311,7 +2700,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2322,7 +2711,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2333,7 +2722,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2344,7 +2733,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2355,7 +2744,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2366,7 +2755,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2377,7 +2766,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2388,7 +2777,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2399,7 +2788,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2410,7 +2799,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2421,7 +2810,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2432,136 +2821,136 @@
         <v>435</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="6"/>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="6"/>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="6"/>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="6"/>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="6"/>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="6"/>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="6"/>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="6"/>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="6"/>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="6"/>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="6"/>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="6"/>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="6"/>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="6"/>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="6"/>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="6"/>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="6"/>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="6"/>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="6"/>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="6"/>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="6"/>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="6"/>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="6"/>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="6"/>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="6"/>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="6"/>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="6"/>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="6"/>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="6"/>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="6"/>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="6"/>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="6"/>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="6"/>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="6"/>
     </row>
   </sheetData>
@@ -2577,18 +2966,18 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -2614,7 +3003,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2640,7 +3029,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2666,7 +3055,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2692,7 +3081,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2718,7 +3107,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2744,7 +3133,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -2770,7 +3159,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2796,7 +3185,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -2822,7 +3211,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -2848,7 +3237,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -2874,7 +3263,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -2900,7 +3289,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -2926,7 +3315,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
@@ -2952,7 +3341,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
@@ -2978,7 +3367,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>24</v>
       </c>
@@ -3004,7 +3393,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -3030,7 +3419,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -3056,7 +3445,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -3082,7 +3471,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -3105,7 +3494,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -3128,7 +3517,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -3151,7 +3540,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -3177,7 +3566,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -3203,7 +3592,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -3229,7 +3618,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -3255,7 +3644,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -3281,7 +3670,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -3307,7 +3696,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -3333,7 +3722,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>100</v>
       </c>
@@ -3359,7 +3748,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>102</v>
       </c>
@@ -3385,7 +3774,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>125</v>
       </c>
@@ -3411,7 +3800,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>126</v>
       </c>
@@ -3437,7 +3826,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>127</v>
       </c>
@@ -3463,7 +3852,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>128</v>
       </c>
@@ -3489,7 +3878,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>129</v>
       </c>
@@ -3515,7 +3904,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>130</v>
       </c>
@@ -3541,7 +3930,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>131</v>
       </c>
@@ -3567,7 +3956,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>132</v>
       </c>
@@ -3593,7 +3982,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>133</v>
       </c>
@@ -3619,7 +4008,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>134</v>
       </c>
@@ -3645,7 +4034,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>135</v>
       </c>
@@ -3671,7 +4060,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>136</v>
       </c>
@@ -3697,7 +4086,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>104</v>
       </c>
@@ -3723,7 +4112,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>106</v>
       </c>
@@ -3749,7 +4138,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>211</v>
       </c>
@@ -3775,7 +4164,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>212</v>
       </c>
@@ -3801,7 +4190,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>213</v>
       </c>
@@ -3827,7 +4216,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>214</v>
       </c>
@@ -3853,7 +4242,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>215</v>
       </c>
@@ -3879,7 +4268,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>216</v>
       </c>
@@ -3905,7 +4294,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>217</v>
       </c>
@@ -3931,7 +4320,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>218</v>
       </c>
@@ -3957,7 +4346,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>219</v>
       </c>
@@ -3983,7 +4372,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>220</v>
       </c>
@@ -4009,7 +4398,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>221</v>
       </c>
@@ -4035,7 +4424,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>222</v>
       </c>
@@ -4061,7 +4450,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>108</v>
       </c>
@@ -4087,7 +4476,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>110</v>
       </c>
@@ -4113,7 +4502,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>223</v>
       </c>
@@ -4139,7 +4528,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>224</v>
       </c>
@@ -4165,7 +4554,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>225</v>
       </c>
@@ -4191,7 +4580,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>226</v>
       </c>
@@ -4217,7 +4606,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>227</v>
       </c>
@@ -4243,7 +4632,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>228</v>
       </c>
@@ -4269,7 +4658,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>229</v>
       </c>
@@ -4295,7 +4684,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>230</v>
       </c>
@@ -4321,7 +4710,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>231</v>
       </c>
@@ -4347,7 +4736,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>232</v>
       </c>
@@ -4373,7 +4762,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>233</v>
       </c>
@@ -4399,7 +4788,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>234</v>
       </c>
@@ -4425,7 +4814,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>112</v>
       </c>
@@ -4451,7 +4840,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>114</v>
       </c>
@@ -4477,7 +4866,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>235</v>
       </c>
@@ -4503,7 +4892,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>236</v>
       </c>
@@ -4529,7 +4918,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>237</v>
       </c>
@@ -4555,7 +4944,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>238</v>
       </c>
@@ -4581,7 +4970,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>239</v>
       </c>
@@ -4607,7 +4996,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>240</v>
       </c>
@@ -4633,7 +5022,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>241</v>
       </c>
@@ -4659,7 +5048,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>242</v>
       </c>
@@ -4685,7 +5074,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>243</v>
       </c>
@@ -4711,7 +5100,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>244</v>
       </c>
@@ -4737,7 +5126,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>245</v>
       </c>
@@ -4763,7 +5152,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>246</v>
       </c>
@@ -4789,7 +5178,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>247</v>
       </c>
@@ -4815,7 +5204,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>116</v>
       </c>
@@ -4841,7 +5230,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>118</v>
       </c>
@@ -4867,7 +5256,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>248</v>
       </c>
@@ -4893,7 +5282,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>249</v>
       </c>
@@ -4919,7 +5308,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>250</v>
       </c>
@@ -4945,7 +5334,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>251</v>
       </c>
@@ -4971,7 +5360,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>252</v>
       </c>
@@ -4997,7 +5386,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>253</v>
       </c>
@@ -5023,7 +5412,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>254</v>
       </c>
@@ -5049,7 +5438,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>255</v>
       </c>
@@ -5075,7 +5464,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>256</v>
       </c>
@@ -5101,7 +5490,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>257</v>
       </c>
@@ -5127,7 +5516,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>258</v>
       </c>
@@ -5153,7 +5542,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>259</v>
       </c>
@@ -5179,7 +5568,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>260</v>
       </c>
@@ -5205,7 +5594,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>120</v>
       </c>
@@ -5231,7 +5620,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>122</v>
       </c>
@@ -5257,7 +5646,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>261</v>
       </c>
@@ -5283,7 +5672,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>262</v>
       </c>
@@ -5309,7 +5698,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>263</v>
       </c>
@@ -5335,7 +5724,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>264</v>
       </c>
@@ -5361,7 +5750,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>265</v>
       </c>
@@ -5387,7 +5776,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>266</v>
       </c>
@@ -5413,7 +5802,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>267</v>
       </c>
@@ -5439,7 +5828,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>268</v>
       </c>
@@ -5465,7 +5854,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>269</v>
       </c>
@@ -5491,7 +5880,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>270</v>
       </c>
@@ -5517,7 +5906,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>271</v>
       </c>
@@ -5543,7 +5932,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>272</v>
       </c>
@@ -5569,7 +5958,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>273</v>
       </c>
@@ -5595,7 +5984,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>60</v>
       </c>
@@ -5621,7 +6010,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>62</v>
       </c>
@@ -5647,7 +6036,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>64</v>
       </c>
@@ -5673,7 +6062,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>66</v>
       </c>
@@ -5699,7 +6088,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>68</v>
       </c>
@@ -5725,7 +6114,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>70</v>
       </c>
@@ -5751,7 +6140,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>72</v>
       </c>
@@ -5777,7 +6166,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>74</v>
       </c>
@@ -5803,7 +6192,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>76</v>
       </c>
@@ -5829,7 +6218,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>78</v>
       </c>
@@ -5855,7 +6244,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>80</v>
       </c>
@@ -5881,7 +6270,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>82</v>
       </c>
@@ -5907,7 +6296,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>84</v>
       </c>
@@ -5933,7 +6322,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>86</v>
       </c>
@@ -5959,7 +6348,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
         <v>88</v>
       </c>
@@ -5985,7 +6374,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
         <v>90</v>
       </c>
@@ -6011,7 +6400,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
         <v>92</v>
       </c>
@@ -6037,7 +6426,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
         <v>94</v>
       </c>
@@ -6063,7 +6452,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>96</v>
       </c>
@@ -6089,7 +6478,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>98</v>
       </c>
@@ -6125,21 +6514,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D5969C-509B-4D3C-BD42-B92347445C5B}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A18" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:C84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>465</v>
       </c>
@@ -6149,436 +6537,1017 @@
       <c r="C1" t="s">
         <v>466</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>468</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>469</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B3" t="s">
         <v>470</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>468</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>471</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>467</v>
+      </c>
+      <c r="B4" t="s">
         <v>472</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>468</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>473</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>467</v>
+      </c>
+      <c r="B5" t="s">
         <v>474</v>
       </c>
-      <c r="D4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>468</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>475</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>467</v>
+      </c>
+      <c r="B6" t="s">
         <v>476</v>
       </c>
-      <c r="D5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>468</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>477</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>467</v>
+      </c>
+      <c r="B7" t="s">
         <v>478</v>
       </c>
-      <c r="D6">
+      <c r="C7" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>467</v>
+      </c>
+      <c r="B8" t="s">
+        <v>480</v>
+      </c>
+      <c r="C8" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>467</v>
+      </c>
+      <c r="B9" t="s">
+        <v>482</v>
+      </c>
+      <c r="C9" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>467</v>
+      </c>
+      <c r="B10" t="s">
+        <v>482</v>
+      </c>
+      <c r="C10" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>467</v>
+      </c>
+      <c r="B11" t="s">
+        <v>485</v>
+      </c>
+      <c r="C11" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>467</v>
+      </c>
+      <c r="B12" t="s">
+        <v>485</v>
+      </c>
+      <c r="C12" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>467</v>
+      </c>
+      <c r="B13" t="s">
+        <v>488</v>
+      </c>
+      <c r="C13" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>467</v>
+      </c>
+      <c r="B14" t="s">
+        <v>488</v>
+      </c>
+      <c r="C14" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>467</v>
+      </c>
+      <c r="B15" t="s">
+        <v>491</v>
+      </c>
+      <c r="C15" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>467</v>
+      </c>
+      <c r="B16" t="s">
+        <v>493</v>
+      </c>
+      <c r="C16" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>467</v>
+      </c>
+      <c r="B17" t="s">
+        <v>495</v>
+      </c>
+      <c r="C17" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>467</v>
+      </c>
+      <c r="B18" t="s">
+        <v>497</v>
+      </c>
+      <c r="C18" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>467</v>
+      </c>
+      <c r="B19" t="s">
+        <v>499</v>
+      </c>
+      <c r="C19" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>468</v>
-      </c>
-      <c r="B7" t="s">
-        <v>479</v>
-      </c>
-      <c r="C7" t="s">
-        <v>480</v>
-      </c>
-      <c r="D7">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>468</v>
-      </c>
-      <c r="B8" t="s">
-        <v>481</v>
-      </c>
-      <c r="C8" t="s">
-        <v>482</v>
-      </c>
-      <c r="D8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>468</v>
-      </c>
-      <c r="B9" t="s">
-        <v>483</v>
-      </c>
-      <c r="C9" t="s">
-        <v>484</v>
-      </c>
-      <c r="D9">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>468</v>
-      </c>
-      <c r="B10" t="s">
-        <v>483</v>
-      </c>
-      <c r="C10" t="s">
-        <v>485</v>
-      </c>
-      <c r="D10">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>468</v>
-      </c>
-      <c r="B11" t="s">
-        <v>486</v>
-      </c>
-      <c r="C11" t="s">
-        <v>487</v>
-      </c>
-      <c r="D11">
-        <f>D13/D9</f>
-        <v>290.625</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>468</v>
-      </c>
-      <c r="B12" t="s">
-        <v>486</v>
-      </c>
-      <c r="C12" t="s">
-        <v>488</v>
-      </c>
-      <c r="D12">
-        <f>D13/D10</f>
-        <v>145.3125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>468</v>
-      </c>
-      <c r="B13" t="s">
-        <v>489</v>
-      </c>
-      <c r="C13" t="s">
-        <v>490</v>
-      </c>
-      <c r="D13">
-        <f>D6*D7*0.75</f>
-        <v>11625</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>468</v>
-      </c>
-      <c r="B14" t="s">
-        <v>489</v>
-      </c>
-      <c r="C14" t="s">
-        <v>491</v>
-      </c>
-      <c r="D14">
-        <f>D6*D7*0.78</f>
-        <v>12090</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>468</v>
-      </c>
-      <c r="B15" t="s">
-        <v>492</v>
-      </c>
-      <c r="C15" t="s">
-        <v>493</v>
-      </c>
-      <c r="D15">
-        <v>25.1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>468</v>
-      </c>
-      <c r="B16" t="s">
-        <v>494</v>
-      </c>
-      <c r="C16" t="s">
-        <v>495</v>
-      </c>
-      <c r="D16">
-        <f>D13*0.9/D15</f>
-        <v>416.83266932270914</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>468</v>
-      </c>
-      <c r="B17" t="s">
-        <v>496</v>
-      </c>
-      <c r="C17" t="s">
-        <v>497</v>
-      </c>
-      <c r="D17">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>468</v>
-      </c>
-      <c r="B18" t="s">
-        <v>498</v>
-      </c>
-      <c r="C18" t="s">
-        <v>499</v>
-      </c>
-      <c r="D18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>468</v>
-      </c>
-      <c r="B19" t="s">
-        <v>500</v>
-      </c>
-      <c r="C19" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>467</v>
+      </c>
+      <c r="B20" t="s">
         <v>501</v>
       </c>
-      <c r="D19">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>468</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>502</v>
       </c>
-      <c r="C20" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>467</v>
+      </c>
+      <c r="B21" t="s">
         <v>503</v>
       </c>
-      <c r="D20" s="9">
-        <f>D21/D19</f>
-        <v>1.6666666666666667</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>468</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>504</v>
       </c>
-      <c r="C21" t="s">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>467</v>
+      </c>
+      <c r="B22" t="s">
         <v>505</v>
       </c>
-      <c r="D21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>468</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>506</v>
       </c>
-      <c r="C22" t="s">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>467</v>
+      </c>
+      <c r="B23" t="s">
         <v>507</v>
       </c>
-      <c r="D22">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>468</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>508</v>
       </c>
-      <c r="C23" t="s">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="D23" s="10">
-        <f>D24/D21</f>
-        <v>0.9797958971132712</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="B24" s="11" t="s">
+      <c r="C24" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="C24" s="11" t="s">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>511</v>
       </c>
-      <c r="D24" s="12">
-        <f>SQRT((D21*D21)-(D22*D22))</f>
-        <v>195.95917942265424</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="B25" s="11" t="s">
+      <c r="C25" s="9" t="s">
         <v>512</v>
       </c>
-      <c r="C25" s="11" t="s">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="D25" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="B26" s="11" t="s">
+      <c r="C26" s="9" t="s">
         <v>514</v>
       </c>
-      <c r="C26" s="11" t="s">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>515</v>
       </c>
-      <c r="D26" s="11">
-        <v>27.2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="B27" s="11" t="s">
+      <c r="C27" s="9" t="s">
         <v>516</v>
       </c>
-      <c r="C27" s="11" t="s">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="D27" s="11">
-        <v>27.8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="B28" s="11" t="s">
+      <c r="C28" s="9" t="s">
         <v>518</v>
       </c>
-      <c r="C28" s="11" t="s">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="D28" s="11">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="B29" s="11" t="s">
+      <c r="C29" s="9" t="s">
         <v>520</v>
       </c>
-      <c r="C29" s="11" t="s">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="D29" s="11">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="B30" s="11" t="s">
+      <c r="C30" s="9" t="s">
         <v>522</v>
       </c>
-      <c r="C30" s="11" t="s">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>523</v>
       </c>
-      <c r="D30" s="11">
-        <v>24.75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="B31" s="11" t="s">
+      <c r="C31" s="9" t="s">
         <v>524</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>525</v>
-      </c>
-      <c r="D31" s="11">
-        <v>1</v>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>528</v>
+      </c>
+      <c r="B32" t="s">
+        <v>529</v>
+      </c>
+      <c r="C32" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>528</v>
+      </c>
+      <c r="B33" t="s">
+        <v>531</v>
+      </c>
+      <c r="C33" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>528</v>
+      </c>
+      <c r="B34" t="s">
+        <v>533</v>
+      </c>
+      <c r="C34" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>528</v>
+      </c>
+      <c r="B35" t="s">
+        <v>535</v>
+      </c>
+      <c r="C35" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>528</v>
+      </c>
+      <c r="B36" t="s">
+        <v>537</v>
+      </c>
+      <c r="C36" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>528</v>
+      </c>
+      <c r="B37" t="s">
+        <v>539</v>
+      </c>
+      <c r="C37" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>528</v>
+      </c>
+      <c r="B38" t="s">
+        <v>541</v>
+      </c>
+      <c r="C38" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>528</v>
+      </c>
+      <c r="B39" t="s">
+        <v>543</v>
+      </c>
+      <c r="C39" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>528</v>
+      </c>
+      <c r="B40" t="s">
+        <v>545</v>
+      </c>
+      <c r="C40" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>528</v>
+      </c>
+      <c r="B41" t="s">
+        <v>547</v>
+      </c>
+      <c r="C41" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>528</v>
+      </c>
+      <c r="B42" t="s">
+        <v>549</v>
+      </c>
+      <c r="C42" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>528</v>
+      </c>
+      <c r="B43" t="s">
+        <v>551</v>
+      </c>
+      <c r="C43" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>528</v>
+      </c>
+      <c r="B44" t="s">
+        <v>553</v>
+      </c>
+      <c r="C44" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>528</v>
+      </c>
+      <c r="B45" t="s">
+        <v>555</v>
+      </c>
+      <c r="C45" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>528</v>
+      </c>
+      <c r="B46" t="s">
+        <v>557</v>
+      </c>
+      <c r="C46" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>528</v>
+      </c>
+      <c r="B47" t="s">
+        <v>559</v>
+      </c>
+      <c r="C47" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>528</v>
+      </c>
+      <c r="B48" t="s">
+        <v>561</v>
+      </c>
+      <c r="C48" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>528</v>
+      </c>
+      <c r="B49" t="s">
+        <v>563</v>
+      </c>
+      <c r="C49" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>528</v>
+      </c>
+      <c r="B50" t="s">
+        <v>565</v>
+      </c>
+      <c r="C50" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>528</v>
+      </c>
+      <c r="B51" t="s">
+        <v>567</v>
+      </c>
+      <c r="C51" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>528</v>
+      </c>
+      <c r="B52" t="s">
+        <v>569</v>
+      </c>
+      <c r="C52" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>528</v>
+      </c>
+      <c r="B53" t="s">
+        <v>571</v>
+      </c>
+      <c r="C53" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>528</v>
+      </c>
+      <c r="B54" t="s">
+        <v>573</v>
+      </c>
+      <c r="C54" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>528</v>
+      </c>
+      <c r="B55" t="s">
+        <v>575</v>
+      </c>
+      <c r="C55" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>528</v>
+      </c>
+      <c r="B56" t="s">
+        <v>577</v>
+      </c>
+      <c r="C56" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>528</v>
+      </c>
+      <c r="B57" t="s">
+        <v>579</v>
+      </c>
+      <c r="C57" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>528</v>
+      </c>
+      <c r="B58" t="s">
+        <v>581</v>
+      </c>
+      <c r="C58" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>528</v>
+      </c>
+      <c r="B59" t="s">
+        <v>583</v>
+      </c>
+      <c r="C59" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>528</v>
+      </c>
+      <c r="B60" t="s">
+        <v>585</v>
+      </c>
+      <c r="C60" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>528</v>
+      </c>
+      <c r="B61" t="s">
+        <v>587</v>
+      </c>
+      <c r="C61" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>528</v>
+      </c>
+      <c r="B62" t="s">
+        <v>589</v>
+      </c>
+      <c r="C62" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>528</v>
+      </c>
+      <c r="B63" t="s">
+        <v>591</v>
+      </c>
+      <c r="C63" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>528</v>
+      </c>
+      <c r="B64" t="s">
+        <v>593</v>
+      </c>
+      <c r="C64" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>528</v>
+      </c>
+      <c r="B65" t="s">
+        <v>595</v>
+      </c>
+      <c r="C65" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>528</v>
+      </c>
+      <c r="B66" t="s">
+        <v>597</v>
+      </c>
+      <c r="C66" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>528</v>
+      </c>
+      <c r="B67" t="s">
+        <v>599</v>
+      </c>
+      <c r="C67" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>528</v>
+      </c>
+      <c r="B68" t="s">
+        <v>601</v>
+      </c>
+      <c r="C68" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>528</v>
+      </c>
+      <c r="B69" t="s">
+        <v>603</v>
+      </c>
+      <c r="C69" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>528</v>
+      </c>
+      <c r="B70" t="s">
+        <v>605</v>
+      </c>
+      <c r="C70" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>528</v>
+      </c>
+      <c r="B71" t="s">
+        <v>607</v>
+      </c>
+      <c r="C71" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>528</v>
+      </c>
+      <c r="B72" t="s">
+        <v>609</v>
+      </c>
+      <c r="C72" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>528</v>
+      </c>
+      <c r="B73" t="s">
+        <v>611</v>
+      </c>
+      <c r="C73" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>528</v>
+      </c>
+      <c r="B74" t="s">
+        <v>613</v>
+      </c>
+      <c r="C74" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>528</v>
+      </c>
+      <c r="B75" t="s">
+        <v>615</v>
+      </c>
+      <c r="C75" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>528</v>
+      </c>
+      <c r="B76" t="s">
+        <v>617</v>
+      </c>
+      <c r="C76" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>528</v>
+      </c>
+      <c r="B77" t="s">
+        <v>619</v>
+      </c>
+      <c r="C77" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>528</v>
+      </c>
+      <c r="B78" t="s">
+        <v>621</v>
+      </c>
+      <c r="C78" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>528</v>
+      </c>
+      <c r="B79" t="s">
+        <v>529</v>
+      </c>
+      <c r="C79" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>528</v>
+      </c>
+      <c r="B80" t="s">
+        <v>623</v>
+      </c>
+      <c r="C80" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>625</v>
+      </c>
+      <c r="B81" t="s">
+        <v>626</v>
+      </c>
+      <c r="C81" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>625</v>
+      </c>
+      <c r="B82" t="s">
+        <v>628</v>
+      </c>
+      <c r="C82" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>625</v>
+      </c>
+      <c r="B83" t="s">
+        <v>630</v>
+      </c>
+      <c r="C83" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>625</v>
+      </c>
+      <c r="B84" t="s">
+        <v>632</v>
+      </c>
+      <c r="C84" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>625</v>
+      </c>
+      <c r="B85" t="s">
+        <v>634</v>
+      </c>
+      <c r="C85" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>625</v>
+      </c>
+      <c r="B86" t="s">
+        <v>636</v>
+      </c>
+      <c r="C86" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>625</v>
+      </c>
+      <c r="B87" t="s">
+        <v>638</v>
+      </c>
+      <c r="C87" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>625</v>
+      </c>
+      <c r="B88" t="s">
+        <v>640</v>
+      </c>
+      <c r="C88" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>625</v>
+      </c>
+      <c r="B89" t="s">
+        <v>634</v>
+      </c>
+      <c r="C89" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>625</v>
+      </c>
+      <c r="B90" t="s">
+        <v>643</v>
+      </c>
+      <c r="C90" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>625</v>
+      </c>
+      <c r="B91" t="s">
+        <v>645</v>
+      </c>
+      <c r="C91" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>625</v>
+      </c>
+      <c r="B92" t="s">
+        <v>647</v>
+      </c>
+      <c r="C92" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>625</v>
+      </c>
+      <c r="B93" t="s">
+        <v>649</v>
+      </c>
+      <c r="C93" t="s">
+        <v>650</v>
       </c>
     </row>
   </sheetData>

--- a/backend/v1.0/tools/DB_Mapping.xlsx
+++ b/backend/v1.0/tools/DB_Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconet-my.sharepoint.com/personal/sarango_uco_edu_co/Documents/Documents/GitHub/project-cali/backend/v1.0/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{CF18C2C8-D5B4-4E78-AA05-D0055054A8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D2E6C96-B611-4345-A10A-CE3B5546FBDC}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{CF18C2C8-D5B4-4E78-AA05-D0055054A8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22781AE0-BC26-468E-8B51-0E789A2B1ED7}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="652">
   <si>
     <t xml:space="preserve">0x0002 </t>
   </si>
@@ -2028,6 +2028,9 @@
   </si>
   <si>
     <t>Csus_model</t>
+  </si>
+  <si>
+    <t>UCO</t>
   </si>
 </sst>
 </file>
@@ -2410,7 +2413,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:F5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2513,7 +2516,7 @@
         <v>440</v>
       </c>
       <c r="E5" t="s">
-        <v>438</v>
+        <v>651</v>
       </c>
       <c r="F5" t="s">
         <v>527</v>

--- a/backend/v1.0/tools/DB_Mapping.xlsx
+++ b/backend/v1.0/tools/DB_Mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconet-my.sharepoint.com/personal/sarango_uco_edu_co/Documents/Documents/GitHub/project-cali/backend/v1.0/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{CF18C2C8-D5B4-4E78-AA05-D0055054A8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22781AE0-BC26-468E-8B51-0E789A2B1ED7}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{CF18C2C8-D5B4-4E78-AA05-D0055054A8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{507F3B2F-1C5C-4F6A-A8F1-97792EDD9DA0}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConexionDB" sheetId="4" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="669">
   <si>
     <t xml:space="preserve">0x0002 </t>
   </si>
@@ -1997,15 +1997,6 @@
     <t>M-VG</t>
   </si>
   <si>
-    <t>Volumen parcial  metano (Total)</t>
-  </si>
-  <si>
-    <t>M-P_CH4</t>
-  </si>
-  <si>
-    <t>M-mol_CH4</t>
-  </si>
-  <si>
     <t>Moles Sustrato</t>
   </si>
   <si>
@@ -2031,6 +2022,66 @@
   </si>
   <si>
     <t>UCO</t>
+  </si>
+  <si>
+    <t>Tiempo de encendido de la bomba P-101</t>
+  </si>
+  <si>
+    <t>M-TTO-P-101</t>
+  </si>
+  <si>
+    <t>Caudal de bomba P-101 (Set-Point)</t>
+  </si>
+  <si>
+    <t>M-Q-P-101</t>
+  </si>
+  <si>
+    <t>Caudal de bomba P-101</t>
+  </si>
+  <si>
+    <t>Numero de alimentaciones diarias P-102</t>
+  </si>
+  <si>
+    <t>M-FT-P-102</t>
+  </si>
+  <si>
+    <t>Tiempo de encendido de la bomba P-102</t>
+  </si>
+  <si>
+    <t>M-TTO-P-102</t>
+  </si>
+  <si>
+    <t>Caudal de bomba P-102 (set-Point)</t>
+  </si>
+  <si>
+    <t>Nivel reactor 1 R-101</t>
+  </si>
+  <si>
+    <t>LT-101</t>
+  </si>
+  <si>
+    <t>Nivel reactor 2 R -102</t>
+  </si>
+  <si>
+    <t>LT-102</t>
+  </si>
+  <si>
+    <t>Estado Válvula tanque de biogás 1</t>
+  </si>
+  <si>
+    <t>SV-103</t>
+  </si>
+  <si>
+    <t>Estado Válvula tanque de biogás 2</t>
+  </si>
+  <si>
+    <t>SV-108</t>
+  </si>
+  <si>
+    <t>Estado Válvula tanque de biogás 3</t>
+  </si>
+  <si>
+    <t>SV-109</t>
   </si>
 </sst>
 </file>
@@ -2412,7 +2463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FC6858-70D5-49A5-93A4-2D625DB38246}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -2516,7 +2567,7 @@
         <v>440</v>
       </c>
       <c r="E5" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="F5" t="s">
         <v>527</v>
@@ -2965,7 +3016,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -6517,10 +6568,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D5969C-509B-4D3C-BD42-B92347445C5B}">
-  <dimension ref="A1:C93"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:C84"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100:XFD100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7412,134 +7463,134 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>625</v>
+        <v>528</v>
       </c>
       <c r="B81" t="s">
-        <v>626</v>
+        <v>649</v>
       </c>
       <c r="C81" t="s">
-        <v>627</v>
+        <v>650</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>625</v>
+        <v>528</v>
       </c>
       <c r="B82" t="s">
-        <v>628</v>
+        <v>651</v>
       </c>
       <c r="C82" t="s">
-        <v>629</v>
+        <v>652</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>625</v>
+        <v>528</v>
       </c>
       <c r="B83" t="s">
-        <v>630</v>
+        <v>653</v>
       </c>
       <c r="C83" t="s">
-        <v>631</v>
+        <v>574</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>625</v>
+        <v>528</v>
       </c>
       <c r="B84" t="s">
-        <v>632</v>
+        <v>654</v>
       </c>
       <c r="C84" t="s">
-        <v>633</v>
+        <v>655</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>625</v>
+        <v>528</v>
       </c>
       <c r="B85" t="s">
-        <v>634</v>
+        <v>656</v>
       </c>
       <c r="C85" t="s">
-        <v>635</v>
+        <v>657</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>625</v>
+        <v>528</v>
       </c>
       <c r="B86" t="s">
-        <v>636</v>
+        <v>658</v>
       </c>
       <c r="C86" t="s">
-        <v>637</v>
+        <v>657</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>625</v>
+        <v>528</v>
       </c>
       <c r="B87" t="s">
-        <v>638</v>
+        <v>599</v>
       </c>
       <c r="C87" t="s">
-        <v>639</v>
+        <v>600</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>625</v>
+        <v>528</v>
       </c>
       <c r="B88" t="s">
-        <v>640</v>
+        <v>659</v>
       </c>
       <c r="C88" t="s">
-        <v>641</v>
+        <v>660</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>625</v>
+        <v>528</v>
       </c>
       <c r="B89" t="s">
-        <v>634</v>
+        <v>661</v>
       </c>
       <c r="C89" t="s">
-        <v>642</v>
+        <v>662</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>625</v>
+        <v>528</v>
       </c>
       <c r="B90" t="s">
-        <v>643</v>
+        <v>663</v>
       </c>
       <c r="C90" t="s">
-        <v>644</v>
+        <v>664</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>625</v>
+        <v>528</v>
       </c>
       <c r="B91" t="s">
-        <v>645</v>
+        <v>665</v>
       </c>
       <c r="C91" t="s">
-        <v>646</v>
+        <v>666</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>625</v>
+        <v>528</v>
       </c>
       <c r="B92" t="s">
-        <v>647</v>
+        <v>667</v>
       </c>
       <c r="C92" t="s">
-        <v>648</v>
+        <v>668</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -7547,10 +7598,120 @@
         <v>625</v>
       </c>
       <c r="B93" t="s">
-        <v>649</v>
+        <v>626</v>
       </c>
       <c r="C93" t="s">
-        <v>650</v>
+        <v>627</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>625</v>
+      </c>
+      <c r="B94" t="s">
+        <v>628</v>
+      </c>
+      <c r="C94" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>625</v>
+      </c>
+      <c r="B95" t="s">
+        <v>630</v>
+      </c>
+      <c r="C95" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>625</v>
+      </c>
+      <c r="B96" t="s">
+        <v>632</v>
+      </c>
+      <c r="C96" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>625</v>
+      </c>
+      <c r="B97" t="s">
+        <v>634</v>
+      </c>
+      <c r="C97" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>625</v>
+      </c>
+      <c r="B98" t="s">
+        <v>636</v>
+      </c>
+      <c r="C98" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>625</v>
+      </c>
+      <c r="B99" t="s">
+        <v>638</v>
+      </c>
+      <c r="C99" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>625</v>
+      </c>
+      <c r="B100" t="s">
+        <v>640</v>
+      </c>
+      <c r="C100" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>625</v>
+      </c>
+      <c r="B101" t="s">
+        <v>642</v>
+      </c>
+      <c r="C101" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>625</v>
+      </c>
+      <c r="B102" t="s">
+        <v>644</v>
+      </c>
+      <c r="C102" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>625</v>
+      </c>
+      <c r="B103" t="s">
+        <v>646</v>
+      </c>
+      <c r="C103" t="s">
+        <v>647</v>
       </c>
     </row>
   </sheetData>

--- a/backend/v1.0/tools/DB_Mapping.xlsx
+++ b/backend/v1.0/tools/DB_Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconet-my.sharepoint.com/personal/sarango_uco_edu_co/Documents/Documents/GitHub/project-cali/backend/v1.0/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{CF18C2C8-D5B4-4E78-AA05-D0055054A8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{507F3B2F-1C5C-4F6A-A8F1-97792EDD9DA0}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{CF18C2C8-D5B4-4E78-AA05-D0055054A8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8228064B-094D-4872-B154-FB73C4AF3BB5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="667">
   <si>
     <t xml:space="preserve">0x0002 </t>
   </si>
@@ -2013,12 +2013,6 @@
   </si>
   <si>
     <t>K</t>
-  </si>
-  <si>
-    <t>Concentracion Sustrato Modelo</t>
-  </si>
-  <si>
-    <t>Csus_model</t>
   </si>
   <si>
     <t>UCO</t>
@@ -2567,7 +2561,7 @@
         <v>440</v>
       </c>
       <c r="E5" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="F5" t="s">
         <v>527</v>
@@ -6568,17 +6562,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D5969C-509B-4D3C-BD42-B92347445C5B}">
-  <dimension ref="A1:C103"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100:XFD100"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103:XFD103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -7466,10 +7460,10 @@
         <v>528</v>
       </c>
       <c r="B81" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C81" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -7477,10 +7471,10 @@
         <v>528</v>
       </c>
       <c r="B82" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C82" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -7488,7 +7482,7 @@
         <v>528</v>
       </c>
       <c r="B83" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C83" t="s">
         <v>574</v>
@@ -7499,10 +7493,10 @@
         <v>528</v>
       </c>
       <c r="B84" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C84" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -7510,10 +7504,10 @@
         <v>528</v>
       </c>
       <c r="B85" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C85" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -7521,10 +7515,10 @@
         <v>528</v>
       </c>
       <c r="B86" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C86" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -7543,10 +7537,10 @@
         <v>528</v>
       </c>
       <c r="B88" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C88" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -7554,10 +7548,10 @@
         <v>528</v>
       </c>
       <c r="B89" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C89" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -7565,10 +7559,10 @@
         <v>528</v>
       </c>
       <c r="B90" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C90" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -7576,10 +7570,10 @@
         <v>528</v>
       </c>
       <c r="B91" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C91" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -7587,10 +7581,10 @@
         <v>528</v>
       </c>
       <c r="B92" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C92" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -7701,17 +7695,6 @@
       </c>
       <c r="C102" t="s">
         <v>645</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>625</v>
-      </c>
-      <c r="B103" t="s">
-        <v>646</v>
-      </c>
-      <c r="C103" t="s">
-        <v>647</v>
       </c>
     </row>
   </sheetData>

--- a/backend/v1.0/tools/DB_Mapping.xlsx
+++ b/backend/v1.0/tools/DB_Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconet-my.sharepoint.com/personal/sarango_uco_edu_co/Documents/Documents/GitHub/project-cali/backend/v1.0/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{CF18C2C8-D5B4-4E78-AA05-D0055054A8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8228064B-094D-4872-B154-FB73C4AF3BB5}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{CF18C2C8-D5B4-4E78-AA05-D0055054A8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A89F6790-9B26-46AA-8D07-510A14607BAD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="669">
   <si>
     <t xml:space="preserve">0x0002 </t>
   </si>
@@ -2076,6 +2076,12 @@
   </si>
   <si>
     <t>SV-109</t>
+  </si>
+  <si>
+    <t>concentración de dolidos volátiles a la salida del reactor 1</t>
+  </si>
+  <si>
+    <t>concentracion de sólidos totales a la salida del reactor 1</t>
   </si>
 </sst>
 </file>
@@ -6562,10 +6568,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D5969C-509B-4D3C-BD42-B92347445C5B}">
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:C104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A103" sqref="A103:XFD103"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7691,13 +7697,36 @@
         <v>625</v>
       </c>
       <c r="B102" t="s">
+        <v>667</v>
+      </c>
+      <c r="C102" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>625</v>
+      </c>
+      <c r="B103" t="s">
+        <v>668</v>
+      </c>
+      <c r="C103" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>625</v>
+      </c>
+      <c r="B104" t="s">
         <v>644</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C104" t="s">
         <v>645</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/backend/v1.0/tools/DB_Mapping.xlsx
+++ b/backend/v1.0/tools/DB_Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconet-my.sharepoint.com/personal/sarango_uco_edu_co/Documents/Documents/GitHub/project-cali/backend/v1.0/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{CF18C2C8-D5B4-4E78-AA05-D0055054A8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A89F6790-9B26-46AA-8D07-510A14607BAD}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{CF18C2C8-D5B4-4E78-AA05-D0055054A8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9333A0F-28DD-421E-8748-4CEED7A8286F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="677">
   <si>
     <t xml:space="preserve">0x0002 </t>
   </si>
@@ -1967,18 +1967,9 @@
     <t>TE-101v</t>
   </si>
   <si>
-    <t>Volumen normal de biogás (almacenadas)</t>
-  </si>
-  <si>
     <t>M-VGA</t>
   </si>
   <si>
-    <t>Volumen parcial  metano (almacenadas)</t>
-  </si>
-  <si>
-    <t>M-PA_CH4</t>
-  </si>
-  <si>
     <t>moles metano (almacenadas)</t>
   </si>
   <si>
@@ -2082,6 +2073,39 @@
   </si>
   <si>
     <t>concentracion de sólidos totales a la salida del reactor 1</t>
+  </si>
+  <si>
+    <t>Volumen normal de biogás (almacenadas) V-101</t>
+  </si>
+  <si>
+    <t>Volumen parcial  metano (almacenadas) V-101</t>
+  </si>
+  <si>
+    <t>Volumen parcial de dióxido de carbono (almacenadas) V-101</t>
+  </si>
+  <si>
+    <t>M-PA_CH4_1</t>
+  </si>
+  <si>
+    <t>M-PA_CO2_1</t>
+  </si>
+  <si>
+    <t>M-PA_H2S_1</t>
+  </si>
+  <si>
+    <t>Volumen parcial de Sulfuro de hidrógeno (almacenadas) V-101</t>
+  </si>
+  <si>
+    <t>Volumen parcial de oxigeno (almacenadas) V-101</t>
+  </si>
+  <si>
+    <t>M-PA_O2_1</t>
+  </si>
+  <si>
+    <t>Volumen Parcial de hidrógeno (almacenadas) V-101</t>
+  </si>
+  <si>
+    <t>M-PA_H2_1</t>
   </si>
 </sst>
 </file>
@@ -2138,7 +2162,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2148,6 +2172,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2164,7 +2194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2177,6 +2207,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2567,7 +2598,7 @@
         <v>440</v>
       </c>
       <c r="E5" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="F5" t="s">
         <v>527</v>
@@ -6568,10 +6599,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D5969C-509B-4D3C-BD42-B92347445C5B}">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:C108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100:C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7466,10 +7497,10 @@
         <v>528</v>
       </c>
       <c r="B81" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C81" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -7477,10 +7508,10 @@
         <v>528</v>
       </c>
       <c r="B82" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C82" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -7488,7 +7519,7 @@
         <v>528</v>
       </c>
       <c r="B83" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C83" t="s">
         <v>574</v>
@@ -7499,10 +7530,10 @@
         <v>528</v>
       </c>
       <c r="B84" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C84" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -7510,10 +7541,10 @@
         <v>528</v>
       </c>
       <c r="B85" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C85" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -7521,10 +7552,10 @@
         <v>528</v>
       </c>
       <c r="B86" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C86" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -7543,10 +7574,10 @@
         <v>528</v>
       </c>
       <c r="B88" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C88" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -7554,10 +7585,10 @@
         <v>528</v>
       </c>
       <c r="B89" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C89" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -7565,10 +7596,10 @@
         <v>528</v>
       </c>
       <c r="B90" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C90" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -7576,10 +7607,10 @@
         <v>528</v>
       </c>
       <c r="B91" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C91" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -7587,10 +7618,10 @@
         <v>528</v>
       </c>
       <c r="B92" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C92" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -7620,10 +7651,10 @@
         <v>625</v>
       </c>
       <c r="B95" t="s">
+        <v>666</v>
+      </c>
+      <c r="C95" t="s">
         <v>630</v>
-      </c>
-      <c r="C95" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -7631,10 +7662,10 @@
         <v>625</v>
       </c>
       <c r="B96" t="s">
-        <v>632</v>
+        <v>667</v>
       </c>
       <c r="C96" t="s">
-        <v>633</v>
+        <v>669</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -7642,10 +7673,10 @@
         <v>625</v>
       </c>
       <c r="B97" t="s">
-        <v>634</v>
+        <v>668</v>
       </c>
       <c r="C97" t="s">
-        <v>635</v>
+        <v>670</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -7653,10 +7684,10 @@
         <v>625</v>
       </c>
       <c r="B98" t="s">
-        <v>636</v>
+        <v>672</v>
       </c>
       <c r="C98" t="s">
-        <v>637</v>
+        <v>671</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -7664,21 +7695,21 @@
         <v>625</v>
       </c>
       <c r="B99" t="s">
-        <v>638</v>
+        <v>673</v>
       </c>
       <c r="C99" t="s">
-        <v>639</v>
+        <v>674</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
+      <c r="A100" s="10" t="s">
         <v>625</v>
       </c>
-      <c r="B100" t="s">
-        <v>640</v>
-      </c>
-      <c r="C100" t="s">
-        <v>641</v>
+      <c r="B100" s="10" t="s">
+        <v>675</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -7686,10 +7717,10 @@
         <v>625</v>
       </c>
       <c r="B101" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="C101" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -7697,10 +7728,10 @@
         <v>625</v>
       </c>
       <c r="B102" t="s">
-        <v>667</v>
+        <v>633</v>
       </c>
       <c r="C102" t="s">
-        <v>552</v>
+        <v>634</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
@@ -7708,10 +7739,10 @@
         <v>625</v>
       </c>
       <c r="B103" t="s">
-        <v>668</v>
+        <v>635</v>
       </c>
       <c r="C103" t="s">
-        <v>550</v>
+        <v>636</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
@@ -7719,10 +7750,54 @@
         <v>625</v>
       </c>
       <c r="B104" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="C104" t="s">
-        <v>645</v>
+        <v>638</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>625</v>
+      </c>
+      <c r="B105" t="s">
+        <v>639</v>
+      </c>
+      <c r="C105" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>625</v>
+      </c>
+      <c r="B106" t="s">
+        <v>664</v>
+      </c>
+      <c r="C106" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>625</v>
+      </c>
+      <c r="B107" t="s">
+        <v>665</v>
+      </c>
+      <c r="C107" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>625</v>
+      </c>
+      <c r="B108" t="s">
+        <v>641</v>
+      </c>
+      <c r="C108" t="s">
+        <v>642</v>
       </c>
     </row>
   </sheetData>

--- a/backend/v1.0/tools/DB_Mapping.xlsx
+++ b/backend/v1.0/tools/DB_Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconet-my.sharepoint.com/personal/sarango_uco_edu_co/Documents/Documents/GitHub/project-cali/backend/v1.0/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{CF18C2C8-D5B4-4E78-AA05-D0055054A8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9333A0F-28DD-421E-8748-4CEED7A8286F}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{CF18C2C8-D5B4-4E78-AA05-D0055054A8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE0ADA7C-2946-42CC-8602-052FE9D900B3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="677">
   <si>
     <t xml:space="preserve">0x0002 </t>
   </si>
@@ -6599,10 +6599,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D5969C-509B-4D3C-BD42-B92347445C5B}">
-  <dimension ref="A1:C108"/>
+  <dimension ref="A1:C109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100:C100"/>
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7727,22 +7727,17 @@
       <c r="A102" t="s">
         <v>625</v>
       </c>
-      <c r="B102" t="s">
-        <v>633</v>
-      </c>
-      <c r="C102" t="s">
-        <v>634</v>
-      </c>
+      <c r="B102" s="8"/>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>625</v>
       </c>
       <c r="B103" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C103" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
@@ -7750,10 +7745,10 @@
         <v>625</v>
       </c>
       <c r="B104" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C104" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -7761,10 +7756,10 @@
         <v>625</v>
       </c>
       <c r="B105" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C105" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
@@ -7772,10 +7767,10 @@
         <v>625</v>
       </c>
       <c r="B106" t="s">
-        <v>664</v>
+        <v>639</v>
       </c>
       <c r="C106" t="s">
-        <v>552</v>
+        <v>640</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -7783,10 +7778,10 @@
         <v>625</v>
       </c>
       <c r="B107" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C107" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
@@ -7794,9 +7789,20 @@
         <v>625</v>
       </c>
       <c r="B108" t="s">
+        <v>665</v>
+      </c>
+      <c r="C108" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>625</v>
+      </c>
+      <c r="B109" t="s">
         <v>641</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C109" t="s">
         <v>642</v>
       </c>
     </row>

--- a/backend/v1.0/tools/DB_Mapping.xlsx
+++ b/backend/v1.0/tools/DB_Mapping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconet-my.sharepoint.com/personal/sarango_uco_edu_co/Documents/Documents/GitHub/project-cali/backend/v1.0/tools/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SMARTGRID_CALI\backend\v1.0\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{CF18C2C8-D5B4-4E78-AA05-D0055054A8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE0ADA7C-2946-42CC-8602-052FE9D900B3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621441D7-9BB4-465E-80DF-51E0AC2CF6D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConexionDB" sheetId="4" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="721">
   <si>
     <t xml:space="preserve">0x0002 </t>
   </si>
@@ -1967,9 +1967,18 @@
     <t>TE-101v</t>
   </si>
   <si>
+    <t>Volumen normal de biogás (almacenadas)</t>
+  </si>
+  <si>
     <t>M-VGA</t>
   </si>
   <si>
+    <t>Volumen parcial  metano (almacenadas)</t>
+  </si>
+  <si>
+    <t>M-PA_CH4</t>
+  </si>
+  <si>
     <t>moles metano (almacenadas)</t>
   </si>
   <si>
@@ -2075,44 +2084,167 @@
     <t>concentracion de sólidos totales a la salida del reactor 1</t>
   </si>
   <si>
-    <t>Volumen normal de biogás (almacenadas) V-101</t>
-  </si>
-  <si>
-    <t>Volumen parcial  metano (almacenadas) V-101</t>
-  </si>
-  <si>
-    <t>Volumen parcial de dióxido de carbono (almacenadas) V-101</t>
-  </si>
-  <si>
-    <t>M-PA_CH4_1</t>
-  </si>
-  <si>
-    <t>M-PA_CO2_1</t>
-  </si>
-  <si>
-    <t>M-PA_H2S_1</t>
-  </si>
-  <si>
-    <t>Volumen parcial de Sulfuro de hidrógeno (almacenadas) V-101</t>
-  </si>
-  <si>
-    <t>Volumen parcial de oxigeno (almacenadas) V-101</t>
-  </si>
-  <si>
-    <t>M-PA_O2_1</t>
-  </si>
-  <si>
-    <t>Volumen Parcial de hidrógeno (almacenadas) V-101</t>
-  </si>
-  <si>
-    <t>M-PA_H2_1</t>
+    <t>Módulo solar-eólico</t>
+  </si>
+  <si>
+    <t>Radiación paneles solares 1 (pv)</t>
+  </si>
+  <si>
+    <t>RS001</t>
+  </si>
+  <si>
+    <t>Radiación paneles solares 2 (pv)</t>
+  </si>
+  <si>
+    <t>RS002</t>
+  </si>
+  <si>
+    <t>Velocidad de viento aerogenerador (fan)</t>
+  </si>
+  <si>
+    <t>VV001</t>
+  </si>
+  <si>
+    <t>RPMs aerogenerador (fan)</t>
+  </si>
+  <si>
+    <t>RPM001</t>
+  </si>
+  <si>
+    <t>Temperatura para los 4 Paneles (pv)</t>
+  </si>
+  <si>
+    <t>TE004</t>
+  </si>
+  <si>
+    <t>Voltaje Paneles solares (pv)  (Controlador)</t>
+  </si>
+  <si>
+    <t>Corriente paneles  (pv) (Controlador)</t>
+  </si>
+  <si>
+    <t>Potencia paneles (pv) (Controlador)</t>
+  </si>
+  <si>
+    <t>Voltaje aerogenerador (fan) (Controlador)</t>
+  </si>
+  <si>
+    <t>VG005</t>
+  </si>
+  <si>
+    <t>Corriente Aerogenerador (fan) (Controlador)</t>
+  </si>
+  <si>
+    <t>IG005</t>
+  </si>
+  <si>
+    <t>Potencia aerogenerador (fan)(Controlador)</t>
+  </si>
+  <si>
+    <t>PG005</t>
+  </si>
+  <si>
+    <t>Voltaje de las baterías (Controlador)</t>
+  </si>
+  <si>
+    <t>Energía generada por paneles (kWh) (pv) (Controlador)</t>
+  </si>
+  <si>
+    <t>Energía generada por aerogenerador (kWh)(fan) (Controlador)</t>
+  </si>
+  <si>
+    <t>EG002</t>
+  </si>
+  <si>
+    <t>Voltaje bulk controlador de carga</t>
+  </si>
+  <si>
+    <t>Voltaje float controlador de carga</t>
+  </si>
+  <si>
+    <t>Voltaje de carga controlador de carga</t>
+  </si>
+  <si>
+    <t>Potencia aparente salida del inversor (inversor o analizador)</t>
+  </si>
+  <si>
+    <t>Potencia Reactiva salida del inversor (analizador)</t>
+  </si>
+  <si>
+    <t>Factor de Potencia salida del inversor (analizador)</t>
+  </si>
+  <si>
+    <t>Potencia activa salida del inversor (analizador)</t>
+  </si>
+  <si>
+    <t>Voltaje AC a la salida del inversor hibrido (inversor o analizador)</t>
+  </si>
+  <si>
+    <t>VAC002</t>
+  </si>
+  <si>
+    <t>Corriente a la salida del inversor hibrido (inversor o analizador)</t>
+  </si>
+  <si>
+    <t>IAC002</t>
+  </si>
+  <si>
+    <t>Potencia aparente salida del inversor hibrido (inversor o analizador)</t>
+  </si>
+  <si>
+    <t>PKVA002</t>
+  </si>
+  <si>
+    <t>Potencia Reactiva salida del inversor hibrido (analizador)</t>
+  </si>
+  <si>
+    <t>PKVAR002</t>
+  </si>
+  <si>
+    <t>Factor de Potencia salida del inversor hibrido (analizador)</t>
+  </si>
+  <si>
+    <t>FP002</t>
+  </si>
+  <si>
+    <t>Potencia activa salida del inversor hibrido (analizador)</t>
+  </si>
+  <si>
+    <t>PKW002</t>
+  </si>
+  <si>
+    <t>Voltaje bulk inversor hibrido</t>
+  </si>
+  <si>
+    <t>VBU002</t>
+  </si>
+  <si>
+    <t>Voltaje float inversor hibrido</t>
+  </si>
+  <si>
+    <t>VFL002</t>
+  </si>
+  <si>
+    <t>Voltaje de carga inversor hibrido</t>
+  </si>
+  <si>
+    <t>VCH002</t>
+  </si>
+  <si>
+    <t>Estado del inversor aislado</t>
+  </si>
+  <si>
+    <t>Estado de la red inversor hibrido</t>
+  </si>
+  <si>
+    <t>ER001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2162,7 +2294,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2172,12 +2304,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2194,7 +2320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2207,7 +2333,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2223,10 +2348,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2498,13 +2619,13 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="95.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="95.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>275</v>
       </c>
@@ -2524,7 +2645,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>436</v>
       </c>
@@ -2544,7 +2665,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>436</v>
       </c>
@@ -2564,7 +2685,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>525</v>
       </c>
@@ -2584,7 +2705,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>436</v>
       </c>
@@ -2598,13 +2719,13 @@
         <v>440</v>
       </c>
       <c r="E5" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="F5" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="E10" s="8"/>
     </row>
   </sheetData>
@@ -2621,13 +2742,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>275</v>
       </c>
@@ -2641,7 +2762,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>435</v>
       </c>
@@ -2665,17 +2786,17 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>428</v>
       </c>
@@ -2686,7 +2807,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="1" customFormat="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2697,7 +2818,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2708,7 +2829,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2719,7 +2840,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2730,7 +2851,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2741,7 +2862,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2752,7 +2873,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2763,7 +2884,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2774,7 +2895,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2785,7 +2906,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2796,7 +2917,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2807,7 +2928,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2818,7 +2939,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2829,7 +2950,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2840,7 +2961,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2851,7 +2972,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2862,7 +2983,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2873,7 +2994,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2884,7 +3005,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2895,7 +3016,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2906,136 +3027,136 @@
         <v>435</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1">
       <c r="A54" s="6"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1">
       <c r="A55" s="6"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1">
       <c r="A56" s="6"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1">
       <c r="A57" s="6"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1">
       <c r="A58" s="6"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1">
       <c r="A59" s="6"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1">
       <c r="A60" s="6"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1">
       <c r="A61" s="6"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1">
       <c r="A62" s="6"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1">
       <c r="A63" s="6"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1">
       <c r="A64" s="6"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1">
       <c r="A65" s="6"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1">
       <c r="A66" s="6"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1">
       <c r="A67" s="6"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1">
       <c r="A68" s="6"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1">
       <c r="A69" s="6"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1">
       <c r="A70" s="6"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1">
       <c r="A71" s="6"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1">
       <c r="A72" s="6"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1">
       <c r="A73" s="6"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1">
       <c r="A74" s="6"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1">
       <c r="A75" s="6"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1">
       <c r="A76" s="6"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1">
       <c r="A77" s="6"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1">
       <c r="A78" s="6"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1">
       <c r="A79" s="6"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1">
       <c r="A80" s="6"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1">
       <c r="A81" s="6"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1">
       <c r="A82" s="6"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1">
       <c r="A83" s="6"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1">
       <c r="A84" s="6"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1">
       <c r="A85" s="6"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1">
       <c r="A86" s="6"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1">
       <c r="A87" s="6"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1">
       <c r="A88" s="6"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1">
       <c r="A89" s="2"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1">
       <c r="A90" s="2"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1">
       <c r="A91" s="2"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1">
       <c r="A92" s="2"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1">
       <c r="A93" s="2"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1">
       <c r="A115" s="6"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1">
       <c r="A116" s="6"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1">
       <c r="A117" s="6"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1">
       <c r="A118" s="6"/>
     </row>
   </sheetData>
@@ -3051,18 +3172,18 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -3088,7 +3209,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3114,7 +3235,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3140,7 +3261,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -3166,7 +3287,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -3192,7 +3313,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3218,7 +3339,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -3244,7 +3365,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3270,7 +3391,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -3296,7 +3417,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -3322,7 +3443,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -3348,7 +3469,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -3374,7 +3495,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -3400,7 +3521,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
@@ -3426,7 +3547,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
@@ -3452,7 +3573,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="3" t="s">
         <v>24</v>
       </c>
@@ -3478,7 +3599,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -3504,7 +3625,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -3530,7 +3651,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -3556,7 +3677,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -3579,7 +3700,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -3602,7 +3723,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -3625,7 +3746,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -3651,7 +3772,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -3677,7 +3798,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -3703,7 +3824,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -3729,7 +3850,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -3755,7 +3876,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -3781,7 +3902,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -3807,7 +3928,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>100</v>
       </c>
@@ -3833,7 +3954,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>102</v>
       </c>
@@ -3859,7 +3980,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>125</v>
       </c>
@@ -3885,7 +4006,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>126</v>
       </c>
@@ -3911,7 +4032,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>127</v>
       </c>
@@ -3937,7 +4058,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>128</v>
       </c>
@@ -3963,7 +4084,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>129</v>
       </c>
@@ -3989,7 +4110,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>130</v>
       </c>
@@ -4015,7 +4136,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>131</v>
       </c>
@@ -4041,7 +4162,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>132</v>
       </c>
@@ -4067,7 +4188,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>133</v>
       </c>
@@ -4093,7 +4214,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>134</v>
       </c>
@@ -4119,7 +4240,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>135</v>
       </c>
@@ -4145,7 +4266,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>136</v>
       </c>
@@ -4171,7 +4292,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>104</v>
       </c>
@@ -4197,7 +4318,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>106</v>
       </c>
@@ -4223,7 +4344,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>211</v>
       </c>
@@ -4249,7 +4370,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>212</v>
       </c>
@@ -4275,7 +4396,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>213</v>
       </c>
@@ -4301,7 +4422,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>214</v>
       </c>
@@ -4327,7 +4448,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>215</v>
       </c>
@@ -4353,7 +4474,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>216</v>
       </c>
@@ -4379,7 +4500,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>217</v>
       </c>
@@ -4405,7 +4526,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>218</v>
       </c>
@@ -4431,7 +4552,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>219</v>
       </c>
@@ -4457,7 +4578,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>220</v>
       </c>
@@ -4483,7 +4604,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>221</v>
       </c>
@@ -4509,7 +4630,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>222</v>
       </c>
@@ -4535,7 +4656,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>108</v>
       </c>
@@ -4561,7 +4682,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>110</v>
       </c>
@@ -4587,7 +4708,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>223</v>
       </c>
@@ -4613,7 +4734,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>224</v>
       </c>
@@ -4639,7 +4760,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>225</v>
       </c>
@@ -4665,7 +4786,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>226</v>
       </c>
@@ -4691,7 +4812,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>227</v>
       </c>
@@ -4717,7 +4838,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>228</v>
       </c>
@@ -4743,7 +4864,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>229</v>
       </c>
@@ -4769,7 +4890,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>230</v>
       </c>
@@ -4795,7 +4916,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>231</v>
       </c>
@@ -4821,7 +4942,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>232</v>
       </c>
@@ -4847,7 +4968,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>233</v>
       </c>
@@ -4873,7 +4994,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>234</v>
       </c>
@@ -4899,7 +5020,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>112</v>
       </c>
@@ -4925,7 +5046,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
         <v>114</v>
       </c>
@@ -4951,7 +5072,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>235</v>
       </c>
@@ -4977,7 +5098,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>236</v>
       </c>
@@ -5003,7 +5124,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>237</v>
       </c>
@@ -5029,7 +5150,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>238</v>
       </c>
@@ -5055,7 +5176,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
         <v>239</v>
       </c>
@@ -5081,7 +5202,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>240</v>
       </c>
@@ -5107,7 +5228,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
         <v>241</v>
       </c>
@@ -5133,7 +5254,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>242</v>
       </c>
@@ -5159,7 +5280,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>243</v>
       </c>
@@ -5185,7 +5306,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
         <v>244</v>
       </c>
@@ -5211,7 +5332,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
         <v>245</v>
       </c>
@@ -5237,7 +5358,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
         <v>246</v>
       </c>
@@ -5263,7 +5384,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>247</v>
       </c>
@@ -5289,7 +5410,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
         <v>116</v>
       </c>
@@ -5315,7 +5436,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
         <v>118</v>
       </c>
@@ -5341,7 +5462,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
         <v>248</v>
       </c>
@@ -5367,7 +5488,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
         <v>249</v>
       </c>
@@ -5393,7 +5514,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
         <v>250</v>
       </c>
@@ -5419,7 +5540,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
         <v>251</v>
       </c>
@@ -5445,7 +5566,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
         <v>252</v>
       </c>
@@ -5471,7 +5592,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
         <v>253</v>
       </c>
@@ -5497,7 +5618,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
         <v>254</v>
       </c>
@@ -5523,7 +5644,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
         <v>255</v>
       </c>
@@ -5549,7 +5670,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
         <v>256</v>
       </c>
@@ -5575,7 +5696,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
         <v>257</v>
       </c>
@@ -5601,7 +5722,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
         <v>258</v>
       </c>
@@ -5627,7 +5748,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
         <v>259</v>
       </c>
@@ -5653,7 +5774,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
         <v>260</v>
       </c>
@@ -5679,7 +5800,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8">
       <c r="A102" t="s">
         <v>120</v>
       </c>
@@ -5705,7 +5826,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
         <v>122</v>
       </c>
@@ -5731,7 +5852,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
         <v>261</v>
       </c>
@@ -5757,7 +5878,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8">
       <c r="A105" t="s">
         <v>262</v>
       </c>
@@ -5783,7 +5904,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8">
       <c r="A106" t="s">
         <v>263</v>
       </c>
@@ -5809,7 +5930,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8">
       <c r="A107" t="s">
         <v>264</v>
       </c>
@@ -5835,7 +5956,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8">
       <c r="A108" t="s">
         <v>265</v>
       </c>
@@ -5861,7 +5982,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8">
       <c r="A109" t="s">
         <v>266</v>
       </c>
@@ -5887,7 +6008,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8">
       <c r="A110" t="s">
         <v>267</v>
       </c>
@@ -5913,7 +6034,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8">
       <c r="A111" t="s">
         <v>268</v>
       </c>
@@ -5939,7 +6060,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8">
       <c r="A112" t="s">
         <v>269</v>
       </c>
@@ -5965,7 +6086,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8">
       <c r="A113" t="s">
         <v>270</v>
       </c>
@@ -5991,7 +6112,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8">
       <c r="A114" t="s">
         <v>271</v>
       </c>
@@ -6017,7 +6138,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8">
       <c r="A115" t="s">
         <v>272</v>
       </c>
@@ -6043,7 +6164,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8">
       <c r="A116" t="s">
         <v>273</v>
       </c>
@@ -6069,7 +6190,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8">
       <c r="A117" t="s">
         <v>60</v>
       </c>
@@ -6095,7 +6216,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8">
       <c r="A118" t="s">
         <v>62</v>
       </c>
@@ -6121,7 +6242,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8">
       <c r="A119" t="s">
         <v>64</v>
       </c>
@@ -6147,7 +6268,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8">
       <c r="A120" t="s">
         <v>66</v>
       </c>
@@ -6173,7 +6294,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8">
       <c r="A121" t="s">
         <v>68</v>
       </c>
@@ -6199,7 +6320,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8">
       <c r="A122" t="s">
         <v>70</v>
       </c>
@@ -6225,7 +6346,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8">
       <c r="A123" t="s">
         <v>72</v>
       </c>
@@ -6251,7 +6372,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8">
       <c r="A124" t="s">
         <v>74</v>
       </c>
@@ -6277,7 +6398,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8">
       <c r="A125" t="s">
         <v>76</v>
       </c>
@@ -6303,7 +6424,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8">
       <c r="A126" t="s">
         <v>78</v>
       </c>
@@ -6329,7 +6450,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8">
       <c r="A127" t="s">
         <v>80</v>
       </c>
@@ -6355,7 +6476,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8">
       <c r="A128" t="s">
         <v>82</v>
       </c>
@@ -6381,7 +6502,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8">
       <c r="A129" t="s">
         <v>84</v>
       </c>
@@ -6407,7 +6528,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8">
       <c r="A130" t="s">
         <v>86</v>
       </c>
@@ -6433,7 +6554,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8">
       <c r="A131" s="6" t="s">
         <v>88</v>
       </c>
@@ -6459,7 +6580,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8">
       <c r="A132" s="6" t="s">
         <v>90</v>
       </c>
@@ -6485,7 +6606,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8">
       <c r="A133" s="6" t="s">
         <v>92</v>
       </c>
@@ -6511,7 +6632,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8">
       <c r="A134" s="6" t="s">
         <v>94</v>
       </c>
@@ -6537,7 +6658,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8">
       <c r="A135" t="s">
         <v>96</v>
       </c>
@@ -6563,7 +6684,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8">
       <c r="A136" t="s">
         <v>98</v>
       </c>
@@ -6599,20 +6720,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D5969C-509B-4D3C-BD42-B92347445C5B}">
-  <dimension ref="A1:C109"/>
+  <dimension ref="A1:C141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>465</v>
       </c>
@@ -6623,7 +6744,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>467</v>
       </c>
@@ -6634,7 +6755,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>467</v>
       </c>
@@ -6645,7 +6766,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>467</v>
       </c>
@@ -6656,7 +6777,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>467</v>
       </c>
@@ -6667,7 +6788,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>467</v>
       </c>
@@ -6678,7 +6799,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>467</v>
       </c>
@@ -6689,7 +6810,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>467</v>
       </c>
@@ -6700,7 +6821,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>467</v>
       </c>
@@ -6711,7 +6832,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>467</v>
       </c>
@@ -6722,7 +6843,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>467</v>
       </c>
@@ -6733,7 +6854,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>467</v>
       </c>
@@ -6744,7 +6865,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>467</v>
       </c>
@@ -6755,7 +6876,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>467</v>
       </c>
@@ -6766,7 +6887,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>467</v>
       </c>
@@ -6777,7 +6898,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>467</v>
       </c>
@@ -6788,7 +6909,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>467</v>
       </c>
@@ -6799,7 +6920,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>467</v>
       </c>
@@ -6810,7 +6931,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>467</v>
       </c>
@@ -6821,7 +6942,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>467</v>
       </c>
@@ -6832,7 +6953,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>467</v>
       </c>
@@ -6843,7 +6964,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>467</v>
       </c>
@@ -6854,7 +6975,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>467</v>
       </c>
@@ -6865,7 +6986,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24" s="9" t="s">
         <v>467</v>
       </c>
@@ -6876,7 +6997,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25" s="9" t="s">
         <v>467</v>
       </c>
@@ -6887,7 +7008,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26" s="9" t="s">
         <v>467</v>
       </c>
@@ -6898,7 +7019,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27" s="9" t="s">
         <v>467</v>
       </c>
@@ -6909,7 +7030,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" s="9" t="s">
         <v>467</v>
       </c>
@@ -6920,7 +7041,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29" s="9" t="s">
         <v>467</v>
       </c>
@@ -6931,7 +7052,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" s="9" t="s">
         <v>467</v>
       </c>
@@ -6942,7 +7063,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31" s="9" t="s">
         <v>467</v>
       </c>
@@ -6953,7 +7074,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>528</v>
       </c>
@@ -6964,7 +7085,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>528</v>
       </c>
@@ -6975,7 +7096,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>528</v>
       </c>
@@ -6986,7 +7107,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>528</v>
       </c>
@@ -6997,7 +7118,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>528</v>
       </c>
@@ -7008,7 +7129,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>528</v>
       </c>
@@ -7019,7 +7140,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>528</v>
       </c>
@@ -7030,7 +7151,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>528</v>
       </c>
@@ -7041,7 +7162,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>528</v>
       </c>
@@ -7052,7 +7173,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>528</v>
       </c>
@@ -7063,7 +7184,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>528</v>
       </c>
@@ -7074,7 +7195,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>528</v>
       </c>
@@ -7085,7 +7206,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>528</v>
       </c>
@@ -7096,7 +7217,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>528</v>
       </c>
@@ -7107,7 +7228,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>528</v>
       </c>
@@ -7118,7 +7239,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>528</v>
       </c>
@@ -7129,7 +7250,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>528</v>
       </c>
@@ -7140,7 +7261,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>528</v>
       </c>
@@ -7151,7 +7272,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>528</v>
       </c>
@@ -7162,7 +7283,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>528</v>
       </c>
@@ -7173,7 +7294,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>528</v>
       </c>
@@ -7184,7 +7305,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>528</v>
       </c>
@@ -7195,7 +7316,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>528</v>
       </c>
@@ -7206,7 +7327,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>528</v>
       </c>
@@ -7217,7 +7338,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>528</v>
       </c>
@@ -7228,7 +7349,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>528</v>
       </c>
@@ -7239,7 +7360,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>528</v>
       </c>
@@ -7250,7 +7371,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>528</v>
       </c>
@@ -7261,7 +7382,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>528</v>
       </c>
@@ -7272,7 +7393,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>528</v>
       </c>
@@ -7283,7 +7404,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>528</v>
       </c>
@@ -7294,7 +7415,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>528</v>
       </c>
@@ -7305,7 +7426,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>528</v>
       </c>
@@ -7316,7 +7437,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>528</v>
       </c>
@@ -7327,7 +7448,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>528</v>
       </c>
@@ -7338,7 +7459,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>528</v>
       </c>
@@ -7349,7 +7470,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>528</v>
       </c>
@@ -7360,7 +7481,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>528</v>
       </c>
@@ -7371,7 +7492,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>528</v>
       </c>
@@ -7382,7 +7503,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>528</v>
       </c>
@@ -7393,7 +7514,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>528</v>
       </c>
@@ -7404,7 +7525,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>528</v>
       </c>
@@ -7415,7 +7536,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>528</v>
       </c>
@@ -7426,7 +7547,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>528</v>
       </c>
@@ -7437,7 +7558,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>528</v>
       </c>
@@ -7448,7 +7569,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>528</v>
       </c>
@@ -7459,7 +7580,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>528</v>
       </c>
@@ -7470,7 +7591,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>528</v>
       </c>
@@ -7481,7 +7602,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>528</v>
       </c>
@@ -7492,73 +7613,73 @@
         <v>624</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>528</v>
       </c>
       <c r="B81" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="C81" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>528</v>
       </c>
       <c r="B82" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="C82" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>528</v>
       </c>
       <c r="B83" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="C83" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>528</v>
       </c>
       <c r="B84" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="C84" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>528</v>
       </c>
       <c r="B85" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="C85" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>528</v>
       </c>
       <c r="B86" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="C86" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>528</v>
       </c>
@@ -7569,62 +7690,62 @@
         <v>600</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>528</v>
       </c>
       <c r="B88" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="C88" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>528</v>
       </c>
       <c r="B89" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="C89" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>528</v>
       </c>
       <c r="B90" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="C90" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>528</v>
       </c>
       <c r="B91" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="C91" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>528</v>
       </c>
       <c r="B92" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="C92" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>625</v>
       </c>
@@ -7635,7 +7756,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>625</v>
       </c>
@@ -7646,164 +7767,521 @@
         <v>629</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>625</v>
       </c>
       <c r="B95" t="s">
-        <v>666</v>
+        <v>630</v>
       </c>
       <c r="C95" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>625</v>
       </c>
       <c r="B96" t="s">
-        <v>667</v>
+        <v>632</v>
       </c>
       <c r="C96" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>625</v>
       </c>
       <c r="B97" t="s">
-        <v>668</v>
+        <v>634</v>
       </c>
       <c r="C97" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>625</v>
       </c>
       <c r="B98" t="s">
-        <v>672</v>
+        <v>636</v>
       </c>
       <c r="C98" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>625</v>
       </c>
       <c r="B99" t="s">
-        <v>673</v>
+        <v>638</v>
       </c>
       <c r="C99" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="10" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
         <v>625</v>
       </c>
-      <c r="B100" s="10" t="s">
-        <v>675</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>640</v>
+      </c>
+      <c r="C100" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>625</v>
       </c>
       <c r="B101" t="s">
-        <v>631</v>
+        <v>642</v>
       </c>
       <c r="C101" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
         <v>625</v>
       </c>
-      <c r="B102" s="8"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>667</v>
+      </c>
+      <c r="C102" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
         <v>625</v>
       </c>
       <c r="B103" t="s">
-        <v>633</v>
+        <v>668</v>
       </c>
       <c r="C103" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>625</v>
       </c>
       <c r="B104" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="C104" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>625</v>
+        <v>669</v>
       </c>
       <c r="B105" t="s">
-        <v>637</v>
+        <v>670</v>
       </c>
       <c r="C105" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>625</v>
+        <v>669</v>
       </c>
       <c r="B106" t="s">
-        <v>639</v>
+        <v>672</v>
       </c>
       <c r="C106" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>625</v>
+        <v>669</v>
       </c>
       <c r="B107" t="s">
-        <v>664</v>
+        <v>674</v>
       </c>
       <c r="C107" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>625</v>
+        <v>669</v>
       </c>
       <c r="B108" t="s">
-        <v>665</v>
+        <v>676</v>
       </c>
       <c r="C108" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>625</v>
+        <v>669</v>
       </c>
       <c r="B109" t="s">
-        <v>641</v>
+        <v>678</v>
       </c>
       <c r="C109" t="s">
-        <v>642</v>
+        <v>473</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>669</v>
+      </c>
+      <c r="B110" t="s">
+        <v>678</v>
+      </c>
+      <c r="C110" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>669</v>
+      </c>
+      <c r="B111" t="s">
+        <v>678</v>
+      </c>
+      <c r="C111" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>669</v>
+      </c>
+      <c r="B112" t="s">
+        <v>678</v>
+      </c>
+      <c r="C112" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>669</v>
+      </c>
+      <c r="B113" t="s">
+        <v>680</v>
+      </c>
+      <c r="C113" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>669</v>
+      </c>
+      <c r="B114" t="s">
+        <v>681</v>
+      </c>
+      <c r="C114" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>669</v>
+      </c>
+      <c r="B115" t="s">
+        <v>682</v>
+      </c>
+      <c r="C115" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>669</v>
+      </c>
+      <c r="B116" t="s">
+        <v>683</v>
+      </c>
+      <c r="C116" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>669</v>
+      </c>
+      <c r="B117" t="s">
+        <v>685</v>
+      </c>
+      <c r="C117" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>669</v>
+      </c>
+      <c r="B118" t="s">
+        <v>687</v>
+      </c>
+      <c r="C118" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>669</v>
+      </c>
+      <c r="B119" t="s">
+        <v>689</v>
+      </c>
+      <c r="C119" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>669</v>
+      </c>
+      <c r="B120" t="s">
+        <v>690</v>
+      </c>
+      <c r="C120" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>669</v>
+      </c>
+      <c r="B121" t="s">
+        <v>691</v>
+      </c>
+      <c r="C121" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>693</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>694</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>695</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>669</v>
+      </c>
+      <c r="B125" t="s">
+        <v>499</v>
+      </c>
+      <c r="C125" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>669</v>
+      </c>
+      <c r="B126" t="s">
+        <v>501</v>
+      </c>
+      <c r="C126" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>669</v>
+      </c>
+      <c r="B127" t="s">
+        <v>696</v>
+      </c>
+      <c r="C127" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>669</v>
+      </c>
+      <c r="B128" t="s">
+        <v>697</v>
+      </c>
+      <c r="C128" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>669</v>
+      </c>
+      <c r="B129" t="s">
+        <v>698</v>
+      </c>
+      <c r="C129" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>699</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>669</v>
+      </c>
+      <c r="B131" t="s">
+        <v>700</v>
+      </c>
+      <c r="C131" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>669</v>
+      </c>
+      <c r="B132" t="s">
+        <v>702</v>
+      </c>
+      <c r="C132" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>669</v>
+      </c>
+      <c r="B133" t="s">
+        <v>704</v>
+      </c>
+      <c r="C133" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>669</v>
+      </c>
+      <c r="B134" t="s">
+        <v>706</v>
+      </c>
+      <c r="C134" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>669</v>
+      </c>
+      <c r="B135" t="s">
+        <v>708</v>
+      </c>
+      <c r="C135" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>710</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>712</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>714</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>716</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="C141" s="9" t="s">
+        <v>720</v>
       </c>
     </row>
   </sheetData>

--- a/backend/v1.0/tools/DB_Mapping.xlsx
+++ b/backend/v1.0/tools/DB_Mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SMARTGRID_CALI\backend\v1.0\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621441D7-9BB4-465E-80DF-51E0AC2CF6D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677F58C1-27AF-4BD9-BDC7-55FDD274697B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConexionDB" sheetId="4" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="731">
   <si>
     <t xml:space="preserve">0x0002 </t>
   </si>
@@ -2238,6 +2238,36 @@
   </si>
   <si>
     <t>ER001</t>
+  </si>
+  <si>
+    <t>Potencia de la carga DC del controlador (Controlador)</t>
+  </si>
+  <si>
+    <t>PDC001</t>
+  </si>
+  <si>
+    <t>Voltaje de la carga DC del controlador (Controlador)</t>
+  </si>
+  <si>
+    <t>VDC001</t>
+  </si>
+  <si>
+    <t>Temperatura de baterías (Controlador)</t>
+  </si>
+  <si>
+    <t>TB001</t>
+  </si>
+  <si>
+    <t>PB001</t>
+  </si>
+  <si>
+    <t>Voltaje de la red externa del inversor híbrido (inversor o analizador)</t>
+  </si>
+  <si>
+    <t>VGR001</t>
+  </si>
+  <si>
+    <t>Potencia DC de salida hacia las baterías (Controlador)</t>
   </si>
 </sst>
 </file>
@@ -2294,7 +2324,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2304,6 +2334,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2320,7 +2356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2333,6 +2369,8 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6720,10 +6758,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D5969C-509B-4D3C-BD42-B92347445C5B}">
-  <dimension ref="A1:C141"/>
+  <dimension ref="A1:C146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B144" sqref="B144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7878,410 +7916,465 @@
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" t="s">
+      <c r="A105" s="11" t="s">
         <v>669</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="11" t="s">
         <v>670</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="11" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" t="s">
+      <c r="A106" s="11" t="s">
         <v>669</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="11" t="s">
         <v>672</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="11" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" t="s">
+      <c r="A107" s="11" t="s">
         <v>669</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="11" t="s">
         <v>674</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="11" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" t="s">
+      <c r="A108" s="11" t="s">
         <v>669</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="11" t="s">
         <v>676</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="11" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" t="s">
+      <c r="A109" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="10" t="s">
         <v>678</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="10" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" t="s">
+      <c r="A110" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="10" t="s">
         <v>678</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="10" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" t="s">
+      <c r="A111" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="10" t="s">
         <v>678</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="10" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" t="s">
+      <c r="A112" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="10" t="s">
         <v>678</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="10" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" t="s">
+      <c r="A113" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="10" t="s">
         <v>680</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="10" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" t="s">
+      <c r="A114" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="10" t="s">
         <v>681</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="10" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" t="s">
+      <c r="A115" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="10" t="s">
         <v>682</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="10" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" t="s">
+      <c r="A116" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="10" t="s">
         <v>683</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="10" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" t="s">
+      <c r="A117" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="10" t="s">
         <v>685</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="10" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" t="s">
+      <c r="A118" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="10" t="s">
         <v>687</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="10" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" t="s">
+      <c r="A119" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="10" t="s">
         <v>689</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="10" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" t="s">
+      <c r="A120" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="10" t="s">
         <v>690</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="10" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" t="s">
+      <c r="A121" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="10" t="s">
         <v>691</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="10" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="9" t="s">
+      <c r="A122" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="B122" s="9" t="s">
+      <c r="B122" s="10" t="s">
         <v>693</v>
       </c>
-      <c r="C122" s="9" t="s">
+      <c r="C122" s="10" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="9" t="s">
+      <c r="A123" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="B123" s="9" t="s">
+      <c r="B123" s="10" t="s">
         <v>694</v>
       </c>
-      <c r="C123" s="9" t="s">
+      <c r="C123" s="10" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="9" t="s">
+      <c r="A124" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="B124" s="9" t="s">
+      <c r="B124" s="10" t="s">
         <v>695</v>
       </c>
-      <c r="C124" s="9" t="s">
+      <c r="C124" s="10" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" t="s">
+      <c r="A125" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="10" t="s">
         <v>499</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="10" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" t="s">
+      <c r="A126" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="10" t="s">
         <v>501</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="10" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" t="s">
+      <c r="A127" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="10" t="s">
         <v>696</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="10" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" t="s">
+      <c r="A128" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="10" t="s">
         <v>697</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="10" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" t="s">
+      <c r="A129" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="10" t="s">
         <v>698</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="10" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="9" t="s">
+      <c r="A130" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="B130" s="9" t="s">
+      <c r="B130" s="10" t="s">
         <v>699</v>
       </c>
-      <c r="C130" s="9" t="s">
+      <c r="C130" s="10" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" t="s">
+      <c r="A131" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="10" t="s">
         <v>700</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="10" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" t="s">
+      <c r="A132" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="10" t="s">
         <v>702</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="10" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" t="s">
+      <c r="A133" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="10" t="s">
         <v>704</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="10" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" t="s">
+      <c r="A134" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="10" t="s">
         <v>706</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="10" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" t="s">
+      <c r="A135" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="10" t="s">
         <v>708</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="10" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="9" t="s">
+      <c r="A136" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="B136" s="9" t="s">
+      <c r="B136" s="10" t="s">
         <v>710</v>
       </c>
-      <c r="C136" s="9" t="s">
+      <c r="C136" s="10" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="9" t="s">
+      <c r="A137" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="B137" s="9" t="s">
+      <c r="B137" s="10" t="s">
         <v>712</v>
       </c>
-      <c r="C137" s="9" t="s">
+      <c r="C137" s="10" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="9" t="s">
+      <c r="A138" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="B138" s="9" t="s">
+      <c r="B138" s="10" t="s">
         <v>714</v>
       </c>
-      <c r="C138" s="9" t="s">
+      <c r="C138" s="10" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="9" t="s">
+      <c r="A139" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="B139" s="9" t="s">
+      <c r="B139" s="10" t="s">
         <v>716</v>
       </c>
-      <c r="C139" s="9" t="s">
+      <c r="C139" s="10" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="9" t="s">
+      <c r="A140" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="B140" s="9" t="s">
+      <c r="B140" s="10" t="s">
         <v>718</v>
       </c>
-      <c r="C140" s="9" t="s">
+      <c r="C140" s="10" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="9" t="s">
+      <c r="A141" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="B141" s="9" t="s">
+      <c r="B141" s="10" t="s">
         <v>719</v>
       </c>
-      <c r="C141" s="9" t="s">
+      <c r="C141" s="10" t="s">
         <v>720</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>669</v>
+      </c>
+      <c r="B142" t="s">
+        <v>721</v>
+      </c>
+      <c r="C142" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>669</v>
+      </c>
+      <c r="B143" t="s">
+        <v>723</v>
+      </c>
+      <c r="C143" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
+        <v>669</v>
+      </c>
+      <c r="B144" t="s">
+        <v>725</v>
+      </c>
+      <c r="C144" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>669</v>
+      </c>
+      <c r="B145" t="s">
+        <v>730</v>
+      </c>
+      <c r="C145" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>669</v>
+      </c>
+      <c r="B146" t="s">
+        <v>728</v>
+      </c>
+      <c r="C146" t="s">
+        <v>729</v>
       </c>
     </row>
   </sheetData>

--- a/backend/v1.0/tools/DB_Mapping.xlsx
+++ b/backend/v1.0/tools/DB_Mapping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SMARTGRID_CALI\backend\v1.0\tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconet-my.sharepoint.com/personal/sarango_uco_edu_co/Documents/Documents/GitHub/project-cali/backend/v1.0/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677F58C1-27AF-4BD9-BDC7-55FDD274697B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="13_ncr:1_{677F58C1-27AF-4BD9-BDC7-55FDD274697B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31E4CF25-5B16-44CC-A931-E949F5EBFDD6}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConexionDB" sheetId="4" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="753">
   <si>
     <t xml:space="preserve">0x0002 </t>
   </si>
@@ -1967,36 +1967,6 @@
     <t>TE-101v</t>
   </si>
   <si>
-    <t>Volumen normal de biogás (almacenadas)</t>
-  </si>
-  <si>
-    <t>M-VGA</t>
-  </si>
-  <si>
-    <t>Volumen parcial  metano (almacenadas)</t>
-  </si>
-  <si>
-    <t>M-PA_CH4</t>
-  </si>
-  <si>
-    <t>moles metano (almacenadas)</t>
-  </si>
-  <si>
-    <t>M-molA_CH4</t>
-  </si>
-  <si>
-    <t>Presión acumulada</t>
-  </si>
-  <si>
-    <t>P_acum</t>
-  </si>
-  <si>
-    <t>Volumen normal de biogas (Total)</t>
-  </si>
-  <si>
-    <t>M-VG</t>
-  </si>
-  <si>
     <t>Moles Sustrato</t>
   </si>
   <si>
@@ -2268,13 +2238,109 @@
   </si>
   <si>
     <t>Potencia DC de salida hacia las baterías (Controlador)</t>
+  </si>
+  <si>
+    <t>Caudal Manual P-101</t>
+  </si>
+  <si>
+    <t>SE-101v</t>
+  </si>
+  <si>
+    <t>Caudal Manual P-102</t>
+  </si>
+  <si>
+    <t>SE-102v</t>
+  </si>
+  <si>
+    <t>Volumen normal de biogás en V101 (almacenadas)</t>
+  </si>
+  <si>
+    <t>M-VGA_V101</t>
+  </si>
+  <si>
+    <t>M-PA_CH4_V101</t>
+  </si>
+  <si>
+    <t>M-PA_CO2_V101</t>
+  </si>
+  <si>
+    <t>M-PA_H2S_V101</t>
+  </si>
+  <si>
+    <t>M-PA_O2_V101</t>
+  </si>
+  <si>
+    <t>M-PA_H2_V101</t>
+  </si>
+  <si>
+    <t>M-molA_CH4_V101</t>
+  </si>
+  <si>
+    <t>M-molA_CO2_V101</t>
+  </si>
+  <si>
+    <t>M-molA_H2S_V101</t>
+  </si>
+  <si>
+    <t>M-molA_O2_V101</t>
+  </si>
+  <si>
+    <t>M-molA_H2_V101</t>
+  </si>
+  <si>
+    <t>M-molA_H2O_V101</t>
+  </si>
+  <si>
+    <t>Volumen parcial  metano en V101 (almacenadas)</t>
+  </si>
+  <si>
+    <t>Volumen parcial  dioxido de carbono  en V101 (almacenadas)</t>
+  </si>
+  <si>
+    <t>Volumen parcial  sulfuro de hidrogeno en V101 (almacenadas)</t>
+  </si>
+  <si>
+    <t>Volumen parcial  oxigeno en V101 (almacenadas)</t>
+  </si>
+  <si>
+    <t>Volumen parcial hiodrogeno en V101 (almacenadas)</t>
+  </si>
+  <si>
+    <t>moles metano en V101 (almacenadas)</t>
+  </si>
+  <si>
+    <t>moles dioxido de carbono en V101 (almacenadas)</t>
+  </si>
+  <si>
+    <t>moles sulfuro de hidrógeno en V101 (almacenadas)</t>
+  </si>
+  <si>
+    <t>moles oxigeno en V101 (almacenadas)</t>
+  </si>
+  <si>
+    <t>moles hidrogeno en V101 (almacenadas)</t>
+  </si>
+  <si>
+    <t>moles agua en V101 (almacenadas)</t>
+  </si>
+  <si>
+    <t>Presión acumulada en V101</t>
+  </si>
+  <si>
+    <t>Volumen normal acumulado en V101 (Total)</t>
+  </si>
+  <si>
+    <t>P_acum_V101</t>
+  </si>
+  <si>
+    <t>M-VGT_V101</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2356,7 +2422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2369,7 +2435,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2657,13 +2722,13 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="95.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="95.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>275</v>
       </c>
@@ -2683,7 +2748,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>436</v>
       </c>
@@ -2703,7 +2768,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>436</v>
       </c>
@@ -2723,7 +2788,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>525</v>
       </c>
@@ -2743,7 +2808,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>436</v>
       </c>
@@ -2757,13 +2822,13 @@
         <v>440</v>
       </c>
       <c r="E5" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="F5" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E10" s="8"/>
     </row>
   </sheetData>
@@ -2780,13 +2845,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>275</v>
       </c>
@@ -2800,7 +2865,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>435</v>
       </c>
@@ -2824,17 +2889,17 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>428</v>
       </c>
@@ -2845,7 +2910,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1">
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2856,7 +2921,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2867,7 +2932,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2878,7 +2943,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2889,7 +2954,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2900,7 +2965,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2911,7 +2976,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2922,7 +2987,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2933,7 +2998,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2944,7 +3009,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2955,7 +3020,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2966,7 +3031,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2977,7 +3042,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2988,7 +3053,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2999,7 +3064,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3010,7 +3075,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3021,7 +3086,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3032,7 +3097,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3043,7 +3108,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3054,7 +3119,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3065,136 +3130,136 @@
         <v>435</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="6"/>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="6"/>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="6"/>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="6"/>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="6"/>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="6"/>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="6"/>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="6"/>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="6"/>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="6"/>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="6"/>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="6"/>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="6"/>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="6"/>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="6"/>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="6"/>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="6"/>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="6"/>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="6"/>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="6"/>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="6"/>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="6"/>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="6"/>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="6"/>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="6"/>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="6"/>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="6"/>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="6"/>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="6"/>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="6"/>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="6"/>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="6"/>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="6"/>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="6"/>
     </row>
   </sheetData>
@@ -3210,18 +3275,18 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -3247,7 +3312,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3273,7 +3338,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3299,7 +3364,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -3325,7 +3390,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -3351,7 +3416,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3377,7 +3442,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -3403,7 +3468,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3429,7 +3494,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -3455,7 +3520,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -3481,7 +3546,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -3507,7 +3572,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -3533,7 +3598,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -3559,7 +3624,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
@@ -3585,7 +3650,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
@@ -3611,7 +3676,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>24</v>
       </c>
@@ -3637,7 +3702,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -3663,7 +3728,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -3689,7 +3754,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -3715,7 +3780,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -3738,7 +3803,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -3761,7 +3826,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -3784,7 +3849,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -3810,7 +3875,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -3836,7 +3901,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -3862,7 +3927,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -3888,7 +3953,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -3914,7 +3979,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -3940,7 +4005,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -3966,7 +4031,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>100</v>
       </c>
@@ -3992,7 +4057,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>102</v>
       </c>
@@ -4018,7 +4083,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>125</v>
       </c>
@@ -4044,7 +4109,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>126</v>
       </c>
@@ -4070,7 +4135,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>127</v>
       </c>
@@ -4096,7 +4161,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>128</v>
       </c>
@@ -4122,7 +4187,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>129</v>
       </c>
@@ -4148,7 +4213,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>130</v>
       </c>
@@ -4174,7 +4239,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>131</v>
       </c>
@@ -4200,7 +4265,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>132</v>
       </c>
@@ -4226,7 +4291,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>133</v>
       </c>
@@ -4252,7 +4317,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>134</v>
       </c>
@@ -4278,7 +4343,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>135</v>
       </c>
@@ -4304,7 +4369,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>136</v>
       </c>
@@ -4330,7 +4395,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>104</v>
       </c>
@@ -4356,7 +4421,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>106</v>
       </c>
@@ -4382,7 +4447,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>211</v>
       </c>
@@ -4408,7 +4473,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>212</v>
       </c>
@@ -4434,7 +4499,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>213</v>
       </c>
@@ -4460,7 +4525,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>214</v>
       </c>
@@ -4486,7 +4551,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>215</v>
       </c>
@@ -4512,7 +4577,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>216</v>
       </c>
@@ -4538,7 +4603,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>217</v>
       </c>
@@ -4564,7 +4629,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>218</v>
       </c>
@@ -4590,7 +4655,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>219</v>
       </c>
@@ -4616,7 +4681,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>220</v>
       </c>
@@ -4642,7 +4707,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>221</v>
       </c>
@@ -4668,7 +4733,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>222</v>
       </c>
@@ -4694,7 +4759,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>108</v>
       </c>
@@ -4720,7 +4785,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>110</v>
       </c>
@@ -4746,7 +4811,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>223</v>
       </c>
@@ -4772,7 +4837,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>224</v>
       </c>
@@ -4798,7 +4863,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>225</v>
       </c>
@@ -4824,7 +4889,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>226</v>
       </c>
@@ -4850,7 +4915,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>227</v>
       </c>
@@ -4876,7 +4941,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>228</v>
       </c>
@@ -4902,7 +4967,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>229</v>
       </c>
@@ -4928,7 +4993,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>230</v>
       </c>
@@ -4954,7 +5019,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>231</v>
       </c>
@@ -4980,7 +5045,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>232</v>
       </c>
@@ -5006,7 +5071,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>233</v>
       </c>
@@ -5032,7 +5097,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>234</v>
       </c>
@@ -5058,7 +5123,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>112</v>
       </c>
@@ -5084,7 +5149,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>114</v>
       </c>
@@ -5110,7 +5175,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>235</v>
       </c>
@@ -5136,7 +5201,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>236</v>
       </c>
@@ -5162,7 +5227,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>237</v>
       </c>
@@ -5188,7 +5253,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>238</v>
       </c>
@@ -5214,7 +5279,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>239</v>
       </c>
@@ -5240,7 +5305,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>240</v>
       </c>
@@ -5266,7 +5331,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>241</v>
       </c>
@@ -5292,7 +5357,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>242</v>
       </c>
@@ -5318,7 +5383,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>243</v>
       </c>
@@ -5344,7 +5409,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>244</v>
       </c>
@@ -5370,7 +5435,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>245</v>
       </c>
@@ -5396,7 +5461,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>246</v>
       </c>
@@ -5422,7 +5487,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>247</v>
       </c>
@@ -5448,7 +5513,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>116</v>
       </c>
@@ -5474,7 +5539,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>118</v>
       </c>
@@ -5500,7 +5565,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>248</v>
       </c>
@@ -5526,7 +5591,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>249</v>
       </c>
@@ -5552,7 +5617,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>250</v>
       </c>
@@ -5578,7 +5643,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>251</v>
       </c>
@@ -5604,7 +5669,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>252</v>
       </c>
@@ -5630,7 +5695,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>253</v>
       </c>
@@ -5656,7 +5721,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>254</v>
       </c>
@@ -5682,7 +5747,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>255</v>
       </c>
@@ -5708,7 +5773,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>256</v>
       </c>
@@ -5734,7 +5799,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>257</v>
       </c>
@@ -5760,7 +5825,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>258</v>
       </c>
@@ -5786,7 +5851,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>259</v>
       </c>
@@ -5812,7 +5877,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>260</v>
       </c>
@@ -5838,7 +5903,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>120</v>
       </c>
@@ -5864,7 +5929,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>122</v>
       </c>
@@ -5890,7 +5955,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>261</v>
       </c>
@@ -5916,7 +5981,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>262</v>
       </c>
@@ -5942,7 +6007,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>263</v>
       </c>
@@ -5968,7 +6033,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>264</v>
       </c>
@@ -5994,7 +6059,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>265</v>
       </c>
@@ -6020,7 +6085,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>266</v>
       </c>
@@ -6046,7 +6111,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>267</v>
       </c>
@@ -6072,7 +6137,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>268</v>
       </c>
@@ -6098,7 +6163,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>269</v>
       </c>
@@ -6124,7 +6189,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>270</v>
       </c>
@@ -6150,7 +6215,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>271</v>
       </c>
@@ -6176,7 +6241,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>272</v>
       </c>
@@ -6202,7 +6267,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>273</v>
       </c>
@@ -6228,7 +6293,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>60</v>
       </c>
@@ -6254,7 +6319,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>62</v>
       </c>
@@ -6280,7 +6345,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>64</v>
       </c>
@@ -6306,7 +6371,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>66</v>
       </c>
@@ -6332,7 +6397,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>68</v>
       </c>
@@ -6358,7 +6423,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>70</v>
       </c>
@@ -6384,7 +6449,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>72</v>
       </c>
@@ -6410,7 +6475,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>74</v>
       </c>
@@ -6436,7 +6501,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>76</v>
       </c>
@@ -6462,7 +6527,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>78</v>
       </c>
@@ -6488,7 +6553,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>80</v>
       </c>
@@ -6514,7 +6579,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>82</v>
       </c>
@@ -6540,7 +6605,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>84</v>
       </c>
@@ -6566,7 +6631,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>86</v>
       </c>
@@ -6592,7 +6657,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
         <v>88</v>
       </c>
@@ -6618,7 +6683,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
         <v>90</v>
       </c>
@@ -6644,7 +6709,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
         <v>92</v>
       </c>
@@ -6670,7 +6735,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
         <v>94</v>
       </c>
@@ -6696,7 +6761,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>96</v>
       </c>
@@ -6722,7 +6787,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>98</v>
       </c>
@@ -6758,20 +6823,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D5969C-509B-4D3C-BD42-B92347445C5B}">
-  <dimension ref="A1:C146"/>
+  <dimension ref="A1:C157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B144" sqref="B144"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>465</v>
       </c>
@@ -6782,7 +6847,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>467</v>
       </c>
@@ -6793,7 +6858,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>467</v>
       </c>
@@ -6804,7 +6869,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>467</v>
       </c>
@@ -6815,7 +6880,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>467</v>
       </c>
@@ -6826,7 +6891,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>467</v>
       </c>
@@ -6837,7 +6902,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>467</v>
       </c>
@@ -6848,7 +6913,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>467</v>
       </c>
@@ -6859,7 +6924,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>467</v>
       </c>
@@ -6870,7 +6935,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>467</v>
       </c>
@@ -6881,7 +6946,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>467</v>
       </c>
@@ -6892,7 +6957,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>467</v>
       </c>
@@ -6903,7 +6968,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>467</v>
       </c>
@@ -6914,7 +6979,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>467</v>
       </c>
@@ -6925,7 +6990,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>467</v>
       </c>
@@ -6936,7 +7001,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>467</v>
       </c>
@@ -6947,7 +7012,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>467</v>
       </c>
@@ -6958,7 +7023,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>467</v>
       </c>
@@ -6969,7 +7034,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>467</v>
       </c>
@@ -6980,7 +7045,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>467</v>
       </c>
@@ -6991,7 +7056,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>467</v>
       </c>
@@ -7002,7 +7067,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>467</v>
       </c>
@@ -7013,7 +7078,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>467</v>
       </c>
@@ -7024,7 +7089,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>467</v>
       </c>
@@ -7035,7 +7100,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>467</v>
       </c>
@@ -7046,7 +7111,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>467</v>
       </c>
@@ -7057,7 +7122,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>467</v>
       </c>
@@ -7068,7 +7133,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>467</v>
       </c>
@@ -7079,7 +7144,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>467</v>
       </c>
@@ -7090,7 +7155,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>467</v>
       </c>
@@ -7101,7 +7166,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>467</v>
       </c>
@@ -7112,7 +7177,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>528</v>
       </c>
@@ -7123,7 +7188,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>528</v>
       </c>
@@ -7134,7 +7199,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>528</v>
       </c>
@@ -7145,7 +7210,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>528</v>
       </c>
@@ -7156,7 +7221,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>528</v>
       </c>
@@ -7167,7 +7232,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>528</v>
       </c>
@@ -7178,7 +7243,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>528</v>
       </c>
@@ -7189,7 +7254,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>528</v>
       </c>
@@ -7200,7 +7265,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>528</v>
       </c>
@@ -7211,7 +7276,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>528</v>
       </c>
@@ -7222,7 +7287,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>528</v>
       </c>
@@ -7233,7 +7298,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>528</v>
       </c>
@@ -7244,7 +7309,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>528</v>
       </c>
@@ -7255,7 +7320,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>528</v>
       </c>
@@ -7266,7 +7331,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>528</v>
       </c>
@@ -7277,7 +7342,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>528</v>
       </c>
@@ -7288,7 +7353,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>528</v>
       </c>
@@ -7299,7 +7364,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>528</v>
       </c>
@@ -7310,7 +7375,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>528</v>
       </c>
@@ -7321,7 +7386,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>528</v>
       </c>
@@ -7332,7 +7397,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>528</v>
       </c>
@@ -7343,7 +7408,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>528</v>
       </c>
@@ -7354,7 +7419,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>528</v>
       </c>
@@ -7365,7 +7430,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>528</v>
       </c>
@@ -7376,7 +7441,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>528</v>
       </c>
@@ -7387,7 +7452,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>528</v>
       </c>
@@ -7398,7 +7463,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>528</v>
       </c>
@@ -7409,7 +7474,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>528</v>
       </c>
@@ -7420,7 +7485,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>528</v>
       </c>
@@ -7431,7 +7496,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>528</v>
       </c>
@@ -7442,7 +7507,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>528</v>
       </c>
@@ -7453,7 +7518,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>528</v>
       </c>
@@ -7464,7 +7529,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>528</v>
       </c>
@@ -7475,7 +7540,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>528</v>
       </c>
@@ -7486,7 +7551,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>528</v>
       </c>
@@ -7497,7 +7562,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>528</v>
       </c>
@@ -7508,7 +7573,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>528</v>
       </c>
@@ -7519,7 +7584,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>528</v>
       </c>
@@ -7530,7 +7595,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>528</v>
       </c>
@@ -7541,7 +7606,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>528</v>
       </c>
@@ -7552,7 +7617,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>528</v>
       </c>
@@ -7563,7 +7628,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>528</v>
       </c>
@@ -7574,7 +7639,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>528</v>
       </c>
@@ -7585,7 +7650,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>528</v>
       </c>
@@ -7596,7 +7661,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>528</v>
       </c>
@@ -7607,7 +7672,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>528</v>
       </c>
@@ -7618,7 +7683,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>528</v>
       </c>
@@ -7629,7 +7694,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>528</v>
       </c>
@@ -7640,7 +7705,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>528</v>
       </c>
@@ -7651,73 +7716,73 @@
         <v>624</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>528</v>
       </c>
       <c r="B81" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="C81" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>528</v>
       </c>
       <c r="B82" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="C82" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>528</v>
       </c>
       <c r="B83" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="C83" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>528</v>
       </c>
       <c r="B84" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="C84" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>528</v>
       </c>
       <c r="B85" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="C85" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>528</v>
       </c>
       <c r="B86" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="C86" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>528</v>
       </c>
@@ -7728,62 +7793,62 @@
         <v>600</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>528</v>
       </c>
       <c r="B88" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="C88" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>528</v>
       </c>
       <c r="B89" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="C89" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>528</v>
       </c>
       <c r="B90" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="C90" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>528</v>
       </c>
       <c r="B91" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="C91" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>528</v>
       </c>
       <c r="B92" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="C92" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>625</v>
       </c>
@@ -7794,587 +7859,708 @@
         <v>627</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>625</v>
       </c>
       <c r="B94" t="s">
-        <v>628</v>
+        <v>721</v>
       </c>
       <c r="C94" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>625</v>
       </c>
       <c r="B95" t="s">
-        <v>630</v>
+        <v>723</v>
       </c>
       <c r="C95" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>625</v>
       </c>
       <c r="B96" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="C96" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>625</v>
       </c>
       <c r="B97" t="s">
-        <v>634</v>
+        <v>725</v>
       </c>
       <c r="C97" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>625</v>
       </c>
       <c r="B98" t="s">
-        <v>636</v>
+        <v>738</v>
       </c>
       <c r="C98" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>625</v>
       </c>
       <c r="B99" t="s">
-        <v>638</v>
+        <v>739</v>
       </c>
       <c r="C99" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>625</v>
       </c>
       <c r="B100" t="s">
-        <v>640</v>
+        <v>740</v>
       </c>
       <c r="C100" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>625</v>
       </c>
       <c r="B101" t="s">
-        <v>642</v>
+        <v>741</v>
       </c>
       <c r="C101" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>625</v>
       </c>
       <c r="B102" t="s">
-        <v>667</v>
+        <v>742</v>
       </c>
       <c r="C102" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>625</v>
       </c>
       <c r="B103" t="s">
-        <v>668</v>
+        <v>743</v>
       </c>
       <c r="C103" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>625</v>
       </c>
       <c r="B104" t="s">
-        <v>644</v>
+        <v>744</v>
       </c>
       <c r="C104" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="11" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>625</v>
+      </c>
+      <c r="B105" t="s">
+        <v>745</v>
+      </c>
+      <c r="C105" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>625</v>
+      </c>
+      <c r="B106" t="s">
+        <v>746</v>
+      </c>
+      <c r="C106" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>625</v>
+      </c>
+      <c r="B107" t="s">
+        <v>747</v>
+      </c>
+      <c r="C107" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>625</v>
+      </c>
+      <c r="B108" t="s">
+        <v>748</v>
+      </c>
+      <c r="C108" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>625</v>
+      </c>
+      <c r="B109" t="s">
+        <v>749</v>
+      </c>
+      <c r="C109" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>625</v>
+      </c>
+      <c r="B110" t="s">
+        <v>750</v>
+      </c>
+      <c r="C110" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>625</v>
+      </c>
+      <c r="B111" t="s">
+        <v>630</v>
+      </c>
+      <c r="C111" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>625</v>
+      </c>
+      <c r="B112" t="s">
+        <v>632</v>
+      </c>
+      <c r="C112" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>625</v>
+      </c>
+      <c r="B113" t="s">
+        <v>657</v>
+      </c>
+      <c r="C113" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>625</v>
+      </c>
+      <c r="B114" t="s">
+        <v>658</v>
+      </c>
+      <c r="C114" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>625</v>
+      </c>
+      <c r="B115" t="s">
+        <v>634</v>
+      </c>
+      <c r="C115" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="10" t="s">
+        <v>659</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>660</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="10" t="s">
+        <v>659</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>662</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="10" t="s">
+        <v>659</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>664</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="10" t="s">
+        <v>659</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>659</v>
+      </c>
+      <c r="B120" t="s">
+        <v>668</v>
+      </c>
+      <c r="C120" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>659</v>
+      </c>
+      <c r="B121" t="s">
+        <v>668</v>
+      </c>
+      <c r="C121" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>659</v>
+      </c>
+      <c r="B122" t="s">
+        <v>668</v>
+      </c>
+      <c r="C122" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>659</v>
+      </c>
+      <c r="B123" t="s">
+        <v>668</v>
+      </c>
+      <c r="C123" t="s">
         <v>669</v>
       </c>
-      <c r="B105" s="11" t="s">
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>659</v>
+      </c>
+      <c r="B124" t="s">
         <v>670</v>
       </c>
-      <c r="C105" s="11" t="s">
+      <c r="C124" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>659</v>
+      </c>
+      <c r="B125" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="11" t="s">
-        <v>669</v>
-      </c>
-      <c r="B106" s="11" t="s">
+      <c r="C125" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>659</v>
+      </c>
+      <c r="B126" t="s">
         <v>672</v>
       </c>
-      <c r="C106" s="11" t="s">
+      <c r="C126" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>659</v>
+      </c>
+      <c r="B127" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="11" t="s">
-        <v>669</v>
-      </c>
-      <c r="B107" s="11" t="s">
+      <c r="C127" t="s">
         <v>674</v>
       </c>
-      <c r="C107" s="11" t="s">
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>659</v>
+      </c>
+      <c r="B128" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="11" t="s">
-        <v>669</v>
-      </c>
-      <c r="B108" s="11" t="s">
+      <c r="C128" t="s">
         <v>676</v>
       </c>
-      <c r="C108" s="11" t="s">
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>659</v>
+      </c>
+      <c r="B129" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="10" t="s">
-        <v>669</v>
-      </c>
-      <c r="B109" s="10" t="s">
+      <c r="C129" t="s">
         <v>678</v>
       </c>
-      <c r="C109" s="10" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="10" t="s">
-        <v>669</v>
-      </c>
-      <c r="B110" s="10" t="s">
-        <v>678</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="10" t="s">
-        <v>669</v>
-      </c>
-      <c r="B111" s="10" t="s">
-        <v>678</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="10" t="s">
-        <v>669</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>678</v>
-      </c>
-      <c r="C112" s="10" t="s">
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>659</v>
+      </c>
+      <c r="B130" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="10" t="s">
-        <v>669</v>
-      </c>
-      <c r="B113" s="10" t="s">
+      <c r="C130" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>659</v>
+      </c>
+      <c r="B131" t="s">
         <v>680</v>
       </c>
-      <c r="C113" s="10" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="10" t="s">
-        <v>669</v>
-      </c>
-      <c r="B114" s="10" t="s">
+      <c r="C131" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>659</v>
+      </c>
+      <c r="B132" t="s">
         <v>681</v>
       </c>
-      <c r="C114" s="10" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="10" t="s">
-        <v>669</v>
-      </c>
-      <c r="B115" s="10" t="s">
+      <c r="C132" t="s">
         <v>682</v>
       </c>
-      <c r="C115" s="10" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="10" t="s">
-        <v>669</v>
-      </c>
-      <c r="B116" s="10" t="s">
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>659</v>
+      </c>
+      <c r="B133" t="s">
         <v>683</v>
       </c>
-      <c r="C116" s="10" t="s">
+      <c r="C133" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>659</v>
+      </c>
+      <c r="B134" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="10" t="s">
-        <v>669</v>
-      </c>
-      <c r="B117" s="10" t="s">
+      <c r="C134" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>659</v>
+      </c>
+      <c r="B135" t="s">
         <v>685</v>
       </c>
-      <c r="C117" s="10" t="s">
+      <c r="C135" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>659</v>
+      </c>
+      <c r="B136" t="s">
+        <v>499</v>
+      </c>
+      <c r="C136" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>659</v>
+      </c>
+      <c r="B137" t="s">
+        <v>501</v>
+      </c>
+      <c r="C137" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>659</v>
+      </c>
+      <c r="B138" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="10" t="s">
-        <v>669</v>
-      </c>
-      <c r="B118" s="10" t="s">
+      <c r="C138" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>659</v>
+      </c>
+      <c r="B139" t="s">
         <v>687</v>
       </c>
-      <c r="C118" s="10" t="s">
+      <c r="C139" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>659</v>
+      </c>
+      <c r="B140" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="10" t="s">
-        <v>669</v>
-      </c>
-      <c r="B119" s="10" t="s">
+      <c r="C140" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>659</v>
+      </c>
+      <c r="B141" t="s">
         <v>689</v>
       </c>
-      <c r="C119" s="10" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="10" t="s">
-        <v>669</v>
-      </c>
-      <c r="B120" s="10" t="s">
+      <c r="C141" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>659</v>
+      </c>
+      <c r="B142" t="s">
         <v>690</v>
       </c>
-      <c r="C120" s="10" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="10" t="s">
-        <v>669</v>
-      </c>
-      <c r="B121" s="10" t="s">
+      <c r="C142" t="s">
         <v>691</v>
       </c>
-      <c r="C121" s="10" t="s">
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>659</v>
+      </c>
+      <c r="B143" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="10" t="s">
-        <v>669</v>
-      </c>
-      <c r="B122" s="10" t="s">
+      <c r="C143" t="s">
         <v>693</v>
       </c>
-      <c r="C122" s="10" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="10" t="s">
-        <v>669</v>
-      </c>
-      <c r="B123" s="10" t="s">
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>659</v>
+      </c>
+      <c r="B144" t="s">
         <v>694</v>
       </c>
-      <c r="C123" s="10" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="10" t="s">
-        <v>669</v>
-      </c>
-      <c r="B124" s="10" t="s">
+      <c r="C144" t="s">
         <v>695</v>
       </c>
-      <c r="C124" s="10" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="10" t="s">
-        <v>669</v>
-      </c>
-      <c r="B125" s="10" t="s">
-        <v>499</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="10" t="s">
-        <v>669</v>
-      </c>
-      <c r="B126" s="10" t="s">
-        <v>501</v>
-      </c>
-      <c r="C126" s="10" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="10" t="s">
-        <v>669</v>
-      </c>
-      <c r="B127" s="10" t="s">
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>659</v>
+      </c>
+      <c r="B145" t="s">
         <v>696</v>
       </c>
-      <c r="C127" s="10" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="10" t="s">
-        <v>669</v>
-      </c>
-      <c r="B128" s="10" t="s">
+      <c r="C145" t="s">
         <v>697</v>
       </c>
-      <c r="C128" s="10" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="10" t="s">
-        <v>669</v>
-      </c>
-      <c r="B129" s="10" t="s">
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>659</v>
+      </c>
+      <c r="B146" t="s">
         <v>698</v>
       </c>
-      <c r="C129" s="10" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="10" t="s">
-        <v>669</v>
-      </c>
-      <c r="B130" s="10" t="s">
+      <c r="C146" t="s">
         <v>699</v>
       </c>
-      <c r="C130" s="10" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="10" t="s">
-        <v>669</v>
-      </c>
-      <c r="B131" s="10" t="s">
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>659</v>
+      </c>
+      <c r="B147" t="s">
         <v>700</v>
       </c>
-      <c r="C131" s="10" t="s">
+      <c r="C147" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="10" t="s">
-        <v>669</v>
-      </c>
-      <c r="B132" s="10" t="s">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>659</v>
+      </c>
+      <c r="B148" t="s">
         <v>702</v>
       </c>
-      <c r="C132" s="10" t="s">
+      <c r="C148" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="10" t="s">
-        <v>669</v>
-      </c>
-      <c r="B133" s="10" t="s">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>659</v>
+      </c>
+      <c r="B149" t="s">
         <v>704</v>
       </c>
-      <c r="C133" s="10" t="s">
+      <c r="C149" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="10" t="s">
-        <v>669</v>
-      </c>
-      <c r="B134" s="10" t="s">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>659</v>
+      </c>
+      <c r="B150" t="s">
         <v>706</v>
       </c>
-      <c r="C134" s="10" t="s">
+      <c r="C150" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="10" t="s">
-        <v>669</v>
-      </c>
-      <c r="B135" s="10" t="s">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>659</v>
+      </c>
+      <c r="B151" t="s">
         <v>708</v>
       </c>
-      <c r="C135" s="10" t="s">
+      <c r="C151" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>659</v>
+      </c>
+      <c r="B152" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="10" t="s">
-        <v>669</v>
-      </c>
-      <c r="B136" s="10" t="s">
+      <c r="C152" t="s">
         <v>710</v>
       </c>
-      <c r="C136" s="10" t="s">
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>659</v>
+      </c>
+      <c r="B153" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="10" t="s">
-        <v>669</v>
-      </c>
-      <c r="B137" s="10" t="s">
+      <c r="C153" t="s">
         <v>712</v>
       </c>
-      <c r="C137" s="10" t="s">
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>659</v>
+      </c>
+      <c r="B154" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="10" t="s">
-        <v>669</v>
-      </c>
-      <c r="B138" s="10" t="s">
+      <c r="C154" t="s">
         <v>714</v>
       </c>
-      <c r="C138" s="10" t="s">
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>659</v>
+      </c>
+      <c r="B155" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" s="10" t="s">
-        <v>669</v>
-      </c>
-      <c r="B139" s="10" t="s">
+      <c r="C155" t="s">
         <v>716</v>
       </c>
-      <c r="C139" s="10" t="s">
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>659</v>
+      </c>
+      <c r="B156" t="s">
+        <v>720</v>
+      </c>
+      <c r="C156" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="10" t="s">
-        <v>669</v>
-      </c>
-      <c r="B140" s="10" t="s">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>659</v>
+      </c>
+      <c r="B157" t="s">
         <v>718</v>
       </c>
-      <c r="C140" s="10" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" s="10" t="s">
-        <v>669</v>
-      </c>
-      <c r="B141" s="10" t="s">
+      <c r="C157" t="s">
         <v>719</v>
-      </c>
-      <c r="C141" s="10" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" t="s">
-        <v>669</v>
-      </c>
-      <c r="B142" t="s">
-        <v>721</v>
-      </c>
-      <c r="C142" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" t="s">
-        <v>669</v>
-      </c>
-      <c r="B143" t="s">
-        <v>723</v>
-      </c>
-      <c r="C143" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" t="s">
-        <v>669</v>
-      </c>
-      <c r="B144" t="s">
-        <v>725</v>
-      </c>
-      <c r="C144" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" t="s">
-        <v>669</v>
-      </c>
-      <c r="B145" t="s">
-        <v>730</v>
-      </c>
-      <c r="C145" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" t="s">
-        <v>669</v>
-      </c>
-      <c r="B146" t="s">
-        <v>728</v>
-      </c>
-      <c r="C146" t="s">
-        <v>729</v>
       </c>
     </row>
   </sheetData>

--- a/backend/v1.0/tools/DB_Mapping.xlsx
+++ b/backend/v1.0/tools/DB_Mapping.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconet-my.sharepoint.com/personal/sarango_uco_edu_co/Documents/Documents/GitHub/project-cali/backend/v1.0/tools/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\OneDrive - UCO\Documents\GitHub\project-cali\backend\v1.0\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="13_ncr:1_{677F58C1-27AF-4BD9-BDC7-55FDD274697B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31E4CF25-5B16-44CC-A931-E949F5EBFDD6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D897618-9279-432E-9423-CB4B5E4D9E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1967,18 +1967,6 @@
     <t>TE-101v</t>
   </si>
   <si>
-    <t>Moles Sustrato</t>
-  </si>
-  <si>
-    <t>Msus_exp</t>
-  </si>
-  <si>
-    <t>Concentracion Sustrato planta</t>
-  </si>
-  <si>
-    <t>Csus_exp</t>
-  </si>
-  <si>
     <t>K_mean</t>
   </si>
   <si>
@@ -2334,6 +2322,18 @@
   </si>
   <si>
     <t>M-VGT_V101</t>
+  </si>
+  <si>
+    <t>Moles Sustrato en R101</t>
+  </si>
+  <si>
+    <t>Msus_exp_R101</t>
+  </si>
+  <si>
+    <t>Csus_exp_R101</t>
+  </si>
+  <si>
+    <t>Concentracion Sustrato en R101</t>
   </si>
 </sst>
 </file>
@@ -2822,7 +2822,7 @@
         <v>440</v>
       </c>
       <c r="E5" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="F5" t="s">
         <v>527</v>
@@ -6826,7 +6826,7 @@
   <dimension ref="A1:C157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D110" sqref="D110"/>
+      <selection activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7721,10 +7721,10 @@
         <v>528</v>
       </c>
       <c r="B81" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="C81" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -7732,10 +7732,10 @@
         <v>528</v>
       </c>
       <c r="B82" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="C82" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -7743,7 +7743,7 @@
         <v>528</v>
       </c>
       <c r="B83" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="C83" t="s">
         <v>574</v>
@@ -7754,10 +7754,10 @@
         <v>528</v>
       </c>
       <c r="B84" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C84" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -7765,10 +7765,10 @@
         <v>528</v>
       </c>
       <c r="B85" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C85" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -7776,10 +7776,10 @@
         <v>528</v>
       </c>
       <c r="B86" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C86" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -7798,10 +7798,10 @@
         <v>528</v>
       </c>
       <c r="B88" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C88" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -7809,10 +7809,10 @@
         <v>528</v>
       </c>
       <c r="B89" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C89" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -7820,10 +7820,10 @@
         <v>528</v>
       </c>
       <c r="B90" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C90" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -7831,10 +7831,10 @@
         <v>528</v>
       </c>
       <c r="B91" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="C91" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -7842,10 +7842,10 @@
         <v>528</v>
       </c>
       <c r="B92" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C92" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -7864,10 +7864,10 @@
         <v>625</v>
       </c>
       <c r="B94" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="C94" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -7875,10 +7875,10 @@
         <v>625</v>
       </c>
       <c r="B95" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="C95" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -7897,10 +7897,10 @@
         <v>625</v>
       </c>
       <c r="B97" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="C97" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -7908,10 +7908,10 @@
         <v>625</v>
       </c>
       <c r="B98" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C98" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -7919,10 +7919,10 @@
         <v>625</v>
       </c>
       <c r="B99" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C99" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -7930,10 +7930,10 @@
         <v>625</v>
       </c>
       <c r="B100" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="C100" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -7941,10 +7941,10 @@
         <v>625</v>
       </c>
       <c r="B101" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="C101" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -7952,10 +7952,10 @@
         <v>625</v>
       </c>
       <c r="B102" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="C102" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
@@ -7963,10 +7963,10 @@
         <v>625</v>
       </c>
       <c r="B103" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="C103" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
@@ -7974,10 +7974,10 @@
         <v>625</v>
       </c>
       <c r="B104" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C104" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -7985,10 +7985,10 @@
         <v>625</v>
       </c>
       <c r="B105" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="C105" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
@@ -7996,10 +7996,10 @@
         <v>625</v>
       </c>
       <c r="B106" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="C106" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -8007,10 +8007,10 @@
         <v>625</v>
       </c>
       <c r="B107" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="C107" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
@@ -8018,10 +8018,10 @@
         <v>625</v>
       </c>
       <c r="B108" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="C108" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
@@ -8029,10 +8029,10 @@
         <v>625</v>
       </c>
       <c r="B109" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="C109" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
@@ -8040,10 +8040,10 @@
         <v>625</v>
       </c>
       <c r="B110" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="C110" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
@@ -8051,10 +8051,10 @@
         <v>625</v>
       </c>
       <c r="B111" t="s">
-        <v>630</v>
+        <v>749</v>
       </c>
       <c r="C111" t="s">
-        <v>631</v>
+        <v>750</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
@@ -8062,10 +8062,10 @@
         <v>625</v>
       </c>
       <c r="B112" t="s">
-        <v>632</v>
+        <v>752</v>
       </c>
       <c r="C112" t="s">
-        <v>633</v>
+        <v>751</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -8073,7 +8073,7 @@
         <v>625</v>
       </c>
       <c r="B113" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="C113" t="s">
         <v>552</v>
@@ -8084,7 +8084,7 @@
         <v>625</v>
       </c>
       <c r="B114" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C114" t="s">
         <v>550</v>
@@ -8095,62 +8095,62 @@
         <v>625</v>
       </c>
       <c r="B115" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C115" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="10" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="10" t="s">
+        <v>655</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>658</v>
+      </c>
+      <c r="C117" s="10" t="s">
         <v>659</v>
-      </c>
-      <c r="B117" s="10" t="s">
-        <v>662</v>
-      </c>
-      <c r="C117" s="10" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="10" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="10" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B120" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="C120" t="s">
         <v>473</v>
@@ -8158,10 +8158,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B121" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="C121" t="s">
         <v>475</v>
@@ -8169,10 +8169,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B122" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="C122" t="s">
         <v>496</v>
@@ -8180,21 +8180,21 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B123" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="C123" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B124" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="C124" t="s">
         <v>483</v>
@@ -8202,10 +8202,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B125" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="C125" t="s">
         <v>486</v>
@@ -8213,10 +8213,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B126" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="C126" t="s">
         <v>489</v>
@@ -8224,43 +8224,43 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B127" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="C127" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B128" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="C128" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B129" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="C129" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B130" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="C130" t="s">
         <v>492</v>
@@ -8268,10 +8268,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B131" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="C131" t="s">
         <v>498</v>
@@ -8279,21 +8279,21 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B132" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="C132" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B133" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="C133" t="s">
         <v>514</v>
@@ -8301,10 +8301,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B134" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C134" t="s">
         <v>516</v>
@@ -8312,10 +8312,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B135" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C135" t="s">
         <v>518</v>
@@ -8323,7 +8323,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B136" t="s">
         <v>499</v>
@@ -8334,7 +8334,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B137" t="s">
         <v>501</v>
@@ -8345,10 +8345,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B138" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C138" t="s">
         <v>504</v>
@@ -8356,10 +8356,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B139" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="C139" t="s">
         <v>506</v>
@@ -8367,10 +8367,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B140" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="C140" t="s">
         <v>508</v>
@@ -8378,10 +8378,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B141" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="C141" t="s">
         <v>510</v>
@@ -8389,109 +8389,109 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B142" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="C142" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B143" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="C143" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B144" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="C144" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B145" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="C145" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B146" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C146" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B147" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="C147" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B148" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="C148" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B149" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="C149" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B150" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="C150" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B151" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="C151" t="s">
         <v>524</v>
@@ -8499,68 +8499,68 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B152" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="C152" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B153" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C153" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B154" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C154" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B155" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="C155" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B156" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="C156" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B157" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C157" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
     </row>
   </sheetData>

--- a/backend/v1.0/tools/DB_Mapping.xlsx
+++ b/backend/v1.0/tools/DB_Mapping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\OneDrive - UCO\Documents\GitHub\project-cali\backend\v1.0\tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SMARTGRID_CALI\project-cali\backend\v1.0\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D897618-9279-432E-9423-CB4B5E4D9E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9EDFB9-6152-4F53-92D9-A9C2F5936C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConexionDB" sheetId="4" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="764">
   <si>
     <t xml:space="preserve">0x0002 </t>
   </si>
@@ -1523,48 +1523,30 @@
     <t>PT002</t>
   </si>
   <si>
-    <t>Voltaje generada por turbinas (controladores de carga )</t>
-  </si>
-  <si>
     <t>VG001</t>
   </si>
   <si>
     <t>VG002</t>
   </si>
   <si>
-    <t>Corriente generada por turbinas (controladores de carga )</t>
-  </si>
-  <si>
     <t>IG001</t>
   </si>
   <si>
     <t>IG002</t>
   </si>
   <si>
-    <t>Potencia generada por las turbinas (controladores de carga )</t>
-  </si>
-  <si>
     <t>PG001</t>
   </si>
   <si>
     <t>PG002</t>
   </si>
   <si>
-    <t>Voltaje de las baterías (controladores de carga )</t>
-  </si>
-  <si>
     <t>VB001</t>
   </si>
   <si>
-    <t>Corriente de carga (controladores de carga )</t>
-  </si>
-  <si>
     <t>IC001</t>
   </si>
   <si>
-    <t>Temperatura Baterías (controladores de carga )</t>
-  </si>
-  <si>
     <t>TE003</t>
   </si>
   <si>
@@ -2334,13 +2316,64 @@
   </si>
   <si>
     <t>Concentracion Sustrato en R101</t>
+  </si>
+  <si>
+    <t>Voltaje generada por turbina Pelton (Controlador Pelton)</t>
+  </si>
+  <si>
+    <t>Voltaje generado por turbina Turgo (Controlador Turgo)</t>
+  </si>
+  <si>
+    <t>Corriente generada por turbina Pelton (Controlador Turgo)</t>
+  </si>
+  <si>
+    <t>Corriente generada por turbina Turgo (Controlador Turgo)</t>
+  </si>
+  <si>
+    <t>Potencia generada por turbina Pelton (Controlador Pelton)</t>
+  </si>
+  <si>
+    <t>Potencia generada por turbina Turgo (Controlador Turgo)</t>
+  </si>
+  <si>
+    <t>Voltaje de las baterías (Controlador Pelton)</t>
+  </si>
+  <si>
+    <t>Corriente de carga (Controlador Pelton)</t>
+  </si>
+  <si>
+    <t>Potencia de las baterías (Controlador Pelton)</t>
+  </si>
+  <si>
+    <t>Temperatura Baterías (Controlador Pelton)</t>
+  </si>
+  <si>
+    <t>Voltaje de las baterías (Controlador Turgo)</t>
+  </si>
+  <si>
+    <t>VB002</t>
+  </si>
+  <si>
+    <t>Corriente de carga (Controlador Turgo)</t>
+  </si>
+  <si>
+    <t>IC002</t>
+  </si>
+  <si>
+    <t>Potencia de las baterías  (Controlador Turgo)</t>
+  </si>
+  <si>
+    <t>PB002</t>
+  </si>
+  <si>
+    <t>Temperatura Baterías  (Controlador Turgo)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2390,24 +2423,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2422,7 +2443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2434,8 +2455,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2722,13 +2742,13 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="95.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="95.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>275</v>
       </c>
@@ -2748,7 +2768,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>436</v>
       </c>
@@ -2768,7 +2788,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>436</v>
       </c>
@@ -2788,9 +2808,9 @@
         <v>464</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="B4" t="s">
         <v>437</v>
@@ -2805,10 +2825,10 @@
         <v>438</v>
       </c>
       <c r="F4" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>436</v>
       </c>
@@ -2822,13 +2842,13 @@
         <v>440</v>
       </c>
       <c r="E5" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="F5" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="E10" s="8"/>
     </row>
   </sheetData>
@@ -2845,13 +2865,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>275</v>
       </c>
@@ -2865,7 +2885,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>435</v>
       </c>
@@ -2889,17 +2909,17 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>428</v>
       </c>
@@ -2910,7 +2930,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="1" customFormat="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2921,7 +2941,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2932,7 +2952,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2943,7 +2963,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2954,7 +2974,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2965,7 +2985,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2976,7 +2996,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2987,7 +3007,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2998,7 +3018,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3009,7 +3029,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3020,7 +3040,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3031,7 +3051,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3042,7 +3062,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3053,7 +3073,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3064,7 +3084,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3075,7 +3095,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3086,7 +3106,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3097,7 +3117,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3108,7 +3128,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3119,7 +3139,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3130,136 +3150,136 @@
         <v>435</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1">
       <c r="A54" s="6"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1">
       <c r="A55" s="6"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1">
       <c r="A56" s="6"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1">
       <c r="A57" s="6"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1">
       <c r="A58" s="6"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1">
       <c r="A59" s="6"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1">
       <c r="A60" s="6"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1">
       <c r="A61" s="6"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1">
       <c r="A62" s="6"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1">
       <c r="A63" s="6"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1">
       <c r="A64" s="6"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1">
       <c r="A65" s="6"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1">
       <c r="A66" s="6"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1">
       <c r="A67" s="6"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1">
       <c r="A68" s="6"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1">
       <c r="A69" s="6"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1">
       <c r="A70" s="6"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1">
       <c r="A71" s="6"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1">
       <c r="A72" s="6"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1">
       <c r="A73" s="6"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1">
       <c r="A74" s="6"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1">
       <c r="A75" s="6"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1">
       <c r="A76" s="6"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1">
       <c r="A77" s="6"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1">
       <c r="A78" s="6"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1">
       <c r="A79" s="6"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1">
       <c r="A80" s="6"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1">
       <c r="A81" s="6"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1">
       <c r="A82" s="6"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1">
       <c r="A83" s="6"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1">
       <c r="A84" s="6"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1">
       <c r="A85" s="6"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1">
       <c r="A86" s="6"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1">
       <c r="A87" s="6"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1">
       <c r="A88" s="6"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1">
       <c r="A89" s="2"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1">
       <c r="A90" s="2"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1">
       <c r="A91" s="2"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1">
       <c r="A92" s="2"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1">
       <c r="A93" s="2"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1">
       <c r="A115" s="6"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1">
       <c r="A116" s="6"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1">
       <c r="A117" s="6"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1">
       <c r="A118" s="6"/>
     </row>
   </sheetData>
@@ -3275,18 +3295,18 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -3312,7 +3332,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3338,7 +3358,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3364,7 +3384,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -3390,7 +3410,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -3416,7 +3436,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3442,7 +3462,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -3468,7 +3488,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3494,7 +3514,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -3520,7 +3540,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -3546,7 +3566,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -3572,7 +3592,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -3598,7 +3618,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -3624,7 +3644,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
@@ -3650,7 +3670,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
@@ -3676,7 +3696,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="3" t="s">
         <v>24</v>
       </c>
@@ -3702,7 +3722,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -3728,7 +3748,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -3754,7 +3774,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -3780,7 +3800,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -3803,7 +3823,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -3826,7 +3846,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -3849,7 +3869,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -3875,7 +3895,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -3901,7 +3921,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -3927,7 +3947,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -3953,7 +3973,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -3979,7 +3999,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -4005,7 +4025,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -4031,7 +4051,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>100</v>
       </c>
@@ -4057,7 +4077,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>102</v>
       </c>
@@ -4083,7 +4103,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>125</v>
       </c>
@@ -4109,7 +4129,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>126</v>
       </c>
@@ -4135,7 +4155,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>127</v>
       </c>
@@ -4161,7 +4181,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>128</v>
       </c>
@@ -4187,7 +4207,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>129</v>
       </c>
@@ -4213,7 +4233,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>130</v>
       </c>
@@ -4239,7 +4259,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>131</v>
       </c>
@@ -4265,7 +4285,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>132</v>
       </c>
@@ -4291,7 +4311,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>133</v>
       </c>
@@ -4317,7 +4337,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>134</v>
       </c>
@@ -4343,7 +4363,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>135</v>
       </c>
@@ -4369,7 +4389,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>136</v>
       </c>
@@ -4395,7 +4415,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>104</v>
       </c>
@@ -4421,7 +4441,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>106</v>
       </c>
@@ -4447,7 +4467,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>211</v>
       </c>
@@ -4473,7 +4493,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>212</v>
       </c>
@@ -4499,7 +4519,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>213</v>
       </c>
@@ -4525,7 +4545,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>214</v>
       </c>
@@ -4551,7 +4571,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>215</v>
       </c>
@@ -4577,7 +4597,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>216</v>
       </c>
@@ -4603,7 +4623,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>217</v>
       </c>
@@ -4629,7 +4649,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>218</v>
       </c>
@@ -4655,7 +4675,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>219</v>
       </c>
@@ -4681,7 +4701,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>220</v>
       </c>
@@ -4707,7 +4727,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>221</v>
       </c>
@@ -4733,7 +4753,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>222</v>
       </c>
@@ -4759,7 +4779,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>108</v>
       </c>
@@ -4785,7 +4805,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>110</v>
       </c>
@@ -4811,7 +4831,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>223</v>
       </c>
@@ -4837,7 +4857,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>224</v>
       </c>
@@ -4863,7 +4883,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>225</v>
       </c>
@@ -4889,7 +4909,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>226</v>
       </c>
@@ -4915,7 +4935,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>227</v>
       </c>
@@ -4941,7 +4961,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>228</v>
       </c>
@@ -4967,7 +4987,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>229</v>
       </c>
@@ -4993,7 +5013,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>230</v>
       </c>
@@ -5019,7 +5039,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>231</v>
       </c>
@@ -5045,7 +5065,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>232</v>
       </c>
@@ -5071,7 +5091,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>233</v>
       </c>
@@ -5097,7 +5117,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>234</v>
       </c>
@@ -5123,7 +5143,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>112</v>
       </c>
@@ -5149,7 +5169,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
         <v>114</v>
       </c>
@@ -5175,7 +5195,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>235</v>
       </c>
@@ -5201,7 +5221,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>236</v>
       </c>
@@ -5227,7 +5247,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>237</v>
       </c>
@@ -5253,7 +5273,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>238</v>
       </c>
@@ -5279,7 +5299,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
         <v>239</v>
       </c>
@@ -5305,7 +5325,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>240</v>
       </c>
@@ -5331,7 +5351,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
         <v>241</v>
       </c>
@@ -5357,7 +5377,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>242</v>
       </c>
@@ -5383,7 +5403,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>243</v>
       </c>
@@ -5409,7 +5429,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
         <v>244</v>
       </c>
@@ -5435,7 +5455,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
         <v>245</v>
       </c>
@@ -5461,7 +5481,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
         <v>246</v>
       </c>
@@ -5487,7 +5507,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>247</v>
       </c>
@@ -5513,7 +5533,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
         <v>116</v>
       </c>
@@ -5539,7 +5559,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
         <v>118</v>
       </c>
@@ -5565,7 +5585,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
         <v>248</v>
       </c>
@@ -5591,7 +5611,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
         <v>249</v>
       </c>
@@ -5617,7 +5637,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
         <v>250</v>
       </c>
@@ -5643,7 +5663,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
         <v>251</v>
       </c>
@@ -5669,7 +5689,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
         <v>252</v>
       </c>
@@ -5695,7 +5715,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
         <v>253</v>
       </c>
@@ -5721,7 +5741,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
         <v>254</v>
       </c>
@@ -5747,7 +5767,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
         <v>255</v>
       </c>
@@ -5773,7 +5793,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
         <v>256</v>
       </c>
@@ -5799,7 +5819,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
         <v>257</v>
       </c>
@@ -5825,7 +5845,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
         <v>258</v>
       </c>
@@ -5851,7 +5871,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
         <v>259</v>
       </c>
@@ -5877,7 +5897,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
         <v>260</v>
       </c>
@@ -5903,7 +5923,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8">
       <c r="A102" t="s">
         <v>120</v>
       </c>
@@ -5929,7 +5949,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
         <v>122</v>
       </c>
@@ -5955,7 +5975,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
         <v>261</v>
       </c>
@@ -5981,7 +6001,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8">
       <c r="A105" t="s">
         <v>262</v>
       </c>
@@ -6007,7 +6027,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8">
       <c r="A106" t="s">
         <v>263</v>
       </c>
@@ -6033,7 +6053,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8">
       <c r="A107" t="s">
         <v>264</v>
       </c>
@@ -6059,7 +6079,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8">
       <c r="A108" t="s">
         <v>265</v>
       </c>
@@ -6085,7 +6105,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8">
       <c r="A109" t="s">
         <v>266</v>
       </c>
@@ -6111,7 +6131,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8">
       <c r="A110" t="s">
         <v>267</v>
       </c>
@@ -6137,7 +6157,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8">
       <c r="A111" t="s">
         <v>268</v>
       </c>
@@ -6163,7 +6183,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8">
       <c r="A112" t="s">
         <v>269</v>
       </c>
@@ -6189,7 +6209,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8">
       <c r="A113" t="s">
         <v>270</v>
       </c>
@@ -6215,7 +6235,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8">
       <c r="A114" t="s">
         <v>271</v>
       </c>
@@ -6241,7 +6261,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8">
       <c r="A115" t="s">
         <v>272</v>
       </c>
@@ -6267,7 +6287,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8">
       <c r="A116" t="s">
         <v>273</v>
       </c>
@@ -6293,7 +6313,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8">
       <c r="A117" t="s">
         <v>60</v>
       </c>
@@ -6319,7 +6339,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8">
       <c r="A118" t="s">
         <v>62</v>
       </c>
@@ -6345,7 +6365,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8">
       <c r="A119" t="s">
         <v>64</v>
       </c>
@@ -6371,7 +6391,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8">
       <c r="A120" t="s">
         <v>66</v>
       </c>
@@ -6397,7 +6417,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8">
       <c r="A121" t="s">
         <v>68</v>
       </c>
@@ -6423,7 +6443,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8">
       <c r="A122" t="s">
         <v>70</v>
       </c>
@@ -6449,7 +6469,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8">
       <c r="A123" t="s">
         <v>72</v>
       </c>
@@ -6475,7 +6495,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8">
       <c r="A124" t="s">
         <v>74</v>
       </c>
@@ -6501,7 +6521,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8">
       <c r="A125" t="s">
         <v>76</v>
       </c>
@@ -6527,7 +6547,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8">
       <c r="A126" t="s">
         <v>78</v>
       </c>
@@ -6553,7 +6573,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8">
       <c r="A127" t="s">
         <v>80</v>
       </c>
@@ -6579,7 +6599,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8">
       <c r="A128" t="s">
         <v>82</v>
       </c>
@@ -6605,7 +6625,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8">
       <c r="A129" t="s">
         <v>84</v>
       </c>
@@ -6631,7 +6651,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8">
       <c r="A130" t="s">
         <v>86</v>
       </c>
@@ -6657,7 +6677,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8">
       <c r="A131" s="6" t="s">
         <v>88</v>
       </c>
@@ -6683,7 +6703,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8">
       <c r="A132" s="6" t="s">
         <v>90</v>
       </c>
@@ -6709,7 +6729,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8">
       <c r="A133" s="6" t="s">
         <v>92</v>
       </c>
@@ -6735,7 +6755,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8">
       <c r="A134" s="6" t="s">
         <v>94</v>
       </c>
@@ -6761,7 +6781,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8">
       <c r="A135" t="s">
         <v>96</v>
       </c>
@@ -6787,7 +6807,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8">
       <c r="A136" t="s">
         <v>98</v>
       </c>
@@ -6823,20 +6843,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D5969C-509B-4D3C-BD42-B92347445C5B}">
-  <dimension ref="A1:C157"/>
+  <dimension ref="A1:C162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B113" sqref="B113"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>465</v>
       </c>
@@ -6847,7 +6867,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>467</v>
       </c>
@@ -6858,7 +6878,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>467</v>
       </c>
@@ -6869,7 +6889,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>467</v>
       </c>
@@ -6880,7 +6900,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>467</v>
       </c>
@@ -6891,7 +6911,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>467</v>
       </c>
@@ -6902,7 +6922,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>467</v>
       </c>
@@ -6913,7 +6933,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>467</v>
       </c>
@@ -6924,1643 +6944,1698 @@
         <v>481</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>467</v>
       </c>
       <c r="B9" t="s">
+        <v>747</v>
+      </c>
+      <c r="C9" t="s">
         <v>482</v>
       </c>
-      <c r="C9" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>467</v>
       </c>
       <c r="B10" t="s">
-        <v>482</v>
+        <v>748</v>
       </c>
       <c r="C10" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>467</v>
       </c>
       <c r="B11" t="s">
-        <v>485</v>
+        <v>749</v>
       </c>
       <c r="C11" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>467</v>
       </c>
       <c r="B12" t="s">
+        <v>750</v>
+      </c>
+      <c r="C12" t="s">
         <v>485</v>
       </c>
-      <c r="C12" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>467</v>
       </c>
       <c r="B13" t="s">
-        <v>488</v>
+        <v>751</v>
       </c>
       <c r="C13" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>467</v>
       </c>
       <c r="B14" t="s">
-        <v>488</v>
+        <v>752</v>
       </c>
       <c r="C14" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>467</v>
       </c>
       <c r="B15" t="s">
-        <v>491</v>
+        <v>753</v>
       </c>
       <c r="C15" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>467</v>
       </c>
       <c r="B16" t="s">
-        <v>493</v>
+        <v>754</v>
       </c>
       <c r="C16" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>467</v>
       </c>
       <c r="B17" t="s">
-        <v>495</v>
+        <v>755</v>
       </c>
       <c r="C17" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>467</v>
       </c>
       <c r="B18" t="s">
-        <v>497</v>
+        <v>756</v>
       </c>
       <c r="C18" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>467</v>
       </c>
       <c r="B19" t="s">
-        <v>499</v>
+        <v>757</v>
       </c>
       <c r="C19" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>467</v>
       </c>
       <c r="B20" t="s">
-        <v>501</v>
+        <v>759</v>
       </c>
       <c r="C20" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>467</v>
       </c>
       <c r="B21" t="s">
-        <v>503</v>
+        <v>761</v>
       </c>
       <c r="C21" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>467</v>
       </c>
       <c r="B22" t="s">
-        <v>505</v>
+        <v>763</v>
       </c>
       <c r="C22" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>467</v>
       </c>
       <c r="B23" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="C23" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>493</v>
+      </c>
+      <c r="C24" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>511</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>495</v>
+      </c>
+      <c r="C25" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>497</v>
+      </c>
+      <c r="C26" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>515</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>499</v>
+      </c>
+      <c r="C27" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>517</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>501</v>
+      </c>
+      <c r="C28" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>503</v>
+      </c>
+      <c r="C29" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>521</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>505</v>
+      </c>
+      <c r="C30" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" t="s">
+        <v>507</v>
+      </c>
+      <c r="C31" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="B32" t="s">
+        <v>509</v>
+      </c>
+      <c r="C32" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="B33" t="s">
+        <v>511</v>
+      </c>
+      <c r="C33" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="B34" t="s">
+        <v>513</v>
+      </c>
+      <c r="C34" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="B35" t="s">
+        <v>515</v>
+      </c>
+      <c r="C35" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="B36" t="s">
+        <v>517</v>
+      </c>
+      <c r="C36" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>522</v>
+      </c>
+      <c r="B37" t="s">
         <v>523</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C37" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>522</v>
+      </c>
+      <c r="B38" t="s">
+        <v>525</v>
+      </c>
+      <c r="C38" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>522</v>
+      </c>
+      <c r="B39" t="s">
+        <v>527</v>
+      </c>
+      <c r="C39" t="s">
         <v>528</v>
       </c>
-      <c r="B32" t="s">
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>522</v>
+      </c>
+      <c r="B40" t="s">
         <v>529</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C40" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>528</v>
-      </c>
-      <c r="B33" t="s">
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>522</v>
+      </c>
+      <c r="B41" t="s">
         <v>531</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C41" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>528</v>
-      </c>
-      <c r="B34" t="s">
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>522</v>
+      </c>
+      <c r="B42" t="s">
         <v>533</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C42" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>528</v>
-      </c>
-      <c r="B35" t="s">
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>522</v>
+      </c>
+      <c r="B43" t="s">
         <v>535</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C43" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>528</v>
-      </c>
-      <c r="B36" t="s">
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>522</v>
+      </c>
+      <c r="B44" t="s">
         <v>537</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C44" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>528</v>
-      </c>
-      <c r="B37" t="s">
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>522</v>
+      </c>
+      <c r="B45" t="s">
         <v>539</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C45" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>528</v>
-      </c>
-      <c r="B38" t="s">
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>522</v>
+      </c>
+      <c r="B46" t="s">
         <v>541</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C46" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>528</v>
-      </c>
-      <c r="B39" t="s">
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>522</v>
+      </c>
+      <c r="B47" t="s">
         <v>543</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C47" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>528</v>
-      </c>
-      <c r="B40" t="s">
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>522</v>
+      </c>
+      <c r="B48" t="s">
         <v>545</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C48" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>528</v>
-      </c>
-      <c r="B41" t="s">
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>522</v>
+      </c>
+      <c r="B49" t="s">
         <v>547</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C49" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>528</v>
-      </c>
-      <c r="B42" t="s">
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>522</v>
+      </c>
+      <c r="B50" t="s">
         <v>549</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C50" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>528</v>
-      </c>
-      <c r="B43" t="s">
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>522</v>
+      </c>
+      <c r="B51" t="s">
         <v>551</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C51" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>528</v>
-      </c>
-      <c r="B44" t="s">
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>522</v>
+      </c>
+      <c r="B52" t="s">
         <v>553</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C52" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>528</v>
-      </c>
-      <c r="B45" t="s">
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>522</v>
+      </c>
+      <c r="B53" t="s">
         <v>555</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C53" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>528</v>
-      </c>
-      <c r="B46" t="s">
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>522</v>
+      </c>
+      <c r="B54" t="s">
         <v>557</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C54" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>528</v>
-      </c>
-      <c r="B47" t="s">
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>522</v>
+      </c>
+      <c r="B55" t="s">
         <v>559</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C55" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>528</v>
-      </c>
-      <c r="B48" t="s">
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>522</v>
+      </c>
+      <c r="B56" t="s">
         <v>561</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C56" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>528</v>
-      </c>
-      <c r="B49" t="s">
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>522</v>
+      </c>
+      <c r="B57" t="s">
         <v>563</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C57" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>528</v>
-      </c>
-      <c r="B50" t="s">
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>522</v>
+      </c>
+      <c r="B58" t="s">
         <v>565</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C58" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>528</v>
-      </c>
-      <c r="B51" t="s">
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>522</v>
+      </c>
+      <c r="B59" t="s">
         <v>567</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C59" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>528</v>
-      </c>
-      <c r="B52" t="s">
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>522</v>
+      </c>
+      <c r="B60" t="s">
         <v>569</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C60" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>528</v>
-      </c>
-      <c r="B53" t="s">
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>522</v>
+      </c>
+      <c r="B61" t="s">
         <v>571</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C61" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>528</v>
-      </c>
-      <c r="B54" t="s">
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>522</v>
+      </c>
+      <c r="B62" t="s">
         <v>573</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C62" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>528</v>
-      </c>
-      <c r="B55" t="s">
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>522</v>
+      </c>
+      <c r="B63" t="s">
         <v>575</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C63" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>528</v>
-      </c>
-      <c r="B56" t="s">
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>522</v>
+      </c>
+      <c r="B64" t="s">
         <v>577</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C64" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>528</v>
-      </c>
-      <c r="B57" t="s">
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>522</v>
+      </c>
+      <c r="B65" t="s">
         <v>579</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C65" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>528</v>
-      </c>
-      <c r="B58" t="s">
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>522</v>
+      </c>
+      <c r="B66" t="s">
         <v>581</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C66" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>528</v>
-      </c>
-      <c r="B59" t="s">
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>522</v>
+      </c>
+      <c r="B67" t="s">
         <v>583</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C67" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>528</v>
-      </c>
-      <c r="B60" t="s">
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>522</v>
+      </c>
+      <c r="B68" t="s">
         <v>585</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C68" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>528</v>
-      </c>
-      <c r="B61" t="s">
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>522</v>
+      </c>
+      <c r="B69" t="s">
         <v>587</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C69" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>528</v>
-      </c>
-      <c r="B62" t="s">
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>522</v>
+      </c>
+      <c r="B70" t="s">
         <v>589</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C70" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>528</v>
-      </c>
-      <c r="B63" t="s">
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>522</v>
+      </c>
+      <c r="B71" t="s">
         <v>591</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C71" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>528</v>
-      </c>
-      <c r="B64" t="s">
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>522</v>
+      </c>
+      <c r="B72" t="s">
         <v>593</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C72" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>528</v>
-      </c>
-      <c r="B65" t="s">
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>522</v>
+      </c>
+      <c r="B73" t="s">
         <v>595</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C73" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>528</v>
-      </c>
-      <c r="B66" t="s">
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>522</v>
+      </c>
+      <c r="B74" t="s">
         <v>597</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C74" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>528</v>
-      </c>
-      <c r="B67" t="s">
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>522</v>
+      </c>
+      <c r="B75" t="s">
         <v>599</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C75" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>528</v>
-      </c>
-      <c r="B68" t="s">
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>522</v>
+      </c>
+      <c r="B76" t="s">
         <v>601</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C76" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>528</v>
-      </c>
-      <c r="B69" t="s">
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>522</v>
+      </c>
+      <c r="B77" t="s">
         <v>603</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C77" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>528</v>
-      </c>
-      <c r="B70" t="s">
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>522</v>
+      </c>
+      <c r="B78" t="s">
         <v>605</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C78" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>528</v>
-      </c>
-      <c r="B71" t="s">
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>522</v>
+      </c>
+      <c r="B79" t="s">
         <v>607</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C79" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>528</v>
-      </c>
-      <c r="B72" t="s">
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>522</v>
+      </c>
+      <c r="B80" t="s">
         <v>609</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C80" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>528</v>
-      </c>
-      <c r="B73" t="s">
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>522</v>
+      </c>
+      <c r="B81" t="s">
         <v>611</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C81" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>528</v>
-      </c>
-      <c r="B74" t="s">
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>522</v>
+      </c>
+      <c r="B82" t="s">
         <v>613</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C82" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>528</v>
-      </c>
-      <c r="B75" t="s">
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>522</v>
+      </c>
+      <c r="B83" t="s">
         <v>615</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C83" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>528</v>
-      </c>
-      <c r="B76" t="s">
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>522</v>
+      </c>
+      <c r="B84" t="s">
+        <v>523</v>
+      </c>
+      <c r="C84" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>522</v>
+      </c>
+      <c r="B85" t="s">
         <v>617</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C85" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>528</v>
-      </c>
-      <c r="B77" t="s">
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>522</v>
+      </c>
+      <c r="B86" t="s">
+        <v>627</v>
+      </c>
+      <c r="C86" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>522</v>
+      </c>
+      <c r="B87" t="s">
+        <v>629</v>
+      </c>
+      <c r="C87" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>522</v>
+      </c>
+      <c r="B88" t="s">
+        <v>631</v>
+      </c>
+      <c r="C88" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>522</v>
+      </c>
+      <c r="B89" t="s">
+        <v>632</v>
+      </c>
+      <c r="C89" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>522</v>
+      </c>
+      <c r="B90" t="s">
+        <v>634</v>
+      </c>
+      <c r="C90" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>522</v>
+      </c>
+      <c r="B91" t="s">
+        <v>636</v>
+      </c>
+      <c r="C91" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>522</v>
+      </c>
+      <c r="B92" t="s">
+        <v>593</v>
+      </c>
+      <c r="C92" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>522</v>
+      </c>
+      <c r="B93" t="s">
+        <v>637</v>
+      </c>
+      <c r="C93" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>522</v>
+      </c>
+      <c r="B94" t="s">
+        <v>639</v>
+      </c>
+      <c r="C94" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>522</v>
+      </c>
+      <c r="B95" t="s">
+        <v>641</v>
+      </c>
+      <c r="C95" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>522</v>
+      </c>
+      <c r="B96" t="s">
+        <v>643</v>
+      </c>
+      <c r="C96" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>522</v>
+      </c>
+      <c r="B97" t="s">
+        <v>645</v>
+      </c>
+      <c r="C97" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
         <v>619</v>
       </c>
-      <c r="C77" t="s">
+      <c r="B98" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>528</v>
-      </c>
-      <c r="B78" t="s">
+      <c r="C98" t="s">
         <v>621</v>
       </c>
-      <c r="C78" t="s">
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>619</v>
+      </c>
+      <c r="B99" t="s">
+        <v>711</v>
+      </c>
+      <c r="C99" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>619</v>
+      </c>
+      <c r="B100" t="s">
+        <v>713</v>
+      </c>
+      <c r="C100" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>619</v>
+      </c>
+      <c r="B101" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>528</v>
-      </c>
-      <c r="B79" t="s">
-        <v>529</v>
-      </c>
-      <c r="C79" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>528</v>
-      </c>
-      <c r="B80" t="s">
+      <c r="C101" t="s">
         <v>623</v>
       </c>
-      <c r="C80" t="s">
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>619</v>
+      </c>
+      <c r="B102" t="s">
+        <v>715</v>
+      </c>
+      <c r="C102" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>619</v>
+      </c>
+      <c r="B103" t="s">
+        <v>728</v>
+      </c>
+      <c r="C103" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>619</v>
+      </c>
+      <c r="B104" t="s">
+        <v>729</v>
+      </c>
+      <c r="C104" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>619</v>
+      </c>
+      <c r="B105" t="s">
+        <v>730</v>
+      </c>
+      <c r="C105" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>619</v>
+      </c>
+      <c r="B106" t="s">
+        <v>731</v>
+      </c>
+      <c r="C106" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>619</v>
+      </c>
+      <c r="B107" t="s">
+        <v>732</v>
+      </c>
+      <c r="C107" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>619</v>
+      </c>
+      <c r="B108" t="s">
+        <v>733</v>
+      </c>
+      <c r="C108" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>619</v>
+      </c>
+      <c r="B109" t="s">
+        <v>734</v>
+      </c>
+      <c r="C109" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>619</v>
+      </c>
+      <c r="B110" t="s">
+        <v>735</v>
+      </c>
+      <c r="C110" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>619</v>
+      </c>
+      <c r="B111" t="s">
+        <v>736</v>
+      </c>
+      <c r="C111" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>619</v>
+      </c>
+      <c r="B112" t="s">
+        <v>737</v>
+      </c>
+      <c r="C112" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>619</v>
+      </c>
+      <c r="B113" t="s">
+        <v>738</v>
+      </c>
+      <c r="C113" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>619</v>
+      </c>
+      <c r="B114" t="s">
+        <v>739</v>
+      </c>
+      <c r="C114" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>619</v>
+      </c>
+      <c r="B115" t="s">
+        <v>740</v>
+      </c>
+      <c r="C115" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>619</v>
+      </c>
+      <c r="B116" t="s">
+        <v>743</v>
+      </c>
+      <c r="C116" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>746</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="B120" s="9" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>528</v>
-      </c>
-      <c r="B81" t="s">
-        <v>633</v>
-      </c>
-      <c r="C81" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>528</v>
-      </c>
-      <c r="B82" t="s">
-        <v>635</v>
-      </c>
-      <c r="C82" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>528</v>
-      </c>
-      <c r="B83" t="s">
-        <v>637</v>
-      </c>
-      <c r="C83" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>528</v>
-      </c>
-      <c r="B84" t="s">
-        <v>638</v>
-      </c>
-      <c r="C84" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>528</v>
-      </c>
-      <c r="B85" t="s">
-        <v>640</v>
-      </c>
-      <c r="C85" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>528</v>
-      </c>
-      <c r="B86" t="s">
-        <v>642</v>
-      </c>
-      <c r="C86" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>528</v>
-      </c>
-      <c r="B87" t="s">
-        <v>599</v>
-      </c>
-      <c r="C87" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>528</v>
-      </c>
-      <c r="B88" t="s">
-        <v>643</v>
-      </c>
-      <c r="C88" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>528</v>
-      </c>
-      <c r="B89" t="s">
-        <v>645</v>
-      </c>
-      <c r="C89" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>528</v>
-      </c>
-      <c r="B90" t="s">
-        <v>647</v>
-      </c>
-      <c r="C90" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>528</v>
-      </c>
-      <c r="B91" t="s">
+      <c r="C120" s="9" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="9" t="s">
         <v>649</v>
       </c>
-      <c r="C91" t="s">
+      <c r="B121" s="9" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>528</v>
-      </c>
-      <c r="B92" t="s">
+      <c r="C121" s="9" t="s">
         <v>651</v>
       </c>
-      <c r="C92" t="s">
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="B122" s="9" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>625</v>
-      </c>
-      <c r="B93" t="s">
-        <v>626</v>
-      </c>
-      <c r="C93" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>625</v>
-      </c>
-      <c r="B94" t="s">
-        <v>717</v>
-      </c>
-      <c r="C94" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>625</v>
-      </c>
-      <c r="B95" t="s">
-        <v>719</v>
-      </c>
-      <c r="C95" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>625</v>
-      </c>
-      <c r="B96" t="s">
-        <v>628</v>
-      </c>
-      <c r="C96" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>625</v>
-      </c>
-      <c r="B97" t="s">
-        <v>721</v>
-      </c>
-      <c r="C97" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>625</v>
-      </c>
-      <c r="B98" t="s">
-        <v>734</v>
-      </c>
-      <c r="C98" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>625</v>
-      </c>
-      <c r="B99" t="s">
-        <v>735</v>
-      </c>
-      <c r="C99" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>625</v>
-      </c>
-      <c r="B100" t="s">
-        <v>736</v>
-      </c>
-      <c r="C100" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>625</v>
-      </c>
-      <c r="B101" t="s">
-        <v>737</v>
-      </c>
-      <c r="C101" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>625</v>
-      </c>
-      <c r="B102" t="s">
-        <v>738</v>
-      </c>
-      <c r="C102" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>625</v>
-      </c>
-      <c r="B103" t="s">
-        <v>739</v>
-      </c>
-      <c r="C103" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>625</v>
-      </c>
-      <c r="B104" t="s">
-        <v>740</v>
-      </c>
-      <c r="C104" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>625</v>
-      </c>
-      <c r="B105" t="s">
-        <v>741</v>
-      </c>
-      <c r="C105" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>625</v>
-      </c>
-      <c r="B106" t="s">
-        <v>742</v>
-      </c>
-      <c r="C106" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>625</v>
-      </c>
-      <c r="B107" t="s">
-        <v>743</v>
-      </c>
-      <c r="C107" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>625</v>
-      </c>
-      <c r="B108" t="s">
-        <v>744</v>
-      </c>
-      <c r="C108" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>625</v>
-      </c>
-      <c r="B109" t="s">
-        <v>745</v>
-      </c>
-      <c r="C109" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>625</v>
-      </c>
-      <c r="B110" t="s">
-        <v>746</v>
-      </c>
-      <c r="C110" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>625</v>
-      </c>
-      <c r="B111" t="s">
-        <v>749</v>
-      </c>
-      <c r="C111" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>625</v>
-      </c>
-      <c r="B112" t="s">
-        <v>752</v>
-      </c>
-      <c r="C112" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>625</v>
-      </c>
-      <c r="B113" t="s">
+      <c r="C122" s="9" t="s">
         <v>653</v>
       </c>
-      <c r="C113" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>625</v>
-      </c>
-      <c r="B114" t="s">
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="B123" s="9" t="s">
         <v>654</v>
       </c>
-      <c r="C114" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>625</v>
-      </c>
-      <c r="B115" t="s">
-        <v>630</v>
-      </c>
-      <c r="C115" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="10" t="s">
+      <c r="C123" s="9" t="s">
         <v>655</v>
       </c>
-      <c r="B116" s="10" t="s">
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="B124" s="9" t="s">
         <v>656</v>
       </c>
-      <c r="C116" s="10" t="s">
+      <c r="C124" s="9" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="10" t="s">
-        <v>655</v>
-      </c>
-      <c r="B117" s="10" t="s">
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>649</v>
+      </c>
+      <c r="B125" t="s">
         <v>658</v>
       </c>
-      <c r="C117" s="10" t="s">
+      <c r="C125" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>649</v>
+      </c>
+      <c r="B126" t="s">
+        <v>658</v>
+      </c>
+      <c r="C126" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>649</v>
+      </c>
+      <c r="B127" t="s">
+        <v>658</v>
+      </c>
+      <c r="C127" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>649</v>
+      </c>
+      <c r="B128" t="s">
+        <v>658</v>
+      </c>
+      <c r="C128" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="10" t="s">
-        <v>655</v>
-      </c>
-      <c r="B118" s="10" t="s">
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>649</v>
+      </c>
+      <c r="B129" t="s">
         <v>660</v>
       </c>
-      <c r="C118" s="10" t="s">
+      <c r="C129" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>649</v>
+      </c>
+      <c r="B130" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="10" t="s">
-        <v>655</v>
-      </c>
-      <c r="B119" s="10" t="s">
+      <c r="C130" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>649</v>
+      </c>
+      <c r="B131" t="s">
         <v>662</v>
       </c>
-      <c r="C119" s="10" t="s">
+      <c r="C131" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>649</v>
+      </c>
+      <c r="B132" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>655</v>
-      </c>
-      <c r="B120" t="s">
+      <c r="C132" t="s">
         <v>664</v>
       </c>
-      <c r="C120" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>655</v>
-      </c>
-      <c r="B121" t="s">
-        <v>664</v>
-      </c>
-      <c r="C121" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>655</v>
-      </c>
-      <c r="B122" t="s">
-        <v>664</v>
-      </c>
-      <c r="C122" t="s">
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>649</v>
+      </c>
+      <c r="B133" t="s">
+        <v>665</v>
+      </c>
+      <c r="C133" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>649</v>
+      </c>
+      <c r="B134" t="s">
+        <v>667</v>
+      </c>
+      <c r="C134" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>649</v>
+      </c>
+      <c r="B135" t="s">
+        <v>669</v>
+      </c>
+      <c r="C135" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>649</v>
+      </c>
+      <c r="B136" t="s">
+        <v>670</v>
+      </c>
+      <c r="C136" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>649</v>
+      </c>
+      <c r="B137" t="s">
+        <v>671</v>
+      </c>
+      <c r="C137" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>649</v>
+      </c>
+      <c r="B138" t="s">
+        <v>673</v>
+      </c>
+      <c r="C138" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>649</v>
+      </c>
+      <c r="B139" t="s">
+        <v>674</v>
+      </c>
+      <c r="C139" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>649</v>
+      </c>
+      <c r="B140" t="s">
+        <v>675</v>
+      </c>
+      <c r="C140" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>649</v>
+      </c>
+      <c r="B141" t="s">
+        <v>493</v>
+      </c>
+      <c r="C141" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>649</v>
+      </c>
+      <c r="B142" t="s">
+        <v>495</v>
+      </c>
+      <c r="C142" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>655</v>
-      </c>
-      <c r="B123" t="s">
-        <v>664</v>
-      </c>
-      <c r="C123" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>655</v>
-      </c>
-      <c r="B124" t="s">
-        <v>666</v>
-      </c>
-      <c r="C124" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>655</v>
-      </c>
-      <c r="B125" t="s">
-        <v>667</v>
-      </c>
-      <c r="C125" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>655</v>
-      </c>
-      <c r="B126" t="s">
-        <v>668</v>
-      </c>
-      <c r="C126" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>655</v>
-      </c>
-      <c r="B127" t="s">
-        <v>669</v>
-      </c>
-      <c r="C127" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>655</v>
-      </c>
-      <c r="B128" t="s">
-        <v>671</v>
-      </c>
-      <c r="C128" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>655</v>
-      </c>
-      <c r="B129" t="s">
-        <v>673</v>
-      </c>
-      <c r="C129" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>655</v>
-      </c>
-      <c r="B130" t="s">
-        <v>675</v>
-      </c>
-      <c r="C130" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>655</v>
-      </c>
-      <c r="B131" t="s">
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>649</v>
+      </c>
+      <c r="B143" t="s">
         <v>676</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C143" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>655</v>
-      </c>
-      <c r="B132" t="s">
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
+        <v>649</v>
+      </c>
+      <c r="B144" t="s">
         <v>677</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C144" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>649</v>
+      </c>
+      <c r="B145" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>655</v>
-      </c>
-      <c r="B133" t="s">
+      <c r="C145" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>649</v>
+      </c>
+      <c r="B146" t="s">
         <v>679</v>
       </c>
-      <c r="C133" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>655</v>
-      </c>
-      <c r="B134" t="s">
+      <c r="C146" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>649</v>
+      </c>
+      <c r="B147" t="s">
         <v>680</v>
       </c>
-      <c r="C134" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>655</v>
-      </c>
-      <c r="B135" t="s">
+      <c r="C147" t="s">
         <v>681</v>
       </c>
-      <c r="C135" t="s">
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>649</v>
+      </c>
+      <c r="B148" t="s">
+        <v>682</v>
+      </c>
+      <c r="C148" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>649</v>
+      </c>
+      <c r="B149" t="s">
+        <v>684</v>
+      </c>
+      <c r="C149" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>649</v>
+      </c>
+      <c r="B150" t="s">
+        <v>686</v>
+      </c>
+      <c r="C150" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" t="s">
+        <v>649</v>
+      </c>
+      <c r="B151" t="s">
+        <v>688</v>
+      </c>
+      <c r="C151" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" t="s">
+        <v>649</v>
+      </c>
+      <c r="B152" t="s">
+        <v>690</v>
+      </c>
+      <c r="C152" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" t="s">
+        <v>649</v>
+      </c>
+      <c r="B153" t="s">
+        <v>692</v>
+      </c>
+      <c r="C153" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
+        <v>649</v>
+      </c>
+      <c r="B154" t="s">
+        <v>694</v>
+      </c>
+      <c r="C154" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
+        <v>649</v>
+      </c>
+      <c r="B155" t="s">
+        <v>696</v>
+      </c>
+      <c r="C155" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" t="s">
+        <v>649</v>
+      </c>
+      <c r="B156" t="s">
+        <v>698</v>
+      </c>
+      <c r="C156" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>655</v>
-      </c>
-      <c r="B136" t="s">
-        <v>499</v>
-      </c>
-      <c r="C136" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>655</v>
-      </c>
-      <c r="B137" t="s">
-        <v>501</v>
-      </c>
-      <c r="C137" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>655</v>
-      </c>
-      <c r="B138" t="s">
-        <v>682</v>
-      </c>
-      <c r="C138" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>655</v>
-      </c>
-      <c r="B139" t="s">
-        <v>683</v>
-      </c>
-      <c r="C139" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>655</v>
-      </c>
-      <c r="B140" t="s">
-        <v>684</v>
-      </c>
-      <c r="C140" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>655</v>
-      </c>
-      <c r="B141" t="s">
-        <v>685</v>
-      </c>
-      <c r="C141" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
-        <v>655</v>
-      </c>
-      <c r="B142" t="s">
-        <v>686</v>
-      </c>
-      <c r="C142" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
-        <v>655</v>
-      </c>
-      <c r="B143" t="s">
-        <v>688</v>
-      </c>
-      <c r="C143" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
-        <v>655</v>
-      </c>
-      <c r="B144" t="s">
-        <v>690</v>
-      </c>
-      <c r="C144" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
-        <v>655</v>
-      </c>
-      <c r="B145" t="s">
-        <v>692</v>
-      </c>
-      <c r="C145" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>655</v>
-      </c>
-      <c r="B146" t="s">
-        <v>694</v>
-      </c>
-      <c r="C146" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>655</v>
-      </c>
-      <c r="B147" t="s">
-        <v>696</v>
-      </c>
-      <c r="C147" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
-        <v>655</v>
-      </c>
-      <c r="B148" t="s">
-        <v>698</v>
-      </c>
-      <c r="C148" t="s">
+    <row r="157" spans="1:3">
+      <c r="A157" t="s">
+        <v>649</v>
+      </c>
+      <c r="B157" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
-        <v>655</v>
-      </c>
-      <c r="B149" t="s">
+      <c r="C157" t="s">
         <v>700</v>
       </c>
-      <c r="C149" t="s">
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
+        <v>649</v>
+      </c>
+      <c r="B158" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
-        <v>655</v>
-      </c>
-      <c r="B150" t="s">
+      <c r="C158" t="s">
         <v>702</v>
       </c>
-      <c r="C150" t="s">
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" t="s">
+        <v>649</v>
+      </c>
+      <c r="B159" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
-        <v>655</v>
-      </c>
-      <c r="B151" t="s">
+      <c r="C159" t="s">
         <v>704</v>
       </c>
-      <c r="C151" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
-        <v>655</v>
-      </c>
-      <c r="B152" t="s">
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" t="s">
+        <v>649</v>
+      </c>
+      <c r="B160" t="s">
         <v>705</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C160" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
-        <v>655</v>
-      </c>
-      <c r="B153" t="s">
+    <row r="161" spans="1:3">
+      <c r="A161" t="s">
+        <v>649</v>
+      </c>
+      <c r="B161" t="s">
+        <v>710</v>
+      </c>
+      <c r="C161" t="s">
         <v>707</v>
       </c>
-      <c r="C153" t="s">
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" t="s">
+        <v>649</v>
+      </c>
+      <c r="B162" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
-        <v>655</v>
-      </c>
-      <c r="B154" t="s">
+      <c r="C162" t="s">
         <v>709</v>
-      </c>
-      <c r="C154" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
-        <v>655</v>
-      </c>
-      <c r="B155" t="s">
-        <v>711</v>
-      </c>
-      <c r="C155" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
-        <v>655</v>
-      </c>
-      <c r="B156" t="s">
-        <v>716</v>
-      </c>
-      <c r="C156" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
-        <v>655</v>
-      </c>
-      <c r="B157" t="s">
-        <v>714</v>
-      </c>
-      <c r="C157" t="s">
-        <v>715</v>
       </c>
     </row>
   </sheetData>

--- a/backend/v1.0/tools/DB_Mapping.xlsx
+++ b/backend/v1.0/tools/DB_Mapping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SMARTGRID_CALI\project-cali\backend\v1.0\tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\OneDrive - UCO\Documents\GitHub\project-cali\backend\v1.0\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9EDFB9-6152-4F53-92D9-A9C2F5936C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331D2257-B55E-4DAE-AFAE-DAF991BCA6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConexionDB" sheetId="4" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="764">
   <si>
     <t xml:space="preserve">0x0002 </t>
   </si>
@@ -2018,12 +2018,6 @@
     <t>SV-109</t>
   </si>
   <si>
-    <t>concentración de dolidos volátiles a la salida del reactor 1</t>
-  </si>
-  <si>
-    <t>concentracion de sólidos totales a la salida del reactor 1</t>
-  </si>
-  <si>
     <t>Módulo solar-eólico</t>
   </si>
   <si>
@@ -2367,13 +2361,19 @@
   </si>
   <si>
     <t>Temperatura Baterías  (Controlador Turgo)</t>
+  </si>
+  <si>
+    <t>concentración de dolidos volátiles a la salida de R101</t>
+  </si>
+  <si>
+    <t>concentracion de sólidos totales a la salida de R101</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2443,7 +2443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2455,7 +2455,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2742,13 +2741,13 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="95.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="95.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>275</v>
       </c>
@@ -2768,7 +2767,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>436</v>
       </c>
@@ -2788,7 +2787,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>436</v>
       </c>
@@ -2808,7 +2807,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>519</v>
       </c>
@@ -2828,7 +2827,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>436</v>
       </c>
@@ -2848,7 +2847,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E10" s="8"/>
     </row>
   </sheetData>
@@ -2865,13 +2864,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>275</v>
       </c>
@@ -2885,7 +2884,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>435</v>
       </c>
@@ -2909,17 +2908,17 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>428</v>
       </c>
@@ -2930,7 +2929,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1">
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2941,7 +2940,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2952,7 +2951,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2963,7 +2962,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2974,7 +2973,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2985,7 +2984,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2996,7 +2995,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3007,7 +3006,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3018,7 +3017,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3029,7 +3028,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3040,7 +3039,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3051,7 +3050,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3062,7 +3061,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3073,7 +3072,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3084,7 +3083,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3095,7 +3094,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3106,7 +3105,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3117,7 +3116,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3128,7 +3127,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3139,7 +3138,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3150,136 +3149,136 @@
         <v>435</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="6"/>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="6"/>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="6"/>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="6"/>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="6"/>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="6"/>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="6"/>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="6"/>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="6"/>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="6"/>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="6"/>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="6"/>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="6"/>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="6"/>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="6"/>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="6"/>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="6"/>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="6"/>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="6"/>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="6"/>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="6"/>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="6"/>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="6"/>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="6"/>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="6"/>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="6"/>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="6"/>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="6"/>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="6"/>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="6"/>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="6"/>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="6"/>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="6"/>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="6"/>
     </row>
   </sheetData>
@@ -3295,18 +3294,18 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -3332,7 +3331,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3358,7 +3357,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3384,7 +3383,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -3410,7 +3409,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -3436,7 +3435,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3462,7 +3461,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -3488,7 +3487,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3514,7 +3513,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -3540,7 +3539,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -3566,7 +3565,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -3592,7 +3591,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -3618,7 +3617,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -3644,7 +3643,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
@@ -3670,7 +3669,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
@@ -3696,7 +3695,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>24</v>
       </c>
@@ -3722,7 +3721,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -3748,7 +3747,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -3774,7 +3773,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -3800,7 +3799,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -3823,7 +3822,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -3846,7 +3845,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -3869,7 +3868,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -3895,7 +3894,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -3921,7 +3920,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -3947,7 +3946,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -3973,7 +3972,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -3999,7 +3998,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -4025,7 +4024,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -4051,7 +4050,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>100</v>
       </c>
@@ -4077,7 +4076,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>102</v>
       </c>
@@ -4103,7 +4102,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>125</v>
       </c>
@@ -4129,7 +4128,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>126</v>
       </c>
@@ -4155,7 +4154,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>127</v>
       </c>
@@ -4181,7 +4180,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>128</v>
       </c>
@@ -4207,7 +4206,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>129</v>
       </c>
@@ -4233,7 +4232,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>130</v>
       </c>
@@ -4259,7 +4258,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>131</v>
       </c>
@@ -4285,7 +4284,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>132</v>
       </c>
@@ -4311,7 +4310,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>133</v>
       </c>
@@ -4337,7 +4336,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>134</v>
       </c>
@@ -4363,7 +4362,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>135</v>
       </c>
@@ -4389,7 +4388,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>136</v>
       </c>
@@ -4415,7 +4414,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>104</v>
       </c>
@@ -4441,7 +4440,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>106</v>
       </c>
@@ -4467,7 +4466,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>211</v>
       </c>
@@ -4493,7 +4492,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>212</v>
       </c>
@@ -4519,7 +4518,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>213</v>
       </c>
@@ -4545,7 +4544,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>214</v>
       </c>
@@ -4571,7 +4570,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>215</v>
       </c>
@@ -4597,7 +4596,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>216</v>
       </c>
@@ -4623,7 +4622,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>217</v>
       </c>
@@ -4649,7 +4648,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>218</v>
       </c>
@@ -4675,7 +4674,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>219</v>
       </c>
@@ -4701,7 +4700,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>220</v>
       </c>
@@ -4727,7 +4726,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>221</v>
       </c>
@@ -4753,7 +4752,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>222</v>
       </c>
@@ -4779,7 +4778,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>108</v>
       </c>
@@ -4805,7 +4804,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>110</v>
       </c>
@@ -4831,7 +4830,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>223</v>
       </c>
@@ -4857,7 +4856,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>224</v>
       </c>
@@ -4883,7 +4882,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>225</v>
       </c>
@@ -4909,7 +4908,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>226</v>
       </c>
@@ -4935,7 +4934,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>227</v>
       </c>
@@ -4961,7 +4960,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>228</v>
       </c>
@@ -4987,7 +4986,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>229</v>
       </c>
@@ -5013,7 +5012,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>230</v>
       </c>
@@ -5039,7 +5038,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>231</v>
       </c>
@@ -5065,7 +5064,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>232</v>
       </c>
@@ -5091,7 +5090,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>233</v>
       </c>
@@ -5117,7 +5116,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>234</v>
       </c>
@@ -5143,7 +5142,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>112</v>
       </c>
@@ -5169,7 +5168,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>114</v>
       </c>
@@ -5195,7 +5194,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>235</v>
       </c>
@@ -5221,7 +5220,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>236</v>
       </c>
@@ -5247,7 +5246,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>237</v>
       </c>
@@ -5273,7 +5272,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>238</v>
       </c>
@@ -5299,7 +5298,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>239</v>
       </c>
@@ -5325,7 +5324,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>240</v>
       </c>
@@ -5351,7 +5350,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>241</v>
       </c>
@@ -5377,7 +5376,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>242</v>
       </c>
@@ -5403,7 +5402,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>243</v>
       </c>
@@ -5429,7 +5428,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>244</v>
       </c>
@@ -5455,7 +5454,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>245</v>
       </c>
@@ -5481,7 +5480,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>246</v>
       </c>
@@ -5507,7 +5506,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>247</v>
       </c>
@@ -5533,7 +5532,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>116</v>
       </c>
@@ -5559,7 +5558,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>118</v>
       </c>
@@ -5585,7 +5584,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>248</v>
       </c>
@@ -5611,7 +5610,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>249</v>
       </c>
@@ -5637,7 +5636,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>250</v>
       </c>
@@ -5663,7 +5662,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>251</v>
       </c>
@@ -5689,7 +5688,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>252</v>
       </c>
@@ -5715,7 +5714,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>253</v>
       </c>
@@ -5741,7 +5740,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>254</v>
       </c>
@@ -5767,7 +5766,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>255</v>
       </c>
@@ -5793,7 +5792,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>256</v>
       </c>
@@ -5819,7 +5818,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>257</v>
       </c>
@@ -5845,7 +5844,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>258</v>
       </c>
@@ -5871,7 +5870,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>259</v>
       </c>
@@ -5897,7 +5896,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>260</v>
       </c>
@@ -5923,7 +5922,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>120</v>
       </c>
@@ -5949,7 +5948,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>122</v>
       </c>
@@ -5975,7 +5974,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>261</v>
       </c>
@@ -6001,7 +6000,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>262</v>
       </c>
@@ -6027,7 +6026,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>263</v>
       </c>
@@ -6053,7 +6052,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>264</v>
       </c>
@@ -6079,7 +6078,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>265</v>
       </c>
@@ -6105,7 +6104,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>266</v>
       </c>
@@ -6131,7 +6130,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>267</v>
       </c>
@@ -6157,7 +6156,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>268</v>
       </c>
@@ -6183,7 +6182,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>269</v>
       </c>
@@ -6209,7 +6208,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>270</v>
       </c>
@@ -6235,7 +6234,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>271</v>
       </c>
@@ -6261,7 +6260,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>272</v>
       </c>
@@ -6287,7 +6286,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>273</v>
       </c>
@@ -6313,7 +6312,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>60</v>
       </c>
@@ -6339,7 +6338,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>62</v>
       </c>
@@ -6365,7 +6364,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>64</v>
       </c>
@@ -6391,7 +6390,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>66</v>
       </c>
@@ -6417,7 +6416,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>68</v>
       </c>
@@ -6443,7 +6442,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>70</v>
       </c>
@@ -6469,7 +6468,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>72</v>
       </c>
@@ -6495,7 +6494,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>74</v>
       </c>
@@ -6521,7 +6520,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>76</v>
       </c>
@@ -6547,7 +6546,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>78</v>
       </c>
@@ -6573,7 +6572,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>80</v>
       </c>
@@ -6599,7 +6598,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>82</v>
       </c>
@@ -6625,7 +6624,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>84</v>
       </c>
@@ -6651,7 +6650,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>86</v>
       </c>
@@ -6677,7 +6676,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
         <v>88</v>
       </c>
@@ -6703,7 +6702,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
         <v>90</v>
       </c>
@@ -6729,7 +6728,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
         <v>92</v>
       </c>
@@ -6755,7 +6754,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
         <v>94</v>
       </c>
@@ -6781,7 +6780,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>96</v>
       </c>
@@ -6807,7 +6806,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>98</v>
       </c>
@@ -6845,18 +6844,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D5969C-509B-4D3C-BD42-B92347445C5B}">
   <dimension ref="A1:C162"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>465</v>
       </c>
@@ -6867,7 +6866,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>467</v>
       </c>
@@ -6878,7 +6877,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>467</v>
       </c>
@@ -6889,7 +6888,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>467</v>
       </c>
@@ -6900,7 +6899,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>467</v>
       </c>
@@ -6911,7 +6910,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>467</v>
       </c>
@@ -6922,7 +6921,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>467</v>
       </c>
@@ -6933,7 +6932,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>467</v>
       </c>
@@ -6944,161 +6943,161 @@
         <v>481</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>467</v>
       </c>
       <c r="B9" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C9" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>467</v>
       </c>
       <c r="B10" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C10" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>467</v>
       </c>
       <c r="B11" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C11" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>467</v>
       </c>
       <c r="B12" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C12" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>467</v>
       </c>
       <c r="B13" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C13" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>467</v>
       </c>
       <c r="B14" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C14" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>467</v>
       </c>
       <c r="B15" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C15" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>467</v>
       </c>
       <c r="B16" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C16" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>467</v>
       </c>
       <c r="B17" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C17" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>467</v>
       </c>
       <c r="B18" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C18" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>467</v>
       </c>
       <c r="B19" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C19" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>467</v>
       </c>
       <c r="B20" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C20" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>467</v>
       </c>
       <c r="B21" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C21" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>467</v>
       </c>
       <c r="B22" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C22" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>467</v>
       </c>
@@ -7109,8 +7108,8 @@
         <v>492</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="9" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>467</v>
       </c>
       <c r="B24" t="s">
@@ -7120,8 +7119,8 @@
         <v>494</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="9" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>467</v>
       </c>
       <c r="B25" t="s">
@@ -7131,8 +7130,8 @@
         <v>496</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="9" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>467</v>
       </c>
       <c r="B26" t="s">
@@ -7142,8 +7141,8 @@
         <v>498</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="9" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>467</v>
       </c>
       <c r="B27" t="s">
@@ -7153,8 +7152,8 @@
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="9" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>467</v>
       </c>
       <c r="B28" t="s">
@@ -7164,8 +7163,8 @@
         <v>502</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="9" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>467</v>
       </c>
       <c r="B29" t="s">
@@ -7175,8 +7174,8 @@
         <v>504</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="9" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>467</v>
       </c>
       <c r="B30" t="s">
@@ -7186,8 +7185,8 @@
         <v>506</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="9" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>467</v>
       </c>
       <c r="B31" t="s">
@@ -7197,8 +7196,8 @@
         <v>508</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="9" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>467</v>
       </c>
       <c r="B32" t="s">
@@ -7208,8 +7207,8 @@
         <v>510</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="9" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>467</v>
       </c>
       <c r="B33" t="s">
@@ -7219,8 +7218,8 @@
         <v>512</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="9" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>467</v>
       </c>
       <c r="B34" t="s">
@@ -7230,8 +7229,8 @@
         <v>514</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="9" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>467</v>
       </c>
       <c r="B35" t="s">
@@ -7241,8 +7240,8 @@
         <v>516</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="9" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>467</v>
       </c>
       <c r="B36" t="s">
@@ -7252,7 +7251,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>522</v>
       </c>
@@ -7263,7 +7262,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>522</v>
       </c>
@@ -7274,7 +7273,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>522</v>
       </c>
@@ -7285,7 +7284,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>522</v>
       </c>
@@ -7296,7 +7295,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>522</v>
       </c>
@@ -7307,7 +7306,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>522</v>
       </c>
@@ -7318,7 +7317,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>522</v>
       </c>
@@ -7329,7 +7328,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>522</v>
       </c>
@@ -7340,7 +7339,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>522</v>
       </c>
@@ -7351,7 +7350,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>522</v>
       </c>
@@ -7362,7 +7361,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>522</v>
       </c>
@@ -7373,7 +7372,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>522</v>
       </c>
@@ -7384,7 +7383,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>522</v>
       </c>
@@ -7395,7 +7394,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>522</v>
       </c>
@@ -7406,7 +7405,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>522</v>
       </c>
@@ -7417,7 +7416,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>522</v>
       </c>
@@ -7428,7 +7427,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>522</v>
       </c>
@@ -7439,7 +7438,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>522</v>
       </c>
@@ -7450,7 +7449,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>522</v>
       </c>
@@ -7461,7 +7460,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>522</v>
       </c>
@@ -7472,7 +7471,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>522</v>
       </c>
@@ -7483,7 +7482,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>522</v>
       </c>
@@ -7494,7 +7493,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>522</v>
       </c>
@@ -7505,7 +7504,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>522</v>
       </c>
@@ -7516,7 +7515,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>522</v>
       </c>
@@ -7527,7 +7526,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>522</v>
       </c>
@@ -7538,7 +7537,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>522</v>
       </c>
@@ -7549,7 +7548,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>522</v>
       </c>
@@ -7560,7 +7559,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>522</v>
       </c>
@@ -7571,7 +7570,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>522</v>
       </c>
@@ -7582,7 +7581,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>522</v>
       </c>
@@ -7593,7 +7592,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>522</v>
       </c>
@@ -7604,7 +7603,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>522</v>
       </c>
@@ -7615,7 +7614,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>522</v>
       </c>
@@ -7626,7 +7625,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>522</v>
       </c>
@@ -7637,7 +7636,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>522</v>
       </c>
@@ -7648,7 +7647,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>522</v>
       </c>
@@ -7659,7 +7658,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>522</v>
       </c>
@@ -7670,7 +7669,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>522</v>
       </c>
@@ -7681,7 +7680,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>522</v>
       </c>
@@ -7692,7 +7691,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>522</v>
       </c>
@@ -7703,7 +7702,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>522</v>
       </c>
@@ -7714,7 +7713,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>522</v>
       </c>
@@ -7725,7 +7724,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>522</v>
       </c>
@@ -7736,7 +7735,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>522</v>
       </c>
@@ -7747,7 +7746,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>522</v>
       </c>
@@ -7758,7 +7757,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>522</v>
       </c>
@@ -7769,7 +7768,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>522</v>
       </c>
@@ -7780,7 +7779,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>522</v>
       </c>
@@ -7791,7 +7790,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>522</v>
       </c>
@@ -7802,7 +7801,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>522</v>
       </c>
@@ -7813,7 +7812,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>522</v>
       </c>
@@ -7824,7 +7823,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>522</v>
       </c>
@@ -7835,7 +7834,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>522</v>
       </c>
@@ -7846,7 +7845,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>522</v>
       </c>
@@ -7857,7 +7856,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>522</v>
       </c>
@@ -7868,7 +7867,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>522</v>
       </c>
@@ -7879,7 +7878,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>522</v>
       </c>
@@ -7890,7 +7889,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>522</v>
       </c>
@@ -7901,7 +7900,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>522</v>
       </c>
@@ -7912,7 +7911,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>522</v>
       </c>
@@ -7923,7 +7922,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>619</v>
       </c>
@@ -7934,29 +7933,29 @@
         <v>621</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>619</v>
       </c>
       <c r="B99" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C99" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>619</v>
       </c>
       <c r="B100" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C100" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>619</v>
       </c>
@@ -7967,438 +7966,438 @@
         <v>623</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>619</v>
       </c>
       <c r="B102" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C102" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>619</v>
       </c>
       <c r="B103" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C103" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>619</v>
       </c>
       <c r="B104" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C104" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>619</v>
       </c>
       <c r="B105" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C105" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>619</v>
       </c>
       <c r="B106" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C106" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>619</v>
       </c>
       <c r="B107" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C107" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>619</v>
       </c>
       <c r="B108" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C108" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>619</v>
       </c>
       <c r="B109" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C109" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>619</v>
       </c>
       <c r="B110" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C110" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>619</v>
       </c>
       <c r="B111" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C111" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>619</v>
       </c>
       <c r="B112" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C112" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>619</v>
       </c>
       <c r="B113" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C113" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>619</v>
       </c>
       <c r="B114" t="s">
+        <v>737</v>
+      </c>
+      <c r="C114" t="s">
         <v>739</v>
       </c>
-      <c r="C114" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>619</v>
       </c>
       <c r="B115" t="s">
+        <v>738</v>
+      </c>
+      <c r="C115" t="s">
         <v>740</v>
       </c>
-      <c r="C115" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>619</v>
       </c>
       <c r="B116" t="s">
+        <v>741</v>
+      </c>
+      <c r="C116" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>619</v>
+      </c>
+      <c r="B117" t="s">
+        <v>744</v>
+      </c>
+      <c r="C117" t="s">
         <v>743</v>
       </c>
-      <c r="C116" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="9" t="s">
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
         <v>619</v>
       </c>
-      <c r="B117" s="9" t="s">
-        <v>746</v>
-      </c>
-      <c r="C117" s="9" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="9" t="s">
+      <c r="B118" t="s">
+        <v>762</v>
+      </c>
+      <c r="C118" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
         <v>619</v>
       </c>
-      <c r="B118" s="9" t="s">
+      <c r="B119" t="s">
+        <v>763</v>
+      </c>
+      <c r="C119" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>619</v>
+      </c>
+      <c r="B120" t="s">
+        <v>624</v>
+      </c>
+      <c r="C120" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
         <v>647</v>
       </c>
-      <c r="C118" s="9" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="9" t="s">
-        <v>619</v>
-      </c>
-      <c r="B119" s="9" t="s">
+      <c r="B121" t="s">
         <v>648</v>
       </c>
-      <c r="C119" s="9" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="9" t="s">
-        <v>619</v>
-      </c>
-      <c r="B120" s="9" t="s">
-        <v>624</v>
-      </c>
-      <c r="C120" s="9" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="9" t="s">
+      <c r="C121" t="s">
         <v>649</v>
       </c>
-      <c r="B121" s="9" t="s">
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>647</v>
+      </c>
+      <c r="B122" t="s">
         <v>650</v>
       </c>
-      <c r="C121" s="9" t="s">
+      <c r="C122" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="9" t="s">
-        <v>649</v>
-      </c>
-      <c r="B122" s="9" t="s">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>647</v>
+      </c>
+      <c r="B123" t="s">
         <v>652</v>
       </c>
-      <c r="C122" s="9" t="s">
+      <c r="C123" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="9" t="s">
-        <v>649</v>
-      </c>
-      <c r="B123" s="9" t="s">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>647</v>
+      </c>
+      <c r="B124" t="s">
         <v>654</v>
       </c>
-      <c r="C123" s="9" t="s">
+      <c r="C124" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="9" t="s">
-        <v>649</v>
-      </c>
-      <c r="B124" s="9" t="s">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>647</v>
+      </c>
+      <c r="B125" t="s">
         <v>656</v>
-      </c>
-      <c r="C124" s="9" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" t="s">
-        <v>649</v>
-      </c>
-      <c r="B125" t="s">
-        <v>658</v>
       </c>
       <c r="C125" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B126" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C126" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B127" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C127" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B128" t="s">
+        <v>656</v>
+      </c>
+      <c r="C128" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>647</v>
+      </c>
+      <c r="B129" t="s">
         <v>658</v>
-      </c>
-      <c r="C128" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" t="s">
-        <v>649</v>
-      </c>
-      <c r="B129" t="s">
-        <v>660</v>
       </c>
       <c r="C129" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B130" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C130" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B131" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C131" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B132" t="s">
+        <v>661</v>
+      </c>
+      <c r="C132" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>647</v>
+      </c>
+      <c r="B133" t="s">
         <v>663</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C133" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
-      <c r="A133" t="s">
-        <v>649</v>
-      </c>
-      <c r="B133" t="s">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>647</v>
+      </c>
+      <c r="B134" t="s">
         <v>665</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C134" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
-      <c r="A134" t="s">
-        <v>649</v>
-      </c>
-      <c r="B134" t="s">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>647</v>
+      </c>
+      <c r="B135" t="s">
         <v>667</v>
-      </c>
-      <c r="C134" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" t="s">
-        <v>649</v>
-      </c>
-      <c r="B135" t="s">
-        <v>669</v>
       </c>
       <c r="C135" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B136" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C136" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B137" t="s">
+        <v>669</v>
+      </c>
+      <c r="C137" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>647</v>
+      </c>
+      <c r="B138" t="s">
         <v>671</v>
-      </c>
-      <c r="C137" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" t="s">
-        <v>649</v>
-      </c>
-      <c r="B138" t="s">
-        <v>673</v>
       </c>
       <c r="C138" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B139" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C139" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B140" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C140" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B141" t="s">
         <v>493</v>
@@ -8407,9 +8406,9 @@
         <v>494</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B142" t="s">
         <v>495</v>
@@ -8418,224 +8417,224 @@
         <v>496</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B143" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C143" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B144" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C144" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B145" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C145" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B146" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C146" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B147" t="s">
+        <v>678</v>
+      </c>
+      <c r="C147" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>647</v>
+      </c>
+      <c r="B148" t="s">
         <v>680</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C148" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
-      <c r="A148" t="s">
-        <v>649</v>
-      </c>
-      <c r="B148" t="s">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>647</v>
+      </c>
+      <c r="B149" t="s">
         <v>682</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C149" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
-      <c r="A149" t="s">
-        <v>649</v>
-      </c>
-      <c r="B149" t="s">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>647</v>
+      </c>
+      <c r="B150" t="s">
         <v>684</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C150" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
-      <c r="A150" t="s">
-        <v>649</v>
-      </c>
-      <c r="B150" t="s">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>647</v>
+      </c>
+      <c r="B151" t="s">
         <v>686</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C151" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
-      <c r="A151" t="s">
-        <v>649</v>
-      </c>
-      <c r="B151" t="s">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>647</v>
+      </c>
+      <c r="B152" t="s">
         <v>688</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C152" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
-      <c r="A152" t="s">
-        <v>649</v>
-      </c>
-      <c r="B152" t="s">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>647</v>
+      </c>
+      <c r="B153" t="s">
         <v>690</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C153" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
-      <c r="A153" t="s">
-        <v>649</v>
-      </c>
-      <c r="B153" t="s">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>647</v>
+      </c>
+      <c r="B154" t="s">
         <v>692</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C154" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
-      <c r="A154" t="s">
-        <v>649</v>
-      </c>
-      <c r="B154" t="s">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>647</v>
+      </c>
+      <c r="B155" t="s">
         <v>694</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C155" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
-      <c r="A155" t="s">
-        <v>649</v>
-      </c>
-      <c r="B155" t="s">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>647</v>
+      </c>
+      <c r="B156" t="s">
         <v>696</v>
-      </c>
-      <c r="C155" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" t="s">
-        <v>649</v>
-      </c>
-      <c r="B156" t="s">
-        <v>698</v>
       </c>
       <c r="C156" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B157" t="s">
+        <v>697</v>
+      </c>
+      <c r="C157" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>647</v>
+      </c>
+      <c r="B158" t="s">
         <v>699</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C158" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
-      <c r="A158" t="s">
-        <v>649</v>
-      </c>
-      <c r="B158" t="s">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>647</v>
+      </c>
+      <c r="B159" t="s">
         <v>701</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C159" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
-      <c r="A159" t="s">
-        <v>649</v>
-      </c>
-      <c r="B159" t="s">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>647</v>
+      </c>
+      <c r="B160" t="s">
         <v>703</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C160" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
-      <c r="A160" t="s">
-        <v>649</v>
-      </c>
-      <c r="B160" t="s">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>647</v>
+      </c>
+      <c r="B161" t="s">
+        <v>708</v>
+      </c>
+      <c r="C161" t="s">
         <v>705</v>
       </c>
-      <c r="C160" t="s">
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>647</v>
+      </c>
+      <c r="B162" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="A161" t="s">
-        <v>649</v>
-      </c>
-      <c r="B161" t="s">
-        <v>710</v>
-      </c>
-      <c r="C161" t="s">
+      <c r="C162" t="s">
         <v>707</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162" t="s">
-        <v>649</v>
-      </c>
-      <c r="B162" t="s">
-        <v>708</v>
-      </c>
-      <c r="C162" t="s">
-        <v>709</v>
       </c>
     </row>
   </sheetData>

--- a/backend/v1.0/tools/DB_Mapping.xlsx
+++ b/backend/v1.0/tools/DB_Mapping.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\OneDrive - UCO\Documents\GitHub\project-cali\backend\v1.0\tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconet-my.sharepoint.com/personal/sarango_uco_edu_co/Documents/Documents/GitHub/project-cali/backend/v1.0/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331D2257-B55E-4DAE-AFAE-DAF991BCA6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{331D2257-B55E-4DAE-AFAE-DAF991BCA6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4F4FDE4-51EB-4C16-BE57-0BE5213133B8}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="766">
   <si>
     <t xml:space="preserve">0x0002 </t>
   </si>
@@ -2367,6 +2367,12 @@
   </si>
   <si>
     <t>concentracion de sólidos totales a la salida de R101</t>
+  </si>
+  <si>
+    <t>Temperatura de biogás en V-102</t>
+  </si>
+  <si>
+    <t>TT-104</t>
   </si>
 </sst>
 </file>
@@ -6842,10 +6848,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D5969C-509B-4D3C-BD42-B92347445C5B}">
-  <dimension ref="A1:C162"/>
+  <dimension ref="A1:C163"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119"/>
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7630,10 +7636,10 @@
         <v>522</v>
       </c>
       <c r="B71" t="s">
-        <v>591</v>
+        <v>764</v>
       </c>
       <c r="C71" t="s">
-        <v>592</v>
+        <v>765</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -7641,10 +7647,10 @@
         <v>522</v>
       </c>
       <c r="B72" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C72" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -7652,10 +7658,10 @@
         <v>522</v>
       </c>
       <c r="B73" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C73" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -7663,10 +7669,10 @@
         <v>522</v>
       </c>
       <c r="B74" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C74" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -7674,10 +7680,10 @@
         <v>522</v>
       </c>
       <c r="B75" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C75" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -7685,10 +7691,10 @@
         <v>522</v>
       </c>
       <c r="B76" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C76" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -7696,10 +7702,10 @@
         <v>522</v>
       </c>
       <c r="B77" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C77" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -7707,10 +7713,10 @@
         <v>522</v>
       </c>
       <c r="B78" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C78" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -7718,10 +7724,10 @@
         <v>522</v>
       </c>
       <c r="B79" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C79" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -7729,10 +7735,10 @@
         <v>522</v>
       </c>
       <c r="B80" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C80" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -7740,10 +7746,10 @@
         <v>522</v>
       </c>
       <c r="B81" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C81" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -7751,10 +7757,10 @@
         <v>522</v>
       </c>
       <c r="B82" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C82" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -7762,10 +7768,10 @@
         <v>522</v>
       </c>
       <c r="B83" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C83" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -7773,10 +7779,10 @@
         <v>522</v>
       </c>
       <c r="B84" t="s">
-        <v>523</v>
+        <v>615</v>
       </c>
       <c r="C84" t="s">
-        <v>524</v>
+        <v>616</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -7784,10 +7790,10 @@
         <v>522</v>
       </c>
       <c r="B85" t="s">
-        <v>617</v>
+        <v>523</v>
       </c>
       <c r="C85" t="s">
-        <v>618</v>
+        <v>524</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -7795,10 +7801,10 @@
         <v>522</v>
       </c>
       <c r="B86" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="C86" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -7806,10 +7812,10 @@
         <v>522</v>
       </c>
       <c r="B87" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C87" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -7817,10 +7823,10 @@
         <v>522</v>
       </c>
       <c r="B88" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C88" t="s">
-        <v>568</v>
+        <v>630</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -7828,10 +7834,10 @@
         <v>522</v>
       </c>
       <c r="B89" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C89" t="s">
-        <v>633</v>
+        <v>568</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -7839,10 +7845,10 @@
         <v>522</v>
       </c>
       <c r="B90" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C90" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -7850,7 +7856,7 @@
         <v>522</v>
       </c>
       <c r="B91" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C91" t="s">
         <v>635</v>
@@ -7861,10 +7867,10 @@
         <v>522</v>
       </c>
       <c r="B92" t="s">
-        <v>593</v>
+        <v>636</v>
       </c>
       <c r="C92" t="s">
-        <v>594</v>
+        <v>635</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -7872,10 +7878,10 @@
         <v>522</v>
       </c>
       <c r="B93" t="s">
-        <v>637</v>
+        <v>593</v>
       </c>
       <c r="C93" t="s">
-        <v>638</v>
+        <v>594</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -7883,10 +7889,10 @@
         <v>522</v>
       </c>
       <c r="B94" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C94" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -7894,10 +7900,10 @@
         <v>522</v>
       </c>
       <c r="B95" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C95" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -7905,10 +7911,10 @@
         <v>522</v>
       </c>
       <c r="B96" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C96" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -7916,21 +7922,21 @@
         <v>522</v>
       </c>
       <c r="B97" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C97" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>619</v>
+        <v>522</v>
       </c>
       <c r="B98" t="s">
-        <v>620</v>
+        <v>645</v>
       </c>
       <c r="C98" t="s">
-        <v>621</v>
+        <v>646</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -7938,10 +7944,10 @@
         <v>619</v>
       </c>
       <c r="B99" t="s">
-        <v>709</v>
+        <v>620</v>
       </c>
       <c r="C99" t="s">
-        <v>710</v>
+        <v>621</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -7949,10 +7955,10 @@
         <v>619</v>
       </c>
       <c r="B100" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C100" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -7960,10 +7966,10 @@
         <v>619</v>
       </c>
       <c r="B101" t="s">
-        <v>622</v>
+        <v>711</v>
       </c>
       <c r="C101" t="s">
-        <v>623</v>
+        <v>712</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -7971,10 +7977,10 @@
         <v>619</v>
       </c>
       <c r="B102" t="s">
-        <v>713</v>
+        <v>622</v>
       </c>
       <c r="C102" t="s">
-        <v>714</v>
+        <v>623</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
@@ -7982,10 +7988,10 @@
         <v>619</v>
       </c>
       <c r="B103" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
       <c r="C103" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
@@ -7993,10 +7999,10 @@
         <v>619</v>
       </c>
       <c r="B104" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C104" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -8004,10 +8010,10 @@
         <v>619</v>
       </c>
       <c r="B105" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C105" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
@@ -8015,10 +8021,10 @@
         <v>619</v>
       </c>
       <c r="B106" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C106" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -8026,10 +8032,10 @@
         <v>619</v>
       </c>
       <c r="B107" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C107" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
@@ -8037,10 +8043,10 @@
         <v>619</v>
       </c>
       <c r="B108" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C108" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
@@ -8048,10 +8054,10 @@
         <v>619</v>
       </c>
       <c r="B109" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C109" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
@@ -8059,10 +8065,10 @@
         <v>619</v>
       </c>
       <c r="B110" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C110" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
@@ -8070,10 +8076,10 @@
         <v>619</v>
       </c>
       <c r="B111" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C111" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
@@ -8081,10 +8087,10 @@
         <v>619</v>
       </c>
       <c r="B112" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C112" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -8092,10 +8098,10 @@
         <v>619</v>
       </c>
       <c r="B113" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C113" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -8103,10 +8109,10 @@
         <v>619</v>
       </c>
       <c r="B114" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C114" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -8114,10 +8120,10 @@
         <v>619</v>
       </c>
       <c r="B115" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C115" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -8125,10 +8131,10 @@
         <v>619</v>
       </c>
       <c r="B116" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="C116" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -8136,10 +8142,10 @@
         <v>619</v>
       </c>
       <c r="B117" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C117" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -8147,10 +8153,10 @@
         <v>619</v>
       </c>
       <c r="B118" t="s">
-        <v>762</v>
+        <v>744</v>
       </c>
       <c r="C118" t="s">
-        <v>546</v>
+        <v>743</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
@@ -8158,10 +8164,10 @@
         <v>619</v>
       </c>
       <c r="B119" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C119" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
@@ -8169,21 +8175,21 @@
         <v>619</v>
       </c>
       <c r="B120" t="s">
-        <v>624</v>
+        <v>763</v>
       </c>
       <c r="C120" t="s">
-        <v>625</v>
+        <v>544</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>647</v>
+        <v>619</v>
       </c>
       <c r="B121" t="s">
-        <v>648</v>
+        <v>624</v>
       </c>
       <c r="C121" t="s">
-        <v>649</v>
+        <v>625</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
@@ -8191,10 +8197,10 @@
         <v>647</v>
       </c>
       <c r="B122" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C122" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
@@ -8202,10 +8208,10 @@
         <v>647</v>
       </c>
       <c r="B123" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C123" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
@@ -8213,10 +8219,10 @@
         <v>647</v>
       </c>
       <c r="B124" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C124" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
@@ -8224,10 +8230,10 @@
         <v>647</v>
       </c>
       <c r="B125" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C125" t="s">
-        <v>473</v>
+        <v>655</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
@@ -8238,7 +8244,7 @@
         <v>656</v>
       </c>
       <c r="C126" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
@@ -8249,7 +8255,7 @@
         <v>656</v>
       </c>
       <c r="C127" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
@@ -8260,7 +8266,7 @@
         <v>656</v>
       </c>
       <c r="C128" t="s">
-        <v>657</v>
+        <v>490</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
@@ -8268,10 +8274,10 @@
         <v>647</v>
       </c>
       <c r="B129" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C129" t="s">
-        <v>482</v>
+        <v>657</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
@@ -8279,10 +8285,10 @@
         <v>647</v>
       </c>
       <c r="B130" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C130" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
@@ -8290,10 +8296,10 @@
         <v>647</v>
       </c>
       <c r="B131" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C131" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
@@ -8301,10 +8307,10 @@
         <v>647</v>
       </c>
       <c r="B132" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C132" t="s">
-        <v>662</v>
+        <v>486</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
@@ -8312,10 +8318,10 @@
         <v>647</v>
       </c>
       <c r="B133" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C133" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
@@ -8323,10 +8329,10 @@
         <v>647</v>
       </c>
       <c r="B134" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C134" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
@@ -8334,10 +8340,10 @@
         <v>647</v>
       </c>
       <c r="B135" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C135" t="s">
-        <v>488</v>
+        <v>666</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
@@ -8345,10 +8351,10 @@
         <v>647</v>
       </c>
       <c r="B136" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C136" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
@@ -8356,10 +8362,10 @@
         <v>647</v>
       </c>
       <c r="B137" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C137" t="s">
-        <v>670</v>
+        <v>492</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
@@ -8367,10 +8373,10 @@
         <v>647</v>
       </c>
       <c r="B138" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C138" t="s">
-        <v>508</v>
+        <v>670</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
@@ -8378,10 +8384,10 @@
         <v>647</v>
       </c>
       <c r="B139" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C139" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
@@ -8389,10 +8395,10 @@
         <v>647</v>
       </c>
       <c r="B140" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C140" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
@@ -8400,10 +8406,10 @@
         <v>647</v>
       </c>
       <c r="B141" t="s">
-        <v>493</v>
+        <v>673</v>
       </c>
       <c r="C141" t="s">
-        <v>494</v>
+        <v>512</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
@@ -8411,10 +8417,10 @@
         <v>647</v>
       </c>
       <c r="B142" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C142" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
@@ -8422,10 +8428,10 @@
         <v>647</v>
       </c>
       <c r="B143" t="s">
-        <v>674</v>
+        <v>495</v>
       </c>
       <c r="C143" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -8433,10 +8439,10 @@
         <v>647</v>
       </c>
       <c r="B144" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C144" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
@@ -8444,10 +8450,10 @@
         <v>647</v>
       </c>
       <c r="B145" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C145" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
@@ -8455,10 +8461,10 @@
         <v>647</v>
       </c>
       <c r="B146" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C146" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
@@ -8466,10 +8472,10 @@
         <v>647</v>
       </c>
       <c r="B147" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C147" t="s">
-        <v>679</v>
+        <v>504</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
@@ -8477,10 +8483,10 @@
         <v>647</v>
       </c>
       <c r="B148" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C148" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
@@ -8488,10 +8494,10 @@
         <v>647</v>
       </c>
       <c r="B149" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C149" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
@@ -8499,10 +8505,10 @@
         <v>647</v>
       </c>
       <c r="B150" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C150" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
@@ -8510,10 +8516,10 @@
         <v>647</v>
       </c>
       <c r="B151" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C151" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
@@ -8521,10 +8527,10 @@
         <v>647</v>
       </c>
       <c r="B152" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C152" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
@@ -8532,10 +8538,10 @@
         <v>647</v>
       </c>
       <c r="B153" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C153" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
@@ -8543,10 +8549,10 @@
         <v>647</v>
       </c>
       <c r="B154" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C154" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
@@ -8554,10 +8560,10 @@
         <v>647</v>
       </c>
       <c r="B155" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C155" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
@@ -8565,10 +8571,10 @@
         <v>647</v>
       </c>
       <c r="B156" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C156" t="s">
-        <v>518</v>
+        <v>695</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
@@ -8576,10 +8582,10 @@
         <v>647</v>
       </c>
       <c r="B157" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C157" t="s">
-        <v>698</v>
+        <v>518</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
@@ -8587,10 +8593,10 @@
         <v>647</v>
       </c>
       <c r="B158" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C158" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
@@ -8598,10 +8604,10 @@
         <v>647</v>
       </c>
       <c r="B159" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C159" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
@@ -8609,10 +8615,10 @@
         <v>647</v>
       </c>
       <c r="B160" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C160" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
@@ -8620,10 +8626,10 @@
         <v>647</v>
       </c>
       <c r="B161" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="C161" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
@@ -8631,9 +8637,20 @@
         <v>647</v>
       </c>
       <c r="B162" t="s">
+        <v>708</v>
+      </c>
+      <c r="C162" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>647</v>
+      </c>
+      <c r="B163" t="s">
         <v>706</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C163" t="s">
         <v>707</v>
       </c>
     </row>

--- a/backend/v1.0/tools/DB_Mapping.xlsx
+++ b/backend/v1.0/tools/DB_Mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconet-my.sharepoint.com/personal/sarango_uco_edu_co/Documents/Documents/GitHub/project-cali/backend/v1.0/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{331D2257-B55E-4DAE-AFAE-DAF991BCA6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4F4FDE4-51EB-4C16-BE57-0BE5213133B8}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{A422AA3E-2406-46D5-AC4C-5B2877F8707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C341B10-F92C-4F76-9797-E6F4E41E8671}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConexionDB" sheetId="4" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="829">
   <si>
     <t xml:space="preserve">0x0002 </t>
   </si>
@@ -2373,6 +2373,195 @@
   </si>
   <si>
     <t>TT-104</t>
+  </si>
+  <si>
+    <t>M-SV_R101</t>
+  </si>
+  <si>
+    <t>M-ST_R101</t>
+  </si>
+  <si>
+    <t>Volumen normal de biogás en V102 (almacenadas)</t>
+  </si>
+  <si>
+    <t>M_VGA_V102</t>
+  </si>
+  <si>
+    <t>Volumen parcial  metano en V102 (almacenadas)</t>
+  </si>
+  <si>
+    <t>M-PA_CH4_V102</t>
+  </si>
+  <si>
+    <t>Volumen parcial de dióxido de carbono en V102 (almacenadas)</t>
+  </si>
+  <si>
+    <t>M-PA_CO2_V102</t>
+  </si>
+  <si>
+    <t>Volumen parcial  sulfuro de hidrogeno en V102 (almacenadas)</t>
+  </si>
+  <si>
+    <t>M-PA_H2S_V102</t>
+  </si>
+  <si>
+    <t>M-PA_O2_V102</t>
+  </si>
+  <si>
+    <t>Volumen parcial  oxigeno en V102 (almacenadas)</t>
+  </si>
+  <si>
+    <t>M-PA_H2_V102</t>
+  </si>
+  <si>
+    <t>moles metano en V102 (almacenadas)</t>
+  </si>
+  <si>
+    <t>M-molA_CH4_V102</t>
+  </si>
+  <si>
+    <t>moles dioxido de carbono en V102 (almacenadas)</t>
+  </si>
+  <si>
+    <t>M-molA_CO2_V102</t>
+  </si>
+  <si>
+    <t>moles sulfuro de hidrógeno en V102 (almacenadas)</t>
+  </si>
+  <si>
+    <t>M-molA_H2S_V102</t>
+  </si>
+  <si>
+    <t>moles oxigeno en V102 (almacenadas)</t>
+  </si>
+  <si>
+    <t>M-molA_O2_V102</t>
+  </si>
+  <si>
+    <t>moles hidrogeno en V102 (almacenadas)</t>
+  </si>
+  <si>
+    <t>M-molA_H2_V102</t>
+  </si>
+  <si>
+    <t>moles agua en V102 (almacenadas)</t>
+  </si>
+  <si>
+    <t>M-molA_H2O_V102</t>
+  </si>
+  <si>
+    <t>Presión acumulada en V102</t>
+  </si>
+  <si>
+    <t>P_acum_V102</t>
+  </si>
+  <si>
+    <t>Volumen normal acumulado en V102 (Total)</t>
+  </si>
+  <si>
+    <t>M-VGT_V102</t>
+  </si>
+  <si>
+    <t>Volumen normal de biogás en V107 (almacenadas)</t>
+  </si>
+  <si>
+    <t>M_VGA_V107</t>
+  </si>
+  <si>
+    <t>Volumen parcial  metano en V107 (almacenadas)</t>
+  </si>
+  <si>
+    <t>M-PA_CH4_V107</t>
+  </si>
+  <si>
+    <t>Volumen parcial de dióxido de carbono en V107 (almacenadas)</t>
+  </si>
+  <si>
+    <t>M-PA_CO2_V107</t>
+  </si>
+  <si>
+    <t>Volumen parcial  sulfuro de hidrogeno en V107 (almacenadas)</t>
+  </si>
+  <si>
+    <t>M-PA_H2S_V107</t>
+  </si>
+  <si>
+    <t>Volumen parcial  oxigeno en V107 (almacenadas)</t>
+  </si>
+  <si>
+    <t>M-PA_O2_V107</t>
+  </si>
+  <si>
+    <t>Volumen parcial hiodrogeno en V107 (almacenadas)</t>
+  </si>
+  <si>
+    <t>M-PA_H2_V107</t>
+  </si>
+  <si>
+    <t>moles metano en V107 (almacenadas)</t>
+  </si>
+  <si>
+    <t>M-molA_CH4_V107</t>
+  </si>
+  <si>
+    <t>moles dioxido de carbono en V107 (almacenadas)</t>
+  </si>
+  <si>
+    <t>M-molA_CO2_V107</t>
+  </si>
+  <si>
+    <t>moles sulfuro de hidrógeno en V107 (almacenadas)</t>
+  </si>
+  <si>
+    <t>M-molA_H2S_V107</t>
+  </si>
+  <si>
+    <t>moles agua en V107 (almacenadas)</t>
+  </si>
+  <si>
+    <t>moles hidrogeno en V107 (almacenadas)</t>
+  </si>
+  <si>
+    <t>M-molA_H2_V107</t>
+  </si>
+  <si>
+    <t>M-molA_O2_V107</t>
+  </si>
+  <si>
+    <t>moles oxigeno en V107 (almacenadas)</t>
+  </si>
+  <si>
+    <t>M-molA_H2O_V107</t>
+  </si>
+  <si>
+    <t>Presión acumulada en V107</t>
+  </si>
+  <si>
+    <t>P_acum_V107</t>
+  </si>
+  <si>
+    <t>Volumen normal acumulado en V107 (Total)</t>
+  </si>
+  <si>
+    <t>M-VGT_V107</t>
+  </si>
+  <si>
+    <t>moles metano acumulado en V101 (total)</t>
+  </si>
+  <si>
+    <t>M-molT_CH4_V101</t>
+  </si>
+  <si>
+    <t>M-molT_CH4_V102</t>
+  </si>
+  <si>
+    <t>moles metano acumulado en V102 (total)</t>
+  </si>
+  <si>
+    <t>moles metano acumulado en V107 (total)</t>
+  </si>
+  <si>
+    <t>M-molT_CH4_V107</t>
   </si>
 </sst>
 </file>
@@ -2449,7 +2638,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2461,6 +2650,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6848,10 +7038,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D5969C-509B-4D3C-BD42-B92347445C5B}">
-  <dimension ref="A1:C163"/>
+  <dimension ref="A1:G194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8142,10 +8332,10 @@
         <v>619</v>
       </c>
       <c r="B117" t="s">
-        <v>741</v>
+        <v>823</v>
       </c>
       <c r="C117" t="s">
-        <v>742</v>
+        <v>824</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -8153,10 +8343,10 @@
         <v>619</v>
       </c>
       <c r="B118" t="s">
-        <v>744</v>
+        <v>768</v>
       </c>
       <c r="C118" t="s">
-        <v>743</v>
+        <v>769</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
@@ -8164,10 +8354,10 @@
         <v>619</v>
       </c>
       <c r="B119" t="s">
-        <v>762</v>
+        <v>770</v>
       </c>
       <c r="C119" t="s">
-        <v>546</v>
+        <v>771</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
@@ -8175,10 +8365,10 @@
         <v>619</v>
       </c>
       <c r="B120" t="s">
-        <v>763</v>
+        <v>772</v>
       </c>
       <c r="C120" t="s">
-        <v>544</v>
+        <v>773</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
@@ -8186,439 +8376,445 @@
         <v>619</v>
       </c>
       <c r="B121" t="s">
-        <v>624</v>
+        <v>774</v>
       </c>
       <c r="C121" t="s">
-        <v>625</v>
+        <v>775</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>647</v>
+        <v>619</v>
       </c>
       <c r="B122" t="s">
-        <v>648</v>
+        <v>777</v>
       </c>
       <c r="C122" t="s">
-        <v>649</v>
+        <v>776</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>647</v>
+        <v>619</v>
       </c>
       <c r="B123" t="s">
-        <v>650</v>
+        <v>730</v>
       </c>
       <c r="C123" t="s">
-        <v>651</v>
+        <v>778</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>647</v>
+        <v>619</v>
       </c>
       <c r="B124" t="s">
-        <v>652</v>
+        <v>779</v>
       </c>
       <c r="C124" t="s">
-        <v>653</v>
+        <v>780</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>647</v>
+        <v>619</v>
       </c>
       <c r="B125" t="s">
-        <v>654</v>
+        <v>781</v>
       </c>
       <c r="C125" t="s">
-        <v>655</v>
+        <v>782</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>647</v>
+        <v>619</v>
       </c>
       <c r="B126" t="s">
-        <v>656</v>
+        <v>783</v>
       </c>
       <c r="C126" t="s">
-        <v>473</v>
+        <v>784</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>647</v>
+        <v>619</v>
       </c>
       <c r="B127" t="s">
-        <v>656</v>
+        <v>785</v>
       </c>
       <c r="C127" t="s">
-        <v>475</v>
+        <v>786</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>647</v>
+        <v>619</v>
       </c>
       <c r="B128" t="s">
-        <v>656</v>
+        <v>787</v>
       </c>
       <c r="C128" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>647</v>
+        <v>619</v>
       </c>
       <c r="B129" t="s">
-        <v>656</v>
+        <v>789</v>
       </c>
       <c r="C129" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>647</v>
+        <v>619</v>
       </c>
       <c r="B130" t="s">
-        <v>658</v>
+        <v>791</v>
       </c>
       <c r="C130" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>647</v>
+        <v>619</v>
       </c>
       <c r="B131" t="s">
-        <v>659</v>
+        <v>793</v>
       </c>
       <c r="C131" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>647</v>
+        <v>619</v>
       </c>
       <c r="B132" t="s">
-        <v>660</v>
+        <v>826</v>
       </c>
       <c r="C132" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>647</v>
+        <v>619</v>
       </c>
       <c r="B133" t="s">
-        <v>661</v>
+        <v>795</v>
       </c>
       <c r="C133" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>647</v>
+        <v>619</v>
       </c>
       <c r="B134" t="s">
-        <v>663</v>
+        <v>797</v>
       </c>
       <c r="C134" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>647</v>
+        <v>619</v>
       </c>
       <c r="B135" t="s">
-        <v>665</v>
+        <v>799</v>
       </c>
       <c r="C135" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>647</v>
+        <v>619</v>
       </c>
       <c r="B136" t="s">
-        <v>667</v>
+        <v>801</v>
       </c>
       <c r="C136" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>647</v>
+        <v>619</v>
       </c>
       <c r="B137" t="s">
-        <v>668</v>
+        <v>803</v>
       </c>
       <c r="C137" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>647</v>
+        <v>619</v>
       </c>
       <c r="B138" t="s">
-        <v>669</v>
+        <v>805</v>
       </c>
       <c r="C138" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>647</v>
+        <v>619</v>
       </c>
       <c r="B139" t="s">
-        <v>671</v>
+        <v>807</v>
       </c>
       <c r="C139" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>647</v>
+        <v>619</v>
       </c>
       <c r="B140" t="s">
-        <v>672</v>
+        <v>809</v>
       </c>
       <c r="C140" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>647</v>
+        <v>619</v>
       </c>
       <c r="B141" t="s">
-        <v>673</v>
+        <v>811</v>
       </c>
       <c r="C141" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>647</v>
+        <v>619</v>
       </c>
       <c r="B142" t="s">
-        <v>493</v>
+        <v>817</v>
       </c>
       <c r="C142" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>647</v>
+        <v>619</v>
       </c>
       <c r="B143" t="s">
-        <v>495</v>
+        <v>814</v>
       </c>
       <c r="C143" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+        <v>815</v>
+      </c>
+      <c r="E143" s="9"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>647</v>
+        <v>619</v>
       </c>
       <c r="B144" t="s">
-        <v>674</v>
+        <v>813</v>
       </c>
       <c r="C144" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>647</v>
+        <v>619</v>
       </c>
       <c r="B145" t="s">
-        <v>675</v>
+        <v>819</v>
       </c>
       <c r="C145" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+        <v>820</v>
+      </c>
+      <c r="D145" s="9"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>647</v>
+        <v>619</v>
       </c>
       <c r="B146" t="s">
-        <v>676</v>
+        <v>821</v>
       </c>
       <c r="C146" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>647</v>
+        <v>619</v>
       </c>
       <c r="B147" t="s">
-        <v>677</v>
+        <v>827</v>
       </c>
       <c r="C147" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+        <v>828</v>
+      </c>
+      <c r="F147" s="8"/>
+      <c r="G147" s="9"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>647</v>
+        <v>619</v>
       </c>
       <c r="B148" t="s">
-        <v>678</v>
+        <v>741</v>
       </c>
       <c r="C148" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+        <v>742</v>
+      </c>
+      <c r="F148" s="8"/>
+      <c r="G148" s="9"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>647</v>
+        <v>619</v>
       </c>
       <c r="B149" t="s">
-        <v>680</v>
+        <v>744</v>
       </c>
       <c r="C149" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>647</v>
+        <v>619</v>
       </c>
       <c r="B150" t="s">
-        <v>682</v>
+        <v>762</v>
       </c>
       <c r="C150" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>647</v>
+        <v>619</v>
       </c>
       <c r="B151" t="s">
-        <v>684</v>
+        <v>763</v>
       </c>
       <c r="C151" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>647</v>
+        <v>619</v>
       </c>
       <c r="B152" t="s">
-        <v>686</v>
+        <v>624</v>
       </c>
       <c r="C152" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>647</v>
       </c>
       <c r="B153" t="s">
-        <v>688</v>
+        <v>648</v>
       </c>
       <c r="C153" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>647</v>
       </c>
       <c r="B154" t="s">
-        <v>690</v>
+        <v>650</v>
       </c>
       <c r="C154" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>647</v>
       </c>
       <c r="B155" t="s">
-        <v>692</v>
+        <v>652</v>
       </c>
       <c r="C155" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>647</v>
       </c>
       <c r="B156" t="s">
-        <v>694</v>
+        <v>654</v>
       </c>
       <c r="C156" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>647</v>
       </c>
       <c r="B157" t="s">
-        <v>696</v>
+        <v>656</v>
       </c>
       <c r="C157" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>647</v>
       </c>
       <c r="B158" t="s">
-        <v>697</v>
+        <v>656</v>
       </c>
       <c r="C158" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>647</v>
       </c>
       <c r="B159" t="s">
-        <v>699</v>
+        <v>656</v>
       </c>
       <c r="C159" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>647</v>
       </c>
       <c r="B160" t="s">
-        <v>701</v>
+        <v>656</v>
       </c>
       <c r="C160" t="s">
-        <v>702</v>
+        <v>657</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
@@ -8626,10 +8822,10 @@
         <v>647</v>
       </c>
       <c r="B161" t="s">
-        <v>703</v>
+        <v>658</v>
       </c>
       <c r="C161" t="s">
-        <v>704</v>
+        <v>482</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
@@ -8637,10 +8833,10 @@
         <v>647</v>
       </c>
       <c r="B162" t="s">
-        <v>708</v>
+        <v>659</v>
       </c>
       <c r="C162" t="s">
-        <v>705</v>
+        <v>484</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
@@ -8648,9 +8844,350 @@
         <v>647</v>
       </c>
       <c r="B163" t="s">
+        <v>660</v>
+      </c>
+      <c r="C163" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>647</v>
+      </c>
+      <c r="B164" t="s">
+        <v>661</v>
+      </c>
+      <c r="C164" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>647</v>
+      </c>
+      <c r="B165" t="s">
+        <v>663</v>
+      </c>
+      <c r="C165" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>647</v>
+      </c>
+      <c r="B166" t="s">
+        <v>665</v>
+      </c>
+      <c r="C166" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>647</v>
+      </c>
+      <c r="B167" t="s">
+        <v>667</v>
+      </c>
+      <c r="C167" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>647</v>
+      </c>
+      <c r="B168" t="s">
+        <v>668</v>
+      </c>
+      <c r="C168" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>647</v>
+      </c>
+      <c r="B169" t="s">
+        <v>669</v>
+      </c>
+      <c r="C169" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>647</v>
+      </c>
+      <c r="B170" t="s">
+        <v>671</v>
+      </c>
+      <c r="C170" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>647</v>
+      </c>
+      <c r="B171" t="s">
+        <v>672</v>
+      </c>
+      <c r="C171" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>647</v>
+      </c>
+      <c r="B172" t="s">
+        <v>673</v>
+      </c>
+      <c r="C172" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>647</v>
+      </c>
+      <c r="B173" t="s">
+        <v>493</v>
+      </c>
+      <c r="C173" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>647</v>
+      </c>
+      <c r="B174" t="s">
+        <v>495</v>
+      </c>
+      <c r="C174" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>647</v>
+      </c>
+      <c r="B175" t="s">
+        <v>674</v>
+      </c>
+      <c r="C175" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>647</v>
+      </c>
+      <c r="B176" t="s">
+        <v>675</v>
+      </c>
+      <c r="C176" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>647</v>
+      </c>
+      <c r="B177" t="s">
+        <v>676</v>
+      </c>
+      <c r="C177" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>647</v>
+      </c>
+      <c r="B178" t="s">
+        <v>677</v>
+      </c>
+      <c r="C178" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>647</v>
+      </c>
+      <c r="B179" t="s">
+        <v>678</v>
+      </c>
+      <c r="C179" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>647</v>
+      </c>
+      <c r="B180" t="s">
+        <v>680</v>
+      </c>
+      <c r="C180" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>647</v>
+      </c>
+      <c r="B181" t="s">
+        <v>682</v>
+      </c>
+      <c r="C181" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>647</v>
+      </c>
+      <c r="B182" t="s">
+        <v>684</v>
+      </c>
+      <c r="C182" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>647</v>
+      </c>
+      <c r="B183" t="s">
+        <v>686</v>
+      </c>
+      <c r="C183" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>647</v>
+      </c>
+      <c r="B184" t="s">
+        <v>688</v>
+      </c>
+      <c r="C184" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>647</v>
+      </c>
+      <c r="B185" t="s">
+        <v>690</v>
+      </c>
+      <c r="C185" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>647</v>
+      </c>
+      <c r="B186" t="s">
+        <v>692</v>
+      </c>
+      <c r="C186" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>647</v>
+      </c>
+      <c r="B187" t="s">
+        <v>694</v>
+      </c>
+      <c r="C187" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>647</v>
+      </c>
+      <c r="B188" t="s">
+        <v>696</v>
+      </c>
+      <c r="C188" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>647</v>
+      </c>
+      <c r="B189" t="s">
+        <v>697</v>
+      </c>
+      <c r="C189" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>647</v>
+      </c>
+      <c r="B190" t="s">
+        <v>699</v>
+      </c>
+      <c r="C190" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>647</v>
+      </c>
+      <c r="B191" t="s">
+        <v>701</v>
+      </c>
+      <c r="C191" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>647</v>
+      </c>
+      <c r="B192" t="s">
+        <v>703</v>
+      </c>
+      <c r="C192" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>647</v>
+      </c>
+      <c r="B193" t="s">
+        <v>708</v>
+      </c>
+      <c r="C193" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>647</v>
+      </c>
+      <c r="B194" t="s">
         <v>706</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C194" t="s">
         <v>707</v>
       </c>
     </row>

--- a/backend/v1.0/tools/DB_Mapping.xlsx
+++ b/backend/v1.0/tools/DB_Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconet-my.sharepoint.com/personal/sarango_uco_edu_co/Documents/Documents/GitHub/project-cali/backend/v1.0/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{A422AA3E-2406-46D5-AC4C-5B2877F8707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C341B10-F92C-4F76-9797-E6F4E41E8671}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="13_ncr:1_{A422AA3E-2406-46D5-AC4C-5B2877F8707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{066571DD-7F70-40F4-B8B9-E22E449EF5B3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="832">
   <si>
     <t xml:space="preserve">0x0002 </t>
   </si>
@@ -2562,6 +2562,15 @@
   </si>
   <si>
     <t>M-molT_CH4_V107</t>
+  </si>
+  <si>
+    <t>Concentracion Sustrato en R102</t>
+  </si>
+  <si>
+    <t>Csus_exp_R102</t>
+  </si>
+  <si>
+    <t>Msus_exp_R102</t>
   </si>
 </sst>
 </file>
@@ -2638,7 +2647,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2650,7 +2659,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2666,6 +2674,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7038,10 +7050,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D5969C-509B-4D3C-BD42-B92347445C5B}">
-  <dimension ref="A1:G194"/>
+  <dimension ref="A1:G196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D120" sqref="D120"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G148" sqref="G148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8459,7 +8471,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>619</v>
       </c>
@@ -8470,7 +8482,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>619</v>
       </c>
@@ -8481,7 +8493,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>619</v>
       </c>
@@ -8492,7 +8504,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>619</v>
       </c>
@@ -8503,7 +8515,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>619</v>
       </c>
@@ -8514,7 +8526,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>619</v>
       </c>
@@ -8525,7 +8537,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>619</v>
       </c>
@@ -8536,7 +8548,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>619</v>
       </c>
@@ -8547,7 +8559,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>619</v>
       </c>
@@ -8558,7 +8570,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>619</v>
       </c>
@@ -8569,7 +8581,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>619</v>
       </c>
@@ -8580,7 +8592,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>619</v>
       </c>
@@ -8591,7 +8603,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>619</v>
       </c>
@@ -8602,7 +8614,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>619</v>
       </c>
@@ -8613,7 +8625,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>619</v>
       </c>
@@ -8623,9 +8635,8 @@
       <c r="C143" t="s">
         <v>815</v>
       </c>
-      <c r="E143" s="9"/>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>619</v>
       </c>
@@ -8646,7 +8657,6 @@
       <c r="C145" t="s">
         <v>820</v>
       </c>
-      <c r="D145" s="9"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
@@ -8670,7 +8680,6 @@
         <v>828</v>
       </c>
       <c r="F147" s="8"/>
-      <c r="G147" s="9"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
@@ -8683,7 +8692,7 @@
         <v>742</v>
       </c>
       <c r="F148" s="8"/>
-      <c r="G148" s="9"/>
+      <c r="G148" s="8"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
@@ -8723,32 +8732,32 @@
         <v>619</v>
       </c>
       <c r="B152" t="s">
-        <v>624</v>
+        <v>741</v>
       </c>
       <c r="C152" t="s">
-        <v>625</v>
+        <v>831</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>647</v>
+        <v>619</v>
       </c>
       <c r="B153" t="s">
-        <v>648</v>
+        <v>829</v>
       </c>
       <c r="C153" t="s">
-        <v>649</v>
+        <v>830</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>647</v>
+        <v>619</v>
       </c>
       <c r="B154" t="s">
-        <v>650</v>
+        <v>624</v>
       </c>
       <c r="C154" t="s">
-        <v>651</v>
+        <v>625</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
@@ -8756,10 +8765,10 @@
         <v>647</v>
       </c>
       <c r="B155" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C155" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
@@ -8767,10 +8776,10 @@
         <v>647</v>
       </c>
       <c r="B156" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C156" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
@@ -8778,10 +8787,10 @@
         <v>647</v>
       </c>
       <c r="B157" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C157" t="s">
-        <v>473</v>
+        <v>653</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
@@ -8789,10 +8798,10 @@
         <v>647</v>
       </c>
       <c r="B158" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C158" t="s">
-        <v>475</v>
+        <v>655</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
@@ -8803,7 +8812,7 @@
         <v>656</v>
       </c>
       <c r="C159" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
@@ -8814,7 +8823,7 @@
         <v>656</v>
       </c>
       <c r="C160" t="s">
-        <v>657</v>
+        <v>475</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
@@ -8822,10 +8831,10 @@
         <v>647</v>
       </c>
       <c r="B161" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C161" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
@@ -8833,10 +8842,10 @@
         <v>647</v>
       </c>
       <c r="B162" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C162" t="s">
-        <v>484</v>
+        <v>657</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
@@ -8844,10 +8853,10 @@
         <v>647</v>
       </c>
       <c r="B163" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C163" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
@@ -8855,10 +8864,10 @@
         <v>647</v>
       </c>
       <c r="B164" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C164" t="s">
-        <v>662</v>
+        <v>484</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
@@ -8866,10 +8875,10 @@
         <v>647</v>
       </c>
       <c r="B165" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C165" t="s">
-        <v>664</v>
+        <v>486</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
@@ -8877,10 +8886,10 @@
         <v>647</v>
       </c>
       <c r="B166" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="C166" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
@@ -8888,10 +8897,10 @@
         <v>647</v>
       </c>
       <c r="B167" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="C167" t="s">
-        <v>488</v>
+        <v>664</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
@@ -8899,10 +8908,10 @@
         <v>647</v>
       </c>
       <c r="B168" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C168" t="s">
-        <v>492</v>
+        <v>666</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
@@ -8910,10 +8919,10 @@
         <v>647</v>
       </c>
       <c r="B169" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C169" t="s">
-        <v>670</v>
+        <v>488</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
@@ -8921,10 +8930,10 @@
         <v>647</v>
       </c>
       <c r="B170" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C170" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
@@ -8932,10 +8941,10 @@
         <v>647</v>
       </c>
       <c r="B171" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C171" t="s">
-        <v>510</v>
+        <v>670</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
@@ -8943,10 +8952,10 @@
         <v>647</v>
       </c>
       <c r="B172" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C172" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
@@ -8954,10 +8963,10 @@
         <v>647</v>
       </c>
       <c r="B173" t="s">
-        <v>493</v>
+        <v>672</v>
       </c>
       <c r="C173" t="s">
-        <v>494</v>
+        <v>510</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
@@ -8965,10 +8974,10 @@
         <v>647</v>
       </c>
       <c r="B174" t="s">
-        <v>495</v>
+        <v>673</v>
       </c>
       <c r="C174" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
@@ -8976,10 +8985,10 @@
         <v>647</v>
       </c>
       <c r="B175" t="s">
-        <v>674</v>
+        <v>493</v>
       </c>
       <c r="C175" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
@@ -8987,10 +8996,10 @@
         <v>647</v>
       </c>
       <c r="B176" t="s">
-        <v>675</v>
+        <v>495</v>
       </c>
       <c r="C176" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
@@ -8998,10 +9007,10 @@
         <v>647</v>
       </c>
       <c r="B177" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C177" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
@@ -9009,10 +9018,10 @@
         <v>647</v>
       </c>
       <c r="B178" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C178" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
@@ -9020,10 +9029,10 @@
         <v>647</v>
       </c>
       <c r="B179" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C179" t="s">
-        <v>679</v>
+        <v>502</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
@@ -9031,10 +9040,10 @@
         <v>647</v>
       </c>
       <c r="B180" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C180" t="s">
-        <v>681</v>
+        <v>504</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
@@ -9042,10 +9051,10 @@
         <v>647</v>
       </c>
       <c r="B181" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C181" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
@@ -9053,10 +9062,10 @@
         <v>647</v>
       </c>
       <c r="B182" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C182" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
@@ -9064,10 +9073,10 @@
         <v>647</v>
       </c>
       <c r="B183" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C183" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
@@ -9075,10 +9084,10 @@
         <v>647</v>
       </c>
       <c r="B184" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="C184" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
@@ -9086,10 +9095,10 @@
         <v>647</v>
       </c>
       <c r="B185" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="C185" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
@@ -9097,10 +9106,10 @@
         <v>647</v>
       </c>
       <c r="B186" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="C186" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
@@ -9108,10 +9117,10 @@
         <v>647</v>
       </c>
       <c r="B187" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="C187" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
@@ -9119,10 +9128,10 @@
         <v>647</v>
       </c>
       <c r="B188" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="C188" t="s">
-        <v>518</v>
+        <v>693</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
@@ -9130,10 +9139,10 @@
         <v>647</v>
       </c>
       <c r="B189" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C189" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
@@ -9141,10 +9150,10 @@
         <v>647</v>
       </c>
       <c r="B190" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C190" t="s">
-        <v>700</v>
+        <v>518</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
@@ -9152,10 +9161,10 @@
         <v>647</v>
       </c>
       <c r="B191" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="C191" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
@@ -9163,10 +9172,10 @@
         <v>647</v>
       </c>
       <c r="B192" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="C192" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
@@ -9174,10 +9183,10 @@
         <v>647</v>
       </c>
       <c r="B193" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="C193" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
@@ -9185,9 +9194,31 @@
         <v>647</v>
       </c>
       <c r="B194" t="s">
+        <v>703</v>
+      </c>
+      <c r="C194" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>647</v>
+      </c>
+      <c r="B195" t="s">
+        <v>708</v>
+      </c>
+      <c r="C195" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>647</v>
+      </c>
+      <c r="B196" t="s">
         <v>706</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C196" t="s">
         <v>707</v>
       </c>
     </row>

--- a/backend/v1.0/tools/DB_Mapping.xlsx
+++ b/backend/v1.0/tools/DB_Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconet-my.sharepoint.com/personal/sarango_uco_edu_co/Documents/Documents/GitHub/project-cali/backend/v1.0/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="13_ncr:1_{A422AA3E-2406-46D5-AC4C-5B2877F8707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{066571DD-7F70-40F4-B8B9-E22E449EF5B3}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="13_ncr:1_{A422AA3E-2406-46D5-AC4C-5B2877F8707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68D54FD1-92A6-410D-8342-1B2B73129CB9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="836">
   <si>
     <t xml:space="preserve">0x0002 </t>
   </si>
@@ -2363,9 +2363,6 @@
     <t>Temperatura Baterías  (Controlador Turgo)</t>
   </si>
   <si>
-    <t>concentración de dolidos volátiles a la salida de R101</t>
-  </si>
-  <si>
     <t>concentracion de sólidos totales a la salida de R101</t>
   </si>
   <si>
@@ -2571,6 +2568,21 @@
   </si>
   <si>
     <t>Msus_exp_R102</t>
+  </si>
+  <si>
+    <t>concentración de solidos volátiles a la salida de R101</t>
+  </si>
+  <si>
+    <t>concentración de solidos volátiles a la salida de R102</t>
+  </si>
+  <si>
+    <t>M-SV_R102</t>
+  </si>
+  <si>
+    <t>concentracion de sólidos totales a la salida de R102</t>
+  </si>
+  <si>
+    <t>M-ST_R102</t>
   </si>
 </sst>
 </file>
@@ -7050,10 +7062,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D5969C-509B-4D3C-BD42-B92347445C5B}">
-  <dimension ref="A1:G196"/>
+  <dimension ref="A1:G198"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A142" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G148" sqref="G148"/>
+      <selection activeCell="E155" sqref="E155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7838,10 +7850,10 @@
         <v>522</v>
       </c>
       <c r="B71" t="s">
+        <v>763</v>
+      </c>
+      <c r="C71" t="s">
         <v>764</v>
-      </c>
-      <c r="C71" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -8344,10 +8356,10 @@
         <v>619</v>
       </c>
       <c r="B117" t="s">
+        <v>822</v>
+      </c>
+      <c r="C117" t="s">
         <v>823</v>
-      </c>
-      <c r="C117" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -8355,10 +8367,10 @@
         <v>619</v>
       </c>
       <c r="B118" t="s">
+        <v>767</v>
+      </c>
+      <c r="C118" t="s">
         <v>768</v>
-      </c>
-      <c r="C118" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
@@ -8366,10 +8378,10 @@
         <v>619</v>
       </c>
       <c r="B119" t="s">
+        <v>769</v>
+      </c>
+      <c r="C119" t="s">
         <v>770</v>
-      </c>
-      <c r="C119" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
@@ -8377,10 +8389,10 @@
         <v>619</v>
       </c>
       <c r="B120" t="s">
+        <v>771</v>
+      </c>
+      <c r="C120" t="s">
         <v>772</v>
-      </c>
-      <c r="C120" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
@@ -8388,10 +8400,10 @@
         <v>619</v>
       </c>
       <c r="B121" t="s">
+        <v>773</v>
+      </c>
+      <c r="C121" t="s">
         <v>774</v>
-      </c>
-      <c r="C121" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
@@ -8399,10 +8411,10 @@
         <v>619</v>
       </c>
       <c r="B122" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C122" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
@@ -8413,7 +8425,7 @@
         <v>730</v>
       </c>
       <c r="C123" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
@@ -8421,10 +8433,10 @@
         <v>619</v>
       </c>
       <c r="B124" t="s">
+        <v>778</v>
+      </c>
+      <c r="C124" t="s">
         <v>779</v>
-      </c>
-      <c r="C124" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
@@ -8432,10 +8444,10 @@
         <v>619</v>
       </c>
       <c r="B125" t="s">
+        <v>780</v>
+      </c>
+      <c r="C125" t="s">
         <v>781</v>
-      </c>
-      <c r="C125" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
@@ -8443,10 +8455,10 @@
         <v>619</v>
       </c>
       <c r="B126" t="s">
+        <v>782</v>
+      </c>
+      <c r="C126" t="s">
         <v>783</v>
-      </c>
-      <c r="C126" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
@@ -8454,10 +8466,10 @@
         <v>619</v>
       </c>
       <c r="B127" t="s">
+        <v>784</v>
+      </c>
+      <c r="C127" t="s">
         <v>785</v>
-      </c>
-      <c r="C127" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
@@ -8465,10 +8477,10 @@
         <v>619</v>
       </c>
       <c r="B128" t="s">
+        <v>786</v>
+      </c>
+      <c r="C128" t="s">
         <v>787</v>
-      </c>
-      <c r="C128" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
@@ -8476,10 +8488,10 @@
         <v>619</v>
       </c>
       <c r="B129" t="s">
+        <v>788</v>
+      </c>
+      <c r="C129" t="s">
         <v>789</v>
-      </c>
-      <c r="C129" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
@@ -8487,10 +8499,10 @@
         <v>619</v>
       </c>
       <c r="B130" t="s">
+        <v>790</v>
+      </c>
+      <c r="C130" t="s">
         <v>791</v>
-      </c>
-      <c r="C130" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
@@ -8498,10 +8510,10 @@
         <v>619</v>
       </c>
       <c r="B131" t="s">
+        <v>792</v>
+      </c>
+      <c r="C131" t="s">
         <v>793</v>
-      </c>
-      <c r="C131" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
@@ -8509,10 +8521,10 @@
         <v>619</v>
       </c>
       <c r="B132" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C132" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
@@ -8520,10 +8532,10 @@
         <v>619</v>
       </c>
       <c r="B133" t="s">
+        <v>794</v>
+      </c>
+      <c r="C133" t="s">
         <v>795</v>
-      </c>
-      <c r="C133" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
@@ -8531,10 +8543,10 @@
         <v>619</v>
       </c>
       <c r="B134" t="s">
+        <v>796</v>
+      </c>
+      <c r="C134" t="s">
         <v>797</v>
-      </c>
-      <c r="C134" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
@@ -8542,10 +8554,10 @@
         <v>619</v>
       </c>
       <c r="B135" t="s">
+        <v>798</v>
+      </c>
+      <c r="C135" t="s">
         <v>799</v>
-      </c>
-      <c r="C135" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
@@ -8553,10 +8565,10 @@
         <v>619</v>
       </c>
       <c r="B136" t="s">
+        <v>800</v>
+      </c>
+      <c r="C136" t="s">
         <v>801</v>
-      </c>
-      <c r="C136" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
@@ -8564,10 +8576,10 @@
         <v>619</v>
       </c>
       <c r="B137" t="s">
+        <v>802</v>
+      </c>
+      <c r="C137" t="s">
         <v>803</v>
-      </c>
-      <c r="C137" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
@@ -8575,10 +8587,10 @@
         <v>619</v>
       </c>
       <c r="B138" t="s">
+        <v>804</v>
+      </c>
+      <c r="C138" t="s">
         <v>805</v>
-      </c>
-      <c r="C138" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
@@ -8586,10 +8598,10 @@
         <v>619</v>
       </c>
       <c r="B139" t="s">
+        <v>806</v>
+      </c>
+      <c r="C139" t="s">
         <v>807</v>
-      </c>
-      <c r="C139" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
@@ -8597,10 +8609,10 @@
         <v>619</v>
       </c>
       <c r="B140" t="s">
+        <v>808</v>
+      </c>
+      <c r="C140" t="s">
         <v>809</v>
-      </c>
-      <c r="C140" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
@@ -8608,10 +8620,10 @@
         <v>619</v>
       </c>
       <c r="B141" t="s">
+        <v>810</v>
+      </c>
+      <c r="C141" t="s">
         <v>811</v>
-      </c>
-      <c r="C141" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
@@ -8619,10 +8631,10 @@
         <v>619</v>
       </c>
       <c r="B142" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C142" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
@@ -8630,10 +8642,10 @@
         <v>619</v>
       </c>
       <c r="B143" t="s">
+        <v>813</v>
+      </c>
+      <c r="C143" t="s">
         <v>814</v>
-      </c>
-      <c r="C143" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -8641,10 +8653,10 @@
         <v>619</v>
       </c>
       <c r="B144" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C144" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
@@ -8652,10 +8664,10 @@
         <v>619</v>
       </c>
       <c r="B145" t="s">
+        <v>818</v>
+      </c>
+      <c r="C145" t="s">
         <v>819</v>
-      </c>
-      <c r="C145" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
@@ -8663,10 +8675,10 @@
         <v>619</v>
       </c>
       <c r="B146" t="s">
+        <v>820</v>
+      </c>
+      <c r="C146" t="s">
         <v>821</v>
-      </c>
-      <c r="C146" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
@@ -8674,10 +8686,10 @@
         <v>619</v>
       </c>
       <c r="B147" t="s">
+        <v>826</v>
+      </c>
+      <c r="C147" t="s">
         <v>827</v>
-      </c>
-      <c r="C147" t="s">
-        <v>828</v>
       </c>
       <c r="F147" s="8"/>
     </row>
@@ -8710,10 +8722,10 @@
         <v>619</v>
       </c>
       <c r="B150" t="s">
-        <v>762</v>
+        <v>831</v>
       </c>
       <c r="C150" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
@@ -8721,10 +8733,10 @@
         <v>619</v>
       </c>
       <c r="B151" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C151" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
@@ -8735,7 +8747,7 @@
         <v>741</v>
       </c>
       <c r="C152" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
@@ -8743,10 +8755,10 @@
         <v>619</v>
       </c>
       <c r="B153" t="s">
+        <v>828</v>
+      </c>
+      <c r="C153" t="s">
         <v>829</v>
-      </c>
-      <c r="C153" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
@@ -8754,32 +8766,33 @@
         <v>619</v>
       </c>
       <c r="B154" t="s">
-        <v>624</v>
+        <v>832</v>
       </c>
       <c r="C154" t="s">
-        <v>625</v>
+        <v>833</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>647</v>
+        <v>619</v>
       </c>
       <c r="B155" t="s">
-        <v>648</v>
+        <v>834</v>
       </c>
       <c r="C155" t="s">
-        <v>649</v>
-      </c>
+        <v>835</v>
+      </c>
+      <c r="E155" s="8"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>647</v>
+        <v>619</v>
       </c>
       <c r="B156" t="s">
-        <v>650</v>
+        <v>624</v>
       </c>
       <c r="C156" t="s">
-        <v>651</v>
+        <v>625</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
@@ -8787,10 +8800,10 @@
         <v>647</v>
       </c>
       <c r="B157" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C157" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
@@ -8798,10 +8811,10 @@
         <v>647</v>
       </c>
       <c r="B158" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C158" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
@@ -8809,10 +8822,10 @@
         <v>647</v>
       </c>
       <c r="B159" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C159" t="s">
-        <v>473</v>
+        <v>653</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
@@ -8820,10 +8833,10 @@
         <v>647</v>
       </c>
       <c r="B160" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C160" t="s">
-        <v>475</v>
+        <v>655</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
@@ -8834,7 +8847,7 @@
         <v>656</v>
       </c>
       <c r="C161" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
@@ -8845,7 +8858,7 @@
         <v>656</v>
       </c>
       <c r="C162" t="s">
-        <v>657</v>
+        <v>475</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
@@ -8853,10 +8866,10 @@
         <v>647</v>
       </c>
       <c r="B163" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C163" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
@@ -8864,10 +8877,10 @@
         <v>647</v>
       </c>
       <c r="B164" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C164" t="s">
-        <v>484</v>
+        <v>657</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
@@ -8875,10 +8888,10 @@
         <v>647</v>
       </c>
       <c r="B165" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C165" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
@@ -8886,10 +8899,10 @@
         <v>647</v>
       </c>
       <c r="B166" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C166" t="s">
-        <v>662</v>
+        <v>484</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
@@ -8897,10 +8910,10 @@
         <v>647</v>
       </c>
       <c r="B167" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C167" t="s">
-        <v>664</v>
+        <v>486</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
@@ -8908,10 +8921,10 @@
         <v>647</v>
       </c>
       <c r="B168" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="C168" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
@@ -8919,10 +8932,10 @@
         <v>647</v>
       </c>
       <c r="B169" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="C169" t="s">
-        <v>488</v>
+        <v>664</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
@@ -8930,10 +8943,10 @@
         <v>647</v>
       </c>
       <c r="B170" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C170" t="s">
-        <v>492</v>
+        <v>666</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
@@ -8941,10 +8954,10 @@
         <v>647</v>
       </c>
       <c r="B171" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C171" t="s">
-        <v>670</v>
+        <v>488</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
@@ -8952,10 +8965,10 @@
         <v>647</v>
       </c>
       <c r="B172" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C172" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
@@ -8963,10 +8976,10 @@
         <v>647</v>
       </c>
       <c r="B173" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C173" t="s">
-        <v>510</v>
+        <v>670</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
@@ -8974,10 +8987,10 @@
         <v>647</v>
       </c>
       <c r="B174" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C174" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
@@ -8985,10 +8998,10 @@
         <v>647</v>
       </c>
       <c r="B175" t="s">
-        <v>493</v>
+        <v>672</v>
       </c>
       <c r="C175" t="s">
-        <v>494</v>
+        <v>510</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
@@ -8996,10 +9009,10 @@
         <v>647</v>
       </c>
       <c r="B176" t="s">
-        <v>495</v>
+        <v>673</v>
       </c>
       <c r="C176" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
@@ -9007,10 +9020,10 @@
         <v>647</v>
       </c>
       <c r="B177" t="s">
-        <v>674</v>
+        <v>493</v>
       </c>
       <c r="C177" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
@@ -9018,10 +9031,10 @@
         <v>647</v>
       </c>
       <c r="B178" t="s">
-        <v>675</v>
+        <v>495</v>
       </c>
       <c r="C178" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
@@ -9029,10 +9042,10 @@
         <v>647</v>
       </c>
       <c r="B179" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C179" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
@@ -9040,10 +9053,10 @@
         <v>647</v>
       </c>
       <c r="B180" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C180" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
@@ -9051,10 +9064,10 @@
         <v>647</v>
       </c>
       <c r="B181" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C181" t="s">
-        <v>679</v>
+        <v>502</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
@@ -9062,10 +9075,10 @@
         <v>647</v>
       </c>
       <c r="B182" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C182" t="s">
-        <v>681</v>
+        <v>504</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
@@ -9073,10 +9086,10 @@
         <v>647</v>
       </c>
       <c r="B183" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C183" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
@@ -9084,10 +9097,10 @@
         <v>647</v>
       </c>
       <c r="B184" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C184" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
@@ -9095,10 +9108,10 @@
         <v>647</v>
       </c>
       <c r="B185" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C185" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
@@ -9106,10 +9119,10 @@
         <v>647</v>
       </c>
       <c r="B186" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="C186" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
@@ -9117,10 +9130,10 @@
         <v>647</v>
       </c>
       <c r="B187" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="C187" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
@@ -9128,10 +9141,10 @@
         <v>647</v>
       </c>
       <c r="B188" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="C188" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
@@ -9139,10 +9152,10 @@
         <v>647</v>
       </c>
       <c r="B189" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="C189" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
@@ -9150,10 +9163,10 @@
         <v>647</v>
       </c>
       <c r="B190" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="C190" t="s">
-        <v>518</v>
+        <v>693</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
@@ -9161,10 +9174,10 @@
         <v>647</v>
       </c>
       <c r="B191" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C191" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
@@ -9172,10 +9185,10 @@
         <v>647</v>
       </c>
       <c r="B192" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C192" t="s">
-        <v>700</v>
+        <v>518</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
@@ -9183,10 +9196,10 @@
         <v>647</v>
       </c>
       <c r="B193" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="C193" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
@@ -9194,10 +9207,10 @@
         <v>647</v>
       </c>
       <c r="B194" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="C194" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
@@ -9205,10 +9218,10 @@
         <v>647</v>
       </c>
       <c r="B195" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="C195" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
@@ -9216,9 +9229,31 @@
         <v>647</v>
       </c>
       <c r="B196" t="s">
+        <v>703</v>
+      </c>
+      <c r="C196" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>647</v>
+      </c>
+      <c r="B197" t="s">
+        <v>708</v>
+      </c>
+      <c r="C197" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>647</v>
+      </c>
+      <c r="B198" t="s">
         <v>706</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C198" t="s">
         <v>707</v>
       </c>
     </row>

--- a/backend/v1.0/tools/DB_Mapping.xlsx
+++ b/backend/v1.0/tools/DB_Mapping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconet-my.sharepoint.com/personal/sarango_uco_edu_co/Documents/Documents/GitHub/project-cali/backend/v1.0/tools/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SMARTGRID_CALI\project-cali\backend\v1.0\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="13_ncr:1_{A422AA3E-2406-46D5-AC4C-5B2877F8707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68D54FD1-92A6-410D-8342-1B2B73129CB9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C0C144-C7D6-46F1-AF9E-90FE417FA0E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConexionDB" sheetId="4" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="846">
   <si>
     <t xml:space="preserve">0x0002 </t>
   </si>
@@ -2063,9 +2063,6 @@
     <t>Voltaje aerogenerador (fan) (Controlador)</t>
   </si>
   <si>
-    <t>VG005</t>
-  </si>
-  <si>
     <t>Corriente Aerogenerador (fan) (Controlador)</t>
   </si>
   <si>
@@ -2075,9 +2072,6 @@
     <t>Potencia aerogenerador (fan)(Controlador)</t>
   </si>
   <si>
-    <t>PG005</t>
-  </si>
-  <si>
     <t>Voltaje de las baterías (Controlador)</t>
   </si>
   <si>
@@ -2583,13 +2577,49 @@
   </si>
   <si>
     <t>M-ST_R102</t>
+  </si>
+  <si>
+    <t>Voltaje de las baterías inversor híbrido</t>
+  </si>
+  <si>
+    <t>Temperatura de baterías inversor híbrido</t>
+  </si>
+  <si>
+    <t>TB002</t>
+  </si>
+  <si>
+    <t>Potencia paneles inversor híbrido</t>
+  </si>
+  <si>
+    <t>PG003</t>
+  </si>
+  <si>
+    <t>Potencia aerogenerador inversor híbrido</t>
+  </si>
+  <si>
+    <t>PG004</t>
+  </si>
+  <si>
+    <t>Potencia DC de salida hacia las baterías inversor híbrido</t>
+  </si>
+  <si>
+    <t>Voltaje Paneles solares inversor híbrido</t>
+  </si>
+  <si>
+    <t>VG003</t>
+  </si>
+  <si>
+    <t>Voltaje aerogenerador inversor híbrido</t>
+  </si>
+  <si>
+    <t>VG004</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2686,10 +2716,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2961,13 +2987,13 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="95.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="95.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>275</v>
       </c>
@@ -2987,7 +3013,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>436</v>
       </c>
@@ -3007,7 +3033,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>436</v>
       </c>
@@ -3027,7 +3053,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>519</v>
       </c>
@@ -3047,7 +3073,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>436</v>
       </c>
@@ -3067,7 +3093,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="E10" s="8"/>
     </row>
   </sheetData>
@@ -3084,13 +3110,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>275</v>
       </c>
@@ -3104,7 +3130,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>435</v>
       </c>
@@ -3128,17 +3154,17 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>428</v>
       </c>
@@ -3149,7 +3175,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="1" customFormat="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3160,7 +3186,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3171,7 +3197,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3182,7 +3208,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3193,7 +3219,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3204,7 +3230,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3215,7 +3241,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3226,7 +3252,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3237,7 +3263,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3248,7 +3274,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3259,7 +3285,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3270,7 +3296,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3281,7 +3307,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3292,7 +3318,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3303,7 +3329,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3314,7 +3340,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3325,7 +3351,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3336,7 +3362,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3347,7 +3373,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3358,7 +3384,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3369,136 +3395,136 @@
         <v>435</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1">
       <c r="A54" s="6"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1">
       <c r="A55" s="6"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1">
       <c r="A56" s="6"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1">
       <c r="A57" s="6"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1">
       <c r="A58" s="6"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1">
       <c r="A59" s="6"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1">
       <c r="A60" s="6"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1">
       <c r="A61" s="6"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1">
       <c r="A62" s="6"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1">
       <c r="A63" s="6"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1">
       <c r="A64" s="6"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1">
       <c r="A65" s="6"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1">
       <c r="A66" s="6"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1">
       <c r="A67" s="6"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1">
       <c r="A68" s="6"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1">
       <c r="A69" s="6"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1">
       <c r="A70" s="6"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1">
       <c r="A71" s="6"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1">
       <c r="A72" s="6"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1">
       <c r="A73" s="6"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1">
       <c r="A74" s="6"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1">
       <c r="A75" s="6"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1">
       <c r="A76" s="6"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1">
       <c r="A77" s="6"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1">
       <c r="A78" s="6"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1">
       <c r="A79" s="6"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1">
       <c r="A80" s="6"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1">
       <c r="A81" s="6"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1">
       <c r="A82" s="6"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1">
       <c r="A83" s="6"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1">
       <c r="A84" s="6"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1">
       <c r="A85" s="6"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1">
       <c r="A86" s="6"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1">
       <c r="A87" s="6"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1">
       <c r="A88" s="6"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1">
       <c r="A89" s="2"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1">
       <c r="A90" s="2"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1">
       <c r="A91" s="2"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1">
       <c r="A92" s="2"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1">
       <c r="A93" s="2"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1">
       <c r="A115" s="6"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1">
       <c r="A116" s="6"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1">
       <c r="A117" s="6"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1">
       <c r="A118" s="6"/>
     </row>
   </sheetData>
@@ -3514,18 +3540,18 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -3551,7 +3577,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3577,7 +3603,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3603,7 +3629,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -3629,7 +3655,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -3655,7 +3681,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3681,7 +3707,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -3707,7 +3733,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3733,7 +3759,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -3759,7 +3785,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -3785,7 +3811,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -3811,7 +3837,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -3837,7 +3863,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -3863,7 +3889,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
@@ -3889,7 +3915,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
@@ -3915,7 +3941,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="3" t="s">
         <v>24</v>
       </c>
@@ -3941,7 +3967,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -3967,7 +3993,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -3993,7 +4019,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -4019,7 +4045,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -4042,7 +4068,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -4065,7 +4091,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -4088,7 +4114,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -4114,7 +4140,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -4140,7 +4166,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -4166,7 +4192,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -4192,7 +4218,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -4218,7 +4244,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -4244,7 +4270,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -4270,7 +4296,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>100</v>
       </c>
@@ -4296,7 +4322,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>102</v>
       </c>
@@ -4322,7 +4348,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>125</v>
       </c>
@@ -4348,7 +4374,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>126</v>
       </c>
@@ -4374,7 +4400,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>127</v>
       </c>
@@ -4400,7 +4426,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>128</v>
       </c>
@@ -4426,7 +4452,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>129</v>
       </c>
@@ -4452,7 +4478,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>130</v>
       </c>
@@ -4478,7 +4504,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>131</v>
       </c>
@@ -4504,7 +4530,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>132</v>
       </c>
@@ -4530,7 +4556,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>133</v>
       </c>
@@ -4556,7 +4582,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>134</v>
       </c>
@@ -4582,7 +4608,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>135</v>
       </c>
@@ -4608,7 +4634,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>136</v>
       </c>
@@ -4634,7 +4660,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>104</v>
       </c>
@@ -4660,7 +4686,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>106</v>
       </c>
@@ -4686,7 +4712,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>211</v>
       </c>
@@ -4712,7 +4738,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>212</v>
       </c>
@@ -4738,7 +4764,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>213</v>
       </c>
@@ -4764,7 +4790,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>214</v>
       </c>
@@ -4790,7 +4816,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>215</v>
       </c>
@@ -4816,7 +4842,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>216</v>
       </c>
@@ -4842,7 +4868,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>217</v>
       </c>
@@ -4868,7 +4894,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>218</v>
       </c>
@@ -4894,7 +4920,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>219</v>
       </c>
@@ -4920,7 +4946,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>220</v>
       </c>
@@ -4946,7 +4972,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>221</v>
       </c>
@@ -4972,7 +4998,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>222</v>
       </c>
@@ -4998,7 +5024,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>108</v>
       </c>
@@ -5024,7 +5050,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>110</v>
       </c>
@@ -5050,7 +5076,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>223</v>
       </c>
@@ -5076,7 +5102,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>224</v>
       </c>
@@ -5102,7 +5128,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>225</v>
       </c>
@@ -5128,7 +5154,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>226</v>
       </c>
@@ -5154,7 +5180,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>227</v>
       </c>
@@ -5180,7 +5206,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>228</v>
       </c>
@@ -5206,7 +5232,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>229</v>
       </c>
@@ -5232,7 +5258,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>230</v>
       </c>
@@ -5258,7 +5284,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>231</v>
       </c>
@@ -5284,7 +5310,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>232</v>
       </c>
@@ -5310,7 +5336,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>233</v>
       </c>
@@ -5336,7 +5362,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>234</v>
       </c>
@@ -5362,7 +5388,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>112</v>
       </c>
@@ -5388,7 +5414,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
         <v>114</v>
       </c>
@@ -5414,7 +5440,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>235</v>
       </c>
@@ -5440,7 +5466,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>236</v>
       </c>
@@ -5466,7 +5492,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>237</v>
       </c>
@@ -5492,7 +5518,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>238</v>
       </c>
@@ -5518,7 +5544,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
         <v>239</v>
       </c>
@@ -5544,7 +5570,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>240</v>
       </c>
@@ -5570,7 +5596,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
         <v>241</v>
       </c>
@@ -5596,7 +5622,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>242</v>
       </c>
@@ -5622,7 +5648,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>243</v>
       </c>
@@ -5648,7 +5674,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
         <v>244</v>
       </c>
@@ -5674,7 +5700,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
         <v>245</v>
       </c>
@@ -5700,7 +5726,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
         <v>246</v>
       </c>
@@ -5726,7 +5752,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>247</v>
       </c>
@@ -5752,7 +5778,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
         <v>116</v>
       </c>
@@ -5778,7 +5804,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
         <v>118</v>
       </c>
@@ -5804,7 +5830,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
         <v>248</v>
       </c>
@@ -5830,7 +5856,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
         <v>249</v>
       </c>
@@ -5856,7 +5882,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
         <v>250</v>
       </c>
@@ -5882,7 +5908,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
         <v>251</v>
       </c>
@@ -5908,7 +5934,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
         <v>252</v>
       </c>
@@ -5934,7 +5960,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
         <v>253</v>
       </c>
@@ -5960,7 +5986,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
         <v>254</v>
       </c>
@@ -5986,7 +6012,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
         <v>255</v>
       </c>
@@ -6012,7 +6038,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
         <v>256</v>
       </c>
@@ -6038,7 +6064,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
         <v>257</v>
       </c>
@@ -6064,7 +6090,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
         <v>258</v>
       </c>
@@ -6090,7 +6116,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
         <v>259</v>
       </c>
@@ -6116,7 +6142,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
         <v>260</v>
       </c>
@@ -6142,7 +6168,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8">
       <c r="A102" t="s">
         <v>120</v>
       </c>
@@ -6168,7 +6194,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
         <v>122</v>
       </c>
@@ -6194,7 +6220,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
         <v>261</v>
       </c>
@@ -6220,7 +6246,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8">
       <c r="A105" t="s">
         <v>262</v>
       </c>
@@ -6246,7 +6272,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8">
       <c r="A106" t="s">
         <v>263</v>
       </c>
@@ -6272,7 +6298,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8">
       <c r="A107" t="s">
         <v>264</v>
       </c>
@@ -6298,7 +6324,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8">
       <c r="A108" t="s">
         <v>265</v>
       </c>
@@ -6324,7 +6350,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8">
       <c r="A109" t="s">
         <v>266</v>
       </c>
@@ -6350,7 +6376,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8">
       <c r="A110" t="s">
         <v>267</v>
       </c>
@@ -6376,7 +6402,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8">
       <c r="A111" t="s">
         <v>268</v>
       </c>
@@ -6402,7 +6428,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8">
       <c r="A112" t="s">
         <v>269</v>
       </c>
@@ -6428,7 +6454,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8">
       <c r="A113" t="s">
         <v>270</v>
       </c>
@@ -6454,7 +6480,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8">
       <c r="A114" t="s">
         <v>271</v>
       </c>
@@ -6480,7 +6506,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8">
       <c r="A115" t="s">
         <v>272</v>
       </c>
@@ -6506,7 +6532,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8">
       <c r="A116" t="s">
         <v>273</v>
       </c>
@@ -6532,7 +6558,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8">
       <c r="A117" t="s">
         <v>60</v>
       </c>
@@ -6558,7 +6584,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8">
       <c r="A118" t="s">
         <v>62</v>
       </c>
@@ -6584,7 +6610,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8">
       <c r="A119" t="s">
         <v>64</v>
       </c>
@@ -6610,7 +6636,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8">
       <c r="A120" t="s">
         <v>66</v>
       </c>
@@ -6636,7 +6662,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8">
       <c r="A121" t="s">
         <v>68</v>
       </c>
@@ -6662,7 +6688,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8">
       <c r="A122" t="s">
         <v>70</v>
       </c>
@@ -6688,7 +6714,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8">
       <c r="A123" t="s">
         <v>72</v>
       </c>
@@ -6714,7 +6740,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8">
       <c r="A124" t="s">
         <v>74</v>
       </c>
@@ -6740,7 +6766,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8">
       <c r="A125" t="s">
         <v>76</v>
       </c>
@@ -6766,7 +6792,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8">
       <c r="A126" t="s">
         <v>78</v>
       </c>
@@ -6792,7 +6818,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8">
       <c r="A127" t="s">
         <v>80</v>
       </c>
@@ -6818,7 +6844,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8">
       <c r="A128" t="s">
         <v>82</v>
       </c>
@@ -6844,7 +6870,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8">
       <c r="A129" t="s">
         <v>84</v>
       </c>
@@ -6870,7 +6896,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8">
       <c r="A130" t="s">
         <v>86</v>
       </c>
@@ -6896,7 +6922,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8">
       <c r="A131" s="6" t="s">
         <v>88</v>
       </c>
@@ -6922,7 +6948,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8">
       <c r="A132" s="6" t="s">
         <v>90</v>
       </c>
@@ -6948,7 +6974,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8">
       <c r="A133" s="6" t="s">
         <v>92</v>
       </c>
@@ -6974,7 +7000,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8">
       <c r="A134" s="6" t="s">
         <v>94</v>
       </c>
@@ -7000,7 +7026,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8">
       <c r="A135" t="s">
         <v>96</v>
       </c>
@@ -7026,7 +7052,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8">
       <c r="A136" t="s">
         <v>98</v>
       </c>
@@ -7062,20 +7088,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D5969C-509B-4D3C-BD42-B92347445C5B}">
-  <dimension ref="A1:G198"/>
+  <dimension ref="A1:G205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E155" sqref="E155"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>465</v>
       </c>
@@ -7086,7 +7110,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>467</v>
       </c>
@@ -7097,7 +7121,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>467</v>
       </c>
@@ -7108,7 +7132,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>467</v>
       </c>
@@ -7119,7 +7143,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>467</v>
       </c>
@@ -7130,7 +7154,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>467</v>
       </c>
@@ -7141,7 +7165,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>467</v>
       </c>
@@ -7152,7 +7176,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>467</v>
       </c>
@@ -7163,161 +7187,161 @@
         <v>481</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>467</v>
       </c>
       <c r="B9" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C9" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>467</v>
       </c>
       <c r="B10" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C10" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>467</v>
       </c>
       <c r="B11" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C11" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>467</v>
       </c>
       <c r="B12" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C12" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>467</v>
       </c>
       <c r="B13" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C13" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>467</v>
       </c>
       <c r="B14" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C14" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>467</v>
       </c>
       <c r="B15" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C15" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>467</v>
       </c>
       <c r="B16" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C16" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>467</v>
       </c>
       <c r="B17" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C17" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>467</v>
       </c>
       <c r="B18" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C18" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>467</v>
       </c>
       <c r="B19" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C19" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>467</v>
       </c>
       <c r="B20" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C20" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>467</v>
       </c>
       <c r="B21" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C21" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>467</v>
       </c>
       <c r="B22" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C22" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>467</v>
       </c>
@@ -7328,7 +7352,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>467</v>
       </c>
@@ -7339,7 +7363,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>467</v>
       </c>
@@ -7350,7 +7374,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>467</v>
       </c>
@@ -7361,7 +7385,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>467</v>
       </c>
@@ -7372,7 +7396,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>467</v>
       </c>
@@ -7383,7 +7407,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>467</v>
       </c>
@@ -7394,7 +7418,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>467</v>
       </c>
@@ -7405,7 +7429,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>467</v>
       </c>
@@ -7416,7 +7440,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>467</v>
       </c>
@@ -7427,7 +7451,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>467</v>
       </c>
@@ -7438,7 +7462,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>467</v>
       </c>
@@ -7449,7 +7473,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>467</v>
       </c>
@@ -7460,7 +7484,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>467</v>
       </c>
@@ -7471,7 +7495,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>522</v>
       </c>
@@ -7482,7 +7506,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>522</v>
       </c>
@@ -7493,7 +7517,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>522</v>
       </c>
@@ -7504,7 +7528,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>522</v>
       </c>
@@ -7515,7 +7539,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>522</v>
       </c>
@@ -7526,7 +7550,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>522</v>
       </c>
@@ -7537,7 +7561,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>522</v>
       </c>
@@ -7548,7 +7572,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>522</v>
       </c>
@@ -7559,7 +7583,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>522</v>
       </c>
@@ -7570,7 +7594,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>522</v>
       </c>
@@ -7581,7 +7605,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>522</v>
       </c>
@@ -7592,7 +7616,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>522</v>
       </c>
@@ -7603,7 +7627,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>522</v>
       </c>
@@ -7614,7 +7638,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>522</v>
       </c>
@@ -7625,7 +7649,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>522</v>
       </c>
@@ -7636,7 +7660,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>522</v>
       </c>
@@ -7647,7 +7671,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>522</v>
       </c>
@@ -7658,7 +7682,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>522</v>
       </c>
@@ -7669,7 +7693,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>522</v>
       </c>
@@ -7680,7 +7704,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>522</v>
       </c>
@@ -7691,7 +7715,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>522</v>
       </c>
@@ -7702,7 +7726,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>522</v>
       </c>
@@ -7713,7 +7737,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>522</v>
       </c>
@@ -7724,7 +7748,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>522</v>
       </c>
@@ -7735,7 +7759,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>522</v>
       </c>
@@ -7746,7 +7770,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>522</v>
       </c>
@@ -7757,7 +7781,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>522</v>
       </c>
@@ -7768,7 +7792,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>522</v>
       </c>
@@ -7779,7 +7803,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>522</v>
       </c>
@@ -7790,7 +7814,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>522</v>
       </c>
@@ -7801,7 +7825,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>522</v>
       </c>
@@ -7812,7 +7836,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>522</v>
       </c>
@@ -7823,7 +7847,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>522</v>
       </c>
@@ -7834,7 +7858,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>522</v>
       </c>
@@ -7845,18 +7869,18 @@
         <v>590</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>522</v>
       </c>
       <c r="B71" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C71" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>522</v>
       </c>
@@ -7867,7 +7891,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>522</v>
       </c>
@@ -7878,7 +7902,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>522</v>
       </c>
@@ -7889,7 +7913,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>522</v>
       </c>
@@ -7900,7 +7924,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>522</v>
       </c>
@@ -7911,7 +7935,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>522</v>
       </c>
@@ -7922,7 +7946,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>522</v>
       </c>
@@ -7933,7 +7957,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>522</v>
       </c>
@@ -7944,7 +7968,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>522</v>
       </c>
@@ -7955,7 +7979,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>522</v>
       </c>
@@ -7966,7 +7990,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>522</v>
       </c>
@@ -7977,7 +8001,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>522</v>
       </c>
@@ -7988,7 +8012,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>522</v>
       </c>
@@ -7999,7 +8023,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>522</v>
       </c>
@@ -8010,7 +8034,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>522</v>
       </c>
@@ -8021,7 +8045,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>522</v>
       </c>
@@ -8032,7 +8056,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>522</v>
       </c>
@@ -8043,7 +8067,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>522</v>
       </c>
@@ -8054,7 +8078,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>522</v>
       </c>
@@ -8065,7 +8089,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>522</v>
       </c>
@@ -8076,7 +8100,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>522</v>
       </c>
@@ -8087,7 +8111,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>522</v>
       </c>
@@ -8098,7 +8122,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>522</v>
       </c>
@@ -8109,7 +8133,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>522</v>
       </c>
@@ -8120,7 +8144,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>522</v>
       </c>
@@ -8131,7 +8155,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>522</v>
       </c>
@@ -8142,7 +8166,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>522</v>
       </c>
@@ -8153,7 +8177,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>619</v>
       </c>
@@ -8164,29 +8188,29 @@
         <v>621</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>619</v>
       </c>
       <c r="B100" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C100" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>619</v>
       </c>
       <c r="B101" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C101" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
         <v>619</v>
       </c>
@@ -8197,594 +8221,594 @@
         <v>623</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
         <v>619</v>
       </c>
       <c r="B103" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C103" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>619</v>
       </c>
       <c r="B104" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C104" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
         <v>619</v>
       </c>
       <c r="B105" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C105" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
         <v>619</v>
       </c>
       <c r="B106" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C106" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
         <v>619</v>
       </c>
       <c r="B107" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C107" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
         <v>619</v>
       </c>
       <c r="B108" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C108" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
         <v>619</v>
       </c>
       <c r="B109" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C109" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
         <v>619</v>
       </c>
       <c r="B110" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C110" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
         <v>619</v>
       </c>
       <c r="B111" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C111" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
         <v>619</v>
       </c>
       <c r="B112" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C112" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
         <v>619</v>
       </c>
       <c r="B113" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C113" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
         <v>619</v>
       </c>
       <c r="B114" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C114" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
         <v>619</v>
       </c>
       <c r="B115" t="s">
+        <v>735</v>
+      </c>
+      <c r="C115" t="s">
         <v>737</v>
       </c>
-      <c r="C115" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:3">
       <c r="A116" t="s">
         <v>619</v>
       </c>
       <c r="B116" t="s">
+        <v>736</v>
+      </c>
+      <c r="C116" t="s">
         <v>738</v>
       </c>
-      <c r="C116" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
         <v>619</v>
       </c>
       <c r="B117" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C117" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
         <v>619</v>
       </c>
       <c r="B118" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C118" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
       <c r="A119" t="s">
         <v>619</v>
       </c>
       <c r="B119" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C119" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
         <v>619</v>
       </c>
       <c r="B120" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C120" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
         <v>619</v>
       </c>
       <c r="B121" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C121" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
         <v>619</v>
       </c>
       <c r="B122" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C122" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
       <c r="A123" t="s">
         <v>619</v>
       </c>
       <c r="B123" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C123" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
       <c r="A124" t="s">
         <v>619</v>
       </c>
       <c r="B124" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C124" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
       <c r="A125" t="s">
         <v>619</v>
       </c>
       <c r="B125" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C125" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
         <v>619</v>
       </c>
       <c r="B126" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C126" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
       <c r="A127" t="s">
         <v>619</v>
       </c>
       <c r="B127" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C127" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
       <c r="A128" t="s">
         <v>619</v>
       </c>
       <c r="B128" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C128" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
         <v>619</v>
       </c>
       <c r="B129" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C129" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
         <v>619</v>
       </c>
       <c r="B130" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C130" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
       <c r="A131" t="s">
         <v>619</v>
       </c>
       <c r="B131" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C131" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
       <c r="A132" t="s">
         <v>619</v>
       </c>
       <c r="B132" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C132" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
       <c r="A133" t="s">
         <v>619</v>
       </c>
       <c r="B133" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C133" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
       <c r="A134" t="s">
         <v>619</v>
       </c>
       <c r="B134" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C134" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
       <c r="A135" t="s">
         <v>619</v>
       </c>
       <c r="B135" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C135" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
       <c r="A136" t="s">
         <v>619</v>
       </c>
       <c r="B136" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C136" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
       <c r="A137" t="s">
         <v>619</v>
       </c>
       <c r="B137" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C137" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
       <c r="A138" t="s">
         <v>619</v>
       </c>
       <c r="B138" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C138" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
       <c r="A139" t="s">
         <v>619</v>
       </c>
       <c r="B139" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C139" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
       <c r="A140" t="s">
         <v>619</v>
       </c>
       <c r="B140" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C140" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
       <c r="A141" t="s">
         <v>619</v>
       </c>
       <c r="B141" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C141" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
       <c r="A142" t="s">
         <v>619</v>
       </c>
       <c r="B142" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C142" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
       <c r="A143" t="s">
         <v>619</v>
       </c>
       <c r="B143" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C143" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
       <c r="A144" t="s">
         <v>619</v>
       </c>
       <c r="B144" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C144" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
       <c r="A145" t="s">
         <v>619</v>
       </c>
       <c r="B145" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C145" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146" t="s">
         <v>619</v>
       </c>
       <c r="B146" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C146" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147" t="s">
         <v>619</v>
       </c>
       <c r="B147" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C147" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F147" s="8"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7">
       <c r="A148" t="s">
         <v>619</v>
       </c>
       <c r="B148" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C148" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="F148" s="8"/>
       <c r="G148" s="8"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7">
       <c r="A149" t="s">
         <v>619</v>
       </c>
       <c r="B149" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C149" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150" t="s">
         <v>619</v>
       </c>
       <c r="B150" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C150" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151" t="s">
         <v>619</v>
       </c>
       <c r="B151" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C151" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
       <c r="A152" t="s">
         <v>619</v>
       </c>
       <c r="B152" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C152" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
       <c r="A153" t="s">
         <v>619</v>
       </c>
       <c r="B153" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C153" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
       <c r="A154" t="s">
         <v>619</v>
       </c>
       <c r="B154" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C154" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155" t="s">
         <v>619</v>
       </c>
       <c r="B155" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C155" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E155" s="8"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7">
       <c r="A156" t="s">
         <v>619</v>
       </c>
@@ -8795,7 +8819,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7">
       <c r="A157" t="s">
         <v>647</v>
       </c>
@@ -8806,7 +8830,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7">
       <c r="A158" t="s">
         <v>647</v>
       </c>
@@ -8817,7 +8841,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7">
       <c r="A159" t="s">
         <v>647</v>
       </c>
@@ -8828,7 +8852,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7">
       <c r="A160" t="s">
         <v>647</v>
       </c>
@@ -8839,7 +8863,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3">
       <c r="A161" t="s">
         <v>647</v>
       </c>
@@ -8850,7 +8874,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3">
       <c r="A162" t="s">
         <v>647</v>
       </c>
@@ -8861,7 +8885,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3">
       <c r="A163" t="s">
         <v>647</v>
       </c>
@@ -8872,7 +8896,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3">
       <c r="A164" t="s">
         <v>647</v>
       </c>
@@ -8883,7 +8907,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3">
       <c r="A165" t="s">
         <v>647</v>
       </c>
@@ -8894,7 +8918,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3">
       <c r="A166" t="s">
         <v>647</v>
       </c>
@@ -8905,7 +8929,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3">
       <c r="A167" t="s">
         <v>647</v>
       </c>
@@ -8916,7 +8940,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3">
       <c r="A168" t="s">
         <v>647</v>
       </c>
@@ -8924,98 +8948,98 @@
         <v>661</v>
       </c>
       <c r="C168" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
       <c r="A169" t="s">
         <v>647</v>
       </c>
       <c r="B169" t="s">
+        <v>662</v>
+      </c>
+      <c r="C169" t="s">
         <v>663</v>
       </c>
-      <c r="C169" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="170" spans="1:3">
       <c r="A170" t="s">
         <v>647</v>
       </c>
       <c r="B170" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C170" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
       <c r="A171" t="s">
         <v>647</v>
       </c>
       <c r="B171" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C171" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3">
       <c r="A172" t="s">
         <v>647</v>
       </c>
       <c r="B172" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C172" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3">
       <c r="A173" t="s">
         <v>647</v>
       </c>
       <c r="B173" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C173" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
       <c r="A174" t="s">
         <v>647</v>
       </c>
       <c r="B174" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C174" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3">
       <c r="A175" t="s">
         <v>647</v>
       </c>
       <c r="B175" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C175" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3">
       <c r="A176" t="s">
         <v>647</v>
       </c>
       <c r="B176" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C176" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3">
       <c r="A177" t="s">
         <v>647</v>
       </c>
@@ -9026,7 +9050,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3">
       <c r="A178" t="s">
         <v>647</v>
       </c>
@@ -9037,224 +9061,301 @@
         <v>496</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3">
       <c r="A179" t="s">
         <v>647</v>
       </c>
       <c r="B179" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C179" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3">
       <c r="A180" t="s">
         <v>647</v>
       </c>
       <c r="B180" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C180" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3">
       <c r="A181" t="s">
         <v>647</v>
       </c>
       <c r="B181" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C181" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3">
       <c r="A182" t="s">
         <v>647</v>
       </c>
       <c r="B182" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C182" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3">
       <c r="A183" t="s">
         <v>647</v>
       </c>
       <c r="B183" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C183" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
       <c r="A184" t="s">
         <v>647</v>
       </c>
       <c r="B184" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C184" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
       <c r="A185" t="s">
         <v>647</v>
       </c>
       <c r="B185" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C185" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
       <c r="A186" t="s">
         <v>647</v>
       </c>
       <c r="B186" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C186" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
       <c r="A187" t="s">
         <v>647</v>
       </c>
       <c r="B187" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C187" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
       <c r="A188" t="s">
         <v>647</v>
       </c>
       <c r="B188" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C188" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
       <c r="A189" t="s">
         <v>647</v>
       </c>
       <c r="B189" t="s">
-        <v>690</v>
+        <v>834</v>
       </c>
       <c r="C189" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
       <c r="A190" t="s">
         <v>647</v>
       </c>
       <c r="B190" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="C190" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
       <c r="A191" t="s">
         <v>647</v>
       </c>
       <c r="B191" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="C191" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
       <c r="A192" t="s">
         <v>647</v>
       </c>
       <c r="B192" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="C192" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
       <c r="A193" t="s">
         <v>647</v>
       </c>
       <c r="B193" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C193" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
       <c r="A194" t="s">
         <v>647</v>
       </c>
       <c r="B194" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="C194" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
       <c r="A195" t="s">
         <v>647</v>
       </c>
       <c r="B195" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="C195" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
       <c r="A196" t="s">
         <v>647</v>
       </c>
       <c r="B196" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="C196" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
       <c r="A197" t="s">
         <v>647</v>
       </c>
       <c r="B197" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="C197" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
       <c r="A198" t="s">
         <v>647</v>
       </c>
       <c r="B198" t="s">
+        <v>835</v>
+      </c>
+      <c r="C198" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" t="s">
+        <v>647</v>
+      </c>
+      <c r="B199" t="s">
         <v>706</v>
       </c>
-      <c r="C198" t="s">
-        <v>707</v>
+      <c r="C199" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" t="s">
+        <v>647</v>
+      </c>
+      <c r="B200" t="s">
+        <v>704</v>
+      </c>
+      <c r="C200" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" t="s">
+        <v>647</v>
+      </c>
+      <c r="B201" t="s">
+        <v>837</v>
+      </c>
+      <c r="C201" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" t="s">
+        <v>647</v>
+      </c>
+      <c r="B202" t="s">
+        <v>839</v>
+      </c>
+      <c r="C202" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" t="s">
+        <v>647</v>
+      </c>
+      <c r="B203" t="s">
+        <v>841</v>
+      </c>
+      <c r="C203" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" t="s">
+        <v>647</v>
+      </c>
+      <c r="B204" t="s">
+        <v>842</v>
+      </c>
+      <c r="C204" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" t="s">
+        <v>647</v>
+      </c>
+      <c r="B205" t="s">
+        <v>844</v>
+      </c>
+      <c r="C205" t="s">
+        <v>845</v>
       </c>
     </row>
   </sheetData>

--- a/backend/v1.0/tools/DB_Mapping.xlsx
+++ b/backend/v1.0/tools/DB_Mapping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SMARTGRID_CALI\project-cali\backend\v1.0\tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconet-my.sharepoint.com/personal/sarango_uco_edu_co/Documents/Documents/GitHub/project-cali/backend/v1.0/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C0C144-C7D6-46F1-AF9E-90FE417FA0E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConexionDB" sheetId="4" r:id="rId1"/>
@@ -2619,7 +2619,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2987,13 +2987,13 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="95.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="95.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>275</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>436</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>436</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>519</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>436</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E10" s="8"/>
     </row>
   </sheetData>
@@ -3110,13 +3110,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>275</v>
       </c>
@@ -3130,7 +3130,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>435</v>
       </c>
@@ -3154,17 +3154,17 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>428</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1">
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3395,136 +3395,136 @@
         <v>435</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="6"/>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="6"/>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="6"/>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="6"/>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="6"/>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="6"/>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="6"/>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="6"/>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="6"/>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="6"/>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="6"/>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="6"/>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="6"/>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="6"/>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="6"/>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="6"/>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="6"/>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="6"/>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="6"/>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="6"/>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="6"/>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="6"/>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="6"/>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="6"/>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="6"/>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="6"/>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="6"/>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="6"/>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="6"/>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="6"/>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="6"/>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="6"/>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="6"/>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="6"/>
     </row>
   </sheetData>
@@ -3540,18 +3540,18 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3629,7 +3629,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
@@ -3915,7 +3915,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>24</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -4166,7 +4166,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>100</v>
       </c>
@@ -4322,7 +4322,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>102</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>125</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>126</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>127</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>128</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>129</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>130</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>131</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>132</v>
       </c>
@@ -4556,7 +4556,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>133</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>134</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>135</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>136</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>104</v>
       </c>
@@ -4686,7 +4686,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>106</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>211</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>212</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>213</v>
       </c>
@@ -4790,7 +4790,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>214</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>215</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>216</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>217</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>218</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>219</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>220</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>221</v>
       </c>
@@ -4998,7 +4998,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>222</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>108</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>110</v>
       </c>
@@ -5076,7 +5076,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>223</v>
       </c>
@@ -5102,7 +5102,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>224</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>225</v>
       </c>
@@ -5154,7 +5154,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>226</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>227</v>
       </c>
@@ -5206,7 +5206,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>228</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>229</v>
       </c>
@@ -5258,7 +5258,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>230</v>
       </c>
@@ -5284,7 +5284,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>231</v>
       </c>
@@ -5310,7 +5310,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>232</v>
       </c>
@@ -5336,7 +5336,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>233</v>
       </c>
@@ -5362,7 +5362,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>234</v>
       </c>
@@ -5388,7 +5388,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>112</v>
       </c>
@@ -5414,7 +5414,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>114</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>235</v>
       </c>
@@ -5466,7 +5466,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>236</v>
       </c>
@@ -5492,7 +5492,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>237</v>
       </c>
@@ -5518,7 +5518,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>238</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>239</v>
       </c>
@@ -5570,7 +5570,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>240</v>
       </c>
@@ -5596,7 +5596,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>241</v>
       </c>
@@ -5622,7 +5622,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>242</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>243</v>
       </c>
@@ -5674,7 +5674,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>244</v>
       </c>
@@ -5700,7 +5700,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>245</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>246</v>
       </c>
@@ -5752,7 +5752,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>247</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>116</v>
       </c>
@@ -5804,7 +5804,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>118</v>
       </c>
@@ -5830,7 +5830,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>248</v>
       </c>
@@ -5856,7 +5856,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>249</v>
       </c>
@@ -5882,7 +5882,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>250</v>
       </c>
@@ -5908,7 +5908,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>251</v>
       </c>
@@ -5934,7 +5934,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>252</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>253</v>
       </c>
@@ -5986,7 +5986,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>254</v>
       </c>
@@ -6012,7 +6012,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>255</v>
       </c>
@@ -6038,7 +6038,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>256</v>
       </c>
@@ -6064,7 +6064,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>257</v>
       </c>
@@ -6090,7 +6090,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>258</v>
       </c>
@@ -6116,7 +6116,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>259</v>
       </c>
@@ -6142,7 +6142,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>260</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>120</v>
       </c>
@@ -6194,7 +6194,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>122</v>
       </c>
@@ -6220,7 +6220,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>261</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>262</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>263</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>264</v>
       </c>
@@ -6324,7 +6324,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>265</v>
       </c>
@@ -6350,7 +6350,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>266</v>
       </c>
@@ -6376,7 +6376,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>267</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>268</v>
       </c>
@@ -6428,7 +6428,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>269</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>270</v>
       </c>
@@ -6480,7 +6480,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>271</v>
       </c>
@@ -6506,7 +6506,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>272</v>
       </c>
@@ -6532,7 +6532,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>273</v>
       </c>
@@ -6558,7 +6558,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>60</v>
       </c>
@@ -6584,7 +6584,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>62</v>
       </c>
@@ -6610,7 +6610,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>64</v>
       </c>
@@ -6636,7 +6636,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>66</v>
       </c>
@@ -6662,7 +6662,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>68</v>
       </c>
@@ -6688,7 +6688,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>70</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>72</v>
       </c>
@@ -6740,7 +6740,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>74</v>
       </c>
@@ -6766,7 +6766,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>76</v>
       </c>
@@ -6792,7 +6792,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>78</v>
       </c>
@@ -6818,7 +6818,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>80</v>
       </c>
@@ -6844,7 +6844,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>82</v>
       </c>
@@ -6870,7 +6870,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>84</v>
       </c>
@@ -6896,7 +6896,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>86</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
         <v>88</v>
       </c>
@@ -6948,7 +6948,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
         <v>90</v>
       </c>
@@ -6974,7 +6974,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
         <v>92</v>
       </c>
@@ -7000,7 +7000,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
         <v>94</v>
       </c>
@@ -7026,7 +7026,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>96</v>
       </c>
@@ -7052,7 +7052,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>98</v>
       </c>
@@ -7090,16 +7090,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D5969C-509B-4D3C-BD42-B92347445C5B}">
   <dimension ref="A1:G205"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F149" sqref="F149"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>465</v>
       </c>
@@ -7110,7 +7112,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>467</v>
       </c>
@@ -7121,7 +7123,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>467</v>
       </c>
@@ -7132,7 +7134,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>467</v>
       </c>
@@ -7143,7 +7145,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>467</v>
       </c>
@@ -7154,7 +7156,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>467</v>
       </c>
@@ -7165,7 +7167,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>467</v>
       </c>
@@ -7176,7 +7178,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>467</v>
       </c>
@@ -7187,7 +7189,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>467</v>
       </c>
@@ -7198,7 +7200,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>467</v>
       </c>
@@ -7209,7 +7211,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>467</v>
       </c>
@@ -7220,7 +7222,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>467</v>
       </c>
@@ -7231,7 +7233,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>467</v>
       </c>
@@ -7242,7 +7244,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>467</v>
       </c>
@@ -7253,7 +7255,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>467</v>
       </c>
@@ -7264,7 +7266,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>467</v>
       </c>
@@ -7275,7 +7277,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>467</v>
       </c>
@@ -7286,7 +7288,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>467</v>
       </c>
@@ -7297,7 +7299,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>467</v>
       </c>
@@ -7308,7 +7310,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>467</v>
       </c>
@@ -7319,7 +7321,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>467</v>
       </c>
@@ -7330,7 +7332,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>467</v>
       </c>
@@ -7341,7 +7343,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>467</v>
       </c>
@@ -7352,7 +7354,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>467</v>
       </c>
@@ -7363,7 +7365,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>467</v>
       </c>
@@ -7374,7 +7376,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>467</v>
       </c>
@@ -7385,7 +7387,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>467</v>
       </c>
@@ -7396,7 +7398,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>467</v>
       </c>
@@ -7407,7 +7409,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>467</v>
       </c>
@@ -7418,7 +7420,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>467</v>
       </c>
@@ -7429,7 +7431,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>467</v>
       </c>
@@ -7440,7 +7442,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>467</v>
       </c>
@@ -7451,7 +7453,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>467</v>
       </c>
@@ -7462,7 +7464,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>467</v>
       </c>
@@ -7473,7 +7475,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>467</v>
       </c>
@@ -7484,7 +7486,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>467</v>
       </c>
@@ -7495,7 +7497,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>522</v>
       </c>
@@ -7506,7 +7508,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>522</v>
       </c>
@@ -7517,7 +7519,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>522</v>
       </c>
@@ -7528,7 +7530,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>522</v>
       </c>
@@ -7539,7 +7541,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>522</v>
       </c>
@@ -7550,7 +7552,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>522</v>
       </c>
@@ -7561,7 +7563,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>522</v>
       </c>
@@ -7572,7 +7574,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>522</v>
       </c>
@@ -7583,7 +7585,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>522</v>
       </c>
@@ -7594,7 +7596,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>522</v>
       </c>
@@ -7605,7 +7607,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>522</v>
       </c>
@@ -7616,7 +7618,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>522</v>
       </c>
@@ -7627,7 +7629,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>522</v>
       </c>
@@ -7638,7 +7640,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>522</v>
       </c>
@@ -7649,7 +7651,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>522</v>
       </c>
@@ -7660,7 +7662,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>522</v>
       </c>
@@ -7671,7 +7673,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>522</v>
       </c>
@@ -7682,7 +7684,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>522</v>
       </c>
@@ -7693,7 +7695,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>522</v>
       </c>
@@ -7704,7 +7706,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>522</v>
       </c>
@@ -7715,7 +7717,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>522</v>
       </c>
@@ -7726,7 +7728,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>522</v>
       </c>
@@ -7737,7 +7739,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>522</v>
       </c>
@@ -7748,7 +7750,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>522</v>
       </c>
@@ -7759,7 +7761,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>522</v>
       </c>
@@ -7770,7 +7772,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>522</v>
       </c>
@@ -7781,7 +7783,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>522</v>
       </c>
@@ -7792,7 +7794,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>522</v>
       </c>
@@ -7803,7 +7805,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>522</v>
       </c>
@@ -7814,7 +7816,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>522</v>
       </c>
@@ -7825,7 +7827,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>522</v>
       </c>
@@ -7836,7 +7838,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>522</v>
       </c>
@@ -7847,7 +7849,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>522</v>
       </c>
@@ -7858,7 +7860,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>522</v>
       </c>
@@ -7869,7 +7871,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>522</v>
       </c>
@@ -7880,7 +7882,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>522</v>
       </c>
@@ -7891,7 +7893,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>522</v>
       </c>
@@ -7902,7 +7904,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>522</v>
       </c>
@@ -7913,7 +7915,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>522</v>
       </c>
@@ -7924,7 +7926,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>522</v>
       </c>
@@ -7935,7 +7937,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>522</v>
       </c>
@@ -7946,7 +7948,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>522</v>
       </c>
@@ -7957,7 +7959,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>522</v>
       </c>
@@ -7968,7 +7970,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>522</v>
       </c>
@@ -7979,7 +7981,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>522</v>
       </c>
@@ -7990,7 +7992,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>522</v>
       </c>
@@ -8001,7 +8003,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>522</v>
       </c>
@@ -8012,7 +8014,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>522</v>
       </c>
@@ -8023,7 +8025,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>522</v>
       </c>
@@ -8034,7 +8036,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>522</v>
       </c>
@@ -8045,7 +8047,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>522</v>
       </c>
@@ -8056,7 +8058,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>522</v>
       </c>
@@ -8067,7 +8069,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>522</v>
       </c>
@@ -8078,7 +8080,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>522</v>
       </c>
@@ -8089,7 +8091,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>522</v>
       </c>
@@ -8100,7 +8102,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>522</v>
       </c>
@@ -8111,7 +8113,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>522</v>
       </c>
@@ -8122,7 +8124,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>522</v>
       </c>
@@ -8133,7 +8135,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>522</v>
       </c>
@@ -8144,7 +8146,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>522</v>
       </c>
@@ -8155,7 +8157,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>522</v>
       </c>
@@ -8166,7 +8168,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>522</v>
       </c>
@@ -8177,7 +8179,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>619</v>
       </c>
@@ -8188,7 +8190,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>619</v>
       </c>
@@ -8199,7 +8201,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>619</v>
       </c>
@@ -8210,7 +8212,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>619</v>
       </c>
@@ -8221,7 +8223,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>619</v>
       </c>
@@ -8232,7 +8234,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>619</v>
       </c>
@@ -8243,7 +8245,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>619</v>
       </c>
@@ -8254,7 +8256,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>619</v>
       </c>
@@ -8265,7 +8267,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>619</v>
       </c>
@@ -8276,7 +8278,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>619</v>
       </c>
@@ -8287,7 +8289,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>619</v>
       </c>
@@ -8298,7 +8300,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>619</v>
       </c>
@@ -8309,7 +8311,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>619</v>
       </c>
@@ -8320,7 +8322,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>619</v>
       </c>
@@ -8331,7 +8333,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>619</v>
       </c>
@@ -8342,7 +8344,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>619</v>
       </c>
@@ -8353,7 +8355,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>619</v>
       </c>
@@ -8364,7 +8366,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>619</v>
       </c>
@@ -8375,7 +8377,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>619</v>
       </c>
@@ -8386,7 +8388,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>619</v>
       </c>
@@ -8397,7 +8399,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>619</v>
       </c>
@@ -8408,7 +8410,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>619</v>
       </c>
@@ -8419,7 +8421,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>619</v>
       </c>
@@ -8430,7 +8432,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>619</v>
       </c>
@@ -8441,7 +8443,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>619</v>
       </c>
@@ -8452,7 +8454,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>619</v>
       </c>
@@ -8463,7 +8465,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>619</v>
       </c>
@@ -8474,7 +8476,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>619</v>
       </c>
@@ -8485,7 +8487,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>619</v>
       </c>
@@ -8496,7 +8498,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>619</v>
       </c>
@@ -8507,7 +8509,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>619</v>
       </c>
@@ -8518,7 +8520,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>619</v>
       </c>
@@ -8529,7 +8531,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>619</v>
       </c>
@@ -8540,7 +8542,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>619</v>
       </c>
@@ -8551,7 +8553,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>619</v>
       </c>
@@ -8562,7 +8564,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>619</v>
       </c>
@@ -8573,7 +8575,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>619</v>
       </c>
@@ -8584,7 +8586,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>619</v>
       </c>
@@ -8595,7 +8597,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>619</v>
       </c>
@@ -8606,7 +8608,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>619</v>
       </c>
@@ -8617,7 +8619,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>619</v>
       </c>
@@ -8628,7 +8630,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>619</v>
       </c>
@@ -8639,7 +8641,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>619</v>
       </c>
@@ -8650,7 +8652,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>619</v>
       </c>
@@ -8661,7 +8663,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>619</v>
       </c>
@@ -8672,7 +8674,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>619</v>
       </c>
@@ -8683,7 +8685,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>619</v>
       </c>
@@ -8694,7 +8696,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>619</v>
       </c>
@@ -8705,7 +8707,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>619</v>
       </c>
@@ -8717,7 +8719,7 @@
       </c>
       <c r="F147" s="8"/>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>619</v>
       </c>
@@ -8730,7 +8732,7 @@
       <c r="F148" s="8"/>
       <c r="G148" s="8"/>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>619</v>
       </c>
@@ -8741,7 +8743,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>619</v>
       </c>
@@ -8752,7 +8754,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>619</v>
       </c>
@@ -8763,7 +8765,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>619</v>
       </c>
@@ -8774,7 +8776,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>619</v>
       </c>
@@ -8785,7 +8787,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>619</v>
       </c>
@@ -8796,7 +8798,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>619</v>
       </c>
@@ -8808,7 +8810,7 @@
       </c>
       <c r="E155" s="8"/>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>619</v>
       </c>
@@ -8819,7 +8821,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>647</v>
       </c>
@@ -8830,7 +8832,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>647</v>
       </c>
@@ -8841,7 +8843,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>647</v>
       </c>
@@ -8852,7 +8854,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>647</v>
       </c>
@@ -8863,7 +8865,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>647</v>
       </c>
@@ -8874,7 +8876,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>647</v>
       </c>
@@ -8885,7 +8887,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>647</v>
       </c>
@@ -8896,7 +8898,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>647</v>
       </c>
@@ -8907,7 +8909,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>647</v>
       </c>
@@ -8918,7 +8920,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>647</v>
       </c>
@@ -8929,7 +8931,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>647</v>
       </c>
@@ -8940,7 +8942,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>647</v>
       </c>
@@ -8951,7 +8953,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>647</v>
       </c>
@@ -8962,7 +8964,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>647</v>
       </c>
@@ -8973,7 +8975,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>647</v>
       </c>
@@ -8984,7 +8986,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>647</v>
       </c>
@@ -8995,7 +8997,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>647</v>
       </c>
@@ -9006,7 +9008,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>647</v>
       </c>
@@ -9017,7 +9019,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>647</v>
       </c>
@@ -9028,7 +9030,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>647</v>
       </c>
@@ -9039,7 +9041,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>647</v>
       </c>
@@ -9050,7 +9052,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>647</v>
       </c>
@@ -9061,7 +9063,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>647</v>
       </c>
@@ -9072,7 +9074,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>647</v>
       </c>
@@ -9083,7 +9085,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>647</v>
       </c>
@@ -9094,7 +9096,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>647</v>
       </c>
@@ -9105,7 +9107,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>647</v>
       </c>
@@ -9116,7 +9118,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>647</v>
       </c>
@@ -9127,7 +9129,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>647</v>
       </c>
@@ -9138,7 +9140,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>647</v>
       </c>
@@ -9149,7 +9151,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>647</v>
       </c>
@@ -9160,7 +9162,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>647</v>
       </c>
@@ -9171,7 +9173,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>647</v>
       </c>
@@ -9182,7 +9184,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>647</v>
       </c>
@@ -9193,7 +9195,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>647</v>
       </c>
@@ -9204,7 +9206,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>647</v>
       </c>
@@ -9215,7 +9217,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>647</v>
       </c>
@@ -9226,7 +9228,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>647</v>
       </c>
@@ -9237,7 +9239,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>647</v>
       </c>
@@ -9248,7 +9250,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>647</v>
       </c>
@@ -9259,7 +9261,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>647</v>
       </c>
@@ -9270,7 +9272,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>647</v>
       </c>
@@ -9281,7 +9283,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>647</v>
       </c>
@@ -9292,7 +9294,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>647</v>
       </c>
@@ -9303,7 +9305,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>647</v>
       </c>
@@ -9314,7 +9316,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>647</v>
       </c>
@@ -9325,7 +9327,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>647</v>
       </c>
@@ -9336,7 +9338,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>647</v>
       </c>
@@ -9347,7 +9349,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>647</v>
       </c>

--- a/backend/v1.0/tools/DB_Mapping.xlsx
+++ b/backend/v1.0/tools/DB_Mapping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconet-my.sharepoint.com/personal/sarango_uco_edu_co/Documents/Documents/GitHub/project-cali/backend/v1.0/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C0C144-C7D6-46F1-AF9E-90FE417FA0E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{58C0C144-C7D6-46F1-AF9E-90FE417FA0E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1540902-0480-4383-9ED3-A9D4D3CE8DCC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="848">
   <si>
     <t xml:space="preserve">0x0002 </t>
   </si>
@@ -2613,6 +2613,12 @@
   </si>
   <si>
     <t>VG004</t>
+  </si>
+  <si>
+    <t>Temperatura Mannual R-102</t>
+  </si>
+  <si>
+    <t>TE-102v</t>
   </si>
 </sst>
 </file>
@@ -7088,10 +7094,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D5969C-509B-4D3C-BD42-B92347445C5B}">
-  <dimension ref="A1:G205"/>
+  <dimension ref="A1:G206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F149" sqref="F149"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8228,10 +8234,10 @@
         <v>619</v>
       </c>
       <c r="B103" t="s">
-        <v>711</v>
+        <v>846</v>
       </c>
       <c r="C103" t="s">
-        <v>712</v>
+        <v>847</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
@@ -8239,10 +8245,10 @@
         <v>619</v>
       </c>
       <c r="B104" t="s">
-        <v>724</v>
+        <v>711</v>
       </c>
       <c r="C104" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -8250,10 +8256,10 @@
         <v>619</v>
       </c>
       <c r="B105" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C105" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
@@ -8261,10 +8267,10 @@
         <v>619</v>
       </c>
       <c r="B106" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C106" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -8272,10 +8278,10 @@
         <v>619</v>
       </c>
       <c r="B107" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C107" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
@@ -8283,10 +8289,10 @@
         <v>619</v>
       </c>
       <c r="B108" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C108" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
@@ -8294,10 +8300,10 @@
         <v>619</v>
       </c>
       <c r="B109" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C109" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
@@ -8305,10 +8311,10 @@
         <v>619</v>
       </c>
       <c r="B110" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C110" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
@@ -8316,10 +8322,10 @@
         <v>619</v>
       </c>
       <c r="B111" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C111" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
@@ -8327,10 +8333,10 @@
         <v>619</v>
       </c>
       <c r="B112" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C112" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -8338,10 +8344,10 @@
         <v>619</v>
       </c>
       <c r="B113" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C113" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -8349,10 +8355,10 @@
         <v>619</v>
       </c>
       <c r="B114" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C114" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -8360,10 +8366,10 @@
         <v>619</v>
       </c>
       <c r="B115" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C115" t="s">
-        <v>737</v>
+        <v>723</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -8371,10 +8377,10 @@
         <v>619</v>
       </c>
       <c r="B116" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C116" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -8382,10 +8388,10 @@
         <v>619</v>
       </c>
       <c r="B117" t="s">
-        <v>820</v>
+        <v>736</v>
       </c>
       <c r="C117" t="s">
-        <v>821</v>
+        <v>738</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -8393,10 +8399,10 @@
         <v>619</v>
       </c>
       <c r="B118" t="s">
-        <v>765</v>
+        <v>820</v>
       </c>
       <c r="C118" t="s">
-        <v>766</v>
+        <v>821</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
@@ -8404,10 +8410,10 @@
         <v>619</v>
       </c>
       <c r="B119" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C119" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
@@ -8415,10 +8421,10 @@
         <v>619</v>
       </c>
       <c r="B120" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C120" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
@@ -8426,10 +8432,10 @@
         <v>619</v>
       </c>
       <c r="B121" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C121" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
@@ -8437,10 +8443,10 @@
         <v>619</v>
       </c>
       <c r="B122" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C122" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
@@ -8448,10 +8454,10 @@
         <v>619</v>
       </c>
       <c r="B123" t="s">
-        <v>728</v>
+        <v>774</v>
       </c>
       <c r="C123" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
@@ -8459,10 +8465,10 @@
         <v>619</v>
       </c>
       <c r="B124" t="s">
-        <v>776</v>
+        <v>728</v>
       </c>
       <c r="C124" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
@@ -8470,10 +8476,10 @@
         <v>619</v>
       </c>
       <c r="B125" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C125" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
@@ -8481,10 +8487,10 @@
         <v>619</v>
       </c>
       <c r="B126" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C126" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
@@ -8492,10 +8498,10 @@
         <v>619</v>
       </c>
       <c r="B127" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C127" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
@@ -8503,10 +8509,10 @@
         <v>619</v>
       </c>
       <c r="B128" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C128" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
@@ -8514,10 +8520,10 @@
         <v>619</v>
       </c>
       <c r="B129" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C129" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
@@ -8525,10 +8531,10 @@
         <v>619</v>
       </c>
       <c r="B130" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C130" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
@@ -8536,10 +8542,10 @@
         <v>619</v>
       </c>
       <c r="B131" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C131" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
@@ -8547,10 +8553,10 @@
         <v>619</v>
       </c>
       <c r="B132" t="s">
-        <v>823</v>
+        <v>790</v>
       </c>
       <c r="C132" t="s">
-        <v>822</v>
+        <v>791</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
@@ -8558,10 +8564,10 @@
         <v>619</v>
       </c>
       <c r="B133" t="s">
-        <v>792</v>
+        <v>823</v>
       </c>
       <c r="C133" t="s">
-        <v>793</v>
+        <v>822</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
@@ -8569,10 +8575,10 @@
         <v>619</v>
       </c>
       <c r="B134" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C134" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
@@ -8580,10 +8586,10 @@
         <v>619</v>
       </c>
       <c r="B135" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C135" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
@@ -8591,10 +8597,10 @@
         <v>619</v>
       </c>
       <c r="B136" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C136" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
@@ -8602,10 +8608,10 @@
         <v>619</v>
       </c>
       <c r="B137" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C137" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
@@ -8613,10 +8619,10 @@
         <v>619</v>
       </c>
       <c r="B138" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C138" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
@@ -8624,10 +8630,10 @@
         <v>619</v>
       </c>
       <c r="B139" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C139" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
@@ -8635,10 +8641,10 @@
         <v>619</v>
       </c>
       <c r="B140" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C140" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
@@ -8646,10 +8652,10 @@
         <v>619</v>
       </c>
       <c r="B141" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C141" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
@@ -8657,10 +8663,10 @@
         <v>619</v>
       </c>
       <c r="B142" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="C142" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
@@ -8668,10 +8674,10 @@
         <v>619</v>
       </c>
       <c r="B143" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="C143" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -8679,10 +8685,10 @@
         <v>619</v>
       </c>
       <c r="B144" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C144" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
@@ -8690,10 +8696,10 @@
         <v>619</v>
       </c>
       <c r="B145" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="C145" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
@@ -8701,10 +8707,10 @@
         <v>619</v>
       </c>
       <c r="B146" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C146" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
@@ -8712,46 +8718,46 @@
         <v>619</v>
       </c>
       <c r="B147" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="C147" t="s">
-        <v>825</v>
-      </c>
-      <c r="F147" s="8"/>
+        <v>819</v>
+      </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>619</v>
       </c>
       <c r="B148" t="s">
-        <v>739</v>
+        <v>824</v>
       </c>
       <c r="C148" t="s">
-        <v>740</v>
+        <v>825</v>
       </c>
       <c r="F148" s="8"/>
-      <c r="G148" s="8"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>619</v>
       </c>
       <c r="B149" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="C149" t="s">
-        <v>741</v>
-      </c>
+        <v>740</v>
+      </c>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>619</v>
       </c>
       <c r="B150" t="s">
-        <v>829</v>
+        <v>742</v>
       </c>
       <c r="C150" t="s">
-        <v>763</v>
+        <v>741</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
@@ -8759,10 +8765,10 @@
         <v>619</v>
       </c>
       <c r="B151" t="s">
-        <v>760</v>
+        <v>829</v>
       </c>
       <c r="C151" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
@@ -8770,10 +8776,10 @@
         <v>619</v>
       </c>
       <c r="B152" t="s">
-        <v>739</v>
+        <v>760</v>
       </c>
       <c r="C152" t="s">
-        <v>828</v>
+        <v>764</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
@@ -8781,10 +8787,10 @@
         <v>619</v>
       </c>
       <c r="B153" t="s">
-        <v>826</v>
+        <v>739</v>
       </c>
       <c r="C153" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
@@ -8792,10 +8798,10 @@
         <v>619</v>
       </c>
       <c r="B154" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="C154" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
@@ -8803,33 +8809,33 @@
         <v>619</v>
       </c>
       <c r="B155" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C155" t="s">
-        <v>833</v>
-      </c>
-      <c r="E155" s="8"/>
+        <v>831</v>
+      </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>619</v>
       </c>
       <c r="B156" t="s">
-        <v>624</v>
+        <v>832</v>
       </c>
       <c r="C156" t="s">
-        <v>625</v>
-      </c>
+        <v>833</v>
+      </c>
+      <c r="E156" s="8"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>647</v>
+        <v>619</v>
       </c>
       <c r="B157" t="s">
-        <v>648</v>
+        <v>624</v>
       </c>
       <c r="C157" t="s">
-        <v>649</v>
+        <v>625</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
@@ -8837,10 +8843,10 @@
         <v>647</v>
       </c>
       <c r="B158" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C158" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
@@ -8848,10 +8854,10 @@
         <v>647</v>
       </c>
       <c r="B159" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C159" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
@@ -8859,10 +8865,10 @@
         <v>647</v>
       </c>
       <c r="B160" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C160" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
@@ -8870,10 +8876,10 @@
         <v>647</v>
       </c>
       <c r="B161" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C161" t="s">
-        <v>473</v>
+        <v>655</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
@@ -8884,7 +8890,7 @@
         <v>656</v>
       </c>
       <c r="C162" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
@@ -8895,7 +8901,7 @@
         <v>656</v>
       </c>
       <c r="C163" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
@@ -8906,7 +8912,7 @@
         <v>656</v>
       </c>
       <c r="C164" t="s">
-        <v>657</v>
+        <v>490</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
@@ -8914,10 +8920,10 @@
         <v>647</v>
       </c>
       <c r="B165" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C165" t="s">
-        <v>482</v>
+        <v>657</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
@@ -8925,10 +8931,10 @@
         <v>647</v>
       </c>
       <c r="B166" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C166" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
@@ -8936,10 +8942,10 @@
         <v>647</v>
       </c>
       <c r="B167" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C167" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
@@ -8947,10 +8953,10 @@
         <v>647</v>
       </c>
       <c r="B168" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C168" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
@@ -8958,10 +8964,10 @@
         <v>647</v>
       </c>
       <c r="B169" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C169" t="s">
-        <v>663</v>
+        <v>483</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
@@ -8969,10 +8975,10 @@
         <v>647</v>
       </c>
       <c r="B170" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C170" t="s">
-        <v>487</v>
+        <v>663</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
@@ -8980,10 +8986,10 @@
         <v>647</v>
       </c>
       <c r="B171" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C171" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
@@ -8991,10 +8997,10 @@
         <v>647</v>
       </c>
       <c r="B172" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C172" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
@@ -9002,10 +9008,10 @@
         <v>647</v>
       </c>
       <c r="B173" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C173" t="s">
-        <v>668</v>
+        <v>492</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
@@ -9013,10 +9019,10 @@
         <v>647</v>
       </c>
       <c r="B174" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C174" t="s">
-        <v>508</v>
+        <v>668</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
@@ -9024,10 +9030,10 @@
         <v>647</v>
       </c>
       <c r="B175" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C175" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
@@ -9035,10 +9041,10 @@
         <v>647</v>
       </c>
       <c r="B176" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C176" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
@@ -9046,10 +9052,10 @@
         <v>647</v>
       </c>
       <c r="B177" t="s">
-        <v>493</v>
+        <v>671</v>
       </c>
       <c r="C177" t="s">
-        <v>494</v>
+        <v>512</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
@@ -9057,10 +9063,10 @@
         <v>647</v>
       </c>
       <c r="B178" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C178" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
@@ -9068,10 +9074,10 @@
         <v>647</v>
       </c>
       <c r="B179" t="s">
-        <v>672</v>
+        <v>495</v>
       </c>
       <c r="C179" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
@@ -9079,10 +9085,10 @@
         <v>647</v>
       </c>
       <c r="B180" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C180" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
@@ -9090,10 +9096,10 @@
         <v>647</v>
       </c>
       <c r="B181" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C181" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
@@ -9101,10 +9107,10 @@
         <v>647</v>
       </c>
       <c r="B182" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C182" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
@@ -9112,10 +9118,10 @@
         <v>647</v>
       </c>
       <c r="B183" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C183" t="s">
-        <v>677</v>
+        <v>504</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
@@ -9123,10 +9129,10 @@
         <v>647</v>
       </c>
       <c r="B184" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C184" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
@@ -9134,10 +9140,10 @@
         <v>647</v>
       </c>
       <c r="B185" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C185" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
@@ -9145,10 +9151,10 @@
         <v>647</v>
       </c>
       <c r="B186" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C186" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
@@ -9156,10 +9162,10 @@
         <v>647</v>
       </c>
       <c r="B187" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C187" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
@@ -9167,10 +9173,10 @@
         <v>647</v>
       </c>
       <c r="B188" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C188" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
@@ -9178,10 +9184,10 @@
         <v>647</v>
       </c>
       <c r="B189" t="s">
-        <v>834</v>
+        <v>686</v>
       </c>
       <c r="C189" t="s">
-        <v>754</v>
+        <v>687</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
@@ -9189,10 +9195,10 @@
         <v>647</v>
       </c>
       <c r="B190" t="s">
-        <v>688</v>
+        <v>834</v>
       </c>
       <c r="C190" t="s">
-        <v>689</v>
+        <v>754</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
@@ -9200,10 +9206,10 @@
         <v>647</v>
       </c>
       <c r="B191" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C191" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
@@ -9211,10 +9217,10 @@
         <v>647</v>
       </c>
       <c r="B192" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C192" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
@@ -9222,10 +9228,10 @@
         <v>647</v>
       </c>
       <c r="B193" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C193" t="s">
-        <v>518</v>
+        <v>693</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
@@ -9233,10 +9239,10 @@
         <v>647</v>
       </c>
       <c r="B194" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C194" t="s">
-        <v>696</v>
+        <v>518</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
@@ -9244,10 +9250,10 @@
         <v>647</v>
       </c>
       <c r="B195" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C195" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
@@ -9255,10 +9261,10 @@
         <v>647</v>
       </c>
       <c r="B196" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C196" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
@@ -9266,10 +9272,10 @@
         <v>647</v>
       </c>
       <c r="B197" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C197" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
@@ -9277,10 +9283,10 @@
         <v>647</v>
       </c>
       <c r="B198" t="s">
-        <v>835</v>
+        <v>701</v>
       </c>
       <c r="C198" t="s">
-        <v>836</v>
+        <v>702</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
@@ -9288,10 +9294,10 @@
         <v>647</v>
       </c>
       <c r="B199" t="s">
-        <v>706</v>
+        <v>835</v>
       </c>
       <c r="C199" t="s">
-        <v>703</v>
+        <v>836</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
@@ -9299,10 +9305,10 @@
         <v>647</v>
       </c>
       <c r="B200" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C200" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
@@ -9310,10 +9316,10 @@
         <v>647</v>
       </c>
       <c r="B201" t="s">
-        <v>837</v>
+        <v>704</v>
       </c>
       <c r="C201" t="s">
-        <v>838</v>
+        <v>705</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
@@ -9321,10 +9327,10 @@
         <v>647</v>
       </c>
       <c r="B202" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C202" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
@@ -9332,10 +9338,10 @@
         <v>647</v>
       </c>
       <c r="B203" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C203" t="s">
-        <v>758</v>
+        <v>840</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
@@ -9343,10 +9349,10 @@
         <v>647</v>
       </c>
       <c r="B204" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C204" t="s">
-        <v>843</v>
+        <v>758</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
@@ -9354,9 +9360,20 @@
         <v>647</v>
       </c>
       <c r="B205" t="s">
+        <v>842</v>
+      </c>
+      <c r="C205" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>647</v>
+      </c>
+      <c r="B206" t="s">
         <v>844</v>
       </c>
-      <c r="C205" t="s">
+      <c r="C206" t="s">
         <v>845</v>
       </c>
     </row>

--- a/backend/v1.0/tools/DB_Mapping.xlsx
+++ b/backend/v1.0/tools/DB_Mapping.xlsx
@@ -2722,6 +2722,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7096,8 +7100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D5969C-509B-4D3C-BD42-B92347445C5B}">
   <dimension ref="A1:G206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E103" sqref="E103"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/backend/v1.0/tools/DB_Mapping.xlsx
+++ b/backend/v1.0/tools/DB_Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconet-my.sharepoint.com/personal/sarango_uco_edu_co/Documents/Documents/GitHub/project-cali/backend/v1.0/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{58C0C144-C7D6-46F1-AF9E-90FE417FA0E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1540902-0480-4383-9ED3-A9D4D3CE8DCC}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{58C0C144-C7D6-46F1-AF9E-90FE417FA0E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26D596EC-61E0-4018-85FD-A3240495D6C3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1949,12 +1949,6 @@
     <t>TE-101v</t>
   </si>
   <si>
-    <t>K_mean</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
     <t>UCO</t>
   </si>
   <si>
@@ -2619,6 +2613,12 @@
   </si>
   <si>
     <t>TE-102v</t>
+  </si>
+  <si>
+    <t>Kinetic_train</t>
+  </si>
+  <si>
+    <t>K_train</t>
   </si>
 </sst>
 </file>
@@ -3097,7 +3097,7 @@
         <v>440</v>
       </c>
       <c r="E5" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F5" t="s">
         <v>521</v>
@@ -7100,8 +7100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D5969C-509B-4D3C-BD42-B92347445C5B}">
   <dimension ref="A1:G206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B158" sqref="B158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7204,7 +7204,7 @@
         <v>467</v>
       </c>
       <c r="B9" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C9" t="s">
         <v>482</v>
@@ -7215,7 +7215,7 @@
         <v>467</v>
       </c>
       <c r="B10" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C10" t="s">
         <v>483</v>
@@ -7226,7 +7226,7 @@
         <v>467</v>
       </c>
       <c r="B11" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C11" t="s">
         <v>484</v>
@@ -7237,7 +7237,7 @@
         <v>467</v>
       </c>
       <c r="B12" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C12" t="s">
         <v>485</v>
@@ -7248,7 +7248,7 @@
         <v>467</v>
       </c>
       <c r="B13" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C13" t="s">
         <v>486</v>
@@ -7259,7 +7259,7 @@
         <v>467</v>
       </c>
       <c r="B14" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C14" t="s">
         <v>487</v>
@@ -7270,7 +7270,7 @@
         <v>467</v>
       </c>
       <c r="B15" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C15" t="s">
         <v>488</v>
@@ -7281,7 +7281,7 @@
         <v>467</v>
       </c>
       <c r="B16" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C16" t="s">
         <v>489</v>
@@ -7292,10 +7292,10 @@
         <v>467</v>
       </c>
       <c r="B17" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C17" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -7303,7 +7303,7 @@
         <v>467</v>
       </c>
       <c r="B18" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C18" t="s">
         <v>490</v>
@@ -7314,10 +7314,10 @@
         <v>467</v>
       </c>
       <c r="B19" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C19" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -7325,10 +7325,10 @@
         <v>467</v>
       </c>
       <c r="B20" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C20" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -7336,10 +7336,10 @@
         <v>467</v>
       </c>
       <c r="B21" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C21" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -7347,10 +7347,10 @@
         <v>467</v>
       </c>
       <c r="B22" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C22" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -7886,10 +7886,10 @@
         <v>522</v>
       </c>
       <c r="B71" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C71" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -8062,10 +8062,10 @@
         <v>522</v>
       </c>
       <c r="B87" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C87" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -8073,10 +8073,10 @@
         <v>522</v>
       </c>
       <c r="B88" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C88" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -8084,7 +8084,7 @@
         <v>522</v>
       </c>
       <c r="B89" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C89" t="s">
         <v>568</v>
@@ -8095,10 +8095,10 @@
         <v>522</v>
       </c>
       <c r="B90" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C90" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -8106,10 +8106,10 @@
         <v>522</v>
       </c>
       <c r="B91" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C91" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -8117,10 +8117,10 @@
         <v>522</v>
       </c>
       <c r="B92" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C92" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -8139,10 +8139,10 @@
         <v>522</v>
       </c>
       <c r="B94" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C94" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -8150,10 +8150,10 @@
         <v>522</v>
       </c>
       <c r="B95" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C95" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -8161,10 +8161,10 @@
         <v>522</v>
       </c>
       <c r="B96" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C96" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -8172,10 +8172,10 @@
         <v>522</v>
       </c>
       <c r="B97" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C97" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -8183,10 +8183,10 @@
         <v>522</v>
       </c>
       <c r="B98" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C98" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -8205,10 +8205,10 @@
         <v>619</v>
       </c>
       <c r="B100" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C100" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -8216,10 +8216,10 @@
         <v>619</v>
       </c>
       <c r="B101" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C101" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -8238,10 +8238,10 @@
         <v>619</v>
       </c>
       <c r="B103" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C103" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
@@ -8249,10 +8249,10 @@
         <v>619</v>
       </c>
       <c r="B104" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C104" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -8260,10 +8260,10 @@
         <v>619</v>
       </c>
       <c r="B105" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C105" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
@@ -8271,10 +8271,10 @@
         <v>619</v>
       </c>
       <c r="B106" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C106" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -8282,10 +8282,10 @@
         <v>619</v>
       </c>
       <c r="B107" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C107" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
@@ -8293,10 +8293,10 @@
         <v>619</v>
       </c>
       <c r="B108" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C108" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
@@ -8304,10 +8304,10 @@
         <v>619</v>
       </c>
       <c r="B109" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C109" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
@@ -8315,10 +8315,10 @@
         <v>619</v>
       </c>
       <c r="B110" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C110" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
@@ -8326,10 +8326,10 @@
         <v>619</v>
       </c>
       <c r="B111" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C111" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
@@ -8337,10 +8337,10 @@
         <v>619</v>
       </c>
       <c r="B112" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C112" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -8348,10 +8348,10 @@
         <v>619</v>
       </c>
       <c r="B113" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C113" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -8359,10 +8359,10 @@
         <v>619</v>
       </c>
       <c r="B114" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C114" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -8370,10 +8370,10 @@
         <v>619</v>
       </c>
       <c r="B115" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C115" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -8381,10 +8381,10 @@
         <v>619</v>
       </c>
       <c r="B116" t="s">
+        <v>733</v>
+      </c>
+      <c r="C116" t="s">
         <v>735</v>
-      </c>
-      <c r="C116" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -8392,10 +8392,10 @@
         <v>619</v>
       </c>
       <c r="B117" t="s">
+        <v>734</v>
+      </c>
+      <c r="C117" t="s">
         <v>736</v>
-      </c>
-      <c r="C117" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -8403,10 +8403,10 @@
         <v>619</v>
       </c>
       <c r="B118" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C118" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
@@ -8414,10 +8414,10 @@
         <v>619</v>
       </c>
       <c r="B119" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C119" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
@@ -8425,10 +8425,10 @@
         <v>619</v>
       </c>
       <c r="B120" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C120" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
@@ -8436,10 +8436,10 @@
         <v>619</v>
       </c>
       <c r="B121" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C121" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
@@ -8447,10 +8447,10 @@
         <v>619</v>
       </c>
       <c r="B122" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C122" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
@@ -8458,10 +8458,10 @@
         <v>619</v>
       </c>
       <c r="B123" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C123" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
@@ -8469,10 +8469,10 @@
         <v>619</v>
       </c>
       <c r="B124" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C124" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
@@ -8480,10 +8480,10 @@
         <v>619</v>
       </c>
       <c r="B125" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C125" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
@@ -8491,10 +8491,10 @@
         <v>619</v>
       </c>
       <c r="B126" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C126" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
@@ -8502,10 +8502,10 @@
         <v>619</v>
       </c>
       <c r="B127" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C127" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
@@ -8513,10 +8513,10 @@
         <v>619</v>
       </c>
       <c r="B128" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C128" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
@@ -8524,10 +8524,10 @@
         <v>619</v>
       </c>
       <c r="B129" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C129" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
@@ -8535,10 +8535,10 @@
         <v>619</v>
       </c>
       <c r="B130" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C130" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
@@ -8546,10 +8546,10 @@
         <v>619</v>
       </c>
       <c r="B131" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C131" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
@@ -8557,10 +8557,10 @@
         <v>619</v>
       </c>
       <c r="B132" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C132" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
@@ -8568,10 +8568,10 @@
         <v>619</v>
       </c>
       <c r="B133" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C133" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
@@ -8579,10 +8579,10 @@
         <v>619</v>
       </c>
       <c r="B134" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C134" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
@@ -8590,10 +8590,10 @@
         <v>619</v>
       </c>
       <c r="B135" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C135" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
@@ -8601,10 +8601,10 @@
         <v>619</v>
       </c>
       <c r="B136" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C136" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
@@ -8612,10 +8612,10 @@
         <v>619</v>
       </c>
       <c r="B137" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C137" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
@@ -8623,10 +8623,10 @@
         <v>619</v>
       </c>
       <c r="B138" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C138" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
@@ -8634,10 +8634,10 @@
         <v>619</v>
       </c>
       <c r="B139" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C139" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
@@ -8645,10 +8645,10 @@
         <v>619</v>
       </c>
       <c r="B140" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C140" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
@@ -8656,10 +8656,10 @@
         <v>619</v>
       </c>
       <c r="B141" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C141" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
@@ -8667,10 +8667,10 @@
         <v>619</v>
       </c>
       <c r="B142" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C142" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
@@ -8678,10 +8678,10 @@
         <v>619</v>
       </c>
       <c r="B143" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C143" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -8689,10 +8689,10 @@
         <v>619</v>
       </c>
       <c r="B144" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C144" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
@@ -8700,10 +8700,10 @@
         <v>619</v>
       </c>
       <c r="B145" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C145" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
@@ -8711,10 +8711,10 @@
         <v>619</v>
       </c>
       <c r="B146" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C146" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
@@ -8722,10 +8722,10 @@
         <v>619</v>
       </c>
       <c r="B147" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C147" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
@@ -8733,10 +8733,10 @@
         <v>619</v>
       </c>
       <c r="B148" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C148" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F148" s="8"/>
     </row>
@@ -8745,10 +8745,10 @@
         <v>619</v>
       </c>
       <c r="B149" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C149" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="F149" s="8"/>
       <c r="G149" s="8"/>
@@ -8758,10 +8758,10 @@
         <v>619</v>
       </c>
       <c r="B150" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C150" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
@@ -8769,10 +8769,10 @@
         <v>619</v>
       </c>
       <c r="B151" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C151" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
@@ -8780,10 +8780,10 @@
         <v>619</v>
       </c>
       <c r="B152" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C152" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
@@ -8791,10 +8791,10 @@
         <v>619</v>
       </c>
       <c r="B153" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C153" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
@@ -8802,10 +8802,10 @@
         <v>619</v>
       </c>
       <c r="B154" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C154" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
@@ -8813,10 +8813,10 @@
         <v>619</v>
       </c>
       <c r="B155" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C155" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
@@ -8824,10 +8824,10 @@
         <v>619</v>
       </c>
       <c r="B156" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C156" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E156" s="8"/>
     </row>
@@ -8836,62 +8836,62 @@
         <v>619</v>
       </c>
       <c r="B157" t="s">
-        <v>624</v>
+        <v>846</v>
       </c>
       <c r="C157" t="s">
-        <v>625</v>
+        <v>847</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
+        <v>645</v>
+      </c>
+      <c r="B158" t="s">
+        <v>646</v>
+      </c>
+      <c r="C158" t="s">
         <v>647</v>
-      </c>
-      <c r="B158" t="s">
-        <v>648</v>
-      </c>
-      <c r="C158" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B159" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C159" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B160" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C160" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B161" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C161" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B162" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C162" t="s">
         <v>473</v>
@@ -8899,10 +8899,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B163" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C163" t="s">
         <v>475</v>
@@ -8910,10 +8910,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B164" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C164" t="s">
         <v>490</v>
@@ -8921,21 +8921,21 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B165" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C165" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B166" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C166" t="s">
         <v>482</v>
@@ -8943,10 +8943,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B167" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C167" t="s">
         <v>484</v>
@@ -8954,10 +8954,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B168" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C168" t="s">
         <v>486</v>
@@ -8965,10 +8965,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B169" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C169" t="s">
         <v>483</v>
@@ -8976,21 +8976,21 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B170" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C170" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B171" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C171" t="s">
         <v>487</v>
@@ -8998,10 +8998,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B172" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C172" t="s">
         <v>488</v>
@@ -9009,10 +9009,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B173" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C173" t="s">
         <v>492</v>
@@ -9020,21 +9020,21 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B174" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C174" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B175" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C175" t="s">
         <v>508</v>
@@ -9042,10 +9042,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B176" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C176" t="s">
         <v>510</v>
@@ -9053,10 +9053,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B177" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C177" t="s">
         <v>512</v>
@@ -9064,7 +9064,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B178" t="s">
         <v>493</v>
@@ -9075,7 +9075,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B179" t="s">
         <v>495</v>
@@ -9086,10 +9086,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B180" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C180" t="s">
         <v>498</v>
@@ -9097,10 +9097,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B181" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C181" t="s">
         <v>500</v>
@@ -9108,10 +9108,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B182" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C182" t="s">
         <v>502</v>
@@ -9119,10 +9119,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B183" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C183" t="s">
         <v>504</v>
@@ -9130,120 +9130,120 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B184" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C184" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B185" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C185" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B186" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C186" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B187" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C187" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B188" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C188" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B189" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C189" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B190" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C190" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B191" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C191" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B192" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C192" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B193" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C193" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B194" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C194" t="s">
         <v>518</v>
@@ -9251,134 +9251,134 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B195" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C195" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B196" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C196" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B197" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C197" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B198" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C198" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B199" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C199" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B200" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C200" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B201" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C201" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B202" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C202" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B203" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C203" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B204" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C204" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B205" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C205" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B206" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C206" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
   </sheetData>

--- a/backend/v1.0/tools/DB_Mapping.xlsx
+++ b/backend/v1.0/tools/DB_Mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconet-my.sharepoint.com/personal/sarango_uco_edu_co/Documents/Documents/GitHub/project-cali/backend/v1.0/tools/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarango\OneDrive - UCO\Documents\GitHub\project-cali\backend\v1.0\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{58C0C144-C7D6-46F1-AF9E-90FE417FA0E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26D596EC-61E0-4018-85FD-A3240495D6C3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A56CC5-FF53-4F0C-871B-5E2355D253CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConexionDB" sheetId="4" r:id="rId1"/>
@@ -2609,9 +2609,6 @@
     <t>VG004</t>
   </si>
   <si>
-    <t>Temperatura Mannual R-102</t>
-  </si>
-  <si>
     <t>TE-102v</t>
   </si>
   <si>
@@ -2619,6 +2616,9 @@
   </si>
   <si>
     <t>K_train</t>
+  </si>
+  <si>
+    <t>Temperatura Manual R-102</t>
   </si>
 </sst>
 </file>
@@ -2722,10 +2722,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7100,8 +7096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D5969C-509B-4D3C-BD42-B92347445C5B}">
   <dimension ref="A1:G206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B158" sqref="B158"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8238,10 +8234,10 @@
         <v>619</v>
       </c>
       <c r="B103" t="s">
+        <v>847</v>
+      </c>
+      <c r="C103" t="s">
         <v>844</v>
-      </c>
-      <c r="C103" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
@@ -8836,10 +8832,10 @@
         <v>619</v>
       </c>
       <c r="B157" t="s">
+        <v>845</v>
+      </c>
+      <c r="C157" t="s">
         <v>846</v>
-      </c>
-      <c r="C157" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">

--- a/backend/v1.0/tools/DB_Mapping.xlsx
+++ b/backend/v1.0/tools/DB_Mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarango\OneDrive - UCO\Documents\GitHub\project-cali\backend\v1.0\tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\OneDrive - UCO\Documents\GitHub\project-cali\backend\v1.0\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A56CC5-FF53-4F0C-871B-5E2355D253CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDEE4277-818B-466A-967B-BA579A5BC3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConexionDB" sheetId="4" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="849">
   <si>
     <t xml:space="preserve">0x0002 </t>
   </si>
@@ -2619,6 +2619,9 @@
   </si>
   <si>
     <t>Temperatura Manual R-102</t>
+  </si>
+  <si>
+    <t>Ea_train</t>
   </si>
 </sst>
 </file>
@@ -7094,10 +7097,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D5969C-509B-4D3C-BD42-B92347445C5B}">
-  <dimension ref="A1:G206"/>
+  <dimension ref="A1:G207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B107" sqref="B107"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C158" sqref="C158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8840,13 +8843,13 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>645</v>
+        <v>619</v>
       </c>
       <c r="B158" t="s">
-        <v>646</v>
+        <v>848</v>
       </c>
       <c r="C158" t="s">
-        <v>647</v>
+        <v>848</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
@@ -8854,10 +8857,10 @@
         <v>645</v>
       </c>
       <c r="B159" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C159" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
@@ -8865,10 +8868,10 @@
         <v>645</v>
       </c>
       <c r="B160" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C160" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
@@ -8876,10 +8879,10 @@
         <v>645</v>
       </c>
       <c r="B161" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C161" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
@@ -8887,10 +8890,10 @@
         <v>645</v>
       </c>
       <c r="B162" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C162" t="s">
-        <v>473</v>
+        <v>653</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
@@ -8901,7 +8904,7 @@
         <v>654</v>
       </c>
       <c r="C163" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
@@ -8912,7 +8915,7 @@
         <v>654</v>
       </c>
       <c r="C164" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
@@ -8923,7 +8926,7 @@
         <v>654</v>
       </c>
       <c r="C165" t="s">
-        <v>655</v>
+        <v>490</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
@@ -8931,10 +8934,10 @@
         <v>645</v>
       </c>
       <c r="B166" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C166" t="s">
-        <v>482</v>
+        <v>655</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
@@ -8942,10 +8945,10 @@
         <v>645</v>
       </c>
       <c r="B167" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C167" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
@@ -8953,10 +8956,10 @@
         <v>645</v>
       </c>
       <c r="B168" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C168" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
@@ -8964,10 +8967,10 @@
         <v>645</v>
       </c>
       <c r="B169" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C169" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
@@ -8975,10 +8978,10 @@
         <v>645</v>
       </c>
       <c r="B170" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C170" t="s">
-        <v>661</v>
+        <v>483</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
@@ -8986,10 +8989,10 @@
         <v>645</v>
       </c>
       <c r="B171" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C171" t="s">
-        <v>487</v>
+        <v>661</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
@@ -8997,10 +9000,10 @@
         <v>645</v>
       </c>
       <c r="B172" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C172" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
@@ -9008,10 +9011,10 @@
         <v>645</v>
       </c>
       <c r="B173" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C173" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
@@ -9019,10 +9022,10 @@
         <v>645</v>
       </c>
       <c r="B174" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C174" t="s">
-        <v>666</v>
+        <v>492</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
@@ -9030,10 +9033,10 @@
         <v>645</v>
       </c>
       <c r="B175" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C175" t="s">
-        <v>508</v>
+        <v>666</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
@@ -9041,10 +9044,10 @@
         <v>645</v>
       </c>
       <c r="B176" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C176" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
@@ -9052,10 +9055,10 @@
         <v>645</v>
       </c>
       <c r="B177" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C177" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
@@ -9063,10 +9066,10 @@
         <v>645</v>
       </c>
       <c r="B178" t="s">
-        <v>493</v>
+        <v>669</v>
       </c>
       <c r="C178" t="s">
-        <v>494</v>
+        <v>512</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
@@ -9074,10 +9077,10 @@
         <v>645</v>
       </c>
       <c r="B179" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C179" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
@@ -9085,10 +9088,10 @@
         <v>645</v>
       </c>
       <c r="B180" t="s">
-        <v>670</v>
+        <v>495</v>
       </c>
       <c r="C180" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
@@ -9096,10 +9099,10 @@
         <v>645</v>
       </c>
       <c r="B181" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C181" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
@@ -9107,10 +9110,10 @@
         <v>645</v>
       </c>
       <c r="B182" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C182" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
@@ -9118,10 +9121,10 @@
         <v>645</v>
       </c>
       <c r="B183" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C183" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
@@ -9129,10 +9132,10 @@
         <v>645</v>
       </c>
       <c r="B184" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C184" t="s">
-        <v>675</v>
+        <v>504</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
@@ -9140,10 +9143,10 @@
         <v>645</v>
       </c>
       <c r="B185" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C185" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
@@ -9151,10 +9154,10 @@
         <v>645</v>
       </c>
       <c r="B186" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C186" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
@@ -9162,10 +9165,10 @@
         <v>645</v>
       </c>
       <c r="B187" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C187" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
@@ -9173,10 +9176,10 @@
         <v>645</v>
       </c>
       <c r="B188" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C188" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
@@ -9184,10 +9187,10 @@
         <v>645</v>
       </c>
       <c r="B189" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C189" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
@@ -9195,10 +9198,10 @@
         <v>645</v>
       </c>
       <c r="B190" t="s">
-        <v>832</v>
+        <v>684</v>
       </c>
       <c r="C190" t="s">
-        <v>752</v>
+        <v>685</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
@@ -9206,10 +9209,10 @@
         <v>645</v>
       </c>
       <c r="B191" t="s">
-        <v>686</v>
+        <v>832</v>
       </c>
       <c r="C191" t="s">
-        <v>687</v>
+        <v>752</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
@@ -9217,10 +9220,10 @@
         <v>645</v>
       </c>
       <c r="B192" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C192" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
@@ -9228,10 +9231,10 @@
         <v>645</v>
       </c>
       <c r="B193" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C193" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
@@ -9239,10 +9242,10 @@
         <v>645</v>
       </c>
       <c r="B194" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C194" t="s">
-        <v>518</v>
+        <v>691</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
@@ -9250,10 +9253,10 @@
         <v>645</v>
       </c>
       <c r="B195" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C195" t="s">
-        <v>694</v>
+        <v>518</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
@@ -9261,10 +9264,10 @@
         <v>645</v>
       </c>
       <c r="B196" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C196" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
@@ -9272,10 +9275,10 @@
         <v>645</v>
       </c>
       <c r="B197" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C197" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
@@ -9283,10 +9286,10 @@
         <v>645</v>
       </c>
       <c r="B198" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C198" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
@@ -9294,10 +9297,10 @@
         <v>645</v>
       </c>
       <c r="B199" t="s">
-        <v>833</v>
+        <v>699</v>
       </c>
       <c r="C199" t="s">
-        <v>834</v>
+        <v>700</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
@@ -9305,10 +9308,10 @@
         <v>645</v>
       </c>
       <c r="B200" t="s">
-        <v>704</v>
+        <v>833</v>
       </c>
       <c r="C200" t="s">
-        <v>701</v>
+        <v>834</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
@@ -9316,10 +9319,10 @@
         <v>645</v>
       </c>
       <c r="B201" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C201" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
@@ -9327,10 +9330,10 @@
         <v>645</v>
       </c>
       <c r="B202" t="s">
-        <v>835</v>
+        <v>702</v>
       </c>
       <c r="C202" t="s">
-        <v>836</v>
+        <v>703</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
@@ -9338,10 +9341,10 @@
         <v>645</v>
       </c>
       <c r="B203" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C203" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
@@ -9349,10 +9352,10 @@
         <v>645</v>
       </c>
       <c r="B204" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C204" t="s">
-        <v>756</v>
+        <v>838</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
@@ -9360,10 +9363,10 @@
         <v>645</v>
       </c>
       <c r="B205" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C205" t="s">
-        <v>841</v>
+        <v>756</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
@@ -9371,9 +9374,20 @@
         <v>645</v>
       </c>
       <c r="B206" t="s">
+        <v>840</v>
+      </c>
+      <c r="C206" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>645</v>
+      </c>
+      <c r="B207" t="s">
         <v>842</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C207" t="s">
         <v>843</v>
       </c>
     </row>

--- a/backend/v1.0/tools/DB_Mapping.xlsx
+++ b/backend/v1.0/tools/DB_Mapping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\OneDrive - UCO\Documents\GitHub\project-cali\backend\v1.0\tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SMARTGRID_CALI\backend\v1.0\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDEE4277-818B-466A-967B-BA579A5BC3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518FBB7B-B3CB-4846-B4AA-07274488E2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConexionDB" sheetId="4" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="868">
   <si>
     <t xml:space="preserve">0x0002 </t>
   </si>
@@ -2622,13 +2622,70 @@
   </si>
   <si>
     <t>Ea_train</t>
+  </si>
+  <si>
+    <t>Fundamental VL1</t>
+  </si>
+  <si>
+    <t>0x009C</t>
+  </si>
+  <si>
+    <t>Fundamental VL2</t>
+  </si>
+  <si>
+    <t>0x009E</t>
+  </si>
+  <si>
+    <t>0x00A0</t>
+  </si>
+  <si>
+    <t>Fundamental VL3</t>
+  </si>
+  <si>
+    <t>Fundamental I1</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>0x00A4</t>
+  </si>
+  <si>
+    <t>Fundamental I2</t>
+  </si>
+  <si>
+    <t>0x00A6</t>
+  </si>
+  <si>
+    <t>Fundamental I3</t>
+  </si>
+  <si>
+    <t>0x00A8</t>
+  </si>
+  <si>
+    <t>L1 Fundamental Corriente</t>
+  </si>
+  <si>
+    <t>L2 Fundamental Corriente</t>
+  </si>
+  <si>
+    <t>L3 Fundamental Corriente</t>
+  </si>
+  <si>
+    <t>L3 Fundamental Voltaje</t>
+  </si>
+  <si>
+    <t>L2 Fundamental Voltaje</t>
+  </si>
+  <si>
+    <t>L1 Fundamental Voltaje</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2996,13 +3053,13 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="95.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="95.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>275</v>
       </c>
@@ -3022,7 +3079,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>436</v>
       </c>
@@ -3042,7 +3099,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>436</v>
       </c>
@@ -3062,7 +3119,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>519</v>
       </c>
@@ -3082,7 +3139,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>436</v>
       </c>
@@ -3102,7 +3159,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="E10" s="8"/>
     </row>
   </sheetData>
@@ -3119,13 +3176,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>275</v>
       </c>
@@ -3139,7 +3196,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>435</v>
       </c>
@@ -3160,20 +3217,20 @@
   <dimension ref="A1:C118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>428</v>
       </c>
@@ -3184,7 +3241,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="1" customFormat="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3195,7 +3252,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3206,7 +3263,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3217,7 +3274,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3228,7 +3285,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3239,7 +3296,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3250,7 +3307,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3261,7 +3318,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3272,7 +3329,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3283,7 +3340,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3294,7 +3351,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3305,7 +3362,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3316,7 +3373,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3327,7 +3384,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3338,7 +3395,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3349,7 +3406,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3360,7 +3417,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3371,7 +3428,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3382,7 +3439,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3393,7 +3450,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3404,136 +3461,136 @@
         <v>435</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1">
       <c r="A54" s="6"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1">
       <c r="A55" s="6"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1">
       <c r="A56" s="6"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1">
       <c r="A57" s="6"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1">
       <c r="A58" s="6"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1">
       <c r="A59" s="6"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1">
       <c r="A60" s="6"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1">
       <c r="A61" s="6"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1">
       <c r="A62" s="6"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1">
       <c r="A63" s="6"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1">
       <c r="A64" s="6"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1">
       <c r="A65" s="6"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1">
       <c r="A66" s="6"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1">
       <c r="A67" s="6"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1">
       <c r="A68" s="6"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1">
       <c r="A69" s="6"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1">
       <c r="A70" s="6"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1">
       <c r="A71" s="6"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1">
       <c r="A72" s="6"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1">
       <c r="A73" s="6"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1">
       <c r="A74" s="6"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1">
       <c r="A75" s="6"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1">
       <c r="A76" s="6"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1">
       <c r="A77" s="6"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1">
       <c r="A78" s="6"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1">
       <c r="A79" s="6"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1">
       <c r="A80" s="6"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1">
       <c r="A81" s="6"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1">
       <c r="A82" s="6"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1">
       <c r="A83" s="6"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1">
       <c r="A84" s="6"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1">
       <c r="A85" s="6"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1">
       <c r="A86" s="6"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1">
       <c r="A87" s="6"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1">
       <c r="A88" s="6"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1">
       <c r="A89" s="2"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1">
       <c r="A90" s="2"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1">
       <c r="A91" s="2"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1">
       <c r="A92" s="2"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1">
       <c r="A93" s="2"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1">
       <c r="A115" s="6"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1">
       <c r="A116" s="6"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1">
       <c r="A117" s="6"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1">
       <c r="A118" s="6"/>
     </row>
   </sheetData>
@@ -3543,24 +3600,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H136"/>
+  <dimension ref="A1:H142"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G142"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -3586,7 +3643,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3612,7 +3669,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3638,7 +3695,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -3664,7 +3721,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -3690,7 +3747,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3716,7 +3773,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -3742,7 +3799,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3768,7 +3825,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -3794,7 +3851,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -3820,7 +3877,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -3846,7 +3903,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -3872,7 +3929,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -3898,7 +3955,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
@@ -3924,7 +3981,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
@@ -3950,7 +4007,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="3" t="s">
         <v>24</v>
       </c>
@@ -3976,7 +4033,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -4002,7 +4059,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -4028,7 +4085,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -4054,7 +4111,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -4077,7 +4134,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -4100,7 +4157,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -4123,7 +4180,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -4149,7 +4206,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -4175,7 +4232,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -4201,7 +4258,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -4227,7 +4284,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -4253,7 +4310,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -4279,7 +4336,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -4305,44 +4362,44 @@
         <v>303</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>100</v>
+        <v>850</v>
       </c>
       <c r="B30">
+        <v>156</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>849</v>
+      </c>
+      <c r="E30" t="s">
+        <v>411</v>
+      </c>
+      <c r="F30" t="s">
+        <v>441</v>
+      </c>
+      <c r="G30">
+        <v>100</v>
+      </c>
+      <c r="H30" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31">
         <v>3072</v>
       </c>
-      <c r="C30">
-        <v>2</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
         <v>101</v>
-      </c>
-      <c r="E30" t="s">
-        <v>425</v>
-      </c>
-      <c r="F30" t="s">
-        <v>441</v>
-      </c>
-      <c r="G30">
-        <v>100</v>
-      </c>
-      <c r="H30" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>102</v>
-      </c>
-      <c r="B31">
-        <v>3074</v>
-      </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="D31" t="s">
-        <v>103</v>
       </c>
       <c r="E31" t="s">
         <v>425</v>
@@ -4354,21 +4411,21 @@
         <v>100</v>
       </c>
       <c r="H31" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="B32">
-        <v>3076</v>
+        <v>3074</v>
       </c>
       <c r="C32">
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="E32" t="s">
         <v>425</v>
@@ -4380,21 +4437,21 @@
         <v>100</v>
       </c>
       <c r="H32" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B33">
-        <v>3078</v>
+        <v>3076</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="E33" t="s">
         <v>425</v>
@@ -4406,21 +4463,21 @@
         <v>100</v>
       </c>
       <c r="H33" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B34">
-        <v>3080</v>
+        <v>3078</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E34" t="s">
         <v>425</v>
@@ -4432,21 +4489,21 @@
         <v>100</v>
       </c>
       <c r="H34" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B35">
-        <v>3082</v>
+        <v>3080</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E35" t="s">
         <v>425</v>
@@ -4458,21 +4515,21 @@
         <v>100</v>
       </c>
       <c r="H35" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B36">
-        <v>3084</v>
+        <v>3082</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E36" t="s">
         <v>425</v>
@@ -4484,21 +4541,21 @@
         <v>100</v>
       </c>
       <c r="H36" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B37">
-        <v>3086</v>
+        <v>3084</v>
       </c>
       <c r="C37">
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E37" t="s">
         <v>425</v>
@@ -4510,21 +4567,21 @@
         <v>100</v>
       </c>
       <c r="H37" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B38">
-        <v>3088</v>
+        <v>3086</v>
       </c>
       <c r="C38">
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E38" t="s">
         <v>425</v>
@@ -4536,21 +4593,21 @@
         <v>100</v>
       </c>
       <c r="H38" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B39">
-        <v>3090</v>
+        <v>3088</v>
       </c>
       <c r="C39">
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E39" t="s">
         <v>425</v>
@@ -4562,21 +4619,21 @@
         <v>100</v>
       </c>
       <c r="H39" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B40">
-        <v>3092</v>
+        <v>3090</v>
       </c>
       <c r="C40">
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E40" t="s">
         <v>425</v>
@@ -4588,21 +4645,21 @@
         <v>100</v>
       </c>
       <c r="H40" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B41">
-        <v>3094</v>
+        <v>3092</v>
       </c>
       <c r="C41">
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E41" t="s">
         <v>425</v>
@@ -4614,21 +4671,21 @@
         <v>100</v>
       </c>
       <c r="H41" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B42">
-        <v>3096</v>
+        <v>3094</v>
       </c>
       <c r="C42">
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E42" t="s">
         <v>425</v>
@@ -4640,21 +4697,21 @@
         <v>100</v>
       </c>
       <c r="H42" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B43">
-        <v>3098</v>
+        <v>3096</v>
       </c>
       <c r="C43">
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E43" t="s">
         <v>425</v>
@@ -4666,21 +4723,21 @@
         <v>100</v>
       </c>
       <c r="H43" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="B44">
-        <v>3136</v>
+        <v>3098</v>
       </c>
       <c r="C44">
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="E44" t="s">
         <v>425</v>
@@ -4692,24 +4749,24 @@
         <v>100</v>
       </c>
       <c r="H44" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>106</v>
+        <v>852</v>
       </c>
       <c r="B45">
-        <v>3138</v>
+        <v>158</v>
       </c>
       <c r="C45">
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>107</v>
+        <v>851</v>
       </c>
       <c r="E45" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="F45" t="s">
         <v>441</v>
@@ -4718,21 +4775,21 @@
         <v>100</v>
       </c>
       <c r="H45" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>211</v>
+        <v>104</v>
       </c>
       <c r="B46">
-        <v>3140</v>
+        <v>3136</v>
       </c>
       <c r="C46">
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="E46" t="s">
         <v>425</v>
@@ -4744,21 +4801,21 @@
         <v>100</v>
       </c>
       <c r="H46" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>212</v>
+        <v>106</v>
       </c>
       <c r="B47">
-        <v>3142</v>
+        <v>3138</v>
       </c>
       <c r="C47">
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="E47" t="s">
         <v>425</v>
@@ -4770,21 +4827,21 @@
         <v>100</v>
       </c>
       <c r="H47" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B48">
-        <v>3144</v>
+        <v>3140</v>
       </c>
       <c r="C48">
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E48" t="s">
         <v>425</v>
@@ -4796,21 +4853,21 @@
         <v>100</v>
       </c>
       <c r="H48" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B49">
-        <v>3146</v>
+        <v>3142</v>
       </c>
       <c r="C49">
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E49" t="s">
         <v>425</v>
@@ -4822,21 +4879,21 @@
         <v>100</v>
       </c>
       <c r="H49" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B50">
-        <v>3148</v>
+        <v>3144</v>
       </c>
       <c r="C50">
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E50" t="s">
         <v>425</v>
@@ -4848,21 +4905,21 @@
         <v>100</v>
       </c>
       <c r="H50" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B51">
-        <v>3150</v>
+        <v>3146</v>
       </c>
       <c r="C51">
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E51" t="s">
         <v>425</v>
@@ -4874,21 +4931,21 @@
         <v>100</v>
       </c>
       <c r="H51" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B52">
-        <v>3152</v>
+        <v>3148</v>
       </c>
       <c r="C52">
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E52" t="s">
         <v>425</v>
@@ -4900,21 +4957,21 @@
         <v>100</v>
       </c>
       <c r="H52" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B53">
-        <v>3154</v>
+        <v>3150</v>
       </c>
       <c r="C53">
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E53" t="s">
         <v>425</v>
@@ -4926,21 +4983,21 @@
         <v>100</v>
       </c>
       <c r="H53" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B54">
-        <v>3156</v>
+        <v>3152</v>
       </c>
       <c r="C54">
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E54" t="s">
         <v>425</v>
@@ -4952,21 +5009,21 @@
         <v>100</v>
       </c>
       <c r="H54" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B55">
-        <v>3158</v>
+        <v>3154</v>
       </c>
       <c r="C55">
         <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E55" t="s">
         <v>425</v>
@@ -4978,21 +5035,21 @@
         <v>100</v>
       </c>
       <c r="H55" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B56">
-        <v>3160</v>
+        <v>3156</v>
       </c>
       <c r="C56">
         <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E56" t="s">
         <v>425</v>
@@ -5004,21 +5061,21 @@
         <v>100</v>
       </c>
       <c r="H56" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B57">
-        <v>3162</v>
+        <v>3158</v>
       </c>
       <c r="C57">
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E57" t="s">
         <v>425</v>
@@ -5030,21 +5087,21 @@
         <v>100</v>
       </c>
       <c r="H57" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>108</v>
+        <v>221</v>
       </c>
       <c r="B58">
-        <v>3200</v>
+        <v>3160</v>
       </c>
       <c r="C58">
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>109</v>
+        <v>158</v>
       </c>
       <c r="E58" t="s">
         <v>425</v>
@@ -5056,21 +5113,21 @@
         <v>100</v>
       </c>
       <c r="H58" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>110</v>
+        <v>222</v>
       </c>
       <c r="B59">
-        <v>3202</v>
+        <v>3162</v>
       </c>
       <c r="C59">
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="E59" t="s">
         <v>425</v>
@@ -5082,24 +5139,24 @@
         <v>100</v>
       </c>
       <c r="H59" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>223</v>
+        <v>853</v>
       </c>
       <c r="B60">
-        <v>3204</v>
+        <v>160</v>
       </c>
       <c r="C60">
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>160</v>
+        <v>854</v>
       </c>
       <c r="E60" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="F60" t="s">
         <v>441</v>
@@ -5108,21 +5165,21 @@
         <v>100</v>
       </c>
       <c r="H60" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>224</v>
+        <v>108</v>
       </c>
       <c r="B61">
-        <v>3206</v>
+        <v>3200</v>
       </c>
       <c r="C61">
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>161</v>
+        <v>109</v>
       </c>
       <c r="E61" t="s">
         <v>425</v>
@@ -5134,21 +5191,21 @@
         <v>100</v>
       </c>
       <c r="H61" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>225</v>
+        <v>110</v>
       </c>
       <c r="B62">
-        <v>3208</v>
+        <v>3202</v>
       </c>
       <c r="C62">
         <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="E62" t="s">
         <v>425</v>
@@ -5160,21 +5217,21 @@
         <v>100</v>
       </c>
       <c r="H62" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B63">
-        <v>3210</v>
+        <v>3204</v>
       </c>
       <c r="C63">
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E63" t="s">
         <v>425</v>
@@ -5186,21 +5243,21 @@
         <v>100</v>
       </c>
       <c r="H63" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B64">
-        <v>3212</v>
+        <v>3206</v>
       </c>
       <c r="C64">
         <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E64" t="s">
         <v>425</v>
@@ -5212,21 +5269,21 @@
         <v>100</v>
       </c>
       <c r="H64" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B65">
-        <v>3214</v>
+        <v>3208</v>
       </c>
       <c r="C65">
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E65" t="s">
         <v>425</v>
@@ -5238,21 +5295,21 @@
         <v>100</v>
       </c>
       <c r="H65" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B66">
-        <v>3216</v>
+        <v>3210</v>
       </c>
       <c r="C66">
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E66" t="s">
         <v>425</v>
@@ -5264,21 +5321,21 @@
         <v>100</v>
       </c>
       <c r="H66" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B67">
-        <v>3218</v>
+        <v>3212</v>
       </c>
       <c r="C67">
         <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E67" t="s">
         <v>425</v>
@@ -5290,21 +5347,21 @@
         <v>100</v>
       </c>
       <c r="H67" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B68">
-        <v>3220</v>
+        <v>3214</v>
       </c>
       <c r="C68">
         <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E68" t="s">
         <v>425</v>
@@ -5316,21 +5373,21 @@
         <v>100</v>
       </c>
       <c r="H68" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B69">
-        <v>3222</v>
+        <v>3216</v>
       </c>
       <c r="C69">
         <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E69" t="s">
         <v>425</v>
@@ -5342,21 +5399,21 @@
         <v>100</v>
       </c>
       <c r="H69" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B70">
-        <v>3224</v>
+        <v>3218</v>
       </c>
       <c r="C70">
         <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E70" t="s">
         <v>425</v>
@@ -5368,21 +5425,21 @@
         <v>100</v>
       </c>
       <c r="H70" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B71">
-        <v>3226</v>
+        <v>3220</v>
       </c>
       <c r="C71">
         <v>2</v>
       </c>
       <c r="D71" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E71" t="s">
         <v>425</v>
@@ -5394,21 +5451,21 @@
         <v>100</v>
       </c>
       <c r="H71" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>112</v>
+        <v>232</v>
       </c>
       <c r="B72">
-        <v>3264</v>
+        <v>3222</v>
       </c>
       <c r="C72">
         <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="E72" t="s">
         <v>425</v>
@@ -5420,21 +5477,21 @@
         <v>100</v>
       </c>
       <c r="H72" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>114</v>
+        <v>233</v>
       </c>
       <c r="B73">
-        <v>3266</v>
+        <v>3224</v>
       </c>
       <c r="C73">
         <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>115</v>
+        <v>170</v>
       </c>
       <c r="E73" t="s">
         <v>425</v>
@@ -5446,21 +5503,21 @@
         <v>100</v>
       </c>
       <c r="H73" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B74">
-        <v>3268</v>
+        <v>3226</v>
       </c>
       <c r="C74">
         <v>2</v>
       </c>
       <c r="D74" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E74" t="s">
         <v>425</v>
@@ -5472,47 +5529,47 @@
         <v>100</v>
       </c>
       <c r="H74" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>236</v>
+        <v>857</v>
       </c>
       <c r="B75">
-        <v>3270</v>
+        <v>164</v>
       </c>
       <c r="C75">
         <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>173</v>
+        <v>855</v>
       </c>
       <c r="E75" t="s">
-        <v>425</v>
+        <v>856</v>
       </c>
       <c r="F75" t="s">
         <v>441</v>
       </c>
       <c r="G75">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="H75" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>237</v>
+        <v>112</v>
       </c>
       <c r="B76">
-        <v>3272</v>
+        <v>3264</v>
       </c>
       <c r="C76">
         <v>2</v>
       </c>
       <c r="D76" t="s">
-        <v>174</v>
+        <v>113</v>
       </c>
       <c r="E76" t="s">
         <v>425</v>
@@ -5524,21 +5581,21 @@
         <v>100</v>
       </c>
       <c r="H76" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>238</v>
+        <v>114</v>
       </c>
       <c r="B77">
-        <v>3274</v>
+        <v>3266</v>
       </c>
       <c r="C77">
         <v>2</v>
       </c>
       <c r="D77" t="s">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="E77" t="s">
         <v>425</v>
@@ -5550,21 +5607,21 @@
         <v>100</v>
       </c>
       <c r="H77" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B78">
-        <v>3276</v>
+        <v>3268</v>
       </c>
       <c r="C78">
         <v>2</v>
       </c>
       <c r="D78" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E78" t="s">
         <v>425</v>
@@ -5576,21 +5633,21 @@
         <v>100</v>
       </c>
       <c r="H78" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B79">
-        <v>3278</v>
+        <v>3270</v>
       </c>
       <c r="C79">
         <v>2</v>
       </c>
       <c r="D79" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E79" t="s">
         <v>425</v>
@@ -5602,21 +5659,21 @@
         <v>100</v>
       </c>
       <c r="H79" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B80">
-        <v>3280</v>
+        <v>3272</v>
       </c>
       <c r="C80">
         <v>2</v>
       </c>
       <c r="D80" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E80" t="s">
         <v>425</v>
@@ -5628,21 +5685,21 @@
         <v>100</v>
       </c>
       <c r="H80" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B81">
-        <v>3282</v>
+        <v>3274</v>
       </c>
       <c r="C81">
         <v>2</v>
       </c>
       <c r="D81" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E81" t="s">
         <v>425</v>
@@ -5654,21 +5711,21 @@
         <v>100</v>
       </c>
       <c r="H81" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B82">
-        <v>3284</v>
+        <v>3276</v>
       </c>
       <c r="C82">
         <v>2</v>
       </c>
       <c r="D82" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E82" t="s">
         <v>425</v>
@@ -5680,21 +5737,21 @@
         <v>100</v>
       </c>
       <c r="H82" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B83">
-        <v>3286</v>
+        <v>3278</v>
       </c>
       <c r="C83">
         <v>2</v>
       </c>
       <c r="D83" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E83" t="s">
         <v>425</v>
@@ -5706,21 +5763,21 @@
         <v>100</v>
       </c>
       <c r="H83" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B84">
-        <v>3288</v>
+        <v>3280</v>
       </c>
       <c r="C84">
         <v>2</v>
       </c>
       <c r="D84" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E84" t="s">
         <v>425</v>
@@ -5732,21 +5789,21 @@
         <v>100</v>
       </c>
       <c r="H84" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B85">
-        <v>3290</v>
+        <v>3282</v>
       </c>
       <c r="C85">
         <v>2</v>
       </c>
       <c r="D85" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E85" t="s">
         <v>425</v>
@@ -5758,21 +5815,21 @@
         <v>100</v>
       </c>
       <c r="H85" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B86">
-        <v>3292</v>
+        <v>3284</v>
       </c>
       <c r="C86">
         <v>2</v>
       </c>
       <c r="D86" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E86" t="s">
         <v>425</v>
@@ -5784,21 +5841,21 @@
         <v>100</v>
       </c>
       <c r="H86" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>116</v>
+        <v>244</v>
       </c>
       <c r="B87">
-        <v>3328</v>
+        <v>3286</v>
       </c>
       <c r="C87">
         <v>2</v>
       </c>
       <c r="D87" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
       <c r="E87" t="s">
         <v>425</v>
@@ -5810,21 +5867,21 @@
         <v>100</v>
       </c>
       <c r="H87" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>118</v>
+        <v>245</v>
       </c>
       <c r="B88">
-        <v>3330</v>
+        <v>3288</v>
       </c>
       <c r="C88">
         <v>2</v>
       </c>
       <c r="D88" t="s">
-        <v>119</v>
+        <v>182</v>
       </c>
       <c r="E88" t="s">
         <v>425</v>
@@ -5836,21 +5893,21 @@
         <v>100</v>
       </c>
       <c r="H88" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B89">
-        <v>3332</v>
+        <v>3290</v>
       </c>
       <c r="C89">
         <v>2</v>
       </c>
       <c r="D89" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E89" t="s">
         <v>425</v>
@@ -5862,21 +5919,21 @@
         <v>100</v>
       </c>
       <c r="H89" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B90">
-        <v>3334</v>
+        <v>3292</v>
       </c>
       <c r="C90">
         <v>2</v>
       </c>
       <c r="D90" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E90" t="s">
         <v>425</v>
@@ -5888,47 +5945,47 @@
         <v>100</v>
       </c>
       <c r="H90" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>250</v>
+        <v>859</v>
       </c>
       <c r="B91">
-        <v>3336</v>
+        <v>166</v>
       </c>
       <c r="C91">
         <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>187</v>
+        <v>858</v>
       </c>
       <c r="E91" t="s">
-        <v>425</v>
+        <v>856</v>
       </c>
       <c r="F91" t="s">
         <v>441</v>
       </c>
       <c r="G91">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="H91" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>251</v>
+        <v>116</v>
       </c>
       <c r="B92">
-        <v>3338</v>
+        <v>3328</v>
       </c>
       <c r="C92">
         <v>2</v>
       </c>
       <c r="D92" t="s">
-        <v>188</v>
+        <v>117</v>
       </c>
       <c r="E92" t="s">
         <v>425</v>
@@ -5940,21 +5997,21 @@
         <v>100</v>
       </c>
       <c r="H92" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>252</v>
+        <v>118</v>
       </c>
       <c r="B93">
-        <v>3340</v>
+        <v>3330</v>
       </c>
       <c r="C93">
         <v>2</v>
       </c>
       <c r="D93" t="s">
-        <v>189</v>
+        <v>119</v>
       </c>
       <c r="E93" t="s">
         <v>425</v>
@@ -5966,21 +6023,21 @@
         <v>100</v>
       </c>
       <c r="H93" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B94">
-        <v>3342</v>
+        <v>3332</v>
       </c>
       <c r="C94">
         <v>2</v>
       </c>
       <c r="D94" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E94" t="s">
         <v>425</v>
@@ -5992,21 +6049,21 @@
         <v>100</v>
       </c>
       <c r="H94" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B95">
-        <v>3344</v>
+        <v>3334</v>
       </c>
       <c r="C95">
         <v>2</v>
       </c>
       <c r="D95" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E95" t="s">
         <v>425</v>
@@ -6018,21 +6075,21 @@
         <v>100</v>
       </c>
       <c r="H95" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B96">
-        <v>3346</v>
+        <v>3336</v>
       </c>
       <c r="C96">
         <v>2</v>
       </c>
       <c r="D96" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E96" t="s">
         <v>425</v>
@@ -6044,21 +6101,21 @@
         <v>100</v>
       </c>
       <c r="H96" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B97">
-        <v>3348</v>
+        <v>3338</v>
       </c>
       <c r="C97">
         <v>2</v>
       </c>
       <c r="D97" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E97" t="s">
         <v>425</v>
@@ -6070,21 +6127,21 @@
         <v>100</v>
       </c>
       <c r="H97" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B98">
-        <v>3350</v>
+        <v>3340</v>
       </c>
       <c r="C98">
         <v>2</v>
       </c>
       <c r="D98" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E98" t="s">
         <v>425</v>
@@ -6096,21 +6153,21 @@
         <v>100</v>
       </c>
       <c r="H98" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B99">
-        <v>3352</v>
+        <v>3342</v>
       </c>
       <c r="C99">
         <v>2</v>
       </c>
       <c r="D99" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E99" t="s">
         <v>425</v>
@@ -6122,21 +6179,21 @@
         <v>100</v>
       </c>
       <c r="H99" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B100">
-        <v>3354</v>
+        <v>3344</v>
       </c>
       <c r="C100">
         <v>2</v>
       </c>
       <c r="D100" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E100" t="s">
         <v>425</v>
@@ -6148,21 +6205,21 @@
         <v>100</v>
       </c>
       <c r="H100" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B101">
-        <v>3356</v>
+        <v>3346</v>
       </c>
       <c r="C101">
         <v>2</v>
       </c>
       <c r="D101" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E101" t="s">
         <v>425</v>
@@ -6174,21 +6231,21 @@
         <v>100</v>
       </c>
       <c r="H101" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>120</v>
+        <v>256</v>
       </c>
       <c r="B102">
-        <v>3392</v>
+        <v>3348</v>
       </c>
       <c r="C102">
         <v>2</v>
       </c>
       <c r="D102" t="s">
-        <v>121</v>
+        <v>193</v>
       </c>
       <c r="E102" t="s">
         <v>425</v>
@@ -6200,21 +6257,21 @@
         <v>100</v>
       </c>
       <c r="H102" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>122</v>
+        <v>257</v>
       </c>
       <c r="B103">
-        <v>3394</v>
+        <v>3350</v>
       </c>
       <c r="C103">
         <v>2</v>
       </c>
       <c r="D103" t="s">
-        <v>123</v>
+        <v>194</v>
       </c>
       <c r="E103" t="s">
         <v>425</v>
@@ -6226,21 +6283,21 @@
         <v>100</v>
       </c>
       <c r="H103" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B104">
-        <v>3396</v>
+        <v>3352</v>
       </c>
       <c r="C104">
         <v>2</v>
       </c>
       <c r="D104" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E104" t="s">
         <v>425</v>
@@ -6252,21 +6309,21 @@
         <v>100</v>
       </c>
       <c r="H104" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B105">
-        <v>3398</v>
+        <v>3354</v>
       </c>
       <c r="C105">
         <v>2</v>
       </c>
       <c r="D105" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E105" t="s">
         <v>425</v>
@@ -6278,21 +6335,21 @@
         <v>100</v>
       </c>
       <c r="H105" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B106">
-        <v>3400</v>
+        <v>3356</v>
       </c>
       <c r="C106">
         <v>2</v>
       </c>
       <c r="D106" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E106" t="s">
         <v>425</v>
@@ -6304,47 +6361,47 @@
         <v>100</v>
       </c>
       <c r="H106" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>264</v>
+        <v>861</v>
       </c>
       <c r="B107">
-        <v>3402</v>
+        <v>168</v>
       </c>
       <c r="C107">
         <v>2</v>
       </c>
       <c r="D107" t="s">
-        <v>201</v>
+        <v>860</v>
       </c>
       <c r="E107" t="s">
-        <v>425</v>
+        <v>856</v>
       </c>
       <c r="F107" t="s">
         <v>441</v>
       </c>
       <c r="G107">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="H107" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>265</v>
+        <v>120</v>
       </c>
       <c r="B108">
-        <v>3404</v>
+        <v>3392</v>
       </c>
       <c r="C108">
         <v>2</v>
       </c>
       <c r="D108" t="s">
-        <v>202</v>
+        <v>121</v>
       </c>
       <c r="E108" t="s">
         <v>425</v>
@@ -6356,21 +6413,21 @@
         <v>100</v>
       </c>
       <c r="H108" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>266</v>
+        <v>122</v>
       </c>
       <c r="B109">
-        <v>3406</v>
+        <v>3394</v>
       </c>
       <c r="C109">
         <v>2</v>
       </c>
       <c r="D109" t="s">
-        <v>203</v>
+        <v>123</v>
       </c>
       <c r="E109" t="s">
         <v>425</v>
@@ -6382,21 +6439,21 @@
         <v>100</v>
       </c>
       <c r="H109" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B110">
-        <v>3408</v>
+        <v>3396</v>
       </c>
       <c r="C110">
         <v>2</v>
       </c>
       <c r="D110" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E110" t="s">
         <v>425</v>
@@ -6408,21 +6465,21 @@
         <v>100</v>
       </c>
       <c r="H110" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B111">
-        <v>3410</v>
+        <v>3398</v>
       </c>
       <c r="C111">
         <v>2</v>
       </c>
       <c r="D111" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E111" t="s">
         <v>425</v>
@@ -6434,21 +6491,21 @@
         <v>100</v>
       </c>
       <c r="H111" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B112">
-        <v>3412</v>
+        <v>3400</v>
       </c>
       <c r="C112">
         <v>2</v>
       </c>
       <c r="D112" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E112" t="s">
         <v>425</v>
@@ -6460,21 +6517,21 @@
         <v>100</v>
       </c>
       <c r="H112" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B113">
-        <v>3414</v>
+        <v>3402</v>
       </c>
       <c r="C113">
         <v>2</v>
       </c>
       <c r="D113" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E113" t="s">
         <v>425</v>
@@ -6486,21 +6543,21 @@
         <v>100</v>
       </c>
       <c r="H113" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B114">
-        <v>3416</v>
+        <v>3404</v>
       </c>
       <c r="C114">
         <v>2</v>
       </c>
       <c r="D114" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E114" t="s">
         <v>425</v>
@@ -6512,21 +6569,21 @@
         <v>100</v>
       </c>
       <c r="H114" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B115">
-        <v>3418</v>
+        <v>3406</v>
       </c>
       <c r="C115">
         <v>2</v>
       </c>
       <c r="D115" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E115" t="s">
         <v>425</v>
@@ -6538,21 +6595,21 @@
         <v>100</v>
       </c>
       <c r="H115" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B116">
-        <v>3420</v>
+        <v>3408</v>
       </c>
       <c r="C116">
         <v>2</v>
       </c>
       <c r="D116" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E116" t="s">
         <v>425</v>
@@ -6564,180 +6621,180 @@
         <v>100</v>
       </c>
       <c r="H116" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" t="s">
+        <v>268</v>
+      </c>
+      <c r="B117">
+        <v>3410</v>
+      </c>
+      <c r="C117">
+        <v>2</v>
+      </c>
+      <c r="D117" t="s">
+        <v>205</v>
+      </c>
+      <c r="E117" t="s">
+        <v>425</v>
+      </c>
+      <c r="F117" t="s">
+        <v>441</v>
+      </c>
+      <c r="G117">
+        <v>100</v>
+      </c>
+      <c r="H117" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" t="s">
+        <v>269</v>
+      </c>
+      <c r="B118">
+        <v>3412</v>
+      </c>
+      <c r="C118">
+        <v>2</v>
+      </c>
+      <c r="D118" t="s">
+        <v>206</v>
+      </c>
+      <c r="E118" t="s">
+        <v>425</v>
+      </c>
+      <c r="F118" t="s">
+        <v>441</v>
+      </c>
+      <c r="G118">
+        <v>100</v>
+      </c>
+      <c r="H118" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" t="s">
+        <v>270</v>
+      </c>
+      <c r="B119">
+        <v>3414</v>
+      </c>
+      <c r="C119">
+        <v>2</v>
+      </c>
+      <c r="D119" t="s">
+        <v>207</v>
+      </c>
+      <c r="E119" t="s">
+        <v>425</v>
+      </c>
+      <c r="F119" t="s">
+        <v>441</v>
+      </c>
+      <c r="G119">
+        <v>100</v>
+      </c>
+      <c r="H119" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" t="s">
+        <v>271</v>
+      </c>
+      <c r="B120">
+        <v>3416</v>
+      </c>
+      <c r="C120">
+        <v>2</v>
+      </c>
+      <c r="D120" t="s">
+        <v>208</v>
+      </c>
+      <c r="E120" t="s">
+        <v>425</v>
+      </c>
+      <c r="F120" t="s">
+        <v>441</v>
+      </c>
+      <c r="G120">
+        <v>100</v>
+      </c>
+      <c r="H120" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" t="s">
+        <v>272</v>
+      </c>
+      <c r="B121">
+        <v>3418</v>
+      </c>
+      <c r="C121">
+        <v>2</v>
+      </c>
+      <c r="D121" t="s">
+        <v>209</v>
+      </c>
+      <c r="E121" t="s">
+        <v>425</v>
+      </c>
+      <c r="F121" t="s">
+        <v>441</v>
+      </c>
+      <c r="G121">
+        <v>100</v>
+      </c>
+      <c r="H121" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" t="s">
+        <v>273</v>
+      </c>
+      <c r="B122">
+        <v>3420</v>
+      </c>
+      <c r="C122">
+        <v>2</v>
+      </c>
+      <c r="D122" t="s">
+        <v>210</v>
+      </c>
+      <c r="E122" t="s">
+        <v>425</v>
+      </c>
+      <c r="F122" t="s">
+        <v>441</v>
+      </c>
+      <c r="G122">
+        <v>100</v>
+      </c>
+      <c r="H122" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
+    <row r="123" spans="1:8">
+      <c r="A123" t="s">
         <v>60</v>
       </c>
-      <c r="B117">
+      <c r="B123">
         <v>6943</v>
-      </c>
-      <c r="C117">
-        <v>4</v>
-      </c>
-      <c r="D117" t="s">
-        <v>61</v>
-      </c>
-      <c r="E117" t="s">
-        <v>413</v>
-      </c>
-      <c r="F117" t="s">
-        <v>441</v>
-      </c>
-      <c r="G117">
-        <v>100</v>
-      </c>
-      <c r="H117" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>62</v>
-      </c>
-      <c r="B118">
-        <v>6947</v>
-      </c>
-      <c r="C118">
-        <v>4</v>
-      </c>
-      <c r="D118" t="s">
-        <v>63</v>
-      </c>
-      <c r="E118" t="s">
-        <v>413</v>
-      </c>
-      <c r="F118" t="s">
-        <v>442</v>
-      </c>
-      <c r="G118">
-        <v>100</v>
-      </c>
-      <c r="H118" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>64</v>
-      </c>
-      <c r="B119">
-        <v>6951</v>
-      </c>
-      <c r="C119">
-        <v>4</v>
-      </c>
-      <c r="D119" t="s">
-        <v>65</v>
-      </c>
-      <c r="E119" t="s">
-        <v>414</v>
-      </c>
-      <c r="F119" t="s">
-        <v>441</v>
-      </c>
-      <c r="G119">
-        <v>100</v>
-      </c>
-      <c r="H119" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>66</v>
-      </c>
-      <c r="B120">
-        <v>6955</v>
-      </c>
-      <c r="C120">
-        <v>4</v>
-      </c>
-      <c r="D120" t="s">
-        <v>67</v>
-      </c>
-      <c r="E120" t="s">
-        <v>414</v>
-      </c>
-      <c r="F120" t="s">
-        <v>442</v>
-      </c>
-      <c r="G120">
-        <v>100</v>
-      </c>
-      <c r="H120" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>68</v>
-      </c>
-      <c r="B121">
-        <v>6959</v>
-      </c>
-      <c r="C121">
-        <v>4</v>
-      </c>
-      <c r="D121" t="s">
-        <v>69</v>
-      </c>
-      <c r="E121" t="s">
-        <v>415</v>
-      </c>
-      <c r="F121" t="s">
-        <v>441</v>
-      </c>
-      <c r="G121">
-        <v>100</v>
-      </c>
-      <c r="H121" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>70</v>
-      </c>
-      <c r="B122">
-        <v>7063</v>
-      </c>
-      <c r="C122">
-        <v>4</v>
-      </c>
-      <c r="D122" t="s">
-        <v>71</v>
-      </c>
-      <c r="E122" t="s">
-        <v>416</v>
-      </c>
-      <c r="F122" t="s">
-        <v>441</v>
-      </c>
-      <c r="G122">
-        <v>100</v>
-      </c>
-      <c r="H122" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>72</v>
-      </c>
-      <c r="B123">
-        <v>7067</v>
       </c>
       <c r="C123">
         <v>4</v>
       </c>
       <c r="D123" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E123" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F123" t="s">
         <v>441</v>
@@ -6746,50 +6803,50 @@
         <v>100</v>
       </c>
       <c r="H123" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B124">
-        <v>7071</v>
+        <v>6947</v>
       </c>
       <c r="C124">
         <v>4</v>
       </c>
       <c r="D124" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E124" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F124" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G124">
         <v>100</v>
       </c>
       <c r="H124" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B125">
-        <v>7075</v>
+        <v>6951</v>
       </c>
       <c r="C125">
         <v>4</v>
       </c>
       <c r="D125" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E125" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F125" t="s">
         <v>441</v>
@@ -6798,50 +6855,50 @@
         <v>100</v>
       </c>
       <c r="H125" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B126">
-        <v>7079</v>
+        <v>6955</v>
       </c>
       <c r="C126">
         <v>4</v>
       </c>
       <c r="D126" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E126" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F126" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G126">
         <v>100</v>
       </c>
       <c r="H126" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B127">
-        <v>7083</v>
+        <v>6959</v>
       </c>
       <c r="C127">
         <v>4</v>
       </c>
       <c r="D127" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E127" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F127" t="s">
         <v>441</v>
@@ -6850,21 +6907,21 @@
         <v>100</v>
       </c>
       <c r="H127" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B128">
-        <v>7087</v>
+        <v>7063</v>
       </c>
       <c r="C128">
         <v>4</v>
       </c>
       <c r="D128" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="E128" t="s">
         <v>416</v>
@@ -6876,24 +6933,24 @@
         <v>100</v>
       </c>
       <c r="H128" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B129">
-        <v>7091</v>
+        <v>7067</v>
       </c>
       <c r="C129">
         <v>4</v>
       </c>
       <c r="D129" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E129" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F129" t="s">
         <v>441</v>
@@ -6902,21 +6959,21 @@
         <v>100</v>
       </c>
       <c r="H129" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B130">
-        <v>7095</v>
+        <v>7071</v>
       </c>
       <c r="C130">
         <v>4</v>
       </c>
       <c r="D130" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="E130" t="s">
         <v>417</v>
@@ -6928,24 +6985,24 @@
         <v>100</v>
       </c>
       <c r="H130" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A131" s="6" t="s">
-        <v>88</v>
+        <v>398</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" t="s">
+        <v>76</v>
       </c>
       <c r="B131">
-        <v>7099</v>
+        <v>7075</v>
       </c>
       <c r="C131">
         <v>4</v>
       </c>
       <c r="D131" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E131" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F131" t="s">
         <v>441</v>
@@ -6954,24 +7011,24 @@
         <v>100</v>
       </c>
       <c r="H131" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A132" s="6" t="s">
-        <v>90</v>
+        <v>397</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" t="s">
+        <v>78</v>
       </c>
       <c r="B132">
-        <v>7103</v>
+        <v>7079</v>
       </c>
       <c r="C132">
         <v>4</v>
       </c>
       <c r="D132" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E132" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F132" t="s">
         <v>441</v>
@@ -6980,21 +7037,21 @@
         <v>100</v>
       </c>
       <c r="H132" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A133" s="6" t="s">
-        <v>92</v>
+        <v>391</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" t="s">
+        <v>80</v>
       </c>
       <c r="B133">
-        <v>7107</v>
+        <v>7083</v>
       </c>
       <c r="C133">
         <v>4</v>
       </c>
       <c r="D133" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E133" t="s">
         <v>416</v>
@@ -7006,24 +7063,24 @@
         <v>100</v>
       </c>
       <c r="H133" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A134" s="6" t="s">
-        <v>94</v>
+        <v>395</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" t="s">
+        <v>82</v>
       </c>
       <c r="B134">
-        <v>7111</v>
+        <v>7087</v>
       </c>
       <c r="C134">
         <v>4</v>
       </c>
       <c r="D134" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="E134" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F134" t="s">
         <v>441</v>
@@ -7032,21 +7089,21 @@
         <v>100</v>
       </c>
       <c r="H134" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B135">
-        <v>7115</v>
+        <v>7091</v>
       </c>
       <c r="C135">
         <v>4</v>
       </c>
       <c r="D135" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="E135" t="s">
         <v>417</v>
@@ -7058,32 +7115,188 @@
         <v>100</v>
       </c>
       <c r="H135" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B136">
-        <v>7119</v>
+        <v>7095</v>
       </c>
       <c r="C136">
         <v>4</v>
       </c>
       <c r="D136" t="s">
+        <v>87</v>
+      </c>
+      <c r="E136" t="s">
+        <v>417</v>
+      </c>
+      <c r="F136" t="s">
+        <v>441</v>
+      </c>
+      <c r="G136">
+        <v>100</v>
+      </c>
+      <c r="H136" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B137">
+        <v>7099</v>
+      </c>
+      <c r="C137">
+        <v>4</v>
+      </c>
+      <c r="D137" t="s">
+        <v>89</v>
+      </c>
+      <c r="E137" t="s">
+        <v>418</v>
+      </c>
+      <c r="F137" t="s">
+        <v>441</v>
+      </c>
+      <c r="G137">
+        <v>100</v>
+      </c>
+      <c r="H137" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B138">
+        <v>7103</v>
+      </c>
+      <c r="C138">
+        <v>4</v>
+      </c>
+      <c r="D138" t="s">
+        <v>91</v>
+      </c>
+      <c r="E138" t="s">
+        <v>416</v>
+      </c>
+      <c r="F138" t="s">
+        <v>441</v>
+      </c>
+      <c r="G138">
+        <v>100</v>
+      </c>
+      <c r="H138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B139">
+        <v>7107</v>
+      </c>
+      <c r="C139">
+        <v>4</v>
+      </c>
+      <c r="D139" t="s">
+        <v>93</v>
+      </c>
+      <c r="E139" t="s">
+        <v>416</v>
+      </c>
+      <c r="F139" t="s">
+        <v>441</v>
+      </c>
+      <c r="G139">
+        <v>100</v>
+      </c>
+      <c r="H139" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B140">
+        <v>7111</v>
+      </c>
+      <c r="C140">
+        <v>4</v>
+      </c>
+      <c r="D140" t="s">
+        <v>95</v>
+      </c>
+      <c r="E140" t="s">
+        <v>417</v>
+      </c>
+      <c r="F140" t="s">
+        <v>441</v>
+      </c>
+      <c r="G140">
+        <v>100</v>
+      </c>
+      <c r="H140" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" t="s">
+        <v>96</v>
+      </c>
+      <c r="B141">
+        <v>7115</v>
+      </c>
+      <c r="C141">
+        <v>4</v>
+      </c>
+      <c r="D141" t="s">
+        <v>97</v>
+      </c>
+      <c r="E141" t="s">
+        <v>417</v>
+      </c>
+      <c r="F141" t="s">
+        <v>441</v>
+      </c>
+      <c r="G141">
+        <v>100</v>
+      </c>
+      <c r="H141" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" t="s">
+        <v>98</v>
+      </c>
+      <c r="B142">
+        <v>7119</v>
+      </c>
+      <c r="C142">
+        <v>4</v>
+      </c>
+      <c r="D142" t="s">
         <v>99</v>
       </c>
-      <c r="E136" t="s">
+      <c r="E142" t="s">
         <v>418</v>
       </c>
-      <c r="F136" t="s">
-        <v>441</v>
-      </c>
-      <c r="G136">
-        <v>100</v>
-      </c>
-      <c r="H136" t="s">
+      <c r="F142" t="s">
+        <v>441</v>
+      </c>
+      <c r="G142">
+        <v>100</v>
+      </c>
+      <c r="H142" t="s">
         <v>393</v>
       </c>
     </row>
@@ -7099,18 +7312,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D5969C-509B-4D3C-BD42-B92347445C5B}">
   <dimension ref="A1:G207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A145" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C158" sqref="C158"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>465</v>
       </c>
@@ -7121,7 +7334,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>467</v>
       </c>
@@ -7132,7 +7345,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>467</v>
       </c>
@@ -7143,7 +7356,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>467</v>
       </c>
@@ -7154,7 +7367,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>467</v>
       </c>
@@ -7165,7 +7378,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>467</v>
       </c>
@@ -7176,7 +7389,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>467</v>
       </c>
@@ -7187,7 +7400,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>467</v>
       </c>
@@ -7198,7 +7411,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>467</v>
       </c>
@@ -7209,7 +7422,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>467</v>
       </c>
@@ -7220,7 +7433,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>467</v>
       </c>
@@ -7231,7 +7444,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>467</v>
       </c>
@@ -7242,7 +7455,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>467</v>
       </c>
@@ -7253,7 +7466,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>467</v>
       </c>
@@ -7264,7 +7477,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>467</v>
       </c>
@@ -7275,7 +7488,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>467</v>
       </c>
@@ -7286,7 +7499,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>467</v>
       </c>
@@ -7297,7 +7510,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>467</v>
       </c>
@@ -7308,7 +7521,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>467</v>
       </c>
@@ -7319,7 +7532,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>467</v>
       </c>
@@ -7330,7 +7543,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>467</v>
       </c>
@@ -7341,7 +7554,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>467</v>
       </c>
@@ -7352,7 +7565,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>467</v>
       </c>
@@ -7363,7 +7576,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>467</v>
       </c>
@@ -7374,7 +7587,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>467</v>
       </c>
@@ -7385,7 +7598,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>467</v>
       </c>
@@ -7396,7 +7609,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>467</v>
       </c>
@@ -7407,7 +7620,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>467</v>
       </c>
@@ -7418,7 +7631,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>467</v>
       </c>
@@ -7429,7 +7642,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>467</v>
       </c>
@@ -7440,7 +7653,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>467</v>
       </c>
@@ -7451,7 +7664,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>467</v>
       </c>
@@ -7462,7 +7675,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>467</v>
       </c>
@@ -7473,7 +7686,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>467</v>
       </c>
@@ -7484,7 +7697,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>467</v>
       </c>
@@ -7495,7 +7708,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>467</v>
       </c>
@@ -7506,7 +7719,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>522</v>
       </c>
@@ -7517,7 +7730,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>522</v>
       </c>
@@ -7528,7 +7741,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>522</v>
       </c>
@@ -7539,7 +7752,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>522</v>
       </c>
@@ -7550,7 +7763,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>522</v>
       </c>
@@ -7561,7 +7774,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>522</v>
       </c>
@@ -7572,7 +7785,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>522</v>
       </c>
@@ -7583,7 +7796,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>522</v>
       </c>
@@ -7594,7 +7807,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>522</v>
       </c>
@@ -7605,7 +7818,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>522</v>
       </c>
@@ -7616,7 +7829,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>522</v>
       </c>
@@ -7627,7 +7840,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>522</v>
       </c>
@@ -7638,7 +7851,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>522</v>
       </c>
@@ -7649,7 +7862,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>522</v>
       </c>
@@ -7660,7 +7873,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>522</v>
       </c>
@@ -7671,7 +7884,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>522</v>
       </c>
@@ -7682,7 +7895,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>522</v>
       </c>
@@ -7693,7 +7906,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>522</v>
       </c>
@@ -7704,7 +7917,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>522</v>
       </c>
@@ -7715,7 +7928,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>522</v>
       </c>
@@ -7726,7 +7939,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>522</v>
       </c>
@@ -7737,7 +7950,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>522</v>
       </c>
@@ -7748,7 +7961,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>522</v>
       </c>
@@ -7759,7 +7972,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>522</v>
       </c>
@@ -7770,7 +7983,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>522</v>
       </c>
@@ -7781,7 +7994,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>522</v>
       </c>
@@ -7792,7 +8005,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>522</v>
       </c>
@@ -7803,7 +8016,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>522</v>
       </c>
@@ -7814,7 +8027,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>522</v>
       </c>
@@ -7825,7 +8038,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>522</v>
       </c>
@@ -7836,7 +8049,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>522</v>
       </c>
@@ -7847,7 +8060,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>522</v>
       </c>
@@ -7858,7 +8071,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>522</v>
       </c>
@@ -7869,7 +8082,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>522</v>
       </c>
@@ -7880,7 +8093,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>522</v>
       </c>
@@ -7891,7 +8104,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>522</v>
       </c>
@@ -7902,7 +8115,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>522</v>
       </c>
@@ -7913,7 +8126,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>522</v>
       </c>
@@ -7924,7 +8137,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>522</v>
       </c>
@@ -7935,7 +8148,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>522</v>
       </c>
@@ -7946,7 +8159,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>522</v>
       </c>
@@ -7957,7 +8170,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>522</v>
       </c>
@@ -7968,7 +8181,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>522</v>
       </c>
@@ -7979,7 +8192,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>522</v>
       </c>
@@ -7990,7 +8203,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>522</v>
       </c>
@@ -8001,7 +8214,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>522</v>
       </c>
@@ -8012,7 +8225,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>522</v>
       </c>
@@ -8023,7 +8236,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>522</v>
       </c>
@@ -8034,7 +8247,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>522</v>
       </c>
@@ -8045,7 +8258,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>522</v>
       </c>
@@ -8056,7 +8269,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>522</v>
       </c>
@@ -8067,7 +8280,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>522</v>
       </c>
@@ -8078,7 +8291,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>522</v>
       </c>
@@ -8089,7 +8302,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>522</v>
       </c>
@@ -8100,7 +8313,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>522</v>
       </c>
@@ -8111,7 +8324,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>522</v>
       </c>
@@ -8122,7 +8335,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>522</v>
       </c>
@@ -8133,7 +8346,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>522</v>
       </c>
@@ -8144,7 +8357,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>522</v>
       </c>
@@ -8155,7 +8368,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>522</v>
       </c>
@@ -8166,7 +8379,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>522</v>
       </c>
@@ -8177,7 +8390,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>522</v>
       </c>
@@ -8188,7 +8401,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>619</v>
       </c>
@@ -8199,7 +8412,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>619</v>
       </c>
@@ -8210,7 +8423,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>619</v>
       </c>
@@ -8221,7 +8434,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
         <v>619</v>
       </c>
@@ -8232,7 +8445,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
         <v>619</v>
       </c>
@@ -8243,7 +8456,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>619</v>
       </c>
@@ -8254,7 +8467,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
         <v>619</v>
       </c>
@@ -8265,7 +8478,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
         <v>619</v>
       </c>
@@ -8276,7 +8489,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
         <v>619</v>
       </c>
@@ -8287,7 +8500,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
         <v>619</v>
       </c>
@@ -8298,7 +8511,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
         <v>619</v>
       </c>
@@ -8309,7 +8522,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
         <v>619</v>
       </c>
@@ -8320,7 +8533,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
         <v>619</v>
       </c>
@@ -8331,7 +8544,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
         <v>619</v>
       </c>
@@ -8342,7 +8555,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
         <v>619</v>
       </c>
@@ -8353,7 +8566,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
         <v>619</v>
       </c>
@@ -8364,7 +8577,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
         <v>619</v>
       </c>
@@ -8375,7 +8588,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3">
       <c r="A116" t="s">
         <v>619</v>
       </c>
@@ -8386,7 +8599,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
         <v>619</v>
       </c>
@@ -8397,7 +8610,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
         <v>619</v>
       </c>
@@ -8408,7 +8621,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3">
       <c r="A119" t="s">
         <v>619</v>
       </c>
@@ -8419,7 +8632,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
         <v>619</v>
       </c>
@@ -8430,7 +8643,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
         <v>619</v>
       </c>
@@ -8441,7 +8654,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
         <v>619</v>
       </c>
@@ -8452,7 +8665,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3">
       <c r="A123" t="s">
         <v>619</v>
       </c>
@@ -8463,7 +8676,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3">
       <c r="A124" t="s">
         <v>619</v>
       </c>
@@ -8474,7 +8687,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3">
       <c r="A125" t="s">
         <v>619</v>
       </c>
@@ -8485,7 +8698,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
         <v>619</v>
       </c>
@@ -8496,7 +8709,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3">
       <c r="A127" t="s">
         <v>619</v>
       </c>
@@ -8507,7 +8720,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3">
       <c r="A128" t="s">
         <v>619</v>
       </c>
@@ -8518,7 +8731,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
         <v>619</v>
       </c>
@@ -8529,7 +8742,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
         <v>619</v>
       </c>
@@ -8540,7 +8753,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3">
       <c r="A131" t="s">
         <v>619</v>
       </c>
@@ -8551,7 +8764,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3">
       <c r="A132" t="s">
         <v>619</v>
       </c>
@@ -8562,7 +8775,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3">
       <c r="A133" t="s">
         <v>619</v>
       </c>
@@ -8573,7 +8786,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3">
       <c r="A134" t="s">
         <v>619</v>
       </c>
@@ -8584,7 +8797,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3">
       <c r="A135" t="s">
         <v>619</v>
       </c>
@@ -8595,7 +8808,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3">
       <c r="A136" t="s">
         <v>619</v>
       </c>
@@ -8606,7 +8819,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3">
       <c r="A137" t="s">
         <v>619</v>
       </c>
@@ -8617,7 +8830,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3">
       <c r="A138" t="s">
         <v>619</v>
       </c>
@@ -8628,7 +8841,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3">
       <c r="A139" t="s">
         <v>619</v>
       </c>
@@ -8639,7 +8852,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3">
       <c r="A140" t="s">
         <v>619</v>
       </c>
@@ -8650,7 +8863,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3">
       <c r="A141" t="s">
         <v>619</v>
       </c>
@@ -8661,7 +8874,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3">
       <c r="A142" t="s">
         <v>619</v>
       </c>
@@ -8672,7 +8885,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3">
       <c r="A143" t="s">
         <v>619</v>
       </c>
@@ -8683,7 +8896,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3">
       <c r="A144" t="s">
         <v>619</v>
       </c>
@@ -8694,7 +8907,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7">
       <c r="A145" t="s">
         <v>619</v>
       </c>
@@ -8705,7 +8918,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7">
       <c r="A146" t="s">
         <v>619</v>
       </c>
@@ -8716,7 +8929,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7">
       <c r="A147" t="s">
         <v>619</v>
       </c>
@@ -8727,7 +8940,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7">
       <c r="A148" t="s">
         <v>619</v>
       </c>
@@ -8739,7 +8952,7 @@
       </c>
       <c r="F148" s="8"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7">
       <c r="A149" t="s">
         <v>619</v>
       </c>
@@ -8752,7 +8965,7 @@
       <c r="F149" s="8"/>
       <c r="G149" s="8"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7">
       <c r="A150" t="s">
         <v>619</v>
       </c>
@@ -8763,7 +8976,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7">
       <c r="A151" t="s">
         <v>619</v>
       </c>
@@ -8774,7 +8987,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7">
       <c r="A152" t="s">
         <v>619</v>
       </c>
@@ -8785,7 +8998,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7">
       <c r="A153" t="s">
         <v>619</v>
       </c>
@@ -8796,7 +9009,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7">
       <c r="A154" t="s">
         <v>619</v>
       </c>
@@ -8807,7 +9020,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7">
       <c r="A155" t="s">
         <v>619</v>
       </c>
@@ -8818,7 +9031,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7">
       <c r="A156" t="s">
         <v>619</v>
       </c>
@@ -8830,7 +9043,7 @@
       </c>
       <c r="E156" s="8"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7">
       <c r="A157" t="s">
         <v>619</v>
       </c>
@@ -8841,7 +9054,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7">
       <c r="A158" t="s">
         <v>619</v>
       </c>
@@ -8852,7 +9065,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7">
       <c r="A159" t="s">
         <v>645</v>
       </c>
@@ -8863,7 +9076,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7">
       <c r="A160" t="s">
         <v>645</v>
       </c>
@@ -8874,7 +9087,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3">
       <c r="A161" t="s">
         <v>645</v>
       </c>
@@ -8885,7 +9098,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3">
       <c r="A162" t="s">
         <v>645</v>
       </c>
@@ -8896,7 +9109,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3">
       <c r="A163" t="s">
         <v>645</v>
       </c>
@@ -8907,7 +9120,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3">
       <c r="A164" t="s">
         <v>645</v>
       </c>
@@ -8918,7 +9131,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3">
       <c r="A165" t="s">
         <v>645</v>
       </c>
@@ -8929,7 +9142,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3">
       <c r="A166" t="s">
         <v>645</v>
       </c>
@@ -8940,7 +9153,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3">
       <c r="A167" t="s">
         <v>645</v>
       </c>
@@ -8951,7 +9164,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3">
       <c r="A168" t="s">
         <v>645</v>
       </c>
@@ -8962,7 +9175,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3">
       <c r="A169" t="s">
         <v>645</v>
       </c>
@@ -8973,7 +9186,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3">
       <c r="A170" t="s">
         <v>645</v>
       </c>
@@ -8984,7 +9197,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3">
       <c r="A171" t="s">
         <v>645</v>
       </c>
@@ -8995,7 +9208,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3">
       <c r="A172" t="s">
         <v>645</v>
       </c>
@@ -9006,7 +9219,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3">
       <c r="A173" t="s">
         <v>645</v>
       </c>
@@ -9017,7 +9230,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3">
       <c r="A174" t="s">
         <v>645</v>
       </c>
@@ -9028,7 +9241,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3">
       <c r="A175" t="s">
         <v>645</v>
       </c>
@@ -9039,7 +9252,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3">
       <c r="A176" t="s">
         <v>645</v>
       </c>
@@ -9050,7 +9263,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3">
       <c r="A177" t="s">
         <v>645</v>
       </c>
@@ -9061,7 +9274,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3">
       <c r="A178" t="s">
         <v>645</v>
       </c>
@@ -9072,7 +9285,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3">
       <c r="A179" t="s">
         <v>645</v>
       </c>
@@ -9083,7 +9296,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3">
       <c r="A180" t="s">
         <v>645</v>
       </c>
@@ -9094,7 +9307,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3">
       <c r="A181" t="s">
         <v>645</v>
       </c>
@@ -9105,7 +9318,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3">
       <c r="A182" t="s">
         <v>645</v>
       </c>
@@ -9116,7 +9329,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3">
       <c r="A183" t="s">
         <v>645</v>
       </c>
@@ -9127,7 +9340,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3">
       <c r="A184" t="s">
         <v>645</v>
       </c>
@@ -9138,7 +9351,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3">
       <c r="A185" t="s">
         <v>645</v>
       </c>
@@ -9149,7 +9362,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3">
       <c r="A186" t="s">
         <v>645</v>
       </c>
@@ -9160,7 +9373,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3">
       <c r="A187" t="s">
         <v>645</v>
       </c>
@@ -9171,7 +9384,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3">
       <c r="A188" t="s">
         <v>645</v>
       </c>
@@ -9182,7 +9395,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3">
       <c r="A189" t="s">
         <v>645</v>
       </c>
@@ -9193,7 +9406,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3">
       <c r="A190" t="s">
         <v>645</v>
       </c>
@@ -9204,7 +9417,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3">
       <c r="A191" t="s">
         <v>645</v>
       </c>
@@ -9215,7 +9428,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3">
       <c r="A192" t="s">
         <v>645</v>
       </c>
@@ -9226,7 +9439,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3">
       <c r="A193" t="s">
         <v>645</v>
       </c>
@@ -9237,7 +9450,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3">
       <c r="A194" t="s">
         <v>645</v>
       </c>
@@ -9248,7 +9461,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3">
       <c r="A195" t="s">
         <v>645</v>
       </c>
@@ -9259,7 +9472,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3">
       <c r="A196" t="s">
         <v>645</v>
       </c>
@@ -9270,7 +9483,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3">
       <c r="A197" t="s">
         <v>645</v>
       </c>
@@ -9281,7 +9494,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3">
       <c r="A198" t="s">
         <v>645</v>
       </c>
@@ -9292,7 +9505,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3">
       <c r="A199" t="s">
         <v>645</v>
       </c>
@@ -9303,7 +9516,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3">
       <c r="A200" t="s">
         <v>645</v>
       </c>
@@ -9314,7 +9527,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3">
       <c r="A201" t="s">
         <v>645</v>
       </c>
@@ -9325,7 +9538,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3">
       <c r="A202" t="s">
         <v>645</v>
       </c>
@@ -9336,7 +9549,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3">
       <c r="A203" t="s">
         <v>645</v>
       </c>
@@ -9347,7 +9560,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3">
       <c r="A204" t="s">
         <v>645</v>
       </c>
@@ -9358,7 +9571,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3">
       <c r="A205" t="s">
         <v>645</v>
       </c>
@@ -9369,7 +9582,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3">
       <c r="A206" t="s">
         <v>645</v>
       </c>
@@ -9380,7 +9593,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3">
       <c r="A207" t="s">
         <v>645</v>
       </c>

--- a/backend/v1.0/tools/DB_Mapping.xlsx
+++ b/backend/v1.0/tools/DB_Mapping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SMARTGRID_CALI\backend\v1.0\tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconet-my.sharepoint.com/personal/sarango_uco_edu_co/Documents/Documents/GitHub/backend/v1.0/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518FBB7B-B3CB-4846-B4AA-07274488E2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{518FBB7B-B3CB-4846-B4AA-07274488E2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A71C8B46-4D5F-4EAA-9269-7518ED135069}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConexionDB" sheetId="4" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="750">
   <si>
     <t xml:space="preserve">0x0002 </t>
   </si>
@@ -1934,21 +1934,6 @@
     <t>M-FT-P-101</t>
   </si>
   <si>
-    <t>DTPlantaBiogas</t>
-  </si>
-  <si>
-    <t>Caudal Manual P-104</t>
-  </si>
-  <si>
-    <t>SE-104v</t>
-  </si>
-  <si>
-    <t>Temperatura Manual R-101</t>
-  </si>
-  <si>
-    <t>TE-101v</t>
-  </si>
-  <si>
     <t>UCO</t>
   </si>
   <si>
@@ -2192,114 +2177,6 @@
     <t>Potencia DC de salida hacia las baterías (Controlador)</t>
   </si>
   <si>
-    <t>Caudal Manual P-101</t>
-  </si>
-  <si>
-    <t>SE-101v</t>
-  </si>
-  <si>
-    <t>Caudal Manual P-102</t>
-  </si>
-  <si>
-    <t>SE-102v</t>
-  </si>
-  <si>
-    <t>Volumen normal de biogás en V101 (almacenadas)</t>
-  </si>
-  <si>
-    <t>M-VGA_V101</t>
-  </si>
-  <si>
-    <t>M-PA_CH4_V101</t>
-  </si>
-  <si>
-    <t>M-PA_CO2_V101</t>
-  </si>
-  <si>
-    <t>M-PA_H2S_V101</t>
-  </si>
-  <si>
-    <t>M-PA_O2_V101</t>
-  </si>
-  <si>
-    <t>M-PA_H2_V101</t>
-  </si>
-  <si>
-    <t>M-molA_CH4_V101</t>
-  </si>
-  <si>
-    <t>M-molA_CO2_V101</t>
-  </si>
-  <si>
-    <t>M-molA_H2S_V101</t>
-  </si>
-  <si>
-    <t>M-molA_O2_V101</t>
-  </si>
-  <si>
-    <t>M-molA_H2_V101</t>
-  </si>
-  <si>
-    <t>M-molA_H2O_V101</t>
-  </si>
-  <si>
-    <t>Volumen parcial  metano en V101 (almacenadas)</t>
-  </si>
-  <si>
-    <t>Volumen parcial  dioxido de carbono  en V101 (almacenadas)</t>
-  </si>
-  <si>
-    <t>Volumen parcial  sulfuro de hidrogeno en V101 (almacenadas)</t>
-  </si>
-  <si>
-    <t>Volumen parcial  oxigeno en V101 (almacenadas)</t>
-  </si>
-  <si>
-    <t>Volumen parcial hiodrogeno en V101 (almacenadas)</t>
-  </si>
-  <si>
-    <t>moles metano en V101 (almacenadas)</t>
-  </si>
-  <si>
-    <t>moles dioxido de carbono en V101 (almacenadas)</t>
-  </si>
-  <si>
-    <t>moles sulfuro de hidrógeno en V101 (almacenadas)</t>
-  </si>
-  <si>
-    <t>moles oxigeno en V101 (almacenadas)</t>
-  </si>
-  <si>
-    <t>moles hidrogeno en V101 (almacenadas)</t>
-  </si>
-  <si>
-    <t>moles agua en V101 (almacenadas)</t>
-  </si>
-  <si>
-    <t>Presión acumulada en V101</t>
-  </si>
-  <si>
-    <t>Volumen normal acumulado en V101 (Total)</t>
-  </si>
-  <si>
-    <t>P_acum_V101</t>
-  </si>
-  <si>
-    <t>M-VGT_V101</t>
-  </si>
-  <si>
-    <t>Moles Sustrato en R101</t>
-  </si>
-  <si>
-    <t>Msus_exp_R101</t>
-  </si>
-  <si>
-    <t>Csus_exp_R101</t>
-  </si>
-  <si>
-    <t>Concentracion Sustrato en R101</t>
-  </si>
-  <si>
     <t>Voltaje generada por turbina Pelton (Controlador Pelton)</t>
   </si>
   <si>
@@ -2351,228 +2228,12 @@
     <t>Temperatura Baterías  (Controlador Turgo)</t>
   </si>
   <si>
-    <t>concentracion de sólidos totales a la salida de R101</t>
-  </si>
-  <si>
     <t>Temperatura de biogás en V-102</t>
   </si>
   <si>
     <t>TT-104</t>
   </si>
   <si>
-    <t>M-SV_R101</t>
-  </si>
-  <si>
-    <t>M-ST_R101</t>
-  </si>
-  <si>
-    <t>Volumen normal de biogás en V102 (almacenadas)</t>
-  </si>
-  <si>
-    <t>M_VGA_V102</t>
-  </si>
-  <si>
-    <t>Volumen parcial  metano en V102 (almacenadas)</t>
-  </si>
-  <si>
-    <t>M-PA_CH4_V102</t>
-  </si>
-  <si>
-    <t>Volumen parcial de dióxido de carbono en V102 (almacenadas)</t>
-  </si>
-  <si>
-    <t>M-PA_CO2_V102</t>
-  </si>
-  <si>
-    <t>Volumen parcial  sulfuro de hidrogeno en V102 (almacenadas)</t>
-  </si>
-  <si>
-    <t>M-PA_H2S_V102</t>
-  </si>
-  <si>
-    <t>M-PA_O2_V102</t>
-  </si>
-  <si>
-    <t>Volumen parcial  oxigeno en V102 (almacenadas)</t>
-  </si>
-  <si>
-    <t>M-PA_H2_V102</t>
-  </si>
-  <si>
-    <t>moles metano en V102 (almacenadas)</t>
-  </si>
-  <si>
-    <t>M-molA_CH4_V102</t>
-  </si>
-  <si>
-    <t>moles dioxido de carbono en V102 (almacenadas)</t>
-  </si>
-  <si>
-    <t>M-molA_CO2_V102</t>
-  </si>
-  <si>
-    <t>moles sulfuro de hidrógeno en V102 (almacenadas)</t>
-  </si>
-  <si>
-    <t>M-molA_H2S_V102</t>
-  </si>
-  <si>
-    <t>moles oxigeno en V102 (almacenadas)</t>
-  </si>
-  <si>
-    <t>M-molA_O2_V102</t>
-  </si>
-  <si>
-    <t>moles hidrogeno en V102 (almacenadas)</t>
-  </si>
-  <si>
-    <t>M-molA_H2_V102</t>
-  </si>
-  <si>
-    <t>moles agua en V102 (almacenadas)</t>
-  </si>
-  <si>
-    <t>M-molA_H2O_V102</t>
-  </si>
-  <si>
-    <t>Presión acumulada en V102</t>
-  </si>
-  <si>
-    <t>P_acum_V102</t>
-  </si>
-  <si>
-    <t>Volumen normal acumulado en V102 (Total)</t>
-  </si>
-  <si>
-    <t>M-VGT_V102</t>
-  </si>
-  <si>
-    <t>Volumen normal de biogás en V107 (almacenadas)</t>
-  </si>
-  <si>
-    <t>M_VGA_V107</t>
-  </si>
-  <si>
-    <t>Volumen parcial  metano en V107 (almacenadas)</t>
-  </si>
-  <si>
-    <t>M-PA_CH4_V107</t>
-  </si>
-  <si>
-    <t>Volumen parcial de dióxido de carbono en V107 (almacenadas)</t>
-  </si>
-  <si>
-    <t>M-PA_CO2_V107</t>
-  </si>
-  <si>
-    <t>Volumen parcial  sulfuro de hidrogeno en V107 (almacenadas)</t>
-  </si>
-  <si>
-    <t>M-PA_H2S_V107</t>
-  </si>
-  <si>
-    <t>Volumen parcial  oxigeno en V107 (almacenadas)</t>
-  </si>
-  <si>
-    <t>M-PA_O2_V107</t>
-  </si>
-  <si>
-    <t>Volumen parcial hiodrogeno en V107 (almacenadas)</t>
-  </si>
-  <si>
-    <t>M-PA_H2_V107</t>
-  </si>
-  <si>
-    <t>moles metano en V107 (almacenadas)</t>
-  </si>
-  <si>
-    <t>M-molA_CH4_V107</t>
-  </si>
-  <si>
-    <t>moles dioxido de carbono en V107 (almacenadas)</t>
-  </si>
-  <si>
-    <t>M-molA_CO2_V107</t>
-  </si>
-  <si>
-    <t>moles sulfuro de hidrógeno en V107 (almacenadas)</t>
-  </si>
-  <si>
-    <t>M-molA_H2S_V107</t>
-  </si>
-  <si>
-    <t>moles agua en V107 (almacenadas)</t>
-  </si>
-  <si>
-    <t>moles hidrogeno en V107 (almacenadas)</t>
-  </si>
-  <si>
-    <t>M-molA_H2_V107</t>
-  </si>
-  <si>
-    <t>M-molA_O2_V107</t>
-  </si>
-  <si>
-    <t>moles oxigeno en V107 (almacenadas)</t>
-  </si>
-  <si>
-    <t>M-molA_H2O_V107</t>
-  </si>
-  <si>
-    <t>Presión acumulada en V107</t>
-  </si>
-  <si>
-    <t>P_acum_V107</t>
-  </si>
-  <si>
-    <t>Volumen normal acumulado en V107 (Total)</t>
-  </si>
-  <si>
-    <t>M-VGT_V107</t>
-  </si>
-  <si>
-    <t>moles metano acumulado en V101 (total)</t>
-  </si>
-  <si>
-    <t>M-molT_CH4_V101</t>
-  </si>
-  <si>
-    <t>M-molT_CH4_V102</t>
-  </si>
-  <si>
-    <t>moles metano acumulado en V102 (total)</t>
-  </si>
-  <si>
-    <t>moles metano acumulado en V107 (total)</t>
-  </si>
-  <si>
-    <t>M-molT_CH4_V107</t>
-  </si>
-  <si>
-    <t>Concentracion Sustrato en R102</t>
-  </si>
-  <si>
-    <t>Csus_exp_R102</t>
-  </si>
-  <si>
-    <t>Msus_exp_R102</t>
-  </si>
-  <si>
-    <t>concentración de solidos volátiles a la salida de R101</t>
-  </si>
-  <si>
-    <t>concentración de solidos volátiles a la salida de R102</t>
-  </si>
-  <si>
-    <t>M-SV_R102</t>
-  </si>
-  <si>
-    <t>concentracion de sólidos totales a la salida de R102</t>
-  </si>
-  <si>
-    <t>M-ST_R102</t>
-  </si>
-  <si>
     <t>Voltaje de las baterías inversor híbrido</t>
   </si>
   <si>
@@ -2607,21 +2268,6 @@
   </si>
   <si>
     <t>VG004</t>
-  </si>
-  <si>
-    <t>TE-102v</t>
-  </si>
-  <si>
-    <t>Kinetic_train</t>
-  </si>
-  <si>
-    <t>K_train</t>
-  </si>
-  <si>
-    <t>Temperatura Manual R-102</t>
-  </si>
-  <si>
-    <t>Ea_train</t>
   </si>
   <si>
     <t>Fundamental VL1</t>
@@ -2685,7 +2331,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3053,13 +2699,13 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="95.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="95.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>275</v>
       </c>
@@ -3079,7 +2725,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>436</v>
       </c>
@@ -3099,7 +2745,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>436</v>
       </c>
@@ -3119,7 +2765,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>519</v>
       </c>
@@ -3139,7 +2785,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>436</v>
       </c>
@@ -3153,13 +2799,13 @@
         <v>440</v>
       </c>
       <c r="E5" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="F5" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E10" s="8"/>
     </row>
   </sheetData>
@@ -3176,13 +2822,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>275</v>
       </c>
@@ -3196,7 +2842,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>435</v>
       </c>
@@ -3220,17 +2866,17 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>428</v>
       </c>
@@ -3241,7 +2887,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1">
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3252,7 +2898,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3263,7 +2909,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3274,7 +2920,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3285,7 +2931,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3296,7 +2942,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3307,7 +2953,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3318,7 +2964,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3329,7 +2975,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3340,7 +2986,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3351,7 +2997,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3362,7 +3008,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3373,7 +3019,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3384,7 +3030,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3395,7 +3041,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3406,7 +3052,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3417,7 +3063,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3428,7 +3074,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3439,7 +3085,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3450,7 +3096,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3461,136 +3107,136 @@
         <v>435</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="6"/>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="6"/>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="6"/>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="6"/>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="6"/>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="6"/>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="6"/>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="6"/>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="6"/>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="6"/>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="6"/>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="6"/>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="6"/>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="6"/>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="6"/>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="6"/>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="6"/>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="6"/>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="6"/>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="6"/>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="6"/>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="6"/>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="6"/>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="6"/>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="6"/>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="6"/>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="6"/>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="6"/>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="6"/>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="6"/>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="6"/>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="6"/>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="6"/>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="6"/>
     </row>
   </sheetData>
@@ -3602,22 +3248,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G142"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -3643,7 +3289,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3669,7 +3315,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3695,7 +3341,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -3721,7 +3367,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -3747,7 +3393,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3773,7 +3419,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -3799,7 +3445,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3825,7 +3471,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -3851,7 +3497,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -3877,7 +3523,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -3903,7 +3549,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -3929,7 +3575,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -3955,7 +3601,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
@@ -3981,7 +3627,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
@@ -4007,7 +3653,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>24</v>
       </c>
@@ -4033,7 +3679,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -4059,7 +3705,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -4085,7 +3731,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -4111,7 +3757,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -4134,7 +3780,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -4157,7 +3803,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -4180,7 +3826,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -4206,7 +3852,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -4232,7 +3878,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -4258,7 +3904,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -4284,7 +3930,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -4310,7 +3956,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -4336,7 +3982,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -4362,9 +4008,9 @@
         <v>303</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>850</v>
+        <v>732</v>
       </c>
       <c r="B30">
         <v>156</v>
@@ -4373,7 +4019,7 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>849</v>
+        <v>731</v>
       </c>
       <c r="E30" t="s">
         <v>411</v>
@@ -4385,10 +4031,10 @@
         <v>100</v>
       </c>
       <c r="H30" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>100</v>
       </c>
@@ -4414,7 +4060,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>102</v>
       </c>
@@ -4440,7 +4086,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>125</v>
       </c>
@@ -4466,7 +4112,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>126</v>
       </c>
@@ -4492,7 +4138,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>127</v>
       </c>
@@ -4518,7 +4164,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>128</v>
       </c>
@@ -4544,7 +4190,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>129</v>
       </c>
@@ -4570,7 +4216,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>130</v>
       </c>
@@ -4596,7 +4242,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>131</v>
       </c>
@@ -4622,7 +4268,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>132</v>
       </c>
@@ -4648,7 +4294,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>133</v>
       </c>
@@ -4674,7 +4320,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>134</v>
       </c>
@@ -4700,7 +4346,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>135</v>
       </c>
@@ -4726,7 +4372,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>136</v>
       </c>
@@ -4752,9 +4398,9 @@
         <v>317</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>852</v>
+        <v>734</v>
       </c>
       <c r="B45">
         <v>158</v>
@@ -4763,7 +4409,7 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>851</v>
+        <v>733</v>
       </c>
       <c r="E45" t="s">
         <v>411</v>
@@ -4775,10 +4421,10 @@
         <v>100</v>
       </c>
       <c r="H45" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>104</v>
       </c>
@@ -4804,7 +4450,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>106</v>
       </c>
@@ -4830,7 +4476,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>211</v>
       </c>
@@ -4856,7 +4502,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>212</v>
       </c>
@@ -4882,7 +4528,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>213</v>
       </c>
@@ -4908,7 +4554,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>214</v>
       </c>
@@ -4934,7 +4580,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>215</v>
       </c>
@@ -4960,7 +4606,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>216</v>
       </c>
@@ -4986,7 +4632,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>217</v>
       </c>
@@ -5012,7 +4658,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>218</v>
       </c>
@@ -5038,7 +4684,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>219</v>
       </c>
@@ -5064,7 +4710,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>220</v>
       </c>
@@ -5090,7 +4736,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>221</v>
       </c>
@@ -5116,7 +4762,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>222</v>
       </c>
@@ -5142,9 +4788,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>853</v>
+        <v>735</v>
       </c>
       <c r="B60">
         <v>160</v>
@@ -5153,7 +4799,7 @@
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>854</v>
+        <v>736</v>
       </c>
       <c r="E60" t="s">
         <v>411</v>
@@ -5165,10 +4811,10 @@
         <v>100</v>
       </c>
       <c r="H60" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>108</v>
       </c>
@@ -5194,7 +4840,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>110</v>
       </c>
@@ -5220,7 +4866,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>223</v>
       </c>
@@ -5246,7 +4892,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>224</v>
       </c>
@@ -5272,7 +4918,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>225</v>
       </c>
@@ -5298,7 +4944,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>226</v>
       </c>
@@ -5324,7 +4970,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>227</v>
       </c>
@@ -5350,7 +4996,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>228</v>
       </c>
@@ -5376,7 +5022,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>229</v>
       </c>
@@ -5402,7 +5048,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>230</v>
       </c>
@@ -5428,7 +5074,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>231</v>
       </c>
@@ -5454,7 +5100,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>232</v>
       </c>
@@ -5480,7 +5126,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>233</v>
       </c>
@@ -5506,7 +5152,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>234</v>
       </c>
@@ -5532,9 +5178,9 @@
         <v>345</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>857</v>
+        <v>739</v>
       </c>
       <c r="B75">
         <v>164</v>
@@ -5543,10 +5189,10 @@
         <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>855</v>
+        <v>737</v>
       </c>
       <c r="E75" t="s">
-        <v>856</v>
+        <v>738</v>
       </c>
       <c r="F75" t="s">
         <v>441</v>
@@ -5555,10 +5201,10 @@
         <v>10000</v>
       </c>
       <c r="H75" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>112</v>
       </c>
@@ -5584,7 +5230,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>114</v>
       </c>
@@ -5610,7 +5256,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>235</v>
       </c>
@@ -5636,7 +5282,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>236</v>
       </c>
@@ -5662,7 +5308,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>237</v>
       </c>
@@ -5688,7 +5334,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>238</v>
       </c>
@@ -5714,7 +5360,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>239</v>
       </c>
@@ -5740,7 +5386,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>240</v>
       </c>
@@ -5766,7 +5412,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>241</v>
       </c>
@@ -5792,7 +5438,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>242</v>
       </c>
@@ -5818,7 +5464,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>243</v>
       </c>
@@ -5844,7 +5490,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>244</v>
       </c>
@@ -5870,7 +5516,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>245</v>
       </c>
@@ -5896,7 +5542,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>246</v>
       </c>
@@ -5922,7 +5568,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>247</v>
       </c>
@@ -5948,9 +5594,9 @@
         <v>360</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>859</v>
+        <v>741</v>
       </c>
       <c r="B91">
         <v>166</v>
@@ -5959,10 +5605,10 @@
         <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>858</v>
+        <v>740</v>
       </c>
       <c r="E91" t="s">
-        <v>856</v>
+        <v>738</v>
       </c>
       <c r="F91" t="s">
         <v>441</v>
@@ -5971,10 +5617,10 @@
         <v>10000</v>
       </c>
       <c r="H91" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>116</v>
       </c>
@@ -6000,7 +5646,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>118</v>
       </c>
@@ -6026,7 +5672,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>248</v>
       </c>
@@ -6052,7 +5698,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>249</v>
       </c>
@@ -6078,7 +5724,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>250</v>
       </c>
@@ -6104,7 +5750,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>251</v>
       </c>
@@ -6130,7 +5776,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>252</v>
       </c>
@@ -6156,7 +5802,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>253</v>
       </c>
@@ -6182,7 +5828,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>254</v>
       </c>
@@ -6208,7 +5854,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>255</v>
       </c>
@@ -6234,7 +5880,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>256</v>
       </c>
@@ -6260,7 +5906,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>257</v>
       </c>
@@ -6286,7 +5932,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>258</v>
       </c>
@@ -6312,7 +5958,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>259</v>
       </c>
@@ -6338,7 +5984,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>260</v>
       </c>
@@ -6364,9 +6010,9 @@
         <v>374</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>861</v>
+        <v>743</v>
       </c>
       <c r="B107">
         <v>168</v>
@@ -6375,10 +6021,10 @@
         <v>2</v>
       </c>
       <c r="D107" t="s">
-        <v>860</v>
+        <v>742</v>
       </c>
       <c r="E107" t="s">
-        <v>856</v>
+        <v>738</v>
       </c>
       <c r="F107" t="s">
         <v>441</v>
@@ -6387,10 +6033,10 @@
         <v>10000</v>
       </c>
       <c r="H107" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>120</v>
       </c>
@@ -6416,7 +6062,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>122</v>
       </c>
@@ -6442,7 +6088,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>261</v>
       </c>
@@ -6468,7 +6114,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>262</v>
       </c>
@@ -6494,7 +6140,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>263</v>
       </c>
@@ -6520,7 +6166,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>264</v>
       </c>
@@ -6546,7 +6192,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>265</v>
       </c>
@@ -6572,7 +6218,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>266</v>
       </c>
@@ -6598,7 +6244,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>267</v>
       </c>
@@ -6624,7 +6270,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>268</v>
       </c>
@@ -6650,7 +6296,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>269</v>
       </c>
@@ -6676,7 +6322,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>270</v>
       </c>
@@ -6702,7 +6348,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>271</v>
       </c>
@@ -6728,7 +6374,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>272</v>
       </c>
@@ -6754,7 +6400,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>273</v>
       </c>
@@ -6780,7 +6426,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>60</v>
       </c>
@@ -6806,7 +6452,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>62</v>
       </c>
@@ -6832,7 +6478,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>64</v>
       </c>
@@ -6858,7 +6504,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>66</v>
       </c>
@@ -6884,7 +6530,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>68</v>
       </c>
@@ -6910,7 +6556,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>70</v>
       </c>
@@ -6936,7 +6582,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>72</v>
       </c>
@@ -6962,7 +6608,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>74</v>
       </c>
@@ -6988,7 +6634,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>76</v>
       </c>
@@ -7014,7 +6660,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>78</v>
       </c>
@@ -7040,7 +6686,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>80</v>
       </c>
@@ -7066,7 +6712,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>82</v>
       </c>
@@ -7092,7 +6738,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>84</v>
       </c>
@@ -7118,7 +6764,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>86</v>
       </c>
@@ -7144,7 +6790,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
         <v>88</v>
       </c>
@@ -7170,7 +6816,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
         <v>90</v>
       </c>
@@ -7196,7 +6842,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
         <v>92</v>
       </c>
@@ -7222,7 +6868,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
         <v>94</v>
       </c>
@@ -7248,7 +6894,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>96</v>
       </c>
@@ -7274,7 +6920,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>98</v>
       </c>
@@ -7310,20 +6956,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D5969C-509B-4D3C-BD42-B92347445C5B}">
-  <dimension ref="A1:G207"/>
+  <dimension ref="A1:C147"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C158" sqref="C158"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>465</v>
       </c>
@@ -7334,7 +6980,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>467</v>
       </c>
@@ -7345,7 +6991,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>467</v>
       </c>
@@ -7356,7 +7002,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>467</v>
       </c>
@@ -7367,7 +7013,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>467</v>
       </c>
@@ -7378,7 +7024,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>467</v>
       </c>
@@ -7389,7 +7035,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>467</v>
       </c>
@@ -7400,7 +7046,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>467</v>
       </c>
@@ -7411,161 +7057,161 @@
         <v>481</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>467</v>
       </c>
       <c r="B9" t="s">
-        <v>741</v>
+        <v>700</v>
       </c>
       <c r="C9" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>467</v>
       </c>
       <c r="B10" t="s">
-        <v>742</v>
+        <v>701</v>
       </c>
       <c r="C10" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>467</v>
       </c>
       <c r="B11" t="s">
-        <v>743</v>
+        <v>702</v>
       </c>
       <c r="C11" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>467</v>
       </c>
       <c r="B12" t="s">
-        <v>744</v>
+        <v>703</v>
       </c>
       <c r="C12" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>467</v>
       </c>
       <c r="B13" t="s">
-        <v>745</v>
+        <v>704</v>
       </c>
       <c r="C13" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>467</v>
       </c>
       <c r="B14" t="s">
-        <v>746</v>
+        <v>705</v>
       </c>
       <c r="C14" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>467</v>
       </c>
       <c r="B15" t="s">
-        <v>747</v>
+        <v>706</v>
       </c>
       <c r="C15" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>467</v>
       </c>
       <c r="B16" t="s">
-        <v>748</v>
+        <v>707</v>
       </c>
       <c r="C16" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>467</v>
       </c>
       <c r="B17" t="s">
-        <v>749</v>
+        <v>708</v>
       </c>
       <c r="C17" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>467</v>
       </c>
       <c r="B18" t="s">
-        <v>750</v>
+        <v>709</v>
       </c>
       <c r="C18" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>467</v>
       </c>
       <c r="B19" t="s">
-        <v>751</v>
+        <v>710</v>
       </c>
       <c r="C19" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>467</v>
       </c>
       <c r="B20" t="s">
-        <v>753</v>
+        <v>712</v>
       </c>
       <c r="C20" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>467</v>
       </c>
       <c r="B21" t="s">
-        <v>755</v>
+        <v>714</v>
       </c>
       <c r="C21" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>467</v>
       </c>
       <c r="B22" t="s">
-        <v>757</v>
+        <v>716</v>
       </c>
       <c r="C22" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>467</v>
       </c>
@@ -7576,7 +7222,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>467</v>
       </c>
@@ -7587,7 +7233,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>467</v>
       </c>
@@ -7598,7 +7244,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>467</v>
       </c>
@@ -7609,7 +7255,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>467</v>
       </c>
@@ -7620,7 +7266,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>467</v>
       </c>
@@ -7631,7 +7277,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>467</v>
       </c>
@@ -7642,7 +7288,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>467</v>
       </c>
@@ -7653,7 +7299,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>467</v>
       </c>
@@ -7664,7 +7310,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>467</v>
       </c>
@@ -7675,7 +7321,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>467</v>
       </c>
@@ -7686,7 +7332,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>467</v>
       </c>
@@ -7697,7 +7343,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>467</v>
       </c>
@@ -7708,7 +7354,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>467</v>
       </c>
@@ -7719,7 +7365,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>522</v>
       </c>
@@ -7730,7 +7376,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>522</v>
       </c>
@@ -7741,7 +7387,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>522</v>
       </c>
@@ -7752,7 +7398,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>522</v>
       </c>
@@ -7763,7 +7409,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>522</v>
       </c>
@@ -7774,7 +7420,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>522</v>
       </c>
@@ -7785,7 +7431,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>522</v>
       </c>
@@ -7796,7 +7442,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>522</v>
       </c>
@@ -7807,7 +7453,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>522</v>
       </c>
@@ -7818,7 +7464,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>522</v>
       </c>
@@ -7829,7 +7475,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>522</v>
       </c>
@@ -7840,7 +7486,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>522</v>
       </c>
@@ -7851,7 +7497,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>522</v>
       </c>
@@ -7862,7 +7508,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>522</v>
       </c>
@@ -7873,7 +7519,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>522</v>
       </c>
@@ -7884,7 +7530,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>522</v>
       </c>
@@ -7895,7 +7541,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>522</v>
       </c>
@@ -7906,7 +7552,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>522</v>
       </c>
@@ -7917,7 +7563,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>522</v>
       </c>
@@ -7928,7 +7574,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>522</v>
       </c>
@@ -7939,7 +7585,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>522</v>
       </c>
@@ -7950,7 +7596,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>522</v>
       </c>
@@ -7961,7 +7607,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>522</v>
       </c>
@@ -7972,7 +7618,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>522</v>
       </c>
@@ -7983,7 +7629,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>522</v>
       </c>
@@ -7994,7 +7640,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>522</v>
       </c>
@@ -8005,7 +7651,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>522</v>
       </c>
@@ -8016,7 +7662,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>522</v>
       </c>
@@ -8027,7 +7673,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>522</v>
       </c>
@@ -8038,7 +7684,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>522</v>
       </c>
@@ -8049,7 +7695,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>522</v>
       </c>
@@ -8060,7 +7706,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>522</v>
       </c>
@@ -8071,7 +7717,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>522</v>
       </c>
@@ -8082,7 +7728,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>522</v>
       </c>
@@ -8093,18 +7739,18 @@
         <v>590</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>522</v>
       </c>
       <c r="B71" t="s">
-        <v>759</v>
+        <v>717</v>
       </c>
       <c r="C71" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>522</v>
       </c>
@@ -8115,7 +7761,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>522</v>
       </c>
@@ -8126,7 +7772,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>522</v>
       </c>
@@ -8137,7 +7783,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>522</v>
       </c>
@@ -8148,7 +7794,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>522</v>
       </c>
@@ -8159,7 +7805,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>522</v>
       </c>
@@ -8170,7 +7816,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>522</v>
       </c>
@@ -8181,7 +7827,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>522</v>
       </c>
@@ -8192,7 +7838,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>522</v>
       </c>
@@ -8203,7 +7849,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>522</v>
       </c>
@@ -8214,7 +7860,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>522</v>
       </c>
@@ -8225,7 +7871,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>522</v>
       </c>
@@ -8236,7 +7882,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>522</v>
       </c>
@@ -8247,7 +7893,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>522</v>
       </c>
@@ -8258,7 +7904,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>522</v>
       </c>
@@ -8269,73 +7915,73 @@
         <v>618</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>522</v>
       </c>
       <c r="B87" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="C87" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>522</v>
       </c>
       <c r="B88" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="C88" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>522</v>
       </c>
       <c r="B89" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="C89" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>522</v>
       </c>
       <c r="B90" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="C90" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>522</v>
       </c>
       <c r="B91" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="C91" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>522</v>
       </c>
       <c r="B92" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="C92" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>522</v>
       </c>
@@ -8346,1262 +7992,598 @@
         <v>594</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>522</v>
       </c>
       <c r="B94" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="C94" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>522</v>
       </c>
       <c r="B95" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="C95" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>522</v>
       </c>
       <c r="B96" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="C96" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>522</v>
       </c>
       <c r="B97" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="C97" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>522</v>
       </c>
       <c r="B98" t="s">
+        <v>638</v>
+      </c>
+      <c r="C98" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>640</v>
+      </c>
+      <c r="B99" t="s">
+        <v>641</v>
+      </c>
+      <c r="C99" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>640</v>
+      </c>
+      <c r="B100" t="s">
         <v>643</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C100" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
-        <v>619</v>
-      </c>
-      <c r="B99" t="s">
-        <v>620</v>
-      </c>
-      <c r="C99" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
-        <v>619</v>
-      </c>
-      <c r="B100" t="s">
-        <v>705</v>
-      </c>
-      <c r="C100" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>619</v>
+        <v>640</v>
       </c>
       <c r="B101" t="s">
-        <v>707</v>
+        <v>645</v>
       </c>
       <c r="C101" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>619</v>
+        <v>640</v>
       </c>
       <c r="B102" t="s">
-        <v>622</v>
+        <v>647</v>
       </c>
       <c r="C102" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>619</v>
+        <v>640</v>
       </c>
       <c r="B103" t="s">
-        <v>847</v>
+        <v>649</v>
       </c>
       <c r="C103" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>619</v>
+        <v>640</v>
       </c>
       <c r="B104" t="s">
-        <v>709</v>
+        <v>649</v>
       </c>
       <c r="C104" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>619</v>
+        <v>640</v>
       </c>
       <c r="B105" t="s">
+        <v>649</v>
+      </c>
+      <c r="C105" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>640</v>
+      </c>
+      <c r="B106" t="s">
+        <v>649</v>
+      </c>
+      <c r="C106" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>640</v>
+      </c>
+      <c r="B107" t="s">
+        <v>651</v>
+      </c>
+      <c r="C107" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>640</v>
+      </c>
+      <c r="B108" t="s">
+        <v>652</v>
+      </c>
+      <c r="C108" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>640</v>
+      </c>
+      <c r="B109" t="s">
+        <v>653</v>
+      </c>
+      <c r="C109" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>640</v>
+      </c>
+      <c r="B110" t="s">
+        <v>654</v>
+      </c>
+      <c r="C110" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>640</v>
+      </c>
+      <c r="B111" t="s">
+        <v>655</v>
+      </c>
+      <c r="C111" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>640</v>
+      </c>
+      <c r="B112" t="s">
+        <v>657</v>
+      </c>
+      <c r="C112" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>640</v>
+      </c>
+      <c r="B113" t="s">
+        <v>658</v>
+      </c>
+      <c r="C113" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>640</v>
+      </c>
+      <c r="B114" t="s">
+        <v>659</v>
+      </c>
+      <c r="C114" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>640</v>
+      </c>
+      <c r="B115" t="s">
+        <v>660</v>
+      </c>
+      <c r="C115" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>640</v>
+      </c>
+      <c r="B116" t="s">
+        <v>662</v>
+      </c>
+      <c r="C116" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>640</v>
+      </c>
+      <c r="B117" t="s">
+        <v>663</v>
+      </c>
+      <c r="C117" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>640</v>
+      </c>
+      <c r="B118" t="s">
+        <v>664</v>
+      </c>
+      <c r="C118" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>640</v>
+      </c>
+      <c r="B119" t="s">
+        <v>493</v>
+      </c>
+      <c r="C119" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>640</v>
+      </c>
+      <c r="B120" t="s">
+        <v>495</v>
+      </c>
+      <c r="C120" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>640</v>
+      </c>
+      <c r="B121" t="s">
+        <v>665</v>
+      </c>
+      <c r="C121" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>640</v>
+      </c>
+      <c r="B122" t="s">
+        <v>666</v>
+      </c>
+      <c r="C122" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>640</v>
+      </c>
+      <c r="B123" t="s">
+        <v>667</v>
+      </c>
+      <c r="C123" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>640</v>
+      </c>
+      <c r="B124" t="s">
+        <v>668</v>
+      </c>
+      <c r="C124" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>640</v>
+      </c>
+      <c r="B125" t="s">
+        <v>669</v>
+      </c>
+      <c r="C125" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>640</v>
+      </c>
+      <c r="B126" t="s">
+        <v>671</v>
+      </c>
+      <c r="C126" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>640</v>
+      </c>
+      <c r="B127" t="s">
+        <v>673</v>
+      </c>
+      <c r="C127" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>640</v>
+      </c>
+      <c r="B128" t="s">
+        <v>675</v>
+      </c>
+      <c r="C128" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>640</v>
+      </c>
+      <c r="B129" t="s">
+        <v>677</v>
+      </c>
+      <c r="C129" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>640</v>
+      </c>
+      <c r="B130" t="s">
+        <v>679</v>
+      </c>
+      <c r="C130" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>640</v>
+      </c>
+      <c r="B131" t="s">
+        <v>719</v>
+      </c>
+      <c r="C131" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>640</v>
+      </c>
+      <c r="B132" t="s">
+        <v>681</v>
+      </c>
+      <c r="C132" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>640</v>
+      </c>
+      <c r="B133" t="s">
+        <v>683</v>
+      </c>
+      <c r="C133" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>640</v>
+      </c>
+      <c r="B134" t="s">
+        <v>685</v>
+      </c>
+      <c r="C134" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>640</v>
+      </c>
+      <c r="B135" t="s">
+        <v>687</v>
+      </c>
+      <c r="C135" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>640</v>
+      </c>
+      <c r="B136" t="s">
+        <v>688</v>
+      </c>
+      <c r="C136" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>640</v>
+      </c>
+      <c r="B137" t="s">
+        <v>690</v>
+      </c>
+      <c r="C137" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>640</v>
+      </c>
+      <c r="B138" t="s">
+        <v>692</v>
+      </c>
+      <c r="C138" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>640</v>
+      </c>
+      <c r="B139" t="s">
+        <v>694</v>
+      </c>
+      <c r="C139" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>640</v>
+      </c>
+      <c r="B140" t="s">
+        <v>720</v>
+      </c>
+      <c r="C140" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>640</v>
+      </c>
+      <c r="B141" t="s">
+        <v>699</v>
+      </c>
+      <c r="C141" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>640</v>
+      </c>
+      <c r="B142" t="s">
+        <v>697</v>
+      </c>
+      <c r="C142" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>640</v>
+      </c>
+      <c r="B143" t="s">
         <v>722</v>
       </c>
-      <c r="C105" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" t="s">
-        <v>619</v>
-      </c>
-      <c r="B106" t="s">
+      <c r="C143" t="s">
         <v>723</v>
       </c>
-      <c r="C106" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" t="s">
-        <v>619</v>
-      </c>
-      <c r="B107" t="s">
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>640</v>
+      </c>
+      <c r="B144" t="s">
         <v>724</v>
       </c>
-      <c r="C107" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" t="s">
-        <v>619</v>
-      </c>
-      <c r="B108" t="s">
+      <c r="C144" t="s">
         <v>725</v>
       </c>
-      <c r="C108" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" t="s">
-        <v>619</v>
-      </c>
-      <c r="B109" t="s">
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>640</v>
+      </c>
+      <c r="B145" t="s">
         <v>726</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C145" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
-      <c r="A110" t="s">
-        <v>619</v>
-      </c>
-      <c r="B110" t="s">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>640</v>
+      </c>
+      <c r="B146" t="s">
         <v>727</v>
       </c>
-      <c r="C110" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" t="s">
-        <v>619</v>
-      </c>
-      <c r="B111" t="s">
+      <c r="C146" t="s">
         <v>728</v>
       </c>
-      <c r="C111" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" t="s">
-        <v>619</v>
-      </c>
-      <c r="B112" t="s">
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>640</v>
+      </c>
+      <c r="B147" t="s">
         <v>729</v>
       </c>
-      <c r="C112" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" t="s">
-        <v>619</v>
-      </c>
-      <c r="B113" t="s">
+      <c r="C147" t="s">
         <v>730</v>
-      </c>
-      <c r="C113" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" t="s">
-        <v>619</v>
-      </c>
-      <c r="B114" t="s">
-        <v>731</v>
-      </c>
-      <c r="C114" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" t="s">
-        <v>619</v>
-      </c>
-      <c r="B115" t="s">
-        <v>732</v>
-      </c>
-      <c r="C115" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" t="s">
-        <v>619</v>
-      </c>
-      <c r="B116" t="s">
-        <v>733</v>
-      </c>
-      <c r="C116" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" t="s">
-        <v>619</v>
-      </c>
-      <c r="B117" t="s">
-        <v>734</v>
-      </c>
-      <c r="C117" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" t="s">
-        <v>619</v>
-      </c>
-      <c r="B118" t="s">
-        <v>818</v>
-      </c>
-      <c r="C118" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" t="s">
-        <v>619</v>
-      </c>
-      <c r="B119" t="s">
-        <v>763</v>
-      </c>
-      <c r="C119" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" t="s">
-        <v>619</v>
-      </c>
-      <c r="B120" t="s">
-        <v>765</v>
-      </c>
-      <c r="C120" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" t="s">
-        <v>619</v>
-      </c>
-      <c r="B121" t="s">
-        <v>767</v>
-      </c>
-      <c r="C121" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" t="s">
-        <v>619</v>
-      </c>
-      <c r="B122" t="s">
-        <v>769</v>
-      </c>
-      <c r="C122" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" t="s">
-        <v>619</v>
-      </c>
-      <c r="B123" t="s">
-        <v>772</v>
-      </c>
-      <c r="C123" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" t="s">
-        <v>619</v>
-      </c>
-      <c r="B124" t="s">
-        <v>726</v>
-      </c>
-      <c r="C124" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" t="s">
-        <v>619</v>
-      </c>
-      <c r="B125" t="s">
-        <v>774</v>
-      </c>
-      <c r="C125" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" t="s">
-        <v>619</v>
-      </c>
-      <c r="B126" t="s">
-        <v>776</v>
-      </c>
-      <c r="C126" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" t="s">
-        <v>619</v>
-      </c>
-      <c r="B127" t="s">
-        <v>778</v>
-      </c>
-      <c r="C127" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" t="s">
-        <v>619</v>
-      </c>
-      <c r="B128" t="s">
-        <v>780</v>
-      </c>
-      <c r="C128" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" t="s">
-        <v>619</v>
-      </c>
-      <c r="B129" t="s">
-        <v>782</v>
-      </c>
-      <c r="C129" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" t="s">
-        <v>619</v>
-      </c>
-      <c r="B130" t="s">
-        <v>784</v>
-      </c>
-      <c r="C130" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" t="s">
-        <v>619</v>
-      </c>
-      <c r="B131" t="s">
-        <v>786</v>
-      </c>
-      <c r="C131" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" t="s">
-        <v>619</v>
-      </c>
-      <c r="B132" t="s">
-        <v>788</v>
-      </c>
-      <c r="C132" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" t="s">
-        <v>619</v>
-      </c>
-      <c r="B133" t="s">
-        <v>821</v>
-      </c>
-      <c r="C133" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" t="s">
-        <v>619</v>
-      </c>
-      <c r="B134" t="s">
-        <v>790</v>
-      </c>
-      <c r="C134" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" t="s">
-        <v>619</v>
-      </c>
-      <c r="B135" t="s">
-        <v>792</v>
-      </c>
-      <c r="C135" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" t="s">
-        <v>619</v>
-      </c>
-      <c r="B136" t="s">
-        <v>794</v>
-      </c>
-      <c r="C136" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" t="s">
-        <v>619</v>
-      </c>
-      <c r="B137" t="s">
-        <v>796</v>
-      </c>
-      <c r="C137" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" t="s">
-        <v>619</v>
-      </c>
-      <c r="B138" t="s">
-        <v>798</v>
-      </c>
-      <c r="C138" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" t="s">
-        <v>619</v>
-      </c>
-      <c r="B139" t="s">
-        <v>800</v>
-      </c>
-      <c r="C139" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" t="s">
-        <v>619</v>
-      </c>
-      <c r="B140" t="s">
-        <v>802</v>
-      </c>
-      <c r="C140" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" t="s">
-        <v>619</v>
-      </c>
-      <c r="B141" t="s">
-        <v>804</v>
-      </c>
-      <c r="C141" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" t="s">
-        <v>619</v>
-      </c>
-      <c r="B142" t="s">
-        <v>806</v>
-      </c>
-      <c r="C142" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" t="s">
-        <v>619</v>
-      </c>
-      <c r="B143" t="s">
-        <v>812</v>
-      </c>
-      <c r="C143" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" t="s">
-        <v>619</v>
-      </c>
-      <c r="B144" t="s">
-        <v>809</v>
-      </c>
-      <c r="C144" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
-      <c r="A145" t="s">
-        <v>619</v>
-      </c>
-      <c r="B145" t="s">
-        <v>808</v>
-      </c>
-      <c r="C145" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
-      <c r="A146" t="s">
-        <v>619</v>
-      </c>
-      <c r="B146" t="s">
-        <v>814</v>
-      </c>
-      <c r="C146" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7">
-      <c r="A147" t="s">
-        <v>619</v>
-      </c>
-      <c r="B147" t="s">
-        <v>816</v>
-      </c>
-      <c r="C147" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7">
-      <c r="A148" t="s">
-        <v>619</v>
-      </c>
-      <c r="B148" t="s">
-        <v>822</v>
-      </c>
-      <c r="C148" t="s">
-        <v>823</v>
-      </c>
-      <c r="F148" s="8"/>
-    </row>
-    <row r="149" spans="1:7">
-      <c r="A149" t="s">
-        <v>619</v>
-      </c>
-      <c r="B149" t="s">
-        <v>737</v>
-      </c>
-      <c r="C149" t="s">
-        <v>738</v>
-      </c>
-      <c r="F149" s="8"/>
-      <c r="G149" s="8"/>
-    </row>
-    <row r="150" spans="1:7">
-      <c r="A150" t="s">
-        <v>619</v>
-      </c>
-      <c r="B150" t="s">
-        <v>740</v>
-      </c>
-      <c r="C150" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7">
-      <c r="A151" t="s">
-        <v>619</v>
-      </c>
-      <c r="B151" t="s">
-        <v>827</v>
-      </c>
-      <c r="C151" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7">
-      <c r="A152" t="s">
-        <v>619</v>
-      </c>
-      <c r="B152" t="s">
-        <v>758</v>
-      </c>
-      <c r="C152" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7">
-      <c r="A153" t="s">
-        <v>619</v>
-      </c>
-      <c r="B153" t="s">
-        <v>737</v>
-      </c>
-      <c r="C153" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7">
-      <c r="A154" t="s">
-        <v>619</v>
-      </c>
-      <c r="B154" t="s">
-        <v>824</v>
-      </c>
-      <c r="C154" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7">
-      <c r="A155" t="s">
-        <v>619</v>
-      </c>
-      <c r="B155" t="s">
-        <v>828</v>
-      </c>
-      <c r="C155" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7">
-      <c r="A156" t="s">
-        <v>619</v>
-      </c>
-      <c r="B156" t="s">
-        <v>830</v>
-      </c>
-      <c r="C156" t="s">
-        <v>831</v>
-      </c>
-      <c r="E156" s="8"/>
-    </row>
-    <row r="157" spans="1:7">
-      <c r="A157" t="s">
-        <v>619</v>
-      </c>
-      <c r="B157" t="s">
-        <v>845</v>
-      </c>
-      <c r="C157" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7">
-      <c r="A158" t="s">
-        <v>619</v>
-      </c>
-      <c r="B158" t="s">
-        <v>848</v>
-      </c>
-      <c r="C158" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7">
-      <c r="A159" t="s">
-        <v>645</v>
-      </c>
-      <c r="B159" t="s">
-        <v>646</v>
-      </c>
-      <c r="C159" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7">
-      <c r="A160" t="s">
-        <v>645</v>
-      </c>
-      <c r="B160" t="s">
-        <v>648</v>
-      </c>
-      <c r="C160" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="A161" t="s">
-        <v>645</v>
-      </c>
-      <c r="B161" t="s">
-        <v>650</v>
-      </c>
-      <c r="C161" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162" t="s">
-        <v>645</v>
-      </c>
-      <c r="B162" t="s">
-        <v>652</v>
-      </c>
-      <c r="C162" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163" t="s">
-        <v>645</v>
-      </c>
-      <c r="B163" t="s">
-        <v>654</v>
-      </c>
-      <c r="C163" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
-      <c r="A164" t="s">
-        <v>645</v>
-      </c>
-      <c r="B164" t="s">
-        <v>654</v>
-      </c>
-      <c r="C164" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165" t="s">
-        <v>645</v>
-      </c>
-      <c r="B165" t="s">
-        <v>654</v>
-      </c>
-      <c r="C165" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="A166" t="s">
-        <v>645</v>
-      </c>
-      <c r="B166" t="s">
-        <v>654</v>
-      </c>
-      <c r="C166" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="A167" t="s">
-        <v>645</v>
-      </c>
-      <c r="B167" t="s">
-        <v>656</v>
-      </c>
-      <c r="C167" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="A168" t="s">
-        <v>645</v>
-      </c>
-      <c r="B168" t="s">
-        <v>657</v>
-      </c>
-      <c r="C168" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="A169" t="s">
-        <v>645</v>
-      </c>
-      <c r="B169" t="s">
-        <v>658</v>
-      </c>
-      <c r="C169" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="A170" t="s">
-        <v>645</v>
-      </c>
-      <c r="B170" t="s">
-        <v>659</v>
-      </c>
-      <c r="C170" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
-      <c r="A171" t="s">
-        <v>645</v>
-      </c>
-      <c r="B171" t="s">
-        <v>660</v>
-      </c>
-      <c r="C171" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
-      <c r="A172" t="s">
-        <v>645</v>
-      </c>
-      <c r="B172" t="s">
-        <v>662</v>
-      </c>
-      <c r="C172" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
-      <c r="A173" t="s">
-        <v>645</v>
-      </c>
-      <c r="B173" t="s">
-        <v>663</v>
-      </c>
-      <c r="C173" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
-      <c r="A174" t="s">
-        <v>645</v>
-      </c>
-      <c r="B174" t="s">
-        <v>664</v>
-      </c>
-      <c r="C174" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
-      <c r="A175" t="s">
-        <v>645</v>
-      </c>
-      <c r="B175" t="s">
-        <v>665</v>
-      </c>
-      <c r="C175" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
-      <c r="A176" t="s">
-        <v>645</v>
-      </c>
-      <c r="B176" t="s">
-        <v>667</v>
-      </c>
-      <c r="C176" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
-      <c r="A177" t="s">
-        <v>645</v>
-      </c>
-      <c r="B177" t="s">
-        <v>668</v>
-      </c>
-      <c r="C177" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
-      <c r="A178" t="s">
-        <v>645</v>
-      </c>
-      <c r="B178" t="s">
-        <v>669</v>
-      </c>
-      <c r="C178" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="A179" t="s">
-        <v>645</v>
-      </c>
-      <c r="B179" t="s">
-        <v>493</v>
-      </c>
-      <c r="C179" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
-      <c r="A180" t="s">
-        <v>645</v>
-      </c>
-      <c r="B180" t="s">
-        <v>495</v>
-      </c>
-      <c r="C180" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
-      <c r="A181" t="s">
-        <v>645</v>
-      </c>
-      <c r="B181" t="s">
-        <v>670</v>
-      </c>
-      <c r="C181" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
-      <c r="A182" t="s">
-        <v>645</v>
-      </c>
-      <c r="B182" t="s">
-        <v>671</v>
-      </c>
-      <c r="C182" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="A183" t="s">
-        <v>645</v>
-      </c>
-      <c r="B183" t="s">
-        <v>672</v>
-      </c>
-      <c r="C183" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
-      <c r="A184" t="s">
-        <v>645</v>
-      </c>
-      <c r="B184" t="s">
-        <v>673</v>
-      </c>
-      <c r="C184" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="A185" t="s">
-        <v>645</v>
-      </c>
-      <c r="B185" t="s">
-        <v>674</v>
-      </c>
-      <c r="C185" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
-      <c r="A186" t="s">
-        <v>645</v>
-      </c>
-      <c r="B186" t="s">
-        <v>676</v>
-      </c>
-      <c r="C186" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
-      <c r="A187" t="s">
-        <v>645</v>
-      </c>
-      <c r="B187" t="s">
-        <v>678</v>
-      </c>
-      <c r="C187" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
-      <c r="A188" t="s">
-        <v>645</v>
-      </c>
-      <c r="B188" t="s">
-        <v>680</v>
-      </c>
-      <c r="C188" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
-      <c r="A189" t="s">
-        <v>645</v>
-      </c>
-      <c r="B189" t="s">
-        <v>682</v>
-      </c>
-      <c r="C189" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
-      <c r="A190" t="s">
-        <v>645</v>
-      </c>
-      <c r="B190" t="s">
-        <v>684</v>
-      </c>
-      <c r="C190" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
-      <c r="A191" t="s">
-        <v>645</v>
-      </c>
-      <c r="B191" t="s">
-        <v>832</v>
-      </c>
-      <c r="C191" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
-      <c r="A192" t="s">
-        <v>645</v>
-      </c>
-      <c r="B192" t="s">
-        <v>686</v>
-      </c>
-      <c r="C192" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
-      <c r="A193" t="s">
-        <v>645</v>
-      </c>
-      <c r="B193" t="s">
-        <v>688</v>
-      </c>
-      <c r="C193" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
-      <c r="A194" t="s">
-        <v>645</v>
-      </c>
-      <c r="B194" t="s">
-        <v>690</v>
-      </c>
-      <c r="C194" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
-      <c r="A195" t="s">
-        <v>645</v>
-      </c>
-      <c r="B195" t="s">
-        <v>692</v>
-      </c>
-      <c r="C195" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="A196" t="s">
-        <v>645</v>
-      </c>
-      <c r="B196" t="s">
-        <v>693</v>
-      </c>
-      <c r="C196" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="A197" t="s">
-        <v>645</v>
-      </c>
-      <c r="B197" t="s">
-        <v>695</v>
-      </c>
-      <c r="C197" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
-      <c r="A198" t="s">
-        <v>645</v>
-      </c>
-      <c r="B198" t="s">
-        <v>697</v>
-      </c>
-      <c r="C198" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
-      <c r="A199" t="s">
-        <v>645</v>
-      </c>
-      <c r="B199" t="s">
-        <v>699</v>
-      </c>
-      <c r="C199" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
-      <c r="A200" t="s">
-        <v>645</v>
-      </c>
-      <c r="B200" t="s">
-        <v>833</v>
-      </c>
-      <c r="C200" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
-      <c r="A201" t="s">
-        <v>645</v>
-      </c>
-      <c r="B201" t="s">
-        <v>704</v>
-      </c>
-      <c r="C201" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
-      <c r="A202" t="s">
-        <v>645</v>
-      </c>
-      <c r="B202" t="s">
-        <v>702</v>
-      </c>
-      <c r="C202" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
-      <c r="A203" t="s">
-        <v>645</v>
-      </c>
-      <c r="B203" t="s">
-        <v>835</v>
-      </c>
-      <c r="C203" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
-      <c r="A204" t="s">
-        <v>645</v>
-      </c>
-      <c r="B204" t="s">
-        <v>837</v>
-      </c>
-      <c r="C204" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
-      <c r="A205" t="s">
-        <v>645</v>
-      </c>
-      <c r="B205" t="s">
-        <v>839</v>
-      </c>
-      <c r="C205" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
-      <c r="A206" t="s">
-        <v>645</v>
-      </c>
-      <c r="B206" t="s">
-        <v>840</v>
-      </c>
-      <c r="C206" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
-      <c r="A207" t="s">
-        <v>645</v>
-      </c>
-      <c r="B207" t="s">
-        <v>842</v>
-      </c>
-      <c r="C207" t="s">
-        <v>843</v>
       </c>
     </row>
   </sheetData>

--- a/backend/v1.0/tools/DB_Mapping.xlsx
+++ b/backend/v1.0/tools/DB_Mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconet-my.sharepoint.com/personal/sarango_uco_edu_co/Documents/Documents/GitHub/backend/v1.0/tools/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Betan\Documents\GitHub\backend\v1.0\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{518FBB7B-B3CB-4846-B4AA-07274488E2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A71C8B46-4D5F-4EAA-9269-7518ED135069}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584F5B37-436D-492A-B423-D4911C999F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConexionDB" sheetId="4" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="690">
   <si>
     <t xml:space="preserve">0x0002 </t>
   </si>
@@ -1472,54 +1472,27 @@
     <t>4pJB_298afu0WKjKBtPESjnUxvpJV0PODWBNMGzeeU_ahg1P4H3Bg5KOfwI2A9LXm2BQwaQR_un792HXy3bsvg==</t>
   </si>
   <si>
-    <t>Device</t>
-  </si>
-  <si>
-    <t>Tag</t>
-  </si>
-  <si>
     <t>Módulo de turbinas</t>
   </si>
   <si>
-    <t xml:space="preserve">Nivel Bajo de agua en tanque </t>
-  </si>
-  <si>
     <t>LEL001</t>
   </si>
   <si>
-    <t xml:space="preserve">Nivel Alto de agua en tanque </t>
-  </si>
-  <si>
     <t>LEH001</t>
   </si>
   <si>
-    <t>Temperatura tanque 300L</t>
-  </si>
-  <si>
     <t>TE001</t>
   </si>
   <si>
-    <t>Temperatura tanque 12L</t>
-  </si>
-  <si>
     <t>TE002</t>
   </si>
   <si>
-    <t>Flujo de agua</t>
-  </si>
-  <si>
     <t>FIT001</t>
   </si>
   <si>
-    <t>Presión a la entrada de las turbinas</t>
-  </si>
-  <si>
     <t>PT001</t>
   </si>
   <si>
-    <t>Presión a la salida de las turbinas</t>
-  </si>
-  <si>
     <t>PT002</t>
   </si>
   <si>
@@ -1550,87 +1523,45 @@
     <t>TE003</t>
   </si>
   <si>
-    <t>Energía generada por turbinas (kWh) (controladores de carga )</t>
-  </si>
-  <si>
     <t>EG001</t>
   </si>
   <si>
-    <t>Voltaje AC a la salida del inversor (inversor o analizador)</t>
-  </si>
-  <si>
     <t>VAC001</t>
   </si>
   <si>
-    <t>Corriente a la salida del inversor (inversor o analizador)</t>
-  </si>
-  <si>
     <t>IAC001</t>
   </si>
   <si>
-    <t>Potencia aparente (analizador)</t>
-  </si>
-  <si>
     <t>PKVA001</t>
   </si>
   <si>
-    <t>Potencia Reactiva (analizador)</t>
-  </si>
-  <si>
     <t>PKVAR001</t>
   </si>
   <si>
-    <t>Factor de Potencia (analizador)</t>
-  </si>
-  <si>
     <t>FP001</t>
   </si>
   <si>
-    <t>Potencia activa (analizador)</t>
-  </si>
-  <si>
     <t>PKW001</t>
   </si>
   <si>
-    <t>Estado de la disipación</t>
-  </si>
-  <si>
     <t>ED001</t>
   </si>
   <si>
-    <t>Voltaje bulk</t>
-  </si>
-  <si>
     <t>VBU001</t>
   </si>
   <si>
-    <t>Voltaje float</t>
-  </si>
-  <si>
     <t>VFL001</t>
   </si>
   <si>
-    <t>Voltaje de carga</t>
-  </si>
-  <si>
     <t>VCH001</t>
   </si>
   <si>
-    <t>Voltaje de activación de la disipación</t>
-  </si>
-  <si>
     <t>VDN001</t>
   </si>
   <si>
-    <t>Voltaje de desactivación de la disipación</t>
-  </si>
-  <si>
     <t>VDF001</t>
   </si>
   <si>
-    <t>Estado del inversor</t>
-  </si>
-  <si>
     <t>EI001</t>
   </si>
   <si>
@@ -1643,633 +1574,456 @@
     <t>QM7Xx79NnvECxQt3j3t-js3QSDVpwGaUibCfmO5ECe-4UYGmgQgoESvYSQ-PctdoksZ0aNZe6-S4Y9QOkc4-bQ==</t>
   </si>
   <si>
-    <t>Planta Biogas</t>
-  </si>
-  <si>
-    <t>Caudal bomba P-104</t>
-  </si>
-  <si>
     <t>SE-104</t>
   </si>
   <si>
-    <t>Temperatura 1 Reactor 1</t>
-  </si>
-  <si>
     <t>TE-101A</t>
   </si>
   <si>
-    <t>Temperatura 2 Reactor 1</t>
-  </si>
-  <si>
     <t>TE-101B</t>
   </si>
   <si>
-    <t>Ph reactor 1</t>
-  </si>
-  <si>
     <t>AT-101</t>
   </si>
   <si>
-    <t>Concentración CH4 V-101</t>
-  </si>
-  <si>
     <t>AT-103A1</t>
   </si>
   <si>
-    <t>Concentracion CO2 V-101</t>
-  </si>
-  <si>
     <t>AT-103A2</t>
   </si>
   <si>
-    <t>Concentración H2S V-101</t>
-  </si>
-  <si>
     <t>AT-103A3</t>
   </si>
   <si>
-    <t>Concentración O2 V-101</t>
-  </si>
-  <si>
     <t>AT-103A4</t>
   </si>
   <si>
-    <t>Concentracion H2 V-101</t>
-  </si>
-  <si>
     <t>AT-103A5</t>
   </si>
   <si>
-    <t>Humedad relativa biogás V-101</t>
-  </si>
-  <si>
     <t>AT-103B</t>
   </si>
   <si>
-    <t>Sólidos totales sustrato</t>
-  </si>
-  <si>
     <t>M-ST</t>
   </si>
   <si>
-    <t>Sólidos volátiles del sustrato</t>
-  </si>
-  <si>
     <t>M-SV</t>
   </si>
   <si>
-    <t>Concentración de carbono átomico en base seca</t>
-  </si>
-  <si>
     <t>M-Cc</t>
   </si>
   <si>
-    <t>Conentración de hidrógeno átomico en base seca</t>
-  </si>
-  <si>
     <t>M-Ch</t>
   </si>
   <si>
-    <t>Concentración de oxígeno átomico en base seca</t>
-  </si>
-  <si>
     <t>M-Co</t>
   </si>
   <si>
-    <t>Concentración de nitrógeno atómico en base seca</t>
-  </si>
-  <si>
     <t>M-Cn</t>
   </si>
   <si>
-    <t>Concentración de azufre atómico en base seca</t>
-  </si>
-  <si>
     <t>M-Cs</t>
   </si>
   <si>
-    <t>Densidad del sustrato</t>
-  </si>
-  <si>
     <t>M-d</t>
   </si>
   <si>
-    <t>Presión de biogás en Reactor 1</t>
-  </si>
-  <si>
     <t>PT-101</t>
   </si>
   <si>
-    <t>Presión de biogás en V-101</t>
-  </si>
-  <si>
     <t>PT-103</t>
   </si>
   <si>
-    <t>Temperatura de biogás en V-101</t>
-  </si>
-  <si>
     <t>TT-103</t>
   </si>
   <si>
-    <t>Velocidad agitación Reactor 1</t>
-  </si>
-  <si>
     <t>SE-108</t>
   </si>
   <si>
-    <t>Caudal bomba P-101</t>
-  </si>
-  <si>
     <t>SE-101</t>
   </si>
   <si>
-    <t>Temperatura 1 Reactor 2</t>
-  </si>
-  <si>
     <t>TE-102A</t>
   </si>
   <si>
-    <t>Temperatura 2 Reactor 2</t>
-  </si>
-  <si>
     <t>TE-102B</t>
   </si>
   <si>
-    <t>Ph reactor 2</t>
-  </si>
-  <si>
     <t>AT-102</t>
   </si>
   <si>
-    <t>Concentración CH4 V-102</t>
-  </si>
-  <si>
     <t>AT-104A1</t>
   </si>
   <si>
-    <t>Concentracion CO2 V-102</t>
-  </si>
-  <si>
     <t>AT-104A2</t>
   </si>
   <si>
-    <t>Concentración H2S V-102</t>
-  </si>
-  <si>
     <t>AT-104A3</t>
   </si>
   <si>
-    <t>Concentración O2 V-102</t>
-  </si>
-  <si>
     <t>AT-104A4</t>
   </si>
   <si>
-    <t>Concentracion H2 V-102</t>
-  </si>
-  <si>
     <t>AT-104A5</t>
   </si>
   <si>
-    <t>Humedad relativa biogás V-102</t>
-  </si>
-  <si>
     <t>AT-104B</t>
   </si>
   <si>
-    <t>Presión biogás en Reactor 2</t>
-  </si>
-  <si>
     <t>PT-102</t>
   </si>
   <si>
-    <t>Presión biogás en V-102</t>
-  </si>
-  <si>
     <t>PT-104</t>
   </si>
   <si>
-    <t>Velocidad agitación Reactor 2</t>
-  </si>
-  <si>
     <t>SE-109</t>
   </si>
   <si>
-    <t>Caudal bomba P-102</t>
-  </si>
-  <si>
     <t>SE-102</t>
   </si>
   <si>
-    <t>Temperatura en V-107</t>
-  </si>
-  <si>
     <t>TT-105</t>
   </si>
   <si>
-    <t>Presión en V-107</t>
-  </si>
-  <si>
     <t>PT-105</t>
   </si>
   <si>
-    <t>Concentración CH4 V-107</t>
-  </si>
-  <si>
     <t>AT-105A1</t>
   </si>
   <si>
-    <t>Concentracion CO2 V-107</t>
-  </si>
-  <si>
     <t>AT-105A2</t>
   </si>
   <si>
-    <t>Concentración H2S V-107</t>
-  </si>
-  <si>
     <t>AT-105A3</t>
   </si>
   <si>
-    <t>Concentración O2 V-107</t>
-  </si>
-  <si>
     <t>AT-105A4</t>
   </si>
   <si>
-    <t>Concentracion H2 V-107</t>
-  </si>
-  <si>
     <t>AT-105A5</t>
   </si>
   <si>
-    <t>Humedad relativa biogás V-107</t>
-  </si>
-  <si>
     <t>AT-105B</t>
   </si>
   <si>
-    <t>Tiempo de retención Hidáulico</t>
-  </si>
-  <si>
     <t>M-TRH</t>
   </si>
   <si>
-    <t>Numero de alimentaciones diarias P-104</t>
-  </si>
-  <si>
     <t>M-FT-P-104</t>
   </si>
   <si>
-    <t>Tiempo de encendido de la bomba P-104</t>
-  </si>
-  <si>
     <t>M-TTO-P-104</t>
   </si>
   <si>
-    <t>Numero de alimentaciones diarias P-101</t>
-  </si>
-  <si>
     <t>M-FT-P-101</t>
   </si>
   <si>
+    <t>SE-104v</t>
+  </si>
+  <si>
+    <t>TE-101v</t>
+  </si>
+  <si>
     <t>UCO</t>
   </si>
   <si>
-    <t>Tiempo de encendido de la bomba P-101</t>
-  </si>
-  <si>
     <t>M-TTO-P-101</t>
   </si>
   <si>
-    <t>Caudal de bomba P-101 (Set-Point)</t>
-  </si>
-  <si>
     <t>M-Q-P-101</t>
   </si>
   <si>
-    <t>Caudal de bomba P-101</t>
-  </si>
-  <si>
-    <t>Numero de alimentaciones diarias P-102</t>
-  </si>
-  <si>
     <t>M-FT-P-102</t>
   </si>
   <si>
-    <t>Tiempo de encendido de la bomba P-102</t>
-  </si>
-  <si>
     <t>M-TTO-P-102</t>
   </si>
   <si>
-    <t>Caudal de bomba P-102 (set-Point)</t>
-  </si>
-  <si>
-    <t>Nivel reactor 1 R-101</t>
-  </si>
-  <si>
     <t>LT-101</t>
   </si>
   <si>
-    <t>Nivel reactor 2 R -102</t>
-  </si>
-  <si>
     <t>LT-102</t>
   </si>
   <si>
-    <t>Estado Válvula tanque de biogás 1</t>
-  </si>
-  <si>
     <t>SV-103</t>
   </si>
   <si>
-    <t>Estado Válvula tanque de biogás 2</t>
-  </si>
-  <si>
     <t>SV-108</t>
   </si>
   <si>
-    <t>Estado Válvula tanque de biogás 3</t>
-  </si>
-  <si>
     <t>SV-109</t>
   </si>
   <si>
     <t>Módulo solar-eólico</t>
   </si>
   <si>
-    <t>Radiación paneles solares 1 (pv)</t>
-  </si>
-  <si>
     <t>RS001</t>
   </si>
   <si>
-    <t>Radiación paneles solares 2 (pv)</t>
-  </si>
-  <si>
     <t>RS002</t>
   </si>
   <si>
-    <t>Velocidad de viento aerogenerador (fan)</t>
-  </si>
-  <si>
     <t>VV001</t>
   </si>
   <si>
-    <t>RPMs aerogenerador (fan)</t>
-  </si>
-  <si>
     <t>RPM001</t>
   </si>
   <si>
-    <t>Temperatura para los 4 Paneles (pv)</t>
-  </si>
-  <si>
     <t>TE004</t>
   </si>
   <si>
-    <t>Voltaje Paneles solares (pv)  (Controlador)</t>
-  </si>
-  <si>
-    <t>Corriente paneles  (pv) (Controlador)</t>
-  </si>
-  <si>
-    <t>Potencia paneles (pv) (Controlador)</t>
-  </si>
-  <si>
-    <t>Voltaje aerogenerador (fan) (Controlador)</t>
-  </si>
-  <si>
-    <t>Corriente Aerogenerador (fan) (Controlador)</t>
-  </si>
-  <si>
     <t>IG005</t>
   </si>
   <si>
-    <t>Potencia aerogenerador (fan)(Controlador)</t>
-  </si>
-  <si>
-    <t>Voltaje de las baterías (Controlador)</t>
-  </si>
-  <si>
-    <t>Energía generada por paneles (kWh) (pv) (Controlador)</t>
-  </si>
-  <si>
-    <t>Energía generada por aerogenerador (kWh)(fan) (Controlador)</t>
-  </si>
-  <si>
     <t>EG002</t>
   </si>
   <si>
-    <t>Voltaje bulk controlador de carga</t>
-  </si>
-  <si>
-    <t>Voltaje float controlador de carga</t>
-  </si>
-  <si>
-    <t>Voltaje de carga controlador de carga</t>
-  </si>
-  <si>
-    <t>Potencia aparente salida del inversor (inversor o analizador)</t>
-  </si>
-  <si>
-    <t>Potencia Reactiva salida del inversor (analizador)</t>
-  </si>
-  <si>
-    <t>Factor de Potencia salida del inversor (analizador)</t>
-  </si>
-  <si>
-    <t>Potencia activa salida del inversor (analizador)</t>
-  </si>
-  <si>
-    <t>Voltaje AC a la salida del inversor hibrido (inversor o analizador)</t>
-  </si>
-  <si>
     <t>VAC002</t>
   </si>
   <si>
-    <t>Corriente a la salida del inversor hibrido (inversor o analizador)</t>
-  </si>
-  <si>
     <t>IAC002</t>
   </si>
   <si>
-    <t>Potencia aparente salida del inversor hibrido (inversor o analizador)</t>
-  </si>
-  <si>
     <t>PKVA002</t>
   </si>
   <si>
-    <t>Potencia Reactiva salida del inversor hibrido (analizador)</t>
-  </si>
-  <si>
     <t>PKVAR002</t>
   </si>
   <si>
-    <t>Factor de Potencia salida del inversor hibrido (analizador)</t>
-  </si>
-  <si>
     <t>FP002</t>
   </si>
   <si>
-    <t>Potencia activa salida del inversor hibrido (analizador)</t>
-  </si>
-  <si>
     <t>PKW002</t>
   </si>
   <si>
-    <t>Voltaje bulk inversor hibrido</t>
-  </si>
-  <si>
     <t>VBU002</t>
   </si>
   <si>
-    <t>Voltaje float inversor hibrido</t>
-  </si>
-  <si>
     <t>VFL002</t>
   </si>
   <si>
-    <t>Voltaje de carga inversor hibrido</t>
-  </si>
-  <si>
     <t>VCH002</t>
   </si>
   <si>
-    <t>Estado del inversor aislado</t>
-  </si>
-  <si>
-    <t>Estado de la red inversor hibrido</t>
-  </si>
-  <si>
     <t>ER001</t>
   </si>
   <si>
-    <t>Potencia de la carga DC del controlador (Controlador)</t>
-  </si>
-  <si>
     <t>PDC001</t>
   </si>
   <si>
-    <t>Voltaje de la carga DC del controlador (Controlador)</t>
-  </si>
-  <si>
     <t>VDC001</t>
   </si>
   <si>
-    <t>Temperatura de baterías (Controlador)</t>
-  </si>
-  <si>
     <t>TB001</t>
   </si>
   <si>
     <t>PB001</t>
   </si>
   <si>
-    <t>Voltaje de la red externa del inversor híbrido (inversor o analizador)</t>
-  </si>
-  <si>
     <t>VGR001</t>
   </si>
   <si>
-    <t>Potencia DC de salida hacia las baterías (Controlador)</t>
-  </si>
-  <si>
-    <t>Voltaje generada por turbina Pelton (Controlador Pelton)</t>
-  </si>
-  <si>
-    <t>Voltaje generado por turbina Turgo (Controlador Turgo)</t>
-  </si>
-  <si>
-    <t>Corriente generada por turbina Pelton (Controlador Turgo)</t>
-  </si>
-  <si>
-    <t>Corriente generada por turbina Turgo (Controlador Turgo)</t>
-  </si>
-  <si>
-    <t>Potencia generada por turbina Pelton (Controlador Pelton)</t>
-  </si>
-  <si>
-    <t>Potencia generada por turbina Turgo (Controlador Turgo)</t>
-  </si>
-  <si>
-    <t>Voltaje de las baterías (Controlador Pelton)</t>
-  </si>
-  <si>
-    <t>Corriente de carga (Controlador Pelton)</t>
-  </si>
-  <si>
-    <t>Potencia de las baterías (Controlador Pelton)</t>
-  </si>
-  <si>
-    <t>Temperatura Baterías (Controlador Pelton)</t>
-  </si>
-  <si>
-    <t>Voltaje de las baterías (Controlador Turgo)</t>
+    <t>SE-101v</t>
+  </si>
+  <si>
+    <t>SE-102v</t>
+  </si>
+  <si>
+    <t>M-VGA_V101</t>
+  </si>
+  <si>
+    <t>M-PA_CH4_V101</t>
+  </si>
+  <si>
+    <t>M-PA_CO2_V101</t>
+  </si>
+  <si>
+    <t>M-PA_H2S_V101</t>
+  </si>
+  <si>
+    <t>M-PA_O2_V101</t>
+  </si>
+  <si>
+    <t>M-PA_H2_V101</t>
+  </si>
+  <si>
+    <t>M-molA_CH4_V101</t>
+  </si>
+  <si>
+    <t>M-molA_CO2_V101</t>
+  </si>
+  <si>
+    <t>M-molA_H2S_V101</t>
+  </si>
+  <si>
+    <t>M-molA_O2_V101</t>
+  </si>
+  <si>
+    <t>M-molA_H2_V101</t>
+  </si>
+  <si>
+    <t>M-molA_H2O_V101</t>
+  </si>
+  <si>
+    <t>P_acum_V101</t>
+  </si>
+  <si>
+    <t>M-VGT_V101</t>
+  </si>
+  <si>
+    <t>Msus_exp_R101</t>
+  </si>
+  <si>
+    <t>Csus_exp_R101</t>
   </si>
   <si>
     <t>VB002</t>
   </si>
   <si>
-    <t>Corriente de carga (Controlador Turgo)</t>
-  </si>
-  <si>
     <t>IC002</t>
   </si>
   <si>
-    <t>Potencia de las baterías  (Controlador Turgo)</t>
-  </si>
-  <si>
     <t>PB002</t>
   </si>
   <si>
-    <t>Temperatura Baterías  (Controlador Turgo)</t>
-  </si>
-  <si>
-    <t>Temperatura de biogás en V-102</t>
-  </si>
-  <si>
     <t>TT-104</t>
   </si>
   <si>
-    <t>Voltaje de las baterías inversor híbrido</t>
-  </si>
-  <si>
-    <t>Temperatura de baterías inversor híbrido</t>
+    <t>M-SV_R101</t>
+  </si>
+  <si>
+    <t>M-ST_R101</t>
+  </si>
+  <si>
+    <t>M_VGA_V102</t>
+  </si>
+  <si>
+    <t>M-PA_CH4_V102</t>
+  </si>
+  <si>
+    <t>M-PA_CO2_V102</t>
+  </si>
+  <si>
+    <t>M-PA_H2S_V102</t>
+  </si>
+  <si>
+    <t>M-PA_O2_V102</t>
+  </si>
+  <si>
+    <t>M-PA_H2_V102</t>
+  </si>
+  <si>
+    <t>M-molA_CH4_V102</t>
+  </si>
+  <si>
+    <t>M-molA_CO2_V102</t>
+  </si>
+  <si>
+    <t>M-molA_H2S_V102</t>
+  </si>
+  <si>
+    <t>M-molA_O2_V102</t>
+  </si>
+  <si>
+    <t>M-molA_H2_V102</t>
+  </si>
+  <si>
+    <t>M-molA_H2O_V102</t>
+  </si>
+  <si>
+    <t>P_acum_V102</t>
+  </si>
+  <si>
+    <t>M-VGT_V102</t>
+  </si>
+  <si>
+    <t>M_VGA_V107</t>
+  </si>
+  <si>
+    <t>M-PA_CH4_V107</t>
+  </si>
+  <si>
+    <t>M-PA_CO2_V107</t>
+  </si>
+  <si>
+    <t>M-PA_H2S_V107</t>
+  </si>
+  <si>
+    <t>M-PA_O2_V107</t>
+  </si>
+  <si>
+    <t>M-PA_H2_V107</t>
+  </si>
+  <si>
+    <t>M-molA_CH4_V107</t>
+  </si>
+  <si>
+    <t>M-molA_CO2_V107</t>
+  </si>
+  <si>
+    <t>M-molA_H2S_V107</t>
+  </si>
+  <si>
+    <t>M-molA_H2_V107</t>
+  </si>
+  <si>
+    <t>M-molA_O2_V107</t>
+  </si>
+  <si>
+    <t>M-molA_H2O_V107</t>
+  </si>
+  <si>
+    <t>P_acum_V107</t>
+  </si>
+  <si>
+    <t>M-VGT_V107</t>
+  </si>
+  <si>
+    <t>M-molT_CH4_V101</t>
+  </si>
+  <si>
+    <t>M-molT_CH4_V102</t>
+  </si>
+  <si>
+    <t>M-molT_CH4_V107</t>
+  </si>
+  <si>
+    <t>Csus_exp_R102</t>
+  </si>
+  <si>
+    <t>Msus_exp_R102</t>
+  </si>
+  <si>
+    <t>M-SV_R102</t>
+  </si>
+  <si>
+    <t>M-ST_R102</t>
   </si>
   <si>
     <t>TB002</t>
   </si>
   <si>
-    <t>Potencia paneles inversor híbrido</t>
-  </si>
-  <si>
     <t>PG003</t>
   </si>
   <si>
-    <t>Potencia aerogenerador inversor híbrido</t>
-  </si>
-  <si>
     <t>PG004</t>
   </si>
   <si>
-    <t>Potencia DC de salida hacia las baterías inversor híbrido</t>
-  </si>
-  <si>
-    <t>Voltaje Paneles solares inversor híbrido</t>
-  </si>
-  <si>
     <t>VG003</t>
   </si>
   <si>
-    <t>Voltaje aerogenerador inversor híbrido</t>
-  </si>
-  <si>
     <t>VG004</t>
   </si>
   <si>
+    <t>TE-102v</t>
+  </si>
+  <si>
+    <t>K_train</t>
+  </si>
+  <si>
+    <t>Ea_train</t>
+  </si>
+  <si>
     <t>Fundamental VL1</t>
   </si>
   <si>
@@ -2325,13 +2079,79 @@
   </si>
   <si>
     <t>L1 Fundamental Voltaje</t>
+  </si>
+  <si>
+    <t>banco</t>
+  </si>
+  <si>
+    <t>conext</t>
+  </si>
+  <si>
+    <t>classic</t>
+  </si>
+  <si>
+    <t>IP1500</t>
+  </si>
+  <si>
+    <t>analizador</t>
+  </si>
+  <si>
+    <t>Planta Biogás</t>
+  </si>
+  <si>
+    <t>DTPlantaBiogás</t>
+  </si>
+  <si>
+    <t>device1</t>
+  </si>
+  <si>
+    <t>device2</t>
+  </si>
+  <si>
+    <t>device3</t>
+  </si>
+  <si>
+    <t>device4</t>
+  </si>
+  <si>
+    <t>device5</t>
+  </si>
+  <si>
+    <t>paneles</t>
+  </si>
+  <si>
+    <t>aerogenerador</t>
+  </si>
+  <si>
+    <t>controlador</t>
+  </si>
+  <si>
+    <t>IP1501</t>
+  </si>
+  <si>
+    <t>analizador1</t>
+  </si>
+  <si>
+    <t>inversor hibrido</t>
+  </si>
+  <si>
+    <t>analizador2</t>
+  </si>
+  <si>
+    <t>measurement</t>
+  </si>
+  <si>
+    <t>device</t>
+  </si>
+  <si>
+    <t>field</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2401,7 +2221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2413,6 +2233,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2699,13 +2522,13 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="95.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="95.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>275</v>
       </c>
@@ -2725,7 +2548,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>436</v>
       </c>
@@ -2745,7 +2568,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>436</v>
       </c>
@@ -2765,9 +2588,9 @@
         <v>464</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>519</v>
+        <v>496</v>
       </c>
       <c r="B4" t="s">
         <v>437</v>
@@ -2782,10 +2605,10 @@
         <v>438</v>
       </c>
       <c r="F4" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>436</v>
       </c>
@@ -2799,13 +2622,13 @@
         <v>440</v>
       </c>
       <c r="E5" t="s">
-        <v>619</v>
+        <v>549</v>
       </c>
       <c r="F5" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="E10" s="8"/>
     </row>
   </sheetData>
@@ -2822,13 +2645,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>275</v>
       </c>
@@ -2842,7 +2665,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>435</v>
       </c>
@@ -2863,20 +2686,20 @@
   <dimension ref="A1:C118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>428</v>
       </c>
@@ -2887,7 +2710,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="1" customFormat="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2898,7 +2721,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2909,7 +2732,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2920,7 +2743,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2931,7 +2754,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2942,7 +2765,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2953,7 +2776,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2964,7 +2787,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2975,7 +2798,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2986,7 +2809,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2997,7 +2820,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3008,7 +2831,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3019,7 +2842,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3030,7 +2853,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3041,7 +2864,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3052,7 +2875,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3063,7 +2886,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3074,7 +2897,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3085,7 +2908,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3096,7 +2919,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3107,136 +2930,136 @@
         <v>435</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1">
       <c r="A54" s="6"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1">
       <c r="A55" s="6"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1">
       <c r="A56" s="6"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1">
       <c r="A57" s="6"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1">
       <c r="A58" s="6"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1">
       <c r="A59" s="6"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1">
       <c r="A60" s="6"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1">
       <c r="A61" s="6"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1">
       <c r="A62" s="6"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1">
       <c r="A63" s="6"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1">
       <c r="A64" s="6"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1">
       <c r="A65" s="6"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1">
       <c r="A66" s="6"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1">
       <c r="A67" s="6"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1">
       <c r="A68" s="6"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1">
       <c r="A69" s="6"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1">
       <c r="A70" s="6"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1">
       <c r="A71" s="6"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1">
       <c r="A72" s="6"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1">
       <c r="A73" s="6"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1">
       <c r="A74" s="6"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1">
       <c r="A75" s="6"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1">
       <c r="A76" s="6"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1">
       <c r="A77" s="6"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1">
       <c r="A78" s="6"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1">
       <c r="A79" s="6"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1">
       <c r="A80" s="6"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1">
       <c r="A81" s="6"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1">
       <c r="A82" s="6"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1">
       <c r="A83" s="6"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1">
       <c r="A84" s="6"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1">
       <c r="A85" s="6"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1">
       <c r="A86" s="6"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1">
       <c r="A87" s="6"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1">
       <c r="A88" s="6"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1">
       <c r="A89" s="2"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1">
       <c r="A90" s="2"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1">
       <c r="A91" s="2"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1">
       <c r="A92" s="2"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1">
       <c r="A93" s="2"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1">
       <c r="A115" s="6"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1">
       <c r="A116" s="6"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1">
       <c r="A117" s="6"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1">
       <c r="A118" s="6"/>
     </row>
   </sheetData>
@@ -3248,22 +3071,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H142"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G142"/>
+    <sheetView topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H141" sqref="A141:H141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -3289,7 +3112,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3315,7 +3138,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3341,7 +3164,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -3367,7 +3190,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -3393,7 +3216,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3419,7 +3242,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -3445,7 +3268,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3471,7 +3294,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -3497,7 +3320,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -3523,7 +3346,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -3549,7 +3372,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -3575,7 +3398,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -3601,7 +3424,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
@@ -3627,7 +3450,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
@@ -3653,7 +3476,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="3" t="s">
         <v>24</v>
       </c>
@@ -3679,7 +3502,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -3705,7 +3528,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -3731,7 +3554,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -3757,7 +3580,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -3780,7 +3603,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -3803,7 +3626,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -3826,7 +3649,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -3852,7 +3675,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -3878,7 +3701,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -3904,7 +3727,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -3930,7 +3753,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -3956,7 +3779,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -3982,7 +3805,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -4008,9 +3831,9 @@
         <v>303</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>732</v>
+        <v>650</v>
       </c>
       <c r="B30">
         <v>156</v>
@@ -4019,7 +3842,7 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>731</v>
+        <v>649</v>
       </c>
       <c r="E30" t="s">
         <v>411</v>
@@ -4031,10 +3854,10 @@
         <v>100</v>
       </c>
       <c r="H30" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>100</v>
       </c>
@@ -4060,7 +3883,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>102</v>
       </c>
@@ -4086,7 +3909,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>125</v>
       </c>
@@ -4112,7 +3935,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>126</v>
       </c>
@@ -4138,7 +3961,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>127</v>
       </c>
@@ -4164,7 +3987,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>128</v>
       </c>
@@ -4190,7 +4013,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>129</v>
       </c>
@@ -4216,7 +4039,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>130</v>
       </c>
@@ -4242,7 +4065,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>131</v>
       </c>
@@ -4268,7 +4091,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>132</v>
       </c>
@@ -4294,7 +4117,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>133</v>
       </c>
@@ -4320,7 +4143,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>134</v>
       </c>
@@ -4346,7 +4169,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>135</v>
       </c>
@@ -4372,7 +4195,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>136</v>
       </c>
@@ -4398,9 +4221,9 @@
         <v>317</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>734</v>
+        <v>652</v>
       </c>
       <c r="B45">
         <v>158</v>
@@ -4409,7 +4232,7 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>733</v>
+        <v>651</v>
       </c>
       <c r="E45" t="s">
         <v>411</v>
@@ -4421,10 +4244,10 @@
         <v>100</v>
       </c>
       <c r="H45" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>104</v>
       </c>
@@ -4450,7 +4273,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>106</v>
       </c>
@@ -4476,7 +4299,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>211</v>
       </c>
@@ -4502,7 +4325,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>212</v>
       </c>
@@ -4528,7 +4351,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>213</v>
       </c>
@@ -4554,7 +4377,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>214</v>
       </c>
@@ -4580,7 +4403,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>215</v>
       </c>
@@ -4606,7 +4429,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>216</v>
       </c>
@@ -4632,7 +4455,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>217</v>
       </c>
@@ -4658,7 +4481,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>218</v>
       </c>
@@ -4684,7 +4507,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>219</v>
       </c>
@@ -4710,7 +4533,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>220</v>
       </c>
@@ -4736,7 +4559,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>221</v>
       </c>
@@ -4762,7 +4585,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>222</v>
       </c>
@@ -4788,9 +4611,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>735</v>
+        <v>653</v>
       </c>
       <c r="B60">
         <v>160</v>
@@ -4799,7 +4622,7 @@
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>736</v>
+        <v>654</v>
       </c>
       <c r="E60" t="s">
         <v>411</v>
@@ -4811,10 +4634,10 @@
         <v>100</v>
       </c>
       <c r="H60" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>108</v>
       </c>
@@ -4840,7 +4663,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>110</v>
       </c>
@@ -4866,7 +4689,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>223</v>
       </c>
@@ -4892,7 +4715,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>224</v>
       </c>
@@ -4918,7 +4741,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>225</v>
       </c>
@@ -4944,7 +4767,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>226</v>
       </c>
@@ -4970,7 +4793,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>227</v>
       </c>
@@ -4996,7 +4819,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>228</v>
       </c>
@@ -5022,7 +4845,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>229</v>
       </c>
@@ -5048,7 +4871,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>230</v>
       </c>
@@ -5074,7 +4897,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>231</v>
       </c>
@@ -5100,7 +4923,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>232</v>
       </c>
@@ -5126,7 +4949,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
         <v>233</v>
       </c>
@@ -5152,7 +4975,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>234</v>
       </c>
@@ -5178,9 +5001,9 @@
         <v>345</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>739</v>
+        <v>657</v>
       </c>
       <c r="B75">
         <v>164</v>
@@ -5189,10 +5012,10 @@
         <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>737</v>
+        <v>655</v>
       </c>
       <c r="E75" t="s">
-        <v>738</v>
+        <v>656</v>
       </c>
       <c r="F75" t="s">
         <v>441</v>
@@ -5201,10 +5024,10 @@
         <v>10000</v>
       </c>
       <c r="H75" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>112</v>
       </c>
@@ -5230,7 +5053,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>114</v>
       </c>
@@ -5256,7 +5079,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
         <v>235</v>
       </c>
@@ -5282,7 +5105,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>236</v>
       </c>
@@ -5308,7 +5131,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
         <v>237</v>
       </c>
@@ -5334,7 +5157,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>238</v>
       </c>
@@ -5360,7 +5183,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>239</v>
       </c>
@@ -5386,7 +5209,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
         <v>240</v>
       </c>
@@ -5412,7 +5235,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
         <v>241</v>
       </c>
@@ -5438,7 +5261,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
         <v>242</v>
       </c>
@@ -5464,7 +5287,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>243</v>
       </c>
@@ -5490,7 +5313,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
         <v>244</v>
       </c>
@@ -5516,7 +5339,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
         <v>245</v>
       </c>
@@ -5542,7 +5365,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
         <v>246</v>
       </c>
@@ -5568,7 +5391,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
         <v>247</v>
       </c>
@@ -5594,9 +5417,9 @@
         <v>360</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>741</v>
+        <v>659</v>
       </c>
       <c r="B91">
         <v>166</v>
@@ -5605,10 +5428,10 @@
         <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>740</v>
+        <v>658</v>
       </c>
       <c r="E91" t="s">
-        <v>738</v>
+        <v>656</v>
       </c>
       <c r="F91" t="s">
         <v>441</v>
@@ -5617,10 +5440,10 @@
         <v>10000</v>
       </c>
       <c r="H91" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
         <v>116</v>
       </c>
@@ -5646,7 +5469,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
         <v>118</v>
       </c>
@@ -5672,7 +5495,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
         <v>248</v>
       </c>
@@ -5698,7 +5521,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
         <v>249</v>
       </c>
@@ -5724,7 +5547,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
         <v>250</v>
       </c>
@@ -5750,7 +5573,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
         <v>251</v>
       </c>
@@ -5776,7 +5599,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
         <v>252</v>
       </c>
@@ -5802,7 +5625,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
         <v>253</v>
       </c>
@@ -5828,7 +5651,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
         <v>254</v>
       </c>
@@ -5854,7 +5677,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
         <v>255</v>
       </c>
@@ -5880,7 +5703,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8">
       <c r="A102" t="s">
         <v>256</v>
       </c>
@@ -5906,7 +5729,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
         <v>257</v>
       </c>
@@ -5932,7 +5755,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
         <v>258</v>
       </c>
@@ -5958,7 +5781,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8">
       <c r="A105" t="s">
         <v>259</v>
       </c>
@@ -5984,7 +5807,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8">
       <c r="A106" t="s">
         <v>260</v>
       </c>
@@ -6010,9 +5833,9 @@
         <v>374</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>743</v>
+        <v>661</v>
       </c>
       <c r="B107">
         <v>168</v>
@@ -6021,10 +5844,10 @@
         <v>2</v>
       </c>
       <c r="D107" t="s">
-        <v>742</v>
+        <v>660</v>
       </c>
       <c r="E107" t="s">
-        <v>738</v>
+        <v>656</v>
       </c>
       <c r="F107" t="s">
         <v>441</v>
@@ -6033,10 +5856,10 @@
         <v>10000</v>
       </c>
       <c r="H107" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" t="s">
         <v>120</v>
       </c>
@@ -6062,7 +5885,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8">
       <c r="A109" t="s">
         <v>122</v>
       </c>
@@ -6088,7 +5911,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8">
       <c r="A110" t="s">
         <v>261</v>
       </c>
@@ -6114,7 +5937,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8">
       <c r="A111" t="s">
         <v>262</v>
       </c>
@@ -6140,7 +5963,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8">
       <c r="A112" t="s">
         <v>263</v>
       </c>
@@ -6166,7 +5989,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8">
       <c r="A113" t="s">
         <v>264</v>
       </c>
@@ -6192,7 +6015,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8">
       <c r="A114" t="s">
         <v>265</v>
       </c>
@@ -6218,7 +6041,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8">
       <c r="A115" t="s">
         <v>266</v>
       </c>
@@ -6244,7 +6067,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8">
       <c r="A116" t="s">
         <v>267</v>
       </c>
@@ -6270,7 +6093,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8">
       <c r="A117" t="s">
         <v>268</v>
       </c>
@@ -6296,7 +6119,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8">
       <c r="A118" t="s">
         <v>269</v>
       </c>
@@ -6322,7 +6145,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8">
       <c r="A119" t="s">
         <v>270</v>
       </c>
@@ -6348,7 +6171,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8">
       <c r="A120" t="s">
         <v>271</v>
       </c>
@@ -6374,7 +6197,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8">
       <c r="A121" t="s">
         <v>272</v>
       </c>
@@ -6400,7 +6223,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8">
       <c r="A122" t="s">
         <v>273</v>
       </c>
@@ -6426,7 +6249,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8">
       <c r="A123" t="s">
         <v>60</v>
       </c>
@@ -6452,7 +6275,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8">
       <c r="A124" t="s">
         <v>62</v>
       </c>
@@ -6478,7 +6301,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8">
       <c r="A125" t="s">
         <v>64</v>
       </c>
@@ -6504,7 +6327,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8">
       <c r="A126" t="s">
         <v>66</v>
       </c>
@@ -6530,7 +6353,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8">
       <c r="A127" t="s">
         <v>68</v>
       </c>
@@ -6556,7 +6379,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8">
       <c r="A128" t="s">
         <v>70</v>
       </c>
@@ -6582,7 +6405,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8">
       <c r="A129" t="s">
         <v>72</v>
       </c>
@@ -6608,7 +6431,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8">
       <c r="A130" t="s">
         <v>74</v>
       </c>
@@ -6634,7 +6457,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8">
       <c r="A131" t="s">
         <v>76</v>
       </c>
@@ -6660,7 +6483,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8">
       <c r="A132" t="s">
         <v>78</v>
       </c>
@@ -6686,7 +6509,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8">
       <c r="A133" t="s">
         <v>80</v>
       </c>
@@ -6712,7 +6535,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8">
       <c r="A134" t="s">
         <v>82</v>
       </c>
@@ -6738,7 +6561,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8">
       <c r="A135" t="s">
         <v>84</v>
       </c>
@@ -6764,7 +6587,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8">
       <c r="A136" t="s">
         <v>86</v>
       </c>
@@ -6790,7 +6613,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8">
       <c r="A137" s="6" t="s">
         <v>88</v>
       </c>
@@ -6816,7 +6639,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8">
       <c r="A138" s="6" t="s">
         <v>90</v>
       </c>
@@ -6842,7 +6665,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8">
       <c r="A139" s="6" t="s">
         <v>92</v>
       </c>
@@ -6868,7 +6691,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8">
       <c r="A140" s="6" t="s">
         <v>94</v>
       </c>
@@ -6894,7 +6717,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8">
       <c r="A141" t="s">
         <v>96</v>
       </c>
@@ -6920,7 +6743,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8">
       <c r="A142" t="s">
         <v>98</v>
       </c>
@@ -6956,1634 +6779,2118 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D5969C-509B-4D3C-BD42-B92347445C5B}">
-  <dimension ref="A1:C147"/>
+  <dimension ref="A1:G207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99:B158"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="9" t="s">
+        <v>687</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>688</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>465</v>
       </c>
-      <c r="B1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
+        <v>668</v>
+      </c>
+      <c r="C2" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>465</v>
+      </c>
+      <c r="B3" t="s">
+        <v>668</v>
+      </c>
+      <c r="C3" t="s">
         <v>467</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4" t="s">
+        <v>668</v>
+      </c>
+      <c r="C4" t="s">
         <v>468</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>465</v>
+      </c>
+      <c r="B5" t="s">
+        <v>668</v>
+      </c>
+      <c r="C5" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>467</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>465</v>
+      </c>
+      <c r="B6" t="s">
+        <v>668</v>
+      </c>
+      <c r="C6" t="s">
         <v>470</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>465</v>
+      </c>
+      <c r="B7" t="s">
+        <v>668</v>
+      </c>
+      <c r="C7" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>467</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>465</v>
+      </c>
+      <c r="B8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C8" t="s">
         <v>472</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>465</v>
+      </c>
+      <c r="B9" t="s">
+        <v>669</v>
+      </c>
+      <c r="C9" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>467</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>465</v>
+      </c>
+      <c r="B10" t="s">
+        <v>670</v>
+      </c>
+      <c r="C10" t="s">
         <v>474</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>465</v>
+      </c>
+      <c r="B11" t="s">
+        <v>669</v>
+      </c>
+      <c r="C11" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>467</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>465</v>
+      </c>
+      <c r="B12" t="s">
+        <v>670</v>
+      </c>
+      <c r="C12" t="s">
         <v>476</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>465</v>
+      </c>
+      <c r="B13" t="s">
+        <v>669</v>
+      </c>
+      <c r="C13" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>467</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>465</v>
+      </c>
+      <c r="B14" t="s">
+        <v>670</v>
+      </c>
+      <c r="C14" t="s">
         <v>478</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>465</v>
+      </c>
+      <c r="B15" t="s">
+        <v>670</v>
+      </c>
+      <c r="C15" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>467</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>465</v>
+      </c>
+      <c r="B16" t="s">
+        <v>669</v>
+      </c>
+      <c r="C16" t="s">
         <v>480</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>465</v>
+      </c>
+      <c r="B17" t="s">
+        <v>669</v>
+      </c>
+      <c r="C17" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>465</v>
+      </c>
+      <c r="B18" t="s">
+        <v>669</v>
+      </c>
+      <c r="C18" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>467</v>
-      </c>
-      <c r="B9" t="s">
-        <v>700</v>
-      </c>
-      <c r="C9" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>465</v>
+      </c>
+      <c r="B19" t="s">
+        <v>670</v>
+      </c>
+      <c r="C19" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>465</v>
+      </c>
+      <c r="B20" t="s">
+        <v>670</v>
+      </c>
+      <c r="C20" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>465</v>
+      </c>
+      <c r="B21" t="s">
+        <v>670</v>
+      </c>
+      <c r="C21" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>465</v>
+      </c>
+      <c r="B22" t="s">
+        <v>670</v>
+      </c>
+      <c r="C22" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>465</v>
+      </c>
+      <c r="B23" t="s">
+        <v>670</v>
+      </c>
+      <c r="C23" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>467</v>
-      </c>
-      <c r="B10" t="s">
-        <v>701</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>465</v>
+      </c>
+      <c r="B24" t="s">
+        <v>671</v>
+      </c>
+      <c r="C24" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>467</v>
-      </c>
-      <c r="B11" t="s">
-        <v>702</v>
-      </c>
-      <c r="C11" t="s">
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>465</v>
+      </c>
+      <c r="B25" t="s">
+        <v>671</v>
+      </c>
+      <c r="C25" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>467</v>
-      </c>
-      <c r="B12" t="s">
-        <v>703</v>
-      </c>
-      <c r="C12" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>465</v>
+      </c>
+      <c r="B26" t="s">
+        <v>672</v>
+      </c>
+      <c r="C26" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>467</v>
-      </c>
-      <c r="B13" t="s">
-        <v>704</v>
-      </c>
-      <c r="C13" t="s">
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>465</v>
+      </c>
+      <c r="B27" t="s">
+        <v>672</v>
+      </c>
+      <c r="C27" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>467</v>
-      </c>
-      <c r="B14" t="s">
-        <v>705</v>
-      </c>
-      <c r="C14" t="s">
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>465</v>
+      </c>
+      <c r="B28" t="s">
+        <v>672</v>
+      </c>
+      <c r="C28" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>467</v>
-      </c>
-      <c r="B15" t="s">
-        <v>706</v>
-      </c>
-      <c r="C15" t="s">
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>465</v>
+      </c>
+      <c r="B29" t="s">
+        <v>672</v>
+      </c>
+      <c r="C29" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>467</v>
-      </c>
-      <c r="B16" t="s">
-        <v>707</v>
-      </c>
-      <c r="C16" t="s">
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>465</v>
+      </c>
+      <c r="B30" t="s">
+        <v>669</v>
+      </c>
+      <c r="C30" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>467</v>
-      </c>
-      <c r="B17" t="s">
-        <v>708</v>
-      </c>
-      <c r="C17" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>467</v>
-      </c>
-      <c r="B18" t="s">
-        <v>709</v>
-      </c>
-      <c r="C18" t="s">
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>465</v>
+      </c>
+      <c r="B31" t="s">
+        <v>669</v>
+      </c>
+      <c r="C31" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>467</v>
-      </c>
-      <c r="B19" t="s">
-        <v>710</v>
-      </c>
-      <c r="C19" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>467</v>
-      </c>
-      <c r="B20" t="s">
-        <v>712</v>
-      </c>
-      <c r="C20" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>467</v>
-      </c>
-      <c r="B21" t="s">
-        <v>714</v>
-      </c>
-      <c r="C21" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>467</v>
-      </c>
-      <c r="B22" t="s">
-        <v>716</v>
-      </c>
-      <c r="C22" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>467</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>465</v>
+      </c>
+      <c r="B32" t="s">
+        <v>669</v>
+      </c>
+      <c r="C32" t="s">
         <v>491</v>
       </c>
-      <c r="C23" t="s">
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>465</v>
+      </c>
+      <c r="B33" t="s">
+        <v>669</v>
+      </c>
+      <c r="C33" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>467</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>465</v>
+      </c>
+      <c r="B34" t="s">
+        <v>669</v>
+      </c>
+      <c r="C34" t="s">
         <v>493</v>
       </c>
-      <c r="C24" t="s">
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>465</v>
+      </c>
+      <c r="B35" t="s">
+        <v>669</v>
+      </c>
+      <c r="C35" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>467</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>465</v>
+      </c>
+      <c r="B36" t="s">
+        <v>671</v>
+      </c>
+      <c r="C36" t="s">
         <v>495</v>
       </c>
-      <c r="C25" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>467</v>
-      </c>
-      <c r="B26" t="s">
-        <v>497</v>
-      </c>
-      <c r="C26" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>467</v>
-      </c>
-      <c r="B27" t="s">
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>673</v>
+      </c>
+      <c r="B37" t="s">
+        <v>675</v>
+      </c>
+      <c r="C37" t="s">
         <v>499</v>
       </c>
-      <c r="C27" t="s">
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>673</v>
+      </c>
+      <c r="B38" t="s">
+        <v>675</v>
+      </c>
+      <c r="C38" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>467</v>
-      </c>
-      <c r="B28" t="s">
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>673</v>
+      </c>
+      <c r="B39" t="s">
+        <v>675</v>
+      </c>
+      <c r="C39" t="s">
         <v>501</v>
       </c>
-      <c r="C28" t="s">
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>673</v>
+      </c>
+      <c r="B40" t="s">
+        <v>675</v>
+      </c>
+      <c r="C40" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>467</v>
-      </c>
-      <c r="B29" t="s">
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>673</v>
+      </c>
+      <c r="B41" t="s">
+        <v>675</v>
+      </c>
+      <c r="C41" t="s">
         <v>503</v>
       </c>
-      <c r="C29" t="s">
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>673</v>
+      </c>
+      <c r="B42" t="s">
+        <v>675</v>
+      </c>
+      <c r="C42" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>467</v>
-      </c>
-      <c r="B30" t="s">
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>673</v>
+      </c>
+      <c r="B43" t="s">
+        <v>675</v>
+      </c>
+      <c r="C43" t="s">
         <v>505</v>
       </c>
-      <c r="C30" t="s">
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>673</v>
+      </c>
+      <c r="B44" t="s">
+        <v>675</v>
+      </c>
+      <c r="C44" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>467</v>
-      </c>
-      <c r="B31" t="s">
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>673</v>
+      </c>
+      <c r="B45" t="s">
+        <v>675</v>
+      </c>
+      <c r="C45" t="s">
         <v>507</v>
       </c>
-      <c r="C31" t="s">
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>673</v>
+      </c>
+      <c r="B46" t="s">
+        <v>675</v>
+      </c>
+      <c r="C46" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>467</v>
-      </c>
-      <c r="B32" t="s">
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>673</v>
+      </c>
+      <c r="B47" t="s">
+        <v>675</v>
+      </c>
+      <c r="C47" t="s">
         <v>509</v>
       </c>
-      <c r="C32" t="s">
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>673</v>
+      </c>
+      <c r="B48" t="s">
+        <v>675</v>
+      </c>
+      <c r="C48" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>467</v>
-      </c>
-      <c r="B33" t="s">
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>673</v>
+      </c>
+      <c r="B49" t="s">
+        <v>675</v>
+      </c>
+      <c r="C49" t="s">
         <v>511</v>
       </c>
-      <c r="C33" t="s">
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>673</v>
+      </c>
+      <c r="B50" t="s">
+        <v>676</v>
+      </c>
+      <c r="C50" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>467</v>
-      </c>
-      <c r="B34" t="s">
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>673</v>
+      </c>
+      <c r="B51" t="s">
+        <v>676</v>
+      </c>
+      <c r="C51" t="s">
         <v>513</v>
       </c>
-      <c r="C34" t="s">
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>673</v>
+      </c>
+      <c r="B52" t="s">
+        <v>676</v>
+      </c>
+      <c r="C52" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>467</v>
-      </c>
-      <c r="B35" t="s">
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>673</v>
+      </c>
+      <c r="B53" t="s">
+        <v>676</v>
+      </c>
+      <c r="C53" t="s">
         <v>515</v>
       </c>
-      <c r="C35" t="s">
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>673</v>
+      </c>
+      <c r="B54" t="s">
+        <v>676</v>
+      </c>
+      <c r="C54" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>467</v>
-      </c>
-      <c r="B36" t="s">
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>673</v>
+      </c>
+      <c r="B55" t="s">
+        <v>676</v>
+      </c>
+      <c r="C55" t="s">
         <v>517</v>
       </c>
-      <c r="C36" t="s">
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>673</v>
+      </c>
+      <c r="B56" t="s">
+        <v>676</v>
+      </c>
+      <c r="C56" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>673</v>
+      </c>
+      <c r="B57" t="s">
+        <v>676</v>
+      </c>
+      <c r="C57" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>673</v>
+      </c>
+      <c r="B58" t="s">
+        <v>676</v>
+      </c>
+      <c r="C58" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>673</v>
+      </c>
+      <c r="B59" t="s">
+        <v>676</v>
+      </c>
+      <c r="C59" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>673</v>
+      </c>
+      <c r="B60" t="s">
+        <v>676</v>
+      </c>
+      <c r="C60" t="s">
         <v>522</v>
       </c>
-      <c r="B37" t="s">
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>673</v>
+      </c>
+      <c r="B61" t="s">
+        <v>676</v>
+      </c>
+      <c r="C61" t="s">
         <v>523</v>
       </c>
-      <c r="C37" t="s">
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>673</v>
+      </c>
+      <c r="B62" t="s">
+        <v>676</v>
+      </c>
+      <c r="C62" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>522</v>
-      </c>
-      <c r="B38" t="s">
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>673</v>
+      </c>
+      <c r="B63" t="s">
+        <v>677</v>
+      </c>
+      <c r="C63" t="s">
         <v>525</v>
       </c>
-      <c r="C38" t="s">
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>673</v>
+      </c>
+      <c r="B64" t="s">
+        <v>677</v>
+      </c>
+      <c r="C64" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>522</v>
-      </c>
-      <c r="B39" t="s">
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>673</v>
+      </c>
+      <c r="B65" t="s">
+        <v>677</v>
+      </c>
+      <c r="C65" t="s">
         <v>527</v>
       </c>
-      <c r="C39" t="s">
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>673</v>
+      </c>
+      <c r="B66" t="s">
+        <v>677</v>
+      </c>
+      <c r="C66" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>522</v>
-      </c>
-      <c r="B40" t="s">
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>673</v>
+      </c>
+      <c r="B67" t="s">
+        <v>677</v>
+      </c>
+      <c r="C67" t="s">
         <v>529</v>
       </c>
-      <c r="C40" t="s">
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>673</v>
+      </c>
+      <c r="B68" t="s">
+        <v>677</v>
+      </c>
+      <c r="C68" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>522</v>
-      </c>
-      <c r="B41" t="s">
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>673</v>
+      </c>
+      <c r="B69" t="s">
+        <v>677</v>
+      </c>
+      <c r="C69" t="s">
         <v>531</v>
       </c>
-      <c r="C41" t="s">
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>673</v>
+      </c>
+      <c r="B70" t="s">
+        <v>677</v>
+      </c>
+      <c r="C70" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>522</v>
-      </c>
-      <c r="B42" t="s">
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>673</v>
+      </c>
+      <c r="B71" t="s">
+        <v>677</v>
+      </c>
+      <c r="C71" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>673</v>
+      </c>
+      <c r="B72" t="s">
+        <v>677</v>
+      </c>
+      <c r="C72" t="s">
         <v>533</v>
       </c>
-      <c r="C42" t="s">
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>673</v>
+      </c>
+      <c r="B73" t="s">
+        <v>677</v>
+      </c>
+      <c r="C73" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>522</v>
-      </c>
-      <c r="B43" t="s">
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>673</v>
+      </c>
+      <c r="B74" t="s">
+        <v>677</v>
+      </c>
+      <c r="C74" t="s">
         <v>535</v>
       </c>
-      <c r="C43" t="s">
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>673</v>
+      </c>
+      <c r="B75" t="s">
+        <v>677</v>
+      </c>
+      <c r="C75" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>522</v>
-      </c>
-      <c r="B44" t="s">
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>673</v>
+      </c>
+      <c r="B76" t="s">
+        <v>677</v>
+      </c>
+      <c r="C76" t="s">
         <v>537</v>
       </c>
-      <c r="C44" t="s">
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>673</v>
+      </c>
+      <c r="B77" t="s">
+        <v>677</v>
+      </c>
+      <c r="C77" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>522</v>
-      </c>
-      <c r="B45" t="s">
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>673</v>
+      </c>
+      <c r="B78" t="s">
+        <v>678</v>
+      </c>
+      <c r="C78" t="s">
         <v>539</v>
       </c>
-      <c r="C45" t="s">
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>673</v>
+      </c>
+      <c r="B79" t="s">
+        <v>678</v>
+      </c>
+      <c r="C79" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>522</v>
-      </c>
-      <c r="B46" t="s">
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>673</v>
+      </c>
+      <c r="B80" t="s">
+        <v>678</v>
+      </c>
+      <c r="C80" t="s">
         <v>541</v>
       </c>
-      <c r="C46" t="s">
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>673</v>
+      </c>
+      <c r="B81" t="s">
+        <v>678</v>
+      </c>
+      <c r="C81" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>522</v>
-      </c>
-      <c r="B47" t="s">
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>673</v>
+      </c>
+      <c r="B82" t="s">
+        <v>678</v>
+      </c>
+      <c r="C82" t="s">
         <v>543</v>
       </c>
-      <c r="C47" t="s">
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>673</v>
+      </c>
+      <c r="B83" t="s">
+        <v>678</v>
+      </c>
+      <c r="C83" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>522</v>
-      </c>
-      <c r="B48" t="s">
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>673</v>
+      </c>
+      <c r="B84" t="s">
+        <v>678</v>
+      </c>
+      <c r="C84" t="s">
         <v>545</v>
       </c>
-      <c r="C48" t="s">
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>673</v>
+      </c>
+      <c r="B85" t="s">
+        <v>675</v>
+      </c>
+      <c r="C85" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>673</v>
+      </c>
+      <c r="B86" t="s">
+        <v>678</v>
+      </c>
+      <c r="C86" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>522</v>
-      </c>
-      <c r="B49" t="s">
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>673</v>
+      </c>
+      <c r="B87" t="s">
+        <v>678</v>
+      </c>
+      <c r="C87" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>673</v>
+      </c>
+      <c r="B88" t="s">
+        <v>678</v>
+      </c>
+      <c r="C88" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>673</v>
+      </c>
+      <c r="B89" t="s">
+        <v>676</v>
+      </c>
+      <c r="C89" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>673</v>
+      </c>
+      <c r="B90" t="s">
+        <v>679</v>
+      </c>
+      <c r="C90" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>673</v>
+      </c>
+      <c r="B91" t="s">
+        <v>679</v>
+      </c>
+      <c r="C91" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>673</v>
+      </c>
+      <c r="B92" t="s">
+        <v>679</v>
+      </c>
+      <c r="C92" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>673</v>
+      </c>
+      <c r="B93" t="s">
+        <v>677</v>
+      </c>
+      <c r="C93" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>673</v>
+      </c>
+      <c r="B94" t="s">
+        <v>679</v>
+      </c>
+      <c r="C94" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>673</v>
+      </c>
+      <c r="B95" t="s">
+        <v>679</v>
+      </c>
+      <c r="C95" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>673</v>
+      </c>
+      <c r="B96" t="s">
+        <v>679</v>
+      </c>
+      <c r="C96" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>673</v>
+      </c>
+      <c r="B97" t="s">
+        <v>679</v>
+      </c>
+      <c r="C97" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>673</v>
+      </c>
+      <c r="B98" t="s">
+        <v>679</v>
+      </c>
+      <c r="C98" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>674</v>
+      </c>
+      <c r="C99" t="s">
         <v>547</v>
       </c>
-      <c r="C49" t="s">
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>674</v>
+      </c>
+      <c r="C100" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>674</v>
+      </c>
+      <c r="C101" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>674</v>
+      </c>
+      <c r="C102" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>522</v>
-      </c>
-      <c r="B50" t="s">
-        <v>549</v>
-      </c>
-      <c r="C50" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>522</v>
-      </c>
-      <c r="B51" t="s">
-        <v>551</v>
-      </c>
-      <c r="C51" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>522</v>
-      </c>
-      <c r="B52" t="s">
-        <v>553</v>
-      </c>
-      <c r="C52" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>522</v>
-      </c>
-      <c r="B53" t="s">
-        <v>555</v>
-      </c>
-      <c r="C53" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>522</v>
-      </c>
-      <c r="B54" t="s">
-        <v>557</v>
-      </c>
-      <c r="C54" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>522</v>
-      </c>
-      <c r="B55" t="s">
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>674</v>
+      </c>
+      <c r="C103" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>674</v>
+      </c>
+      <c r="C104" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>674</v>
+      </c>
+      <c r="C105" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>674</v>
+      </c>
+      <c r="C106" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>674</v>
+      </c>
+      <c r="C107" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>674</v>
+      </c>
+      <c r="C108" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>674</v>
+      </c>
+      <c r="C109" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>674</v>
+      </c>
+      <c r="C110" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>674</v>
+      </c>
+      <c r="C111" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>674</v>
+      </c>
+      <c r="C112" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>674</v>
+      </c>
+      <c r="C113" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>674</v>
+      </c>
+      <c r="C114" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>674</v>
+      </c>
+      <c r="C115" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>674</v>
+      </c>
+      <c r="C116" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>674</v>
+      </c>
+      <c r="C117" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>674</v>
+      </c>
+      <c r="C118" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>674</v>
+      </c>
+      <c r="C119" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>674</v>
+      </c>
+      <c r="C120" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>674</v>
+      </c>
+      <c r="C121" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>674</v>
+      </c>
+      <c r="C122" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>674</v>
+      </c>
+      <c r="C123" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
+        <v>674</v>
+      </c>
+      <c r="C124" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>674</v>
+      </c>
+      <c r="C125" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>674</v>
+      </c>
+      <c r="C126" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>674</v>
+      </c>
+      <c r="C127" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>674</v>
+      </c>
+      <c r="C128" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>674</v>
+      </c>
+      <c r="C129" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>674</v>
+      </c>
+      <c r="C130" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>674</v>
+      </c>
+      <c r="C131" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>674</v>
+      </c>
+      <c r="C132" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>674</v>
+      </c>
+      <c r="C133" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>674</v>
+      </c>
+      <c r="C134" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>674</v>
+      </c>
+      <c r="C135" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>674</v>
+      </c>
+      <c r="C136" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>674</v>
+      </c>
+      <c r="C137" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>674</v>
+      </c>
+      <c r="C138" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>674</v>
+      </c>
+      <c r="C139" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>674</v>
+      </c>
+      <c r="C140" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>674</v>
+      </c>
+      <c r="C141" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>674</v>
+      </c>
+      <c r="C142" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>674</v>
+      </c>
+      <c r="C143" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
+        <v>674</v>
+      </c>
+      <c r="C144" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" t="s">
+        <v>674</v>
+      </c>
+      <c r="C145" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" t="s">
+        <v>674</v>
+      </c>
+      <c r="C146" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" t="s">
+        <v>674</v>
+      </c>
+      <c r="C147" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" t="s">
+        <v>674</v>
+      </c>
+      <c r="C148" t="s">
+        <v>636</v>
+      </c>
+      <c r="F148" s="8"/>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" t="s">
+        <v>674</v>
+      </c>
+      <c r="C149" t="s">
+        <v>598</v>
+      </c>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8"/>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" t="s">
+        <v>674</v>
+      </c>
+      <c r="C150" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" t="s">
+        <v>674</v>
+      </c>
+      <c r="C151" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" t="s">
+        <v>674</v>
+      </c>
+      <c r="C152" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" t="s">
+        <v>674</v>
+      </c>
+      <c r="C153" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" t="s">
+        <v>674</v>
+      </c>
+      <c r="C154" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" t="s">
+        <v>674</v>
+      </c>
+      <c r="C155" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" t="s">
+        <v>674</v>
+      </c>
+      <c r="C156" t="s">
+        <v>640</v>
+      </c>
+      <c r="E156" s="8"/>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" t="s">
+        <v>674</v>
+      </c>
+      <c r="C157" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" t="s">
+        <v>674</v>
+      </c>
+      <c r="C158" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" t="s">
         <v>559</v>
       </c>
-      <c r="C55" t="s">
+      <c r="B159" t="s">
+        <v>680</v>
+      </c>
+      <c r="C159" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>522</v>
-      </c>
-      <c r="B56" t="s">
+    <row r="160" spans="1:7">
+      <c r="A160" t="s">
+        <v>559</v>
+      </c>
+      <c r="B160" t="s">
+        <v>680</v>
+      </c>
+      <c r="C160" t="s">
         <v>561</v>
       </c>
-      <c r="C56" t="s">
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" t="s">
+        <v>559</v>
+      </c>
+      <c r="B161" t="s">
+        <v>681</v>
+      </c>
+      <c r="C161" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>522</v>
-      </c>
-      <c r="B57" t="s">
+    <row r="162" spans="1:3">
+      <c r="A162" t="s">
+        <v>559</v>
+      </c>
+      <c r="B162" t="s">
+        <v>681</v>
+      </c>
+      <c r="C162" t="s">
         <v>563</v>
       </c>
-      <c r="C57" t="s">
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" t="s">
+        <v>559</v>
+      </c>
+      <c r="B163" t="s">
+        <v>680</v>
+      </c>
+      <c r="C163" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" t="s">
+        <v>559</v>
+      </c>
+      <c r="B164" t="s">
+        <v>680</v>
+      </c>
+      <c r="C164" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" t="s">
+        <v>559</v>
+      </c>
+      <c r="B165" t="s">
+        <v>680</v>
+      </c>
+      <c r="C165" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" t="s">
+        <v>559</v>
+      </c>
+      <c r="B166" t="s">
+        <v>680</v>
+      </c>
+      <c r="C166" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>522</v>
-      </c>
-      <c r="B58" t="s">
+    <row r="167" spans="1:3">
+      <c r="A167" t="s">
+        <v>559</v>
+      </c>
+      <c r="B167" t="s">
+        <v>682</v>
+      </c>
+      <c r="C167" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" t="s">
+        <v>559</v>
+      </c>
+      <c r="B168" t="s">
+        <v>682</v>
+      </c>
+      <c r="C168" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" t="s">
+        <v>559</v>
+      </c>
+      <c r="B169" t="s">
+        <v>682</v>
+      </c>
+      <c r="C169" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" t="s">
+        <v>559</v>
+      </c>
+      <c r="B170" t="s">
+        <v>682</v>
+      </c>
+      <c r="C170" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" t="s">
+        <v>559</v>
+      </c>
+      <c r="B171" t="s">
+        <v>682</v>
+      </c>
+      <c r="C171" t="s">
         <v>565</v>
       </c>
-      <c r="C58" t="s">
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" t="s">
+        <v>559</v>
+      </c>
+      <c r="B172" t="s">
+        <v>682</v>
+      </c>
+      <c r="C172" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" t="s">
+        <v>559</v>
+      </c>
+      <c r="B173" t="s">
+        <v>682</v>
+      </c>
+      <c r="C173" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" t="s">
+        <v>559</v>
+      </c>
+      <c r="B174" t="s">
+        <v>682</v>
+      </c>
+      <c r="C174" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" t="s">
+        <v>559</v>
+      </c>
+      <c r="B175" t="s">
+        <v>682</v>
+      </c>
+      <c r="C175" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>522</v>
-      </c>
-      <c r="B59" t="s">
+    <row r="176" spans="1:3">
+      <c r="A176" t="s">
+        <v>559</v>
+      </c>
+      <c r="B176" t="s">
+        <v>682</v>
+      </c>
+      <c r="C176" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" t="s">
+        <v>559</v>
+      </c>
+      <c r="B177" t="s">
+        <v>682</v>
+      </c>
+      <c r="C177" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" t="s">
+        <v>559</v>
+      </c>
+      <c r="B178" t="s">
+        <v>682</v>
+      </c>
+      <c r="C178" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" t="s">
+        <v>559</v>
+      </c>
+      <c r="B179" t="s">
+        <v>671</v>
+      </c>
+      <c r="C179" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" t="s">
+        <v>559</v>
+      </c>
+      <c r="B180" t="s">
+        <v>683</v>
+      </c>
+      <c r="C180" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" t="s">
+        <v>559</v>
+      </c>
+      <c r="B181" t="s">
+        <v>684</v>
+      </c>
+      <c r="C181" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" t="s">
+        <v>559</v>
+      </c>
+      <c r="B182" t="s">
+        <v>684</v>
+      </c>
+      <c r="C182" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" t="s">
+        <v>559</v>
+      </c>
+      <c r="B183" t="s">
+        <v>684</v>
+      </c>
+      <c r="C183" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" t="s">
+        <v>559</v>
+      </c>
+      <c r="B184" t="s">
+        <v>684</v>
+      </c>
+      <c r="C184" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" t="s">
+        <v>559</v>
+      </c>
+      <c r="B185" t="s">
+        <v>685</v>
+      </c>
+      <c r="C185" t="s">
         <v>567</v>
       </c>
-      <c r="C59" t="s">
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" t="s">
+        <v>559</v>
+      </c>
+      <c r="B186" t="s">
+        <v>685</v>
+      </c>
+      <c r="C186" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>522</v>
-      </c>
-      <c r="B60" t="s">
+    <row r="187" spans="1:3">
+      <c r="A187" t="s">
+        <v>559</v>
+      </c>
+      <c r="B187" t="s">
+        <v>686</v>
+      </c>
+      <c r="C187" t="s">
         <v>569</v>
       </c>
-      <c r="C60" t="s">
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" t="s">
+        <v>559</v>
+      </c>
+      <c r="B188" t="s">
+        <v>686</v>
+      </c>
+      <c r="C188" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>522</v>
-      </c>
-      <c r="B61" t="s">
+    <row r="189" spans="1:3">
+      <c r="A189" t="s">
+        <v>559</v>
+      </c>
+      <c r="B189" t="s">
+        <v>686</v>
+      </c>
+      <c r="C189" t="s">
         <v>571</v>
       </c>
-      <c r="C61" t="s">
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" t="s">
+        <v>559</v>
+      </c>
+      <c r="B190" t="s">
+        <v>686</v>
+      </c>
+      <c r="C190" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>522</v>
-      </c>
-      <c r="B62" t="s">
+    <row r="191" spans="1:3">
+      <c r="A191" t="s">
+        <v>559</v>
+      </c>
+      <c r="B191" t="s">
+        <v>685</v>
+      </c>
+      <c r="C191" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" t="s">
+        <v>559</v>
+      </c>
+      <c r="B192" t="s">
+        <v>685</v>
+      </c>
+      <c r="C192" t="s">
         <v>573</v>
       </c>
-      <c r="C62" t="s">
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" t="s">
+        <v>559</v>
+      </c>
+      <c r="B193" t="s">
+        <v>685</v>
+      </c>
+      <c r="C193" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>522</v>
-      </c>
-      <c r="B63" t="s">
+    <row r="194" spans="1:3">
+      <c r="A194" t="s">
+        <v>559</v>
+      </c>
+      <c r="B194" t="s">
+        <v>685</v>
+      </c>
+      <c r="C194" t="s">
         <v>575</v>
       </c>
-      <c r="C63" t="s">
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" t="s">
+        <v>559</v>
+      </c>
+      <c r="B195" t="s">
+        <v>683</v>
+      </c>
+      <c r="C195" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" t="s">
+        <v>559</v>
+      </c>
+      <c r="B196" t="s">
+        <v>685</v>
+      </c>
+      <c r="C196" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>522</v>
-      </c>
-      <c r="B64" t="s">
+    <row r="197" spans="1:3">
+      <c r="A197" t="s">
+        <v>559</v>
+      </c>
+      <c r="B197" t="s">
+        <v>682</v>
+      </c>
+      <c r="C197" t="s">
         <v>577</v>
       </c>
-      <c r="C64" t="s">
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" t="s">
+        <v>559</v>
+      </c>
+      <c r="B198" t="s">
+        <v>682</v>
+      </c>
+      <c r="C198" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>522</v>
-      </c>
-      <c r="B65" t="s">
+    <row r="199" spans="1:3">
+      <c r="A199" t="s">
+        <v>559</v>
+      </c>
+      <c r="B199" t="s">
+        <v>682</v>
+      </c>
+      <c r="C199" t="s">
         <v>579</v>
       </c>
-      <c r="C65" t="s">
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" t="s">
+        <v>559</v>
+      </c>
+      <c r="B200" t="s">
+        <v>682</v>
+      </c>
+      <c r="C200" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" t="s">
+        <v>559</v>
+      </c>
+      <c r="B201" t="s">
+        <v>682</v>
+      </c>
+      <c r="C201" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>522</v>
-      </c>
-      <c r="B66" t="s">
+    <row r="202" spans="1:3">
+      <c r="A202" t="s">
+        <v>559</v>
+      </c>
+      <c r="B202" t="s">
+        <v>686</v>
+      </c>
+      <c r="C202" t="s">
         <v>581</v>
       </c>
-      <c r="C66" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>522</v>
-      </c>
-      <c r="B67" t="s">
-        <v>583</v>
-      </c>
-      <c r="C67" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>522</v>
-      </c>
-      <c r="B68" t="s">
-        <v>585</v>
-      </c>
-      <c r="C68" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>522</v>
-      </c>
-      <c r="B69" t="s">
-        <v>587</v>
-      </c>
-      <c r="C69" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>522</v>
-      </c>
-      <c r="B70" t="s">
-        <v>589</v>
-      </c>
-      <c r="C70" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>522</v>
-      </c>
-      <c r="B71" t="s">
-        <v>717</v>
-      </c>
-      <c r="C71" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>522</v>
-      </c>
-      <c r="B72" t="s">
-        <v>591</v>
-      </c>
-      <c r="C72" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>522</v>
-      </c>
-      <c r="B73" t="s">
-        <v>593</v>
-      </c>
-      <c r="C73" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>522</v>
-      </c>
-      <c r="B74" t="s">
-        <v>595</v>
-      </c>
-      <c r="C74" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>522</v>
-      </c>
-      <c r="B75" t="s">
-        <v>597</v>
-      </c>
-      <c r="C75" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>522</v>
-      </c>
-      <c r="B76" t="s">
-        <v>599</v>
-      </c>
-      <c r="C76" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>522</v>
-      </c>
-      <c r="B77" t="s">
-        <v>601</v>
-      </c>
-      <c r="C77" t="s">
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" t="s">
+        <v>559</v>
+      </c>
+      <c r="B203" t="s">
+        <v>685</v>
+      </c>
+      <c r="C203" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" t="s">
+        <v>559</v>
+      </c>
+      <c r="B204" t="s">
+        <v>685</v>
+      </c>
+      <c r="C204" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" t="s">
+        <v>559</v>
+      </c>
+      <c r="B205" t="s">
+        <v>685</v>
+      </c>
+      <c r="C205" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>522</v>
-      </c>
-      <c r="B78" t="s">
-        <v>603</v>
-      </c>
-      <c r="C78" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>522</v>
-      </c>
-      <c r="B79" t="s">
-        <v>605</v>
-      </c>
-      <c r="C79" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>522</v>
-      </c>
-      <c r="B80" t="s">
-        <v>607</v>
-      </c>
-      <c r="C80" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>522</v>
-      </c>
-      <c r="B81" t="s">
-        <v>609</v>
-      </c>
-      <c r="C81" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>522</v>
-      </c>
-      <c r="B82" t="s">
-        <v>611</v>
-      </c>
-      <c r="C82" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>522</v>
-      </c>
-      <c r="B83" t="s">
-        <v>613</v>
-      </c>
-      <c r="C83" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>522</v>
-      </c>
-      <c r="B84" t="s">
-        <v>615</v>
-      </c>
-      <c r="C84" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>522</v>
-      </c>
-      <c r="B85" t="s">
-        <v>523</v>
-      </c>
-      <c r="C85" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>522</v>
-      </c>
-      <c r="B86" t="s">
-        <v>617</v>
-      </c>
-      <c r="C86" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>522</v>
-      </c>
-      <c r="B87" t="s">
-        <v>620</v>
-      </c>
-      <c r="C87" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>522</v>
-      </c>
-      <c r="B88" t="s">
-        <v>622</v>
-      </c>
-      <c r="C88" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>522</v>
-      </c>
-      <c r="B89" t="s">
-        <v>624</v>
-      </c>
-      <c r="C89" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>522</v>
-      </c>
-      <c r="B90" t="s">
-        <v>625</v>
-      </c>
-      <c r="C90" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>522</v>
-      </c>
-      <c r="B91" t="s">
-        <v>627</v>
-      </c>
-      <c r="C91" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>522</v>
-      </c>
-      <c r="B92" t="s">
-        <v>629</v>
-      </c>
-      <c r="C92" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>522</v>
-      </c>
-      <c r="B93" t="s">
-        <v>593</v>
-      </c>
-      <c r="C93" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>522</v>
-      </c>
-      <c r="B94" t="s">
-        <v>630</v>
-      </c>
-      <c r="C94" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>522</v>
-      </c>
-      <c r="B95" t="s">
-        <v>632</v>
-      </c>
-      <c r="C95" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>522</v>
-      </c>
-      <c r="B96" t="s">
-        <v>634</v>
-      </c>
-      <c r="C96" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>522</v>
-      </c>
-      <c r="B97" t="s">
-        <v>636</v>
-      </c>
-      <c r="C97" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>522</v>
-      </c>
-      <c r="B98" t="s">
-        <v>638</v>
-      </c>
-      <c r="C98" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>640</v>
-      </c>
-      <c r="B99" t="s">
-        <v>641</v>
-      </c>
-      <c r="C99" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>640</v>
-      </c>
-      <c r="B100" t="s">
-        <v>643</v>
-      </c>
-      <c r="C100" t="s">
+    <row r="206" spans="1:3">
+      <c r="A206" t="s">
+        <v>559</v>
+      </c>
+      <c r="B206" t="s">
+        <v>685</v>
+      </c>
+      <c r="C206" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>640</v>
-      </c>
-      <c r="B101" t="s">
+    <row r="207" spans="1:3">
+      <c r="A207" t="s">
+        <v>559</v>
+      </c>
+      <c r="B207" t="s">
+        <v>685</v>
+      </c>
+      <c r="C207" t="s">
         <v>645</v>
-      </c>
-      <c r="C101" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>640</v>
-      </c>
-      <c r="B102" t="s">
-        <v>647</v>
-      </c>
-      <c r="C102" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>640</v>
-      </c>
-      <c r="B103" t="s">
-        <v>649</v>
-      </c>
-      <c r="C103" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>640</v>
-      </c>
-      <c r="B104" t="s">
-        <v>649</v>
-      </c>
-      <c r="C104" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>640</v>
-      </c>
-      <c r="B105" t="s">
-        <v>649</v>
-      </c>
-      <c r="C105" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>640</v>
-      </c>
-      <c r="B106" t="s">
-        <v>649</v>
-      </c>
-      <c r="C106" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>640</v>
-      </c>
-      <c r="B107" t="s">
-        <v>651</v>
-      </c>
-      <c r="C107" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>640</v>
-      </c>
-      <c r="B108" t="s">
-        <v>652</v>
-      </c>
-      <c r="C108" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>640</v>
-      </c>
-      <c r="B109" t="s">
-        <v>653</v>
-      </c>
-      <c r="C109" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>640</v>
-      </c>
-      <c r="B110" t="s">
-        <v>654</v>
-      </c>
-      <c r="C110" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>640</v>
-      </c>
-      <c r="B111" t="s">
-        <v>655</v>
-      </c>
-      <c r="C111" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>640</v>
-      </c>
-      <c r="B112" t="s">
-        <v>657</v>
-      </c>
-      <c r="C112" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>640</v>
-      </c>
-      <c r="B113" t="s">
-        <v>658</v>
-      </c>
-      <c r="C113" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>640</v>
-      </c>
-      <c r="B114" t="s">
-        <v>659</v>
-      </c>
-      <c r="C114" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>640</v>
-      </c>
-      <c r="B115" t="s">
-        <v>660</v>
-      </c>
-      <c r="C115" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>640</v>
-      </c>
-      <c r="B116" t="s">
-        <v>662</v>
-      </c>
-      <c r="C116" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>640</v>
-      </c>
-      <c r="B117" t="s">
-        <v>663</v>
-      </c>
-      <c r="C117" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>640</v>
-      </c>
-      <c r="B118" t="s">
-        <v>664</v>
-      </c>
-      <c r="C118" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>640</v>
-      </c>
-      <c r="B119" t="s">
-        <v>493</v>
-      </c>
-      <c r="C119" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>640</v>
-      </c>
-      <c r="B120" t="s">
-        <v>495</v>
-      </c>
-      <c r="C120" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>640</v>
-      </c>
-      <c r="B121" t="s">
-        <v>665</v>
-      </c>
-      <c r="C121" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>640</v>
-      </c>
-      <c r="B122" t="s">
-        <v>666</v>
-      </c>
-      <c r="C122" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>640</v>
-      </c>
-      <c r="B123" t="s">
-        <v>667</v>
-      </c>
-      <c r="C123" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>640</v>
-      </c>
-      <c r="B124" t="s">
-        <v>668</v>
-      </c>
-      <c r="C124" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>640</v>
-      </c>
-      <c r="B125" t="s">
-        <v>669</v>
-      </c>
-      <c r="C125" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>640</v>
-      </c>
-      <c r="B126" t="s">
-        <v>671</v>
-      </c>
-      <c r="C126" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>640</v>
-      </c>
-      <c r="B127" t="s">
-        <v>673</v>
-      </c>
-      <c r="C127" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>640</v>
-      </c>
-      <c r="B128" t="s">
-        <v>675</v>
-      </c>
-      <c r="C128" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>640</v>
-      </c>
-      <c r="B129" t="s">
-        <v>677</v>
-      </c>
-      <c r="C129" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>640</v>
-      </c>
-      <c r="B130" t="s">
-        <v>679</v>
-      </c>
-      <c r="C130" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>640</v>
-      </c>
-      <c r="B131" t="s">
-        <v>719</v>
-      </c>
-      <c r="C131" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>640</v>
-      </c>
-      <c r="B132" t="s">
-        <v>681</v>
-      </c>
-      <c r="C132" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>640</v>
-      </c>
-      <c r="B133" t="s">
-        <v>683</v>
-      </c>
-      <c r="C133" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>640</v>
-      </c>
-      <c r="B134" t="s">
-        <v>685</v>
-      </c>
-      <c r="C134" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>640</v>
-      </c>
-      <c r="B135" t="s">
-        <v>687</v>
-      </c>
-      <c r="C135" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>640</v>
-      </c>
-      <c r="B136" t="s">
-        <v>688</v>
-      </c>
-      <c r="C136" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>640</v>
-      </c>
-      <c r="B137" t="s">
-        <v>690</v>
-      </c>
-      <c r="C137" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>640</v>
-      </c>
-      <c r="B138" t="s">
-        <v>692</v>
-      </c>
-      <c r="C138" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>640</v>
-      </c>
-      <c r="B139" t="s">
-        <v>694</v>
-      </c>
-      <c r="C139" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>640</v>
-      </c>
-      <c r="B140" t="s">
-        <v>720</v>
-      </c>
-      <c r="C140" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>640</v>
-      </c>
-      <c r="B141" t="s">
-        <v>699</v>
-      </c>
-      <c r="C141" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
-        <v>640</v>
-      </c>
-      <c r="B142" t="s">
-        <v>697</v>
-      </c>
-      <c r="C142" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
-        <v>640</v>
-      </c>
-      <c r="B143" t="s">
-        <v>722</v>
-      </c>
-      <c r="C143" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
-        <v>640</v>
-      </c>
-      <c r="B144" t="s">
-        <v>724</v>
-      </c>
-      <c r="C144" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
-        <v>640</v>
-      </c>
-      <c r="B145" t="s">
-        <v>726</v>
-      </c>
-      <c r="C145" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>640</v>
-      </c>
-      <c r="B146" t="s">
-        <v>727</v>
-      </c>
-      <c r="C146" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>640</v>
-      </c>
-      <c r="B147" t="s">
-        <v>729</v>
-      </c>
-      <c r="C147" t="s">
-        <v>730</v>
       </c>
     </row>
   </sheetData>

--- a/backend/v1.0/tools/DB_Mapping.xlsx
+++ b/backend/v1.0/tools/DB_Mapping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Betan\Documents\GitHub\backend\v1.0\tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Betan\Documents\GitHub\project-cali\backend\v1.0\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584F5B37-436D-492A-B423-D4911C999F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD048CC-04C3-46EF-BB84-1B16013BBE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConexionDB" sheetId="4" r:id="rId1"/>
@@ -1397,9 +1397,6 @@
     <t>8cxXa7GbnvKdSl-4MDLHYNryUfhL98evV2U2Bz84S8EhXzkTEcRiBWbh_HP38GJ31qzZisPJQTvZ0i0EU_DVdg==</t>
   </si>
   <si>
-    <t>Laboratorio</t>
-  </si>
-  <si>
     <t>Unsigned</t>
   </si>
   <si>
@@ -2145,6 +2142,9 @@
   </si>
   <si>
     <t>field</t>
+  </si>
+  <si>
+    <t>Laboratorio_Energías</t>
   </si>
 </sst>
 </file>
@@ -2518,12 +2518,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FC6858-70D5-49A5-93A4-2D625DB38246}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="95.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -2559,7 +2560,7 @@
         <v>8086</v>
       </c>
       <c r="D2" t="s">
-        <v>440</v>
+        <v>689</v>
       </c>
       <c r="E2" t="s">
         <v>438</v>
@@ -2579,18 +2580,18 @@
         <v>8086</v>
       </c>
       <c r="D3" t="s">
-        <v>440</v>
+        <v>689</v>
       </c>
       <c r="E3" t="s">
         <v>438</v>
       </c>
       <c r="F3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B4" t="s">
         <v>437</v>
@@ -2599,13 +2600,13 @@
         <v>8086</v>
       </c>
       <c r="D4" t="s">
-        <v>440</v>
+        <v>689</v>
       </c>
       <c r="E4" t="s">
         <v>438</v>
       </c>
       <c r="F4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2619,13 +2620,13 @@
         <v>8086</v>
       </c>
       <c r="D5" t="s">
-        <v>440</v>
+        <v>689</v>
       </c>
       <c r="E5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2670,7 +2671,7 @@
         <v>435</v>
       </c>
       <c r="B2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C2">
         <v>502</v>
@@ -2715,7 +2716,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C2" t="s">
         <v>435</v>
@@ -2726,7 +2727,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C3" t="s">
         <v>435</v>
@@ -2737,7 +2738,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C4" t="s">
         <v>435</v>
@@ -2748,7 +2749,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C5" t="s">
         <v>435</v>
@@ -2759,7 +2760,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C6" t="s">
         <v>435</v>
@@ -2770,7 +2771,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C7" t="s">
         <v>435</v>
@@ -2781,7 +2782,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C8" t="s">
         <v>435</v>
@@ -2792,7 +2793,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C9" t="s">
         <v>435</v>
@@ -2803,7 +2804,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C10" t="s">
         <v>435</v>
@@ -2814,7 +2815,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C11" t="s">
         <v>435</v>
@@ -2825,7 +2826,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C12" t="s">
         <v>435</v>
@@ -2836,7 +2837,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C13" t="s">
         <v>435</v>
@@ -2847,7 +2848,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C14" t="s">
         <v>435</v>
@@ -2858,7 +2859,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C15" t="s">
         <v>435</v>
@@ -2869,7 +2870,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C16" t="s">
         <v>435</v>
@@ -2880,7 +2881,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C17" t="s">
         <v>435</v>
@@ -2891,7 +2892,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C18" t="s">
         <v>435</v>
@@ -2902,7 +2903,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C19" t="s">
         <v>435</v>
@@ -2913,7 +2914,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C20" t="s">
         <v>435</v>
@@ -2924,7 +2925,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C21" t="s">
         <v>435</v>
@@ -3129,7 +3130,7 @@
         <v>411</v>
       </c>
       <c r="F2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G2">
         <v>100</v>
@@ -3155,7 +3156,7 @@
         <v>411</v>
       </c>
       <c r="F3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G3">
         <v>100</v>
@@ -3181,7 +3182,7 @@
         <v>411</v>
       </c>
       <c r="F4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G4">
         <v>100</v>
@@ -3207,7 +3208,7 @@
         <v>419</v>
       </c>
       <c r="F5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G5">
         <v>10000</v>
@@ -3233,7 +3234,7 @@
         <v>419</v>
       </c>
       <c r="F6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G6">
         <v>10000</v>
@@ -3259,7 +3260,7 @@
         <v>419</v>
       </c>
       <c r="F7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G7">
         <v>10000</v>
@@ -3285,7 +3286,7 @@
         <v>411</v>
       </c>
       <c r="F8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G8">
         <v>100</v>
@@ -3311,7 +3312,7 @@
         <v>411</v>
       </c>
       <c r="F9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G9">
         <v>100</v>
@@ -3337,7 +3338,7 @@
         <v>411</v>
       </c>
       <c r="F10" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G10">
         <v>100</v>
@@ -3363,7 +3364,7 @@
         <v>420</v>
       </c>
       <c r="F11" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G11">
         <v>100000</v>
@@ -3389,7 +3390,7 @@
         <v>421</v>
       </c>
       <c r="F12" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G12">
         <v>100000</v>
@@ -3415,7 +3416,7 @@
         <v>420</v>
       </c>
       <c r="F13" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G13">
         <v>100000</v>
@@ -3441,7 +3442,7 @@
         <v>422</v>
       </c>
       <c r="F14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G14">
         <v>100000</v>
@@ -3467,7 +3468,7 @@
         <v>422</v>
       </c>
       <c r="F15" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G15">
         <v>100000</v>
@@ -3493,7 +3494,7 @@
         <v>422</v>
       </c>
       <c r="F16" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G16">
         <v>100000</v>
@@ -3519,7 +3520,7 @@
         <v>423</v>
       </c>
       <c r="F17" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G17">
         <v>100000</v>
@@ -3545,7 +3546,7 @@
         <v>423</v>
       </c>
       <c r="F18" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G18">
         <v>100000</v>
@@ -3571,7 +3572,7 @@
         <v>423</v>
       </c>
       <c r="F19" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G19">
         <v>100000</v>
@@ -3594,7 +3595,7 @@
         <v>48</v>
       </c>
       <c r="F20" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G20">
         <v>10000</v>
@@ -3617,7 +3618,7 @@
         <v>49</v>
       </c>
       <c r="F21" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G21">
         <v>10000</v>
@@ -3640,7 +3641,7 @@
         <v>50</v>
       </c>
       <c r="F22" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G22">
         <v>10000</v>
@@ -3666,7 +3667,7 @@
         <v>424</v>
       </c>
       <c r="F23" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G23">
         <v>1000</v>
@@ -3692,7 +3693,7 @@
         <v>412</v>
       </c>
       <c r="F24" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G24">
         <v>100</v>
@@ -3718,7 +3719,7 @@
         <v>412</v>
       </c>
       <c r="F25" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G25">
         <v>100</v>
@@ -3744,7 +3745,7 @@
         <v>412</v>
       </c>
       <c r="F26" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G26">
         <v>100</v>
@@ -3770,7 +3771,7 @@
         <v>412</v>
       </c>
       <c r="F27" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G27">
         <v>100</v>
@@ -3796,7 +3797,7 @@
         <v>412</v>
       </c>
       <c r="F28" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G28">
         <v>100</v>
@@ -3822,7 +3823,7 @@
         <v>412</v>
       </c>
       <c r="F29" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G29">
         <v>100</v>
@@ -3833,7 +3834,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B30">
         <v>156</v>
@@ -3842,19 +3843,19 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E30" t="s">
         <v>411</v>
       </c>
       <c r="F30" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G30">
         <v>100</v>
       </c>
       <c r="H30" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3874,7 +3875,7 @@
         <v>425</v>
       </c>
       <c r="F31" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G31">
         <v>100</v>
@@ -3900,7 +3901,7 @@
         <v>425</v>
       </c>
       <c r="F32" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G32">
         <v>100</v>
@@ -3926,7 +3927,7 @@
         <v>425</v>
       </c>
       <c r="F33" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G33">
         <v>100</v>
@@ -3952,7 +3953,7 @@
         <v>425</v>
       </c>
       <c r="F34" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G34">
         <v>100</v>
@@ -3978,7 +3979,7 @@
         <v>425</v>
       </c>
       <c r="F35" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G35">
         <v>100</v>
@@ -4004,7 +4005,7 @@
         <v>425</v>
       </c>
       <c r="F36" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G36">
         <v>100</v>
@@ -4030,7 +4031,7 @@
         <v>425</v>
       </c>
       <c r="F37" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G37">
         <v>100</v>
@@ -4056,7 +4057,7 @@
         <v>425</v>
       </c>
       <c r="F38" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G38">
         <v>100</v>
@@ -4082,7 +4083,7 @@
         <v>425</v>
       </c>
       <c r="F39" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G39">
         <v>100</v>
@@ -4108,7 +4109,7 @@
         <v>425</v>
       </c>
       <c r="F40" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G40">
         <v>100</v>
@@ -4134,7 +4135,7 @@
         <v>425</v>
       </c>
       <c r="F41" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G41">
         <v>100</v>
@@ -4160,7 +4161,7 @@
         <v>425</v>
       </c>
       <c r="F42" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G42">
         <v>100</v>
@@ -4186,7 +4187,7 @@
         <v>425</v>
       </c>
       <c r="F43" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G43">
         <v>100</v>
@@ -4212,7 +4213,7 @@
         <v>425</v>
       </c>
       <c r="F44" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G44">
         <v>100</v>
@@ -4223,7 +4224,7 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B45">
         <v>158</v>
@@ -4232,19 +4233,19 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E45" t="s">
         <v>411</v>
       </c>
       <c r="F45" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G45">
         <v>100</v>
       </c>
       <c r="H45" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -4264,7 +4265,7 @@
         <v>425</v>
       </c>
       <c r="F46" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G46">
         <v>100</v>
@@ -4290,7 +4291,7 @@
         <v>425</v>
       </c>
       <c r="F47" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G47">
         <v>100</v>
@@ -4316,7 +4317,7 @@
         <v>425</v>
       </c>
       <c r="F48" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G48">
         <v>100</v>
@@ -4342,7 +4343,7 @@
         <v>425</v>
       </c>
       <c r="F49" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G49">
         <v>100</v>
@@ -4368,7 +4369,7 @@
         <v>425</v>
       </c>
       <c r="F50" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G50">
         <v>100</v>
@@ -4394,7 +4395,7 @@
         <v>425</v>
       </c>
       <c r="F51" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G51">
         <v>100</v>
@@ -4420,7 +4421,7 @@
         <v>425</v>
       </c>
       <c r="F52" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G52">
         <v>100</v>
@@ -4446,7 +4447,7 @@
         <v>425</v>
       </c>
       <c r="F53" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G53">
         <v>100</v>
@@ -4472,7 +4473,7 @@
         <v>425</v>
       </c>
       <c r="F54" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G54">
         <v>100</v>
@@ -4498,7 +4499,7 @@
         <v>425</v>
       </c>
       <c r="F55" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G55">
         <v>100</v>
@@ -4524,7 +4525,7 @@
         <v>425</v>
       </c>
       <c r="F56" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G56">
         <v>100</v>
@@ -4550,7 +4551,7 @@
         <v>425</v>
       </c>
       <c r="F57" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G57">
         <v>100</v>
@@ -4576,7 +4577,7 @@
         <v>425</v>
       </c>
       <c r="F58" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G58">
         <v>100</v>
@@ -4602,7 +4603,7 @@
         <v>425</v>
       </c>
       <c r="F59" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G59">
         <v>100</v>
@@ -4613,7 +4614,7 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B60">
         <v>160</v>
@@ -4622,19 +4623,19 @@
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E60" t="s">
         <v>411</v>
       </c>
       <c r="F60" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G60">
         <v>100</v>
       </c>
       <c r="H60" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -4654,7 +4655,7 @@
         <v>425</v>
       </c>
       <c r="F61" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G61">
         <v>100</v>
@@ -4680,7 +4681,7 @@
         <v>425</v>
       </c>
       <c r="F62" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G62">
         <v>100</v>
@@ -4706,7 +4707,7 @@
         <v>425</v>
       </c>
       <c r="F63" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G63">
         <v>100</v>
@@ -4732,7 +4733,7 @@
         <v>425</v>
       </c>
       <c r="F64" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G64">
         <v>100</v>
@@ -4758,7 +4759,7 @@
         <v>425</v>
       </c>
       <c r="F65" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G65">
         <v>100</v>
@@ -4784,7 +4785,7 @@
         <v>425</v>
       </c>
       <c r="F66" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G66">
         <v>100</v>
@@ -4810,7 +4811,7 @@
         <v>425</v>
       </c>
       <c r="F67" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G67">
         <v>100</v>
@@ -4836,7 +4837,7 @@
         <v>425</v>
       </c>
       <c r="F68" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G68">
         <v>100</v>
@@ -4862,7 +4863,7 @@
         <v>425</v>
       </c>
       <c r="F69" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G69">
         <v>100</v>
@@ -4888,7 +4889,7 @@
         <v>425</v>
       </c>
       <c r="F70" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G70">
         <v>100</v>
@@ -4914,7 +4915,7 @@
         <v>425</v>
       </c>
       <c r="F71" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G71">
         <v>100</v>
@@ -4940,7 +4941,7 @@
         <v>425</v>
       </c>
       <c r="F72" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G72">
         <v>100</v>
@@ -4966,7 +4967,7 @@
         <v>425</v>
       </c>
       <c r="F73" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G73">
         <v>100</v>
@@ -4992,7 +4993,7 @@
         <v>425</v>
       </c>
       <c r="F74" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G74">
         <v>100</v>
@@ -5003,7 +5004,7 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B75">
         <v>164</v>
@@ -5012,19 +5013,19 @@
         <v>2</v>
       </c>
       <c r="D75" t="s">
+        <v>654</v>
+      </c>
+      <c r="E75" t="s">
         <v>655</v>
       </c>
-      <c r="E75" t="s">
-        <v>656</v>
-      </c>
       <c r="F75" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G75">
         <v>10000</v>
       </c>
       <c r="H75" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -5044,7 +5045,7 @@
         <v>425</v>
       </c>
       <c r="F76" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G76">
         <v>100</v>
@@ -5070,7 +5071,7 @@
         <v>425</v>
       </c>
       <c r="F77" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G77">
         <v>100</v>
@@ -5096,7 +5097,7 @@
         <v>425</v>
       </c>
       <c r="F78" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G78">
         <v>100</v>
@@ -5122,7 +5123,7 @@
         <v>425</v>
       </c>
       <c r="F79" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G79">
         <v>100</v>
@@ -5148,7 +5149,7 @@
         <v>425</v>
       </c>
       <c r="F80" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G80">
         <v>100</v>
@@ -5174,7 +5175,7 @@
         <v>425</v>
       </c>
       <c r="F81" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G81">
         <v>100</v>
@@ -5200,7 +5201,7 @@
         <v>425</v>
       </c>
       <c r="F82" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G82">
         <v>100</v>
@@ -5226,7 +5227,7 @@
         <v>425</v>
       </c>
       <c r="F83" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G83">
         <v>100</v>
@@ -5252,7 +5253,7 @@
         <v>425</v>
       </c>
       <c r="F84" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G84">
         <v>100</v>
@@ -5278,7 +5279,7 @@
         <v>425</v>
       </c>
       <c r="F85" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G85">
         <v>100</v>
@@ -5304,7 +5305,7 @@
         <v>425</v>
       </c>
       <c r="F86" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G86">
         <v>100</v>
@@ -5330,7 +5331,7 @@
         <v>425</v>
       </c>
       <c r="F87" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G87">
         <v>100</v>
@@ -5356,7 +5357,7 @@
         <v>425</v>
       </c>
       <c r="F88" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G88">
         <v>100</v>
@@ -5382,7 +5383,7 @@
         <v>425</v>
       </c>
       <c r="F89" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G89">
         <v>100</v>
@@ -5408,7 +5409,7 @@
         <v>425</v>
       </c>
       <c r="F90" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G90">
         <v>100</v>
@@ -5419,7 +5420,7 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B91">
         <v>166</v>
@@ -5428,19 +5429,19 @@
         <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E91" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F91" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G91">
         <v>10000</v>
       </c>
       <c r="H91" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -5460,7 +5461,7 @@
         <v>425</v>
       </c>
       <c r="F92" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G92">
         <v>100</v>
@@ -5486,7 +5487,7 @@
         <v>425</v>
       </c>
       <c r="F93" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G93">
         <v>100</v>
@@ -5512,7 +5513,7 @@
         <v>425</v>
       </c>
       <c r="F94" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G94">
         <v>100</v>
@@ -5538,7 +5539,7 @@
         <v>425</v>
       </c>
       <c r="F95" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G95">
         <v>100</v>
@@ -5564,7 +5565,7 @@
         <v>425</v>
       </c>
       <c r="F96" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G96">
         <v>100</v>
@@ -5590,7 +5591,7 @@
         <v>425</v>
       </c>
       <c r="F97" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G97">
         <v>100</v>
@@ -5616,7 +5617,7 @@
         <v>425</v>
       </c>
       <c r="F98" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G98">
         <v>100</v>
@@ -5642,7 +5643,7 @@
         <v>425</v>
       </c>
       <c r="F99" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G99">
         <v>100</v>
@@ -5668,7 +5669,7 @@
         <v>425</v>
       </c>
       <c r="F100" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G100">
         <v>100</v>
@@ -5694,7 +5695,7 @@
         <v>425</v>
       </c>
       <c r="F101" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G101">
         <v>100</v>
@@ -5720,7 +5721,7 @@
         <v>425</v>
       </c>
       <c r="F102" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G102">
         <v>100</v>
@@ -5746,7 +5747,7 @@
         <v>425</v>
       </c>
       <c r="F103" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G103">
         <v>100</v>
@@ -5772,7 +5773,7 @@
         <v>425</v>
       </c>
       <c r="F104" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G104">
         <v>100</v>
@@ -5798,7 +5799,7 @@
         <v>425</v>
       </c>
       <c r="F105" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G105">
         <v>100</v>
@@ -5824,7 +5825,7 @@
         <v>425</v>
       </c>
       <c r="F106" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G106">
         <v>100</v>
@@ -5835,7 +5836,7 @@
     </row>
     <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B107">
         <v>168</v>
@@ -5844,19 +5845,19 @@
         <v>2</v>
       </c>
       <c r="D107" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E107" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F107" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G107">
         <v>10000</v>
       </c>
       <c r="H107" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5876,7 +5877,7 @@
         <v>425</v>
       </c>
       <c r="F108" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G108">
         <v>100</v>
@@ -5902,7 +5903,7 @@
         <v>425</v>
       </c>
       <c r="F109" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G109">
         <v>100</v>
@@ -5928,7 +5929,7 @@
         <v>425</v>
       </c>
       <c r="F110" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G110">
         <v>100</v>
@@ -5954,7 +5955,7 @@
         <v>425</v>
       </c>
       <c r="F111" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G111">
         <v>100</v>
@@ -5980,7 +5981,7 @@
         <v>425</v>
       </c>
       <c r="F112" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G112">
         <v>100</v>
@@ -6006,7 +6007,7 @@
         <v>425</v>
       </c>
       <c r="F113" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G113">
         <v>100</v>
@@ -6032,7 +6033,7 @@
         <v>425</v>
       </c>
       <c r="F114" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G114">
         <v>100</v>
@@ -6058,7 +6059,7 @@
         <v>425</v>
       </c>
       <c r="F115" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G115">
         <v>100</v>
@@ -6084,7 +6085,7 @@
         <v>425</v>
       </c>
       <c r="F116" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G116">
         <v>100</v>
@@ -6110,7 +6111,7 @@
         <v>425</v>
       </c>
       <c r="F117" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G117">
         <v>100</v>
@@ -6136,7 +6137,7 @@
         <v>425</v>
       </c>
       <c r="F118" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G118">
         <v>100</v>
@@ -6162,7 +6163,7 @@
         <v>425</v>
       </c>
       <c r="F119" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G119">
         <v>100</v>
@@ -6188,7 +6189,7 @@
         <v>425</v>
       </c>
       <c r="F120" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G120">
         <v>100</v>
@@ -6214,7 +6215,7 @@
         <v>425</v>
       </c>
       <c r="F121" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G121">
         <v>100</v>
@@ -6240,7 +6241,7 @@
         <v>425</v>
       </c>
       <c r="F122" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G122">
         <v>100</v>
@@ -6266,7 +6267,7 @@
         <v>413</v>
       </c>
       <c r="F123" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G123">
         <v>100</v>
@@ -6292,7 +6293,7 @@
         <v>413</v>
       </c>
       <c r="F124" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G124">
         <v>100</v>
@@ -6318,7 +6319,7 @@
         <v>414</v>
       </c>
       <c r="F125" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G125">
         <v>100</v>
@@ -6344,7 +6345,7 @@
         <v>414</v>
       </c>
       <c r="F126" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G126">
         <v>100</v>
@@ -6370,7 +6371,7 @@
         <v>415</v>
       </c>
       <c r="F127" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G127">
         <v>100</v>
@@ -6396,7 +6397,7 @@
         <v>416</v>
       </c>
       <c r="F128" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G128">
         <v>100</v>
@@ -6422,7 +6423,7 @@
         <v>416</v>
       </c>
       <c r="F129" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G129">
         <v>100</v>
@@ -6448,7 +6449,7 @@
         <v>417</v>
       </c>
       <c r="F130" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G130">
         <v>100</v>
@@ -6474,7 +6475,7 @@
         <v>417</v>
       </c>
       <c r="F131" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G131">
         <v>100</v>
@@ -6500,7 +6501,7 @@
         <v>418</v>
       </c>
       <c r="F132" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G132">
         <v>100</v>
@@ -6526,7 +6527,7 @@
         <v>416</v>
       </c>
       <c r="F133" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G133">
         <v>100</v>
@@ -6552,7 +6553,7 @@
         <v>416</v>
       </c>
       <c r="F134" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G134">
         <v>100</v>
@@ -6578,7 +6579,7 @@
         <v>417</v>
       </c>
       <c r="F135" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G135">
         <v>100</v>
@@ -6604,7 +6605,7 @@
         <v>417</v>
       </c>
       <c r="F136" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G136">
         <v>100</v>
@@ -6630,7 +6631,7 @@
         <v>418</v>
       </c>
       <c r="F137" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G137">
         <v>100</v>
@@ -6656,7 +6657,7 @@
         <v>416</v>
       </c>
       <c r="F138" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G138">
         <v>100</v>
@@ -6682,7 +6683,7 @@
         <v>416</v>
       </c>
       <c r="F139" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G139">
         <v>100</v>
@@ -6708,7 +6709,7 @@
         <v>417</v>
       </c>
       <c r="F140" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G140">
         <v>100</v>
@@ -6734,7 +6735,7 @@
         <v>417</v>
       </c>
       <c r="F141" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G141">
         <v>100</v>
@@ -6760,7 +6761,7 @@
         <v>418</v>
       </c>
       <c r="F142" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G142">
         <v>100</v>
@@ -6781,7 +6782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D5969C-509B-4D3C-BD42-B92347445C5B}">
   <dimension ref="A1:G207"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B99" sqref="B99:B158"/>
     </sheetView>
   </sheetViews>
@@ -6794,2103 +6795,2103 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
+        <v>686</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>687</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>688</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B2" t="s">
+        <v>667</v>
+      </c>
+      <c r="C2" t="s">
         <v>465</v>
-      </c>
-      <c r="B2" t="s">
-        <v>668</v>
-      </c>
-      <c r="C2" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B8" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B10" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C10" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B11" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B12" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C12" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B13" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C13" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B14" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B15" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B16" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C16" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B17" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C17" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B18" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B19" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C19" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B20" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C20" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B21" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C21" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B22" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C22" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B23" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C23" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B24" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C24" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B25" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C25" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B26" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C26" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B27" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C27" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B28" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C28" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B29" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C29" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B30" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C30" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B31" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C31" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B32" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C32" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B33" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C33" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B34" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C34" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B35" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C35" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B36" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C36" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B37" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C37" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B38" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C38" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B39" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C39" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B40" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C40" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B41" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C41" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B42" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C42" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B43" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C43" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B44" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C44" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B45" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C45" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B46" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C46" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B47" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C47" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B48" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C48" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B49" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C49" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B50" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C50" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B51" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C51" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B52" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C52" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B53" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C53" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B54" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C54" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B55" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C55" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B56" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C56" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B57" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C57" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B58" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C58" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B59" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C59" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B60" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C60" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B61" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C61" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B62" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C62" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B63" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C63" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B64" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C64" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B65" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C65" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B66" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C66" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B67" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C67" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B68" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C68" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B69" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C69" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B70" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C70" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B71" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C71" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B72" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C72" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B73" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C73" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B74" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C74" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B75" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C75" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B76" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C76" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B77" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C77" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B78" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C78" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B79" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C79" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B80" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C80" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B81" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C81" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B82" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C82" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B83" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C83" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B84" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C84" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B85" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C85" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B86" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C86" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B87" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C87" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B88" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C88" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B89" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C89" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B90" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C90" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B91" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C91" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B92" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C92" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B93" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C93" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B94" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C94" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B95" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C95" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B96" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C96" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B97" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C97" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B98" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C98" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C99" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C100" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C101" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C102" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C103" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C104" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C105" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C106" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C107" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C108" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C109" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C110" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C111" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C112" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C113" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C114" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C115" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C116" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C117" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C118" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C119" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C120" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C121" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C122" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C123" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C124" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C125" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C126" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C127" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C128" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C129" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C130" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C131" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C132" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C133" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C134" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C135" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C136" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C137" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C138" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C139" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C140" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C141" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C142" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C143" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C144" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C145" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C146" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C147" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C148" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F148" s="8"/>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C149" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F149" s="8"/>
       <c r="G149" s="8"/>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C150" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C151" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C152" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C153" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C154" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C155" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C156" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E156" s="8"/>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C157" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C158" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" t="s">
+        <v>558</v>
+      </c>
+      <c r="B159" t="s">
+        <v>679</v>
+      </c>
+      <c r="C159" t="s">
         <v>559</v>
-      </c>
-      <c r="B159" t="s">
-        <v>680</v>
-      </c>
-      <c r="C159" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B160" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C160" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B161" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C161" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B162" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C162" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B163" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C163" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B164" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C164" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B165" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C165" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B166" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C166" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B167" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C167" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B168" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C168" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B169" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C169" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B170" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C170" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B171" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C171" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B172" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C172" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B173" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C173" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B174" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C174" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B175" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C175" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B176" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C176" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B177" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C177" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B178" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C178" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B179" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C179" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B180" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C180" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B181" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C181" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B182" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C182" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B183" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C183" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B184" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C184" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B185" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C185" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B186" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C186" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B187" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C187" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B188" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C188" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B189" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C189" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B190" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C190" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B191" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C191" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B192" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C192" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B193" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C193" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B194" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C194" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B195" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C195" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B196" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C196" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B197" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C197" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B198" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C198" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B199" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C199" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B200" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C200" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B201" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C201" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B202" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C202" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B203" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C203" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B204" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C204" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B205" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C205" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B206" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C206" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B207" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C207" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
   </sheetData>

--- a/backend/v1.0/tools/DB_Mapping.xlsx
+++ b/backend/v1.0/tools/DB_Mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Betan\Documents\GitHub\project-cali\backend\v1.0\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD048CC-04C3-46EF-BB84-1B16013BBE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4AB34E5-433A-4FB5-8F81-111E38172132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConexionDB" sheetId="4" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="629">
   <si>
     <t xml:space="preserve">0x0002 </t>
   </si>
@@ -1571,189 +1571,9 @@
     <t>QM7Xx79NnvECxQt3j3t-js3QSDVpwGaUibCfmO5ECe-4UYGmgQgoESvYSQ-PctdoksZ0aNZe6-S4Y9QOkc4-bQ==</t>
   </si>
   <si>
-    <t>SE-104</t>
-  </si>
-  <si>
-    <t>TE-101A</t>
-  </si>
-  <si>
-    <t>TE-101B</t>
-  </si>
-  <si>
-    <t>AT-101</t>
-  </si>
-  <si>
-    <t>AT-103A1</t>
-  </si>
-  <si>
-    <t>AT-103A2</t>
-  </si>
-  <si>
-    <t>AT-103A3</t>
-  </si>
-  <si>
-    <t>AT-103A4</t>
-  </si>
-  <si>
-    <t>AT-103A5</t>
-  </si>
-  <si>
-    <t>AT-103B</t>
-  </si>
-  <si>
-    <t>M-ST</t>
-  </si>
-  <si>
-    <t>M-SV</t>
-  </si>
-  <si>
-    <t>M-Cc</t>
-  </si>
-  <si>
-    <t>M-Ch</t>
-  </si>
-  <si>
-    <t>M-Co</t>
-  </si>
-  <si>
-    <t>M-Cn</t>
-  </si>
-  <si>
-    <t>M-Cs</t>
-  </si>
-  <si>
-    <t>M-d</t>
-  </si>
-  <si>
-    <t>PT-101</t>
-  </si>
-  <si>
-    <t>PT-103</t>
-  </si>
-  <si>
-    <t>TT-103</t>
-  </si>
-  <si>
-    <t>SE-108</t>
-  </si>
-  <si>
-    <t>SE-101</t>
-  </si>
-  <si>
-    <t>TE-102A</t>
-  </si>
-  <si>
-    <t>TE-102B</t>
-  </si>
-  <si>
-    <t>AT-102</t>
-  </si>
-  <si>
-    <t>AT-104A1</t>
-  </si>
-  <si>
-    <t>AT-104A2</t>
-  </si>
-  <si>
-    <t>AT-104A3</t>
-  </si>
-  <si>
-    <t>AT-104A4</t>
-  </si>
-  <si>
-    <t>AT-104A5</t>
-  </si>
-  <si>
-    <t>AT-104B</t>
-  </si>
-  <si>
-    <t>PT-102</t>
-  </si>
-  <si>
-    <t>PT-104</t>
-  </si>
-  <si>
-    <t>SE-109</t>
-  </si>
-  <si>
-    <t>SE-102</t>
-  </si>
-  <si>
-    <t>TT-105</t>
-  </si>
-  <si>
-    <t>PT-105</t>
-  </si>
-  <si>
-    <t>AT-105A1</t>
-  </si>
-  <si>
-    <t>AT-105A2</t>
-  </si>
-  <si>
-    <t>AT-105A3</t>
-  </si>
-  <si>
-    <t>AT-105A4</t>
-  </si>
-  <si>
-    <t>AT-105A5</t>
-  </si>
-  <si>
-    <t>AT-105B</t>
-  </si>
-  <si>
-    <t>M-TRH</t>
-  </si>
-  <si>
-    <t>M-FT-P-104</t>
-  </si>
-  <si>
-    <t>M-TTO-P-104</t>
-  </si>
-  <si>
-    <t>M-FT-P-101</t>
-  </si>
-  <si>
-    <t>SE-104v</t>
-  </si>
-  <si>
-    <t>TE-101v</t>
-  </si>
-  <si>
     <t>UCO</t>
   </si>
   <si>
-    <t>M-TTO-P-101</t>
-  </si>
-  <si>
-    <t>M-Q-P-101</t>
-  </si>
-  <si>
-    <t>M-FT-P-102</t>
-  </si>
-  <si>
-    <t>M-TTO-P-102</t>
-  </si>
-  <si>
-    <t>LT-101</t>
-  </si>
-  <si>
-    <t>LT-102</t>
-  </si>
-  <si>
-    <t>SV-103</t>
-  </si>
-  <si>
-    <t>SV-108</t>
-  </si>
-  <si>
-    <t>SV-109</t>
-  </si>
-  <si>
-    <t>Módulo solar-eólico</t>
-  </si>
-  <si>
     <t>RS001</t>
   </si>
   <si>
@@ -1820,60 +1640,6 @@
     <t>VGR001</t>
   </si>
   <si>
-    <t>SE-101v</t>
-  </si>
-  <si>
-    <t>SE-102v</t>
-  </si>
-  <si>
-    <t>M-VGA_V101</t>
-  </si>
-  <si>
-    <t>M-PA_CH4_V101</t>
-  </si>
-  <si>
-    <t>M-PA_CO2_V101</t>
-  </si>
-  <si>
-    <t>M-PA_H2S_V101</t>
-  </si>
-  <si>
-    <t>M-PA_O2_V101</t>
-  </si>
-  <si>
-    <t>M-PA_H2_V101</t>
-  </si>
-  <si>
-    <t>M-molA_CH4_V101</t>
-  </si>
-  <si>
-    <t>M-molA_CO2_V101</t>
-  </si>
-  <si>
-    <t>M-molA_H2S_V101</t>
-  </si>
-  <si>
-    <t>M-molA_O2_V101</t>
-  </si>
-  <si>
-    <t>M-molA_H2_V101</t>
-  </si>
-  <si>
-    <t>M-molA_H2O_V101</t>
-  </si>
-  <si>
-    <t>P_acum_V101</t>
-  </si>
-  <si>
-    <t>M-VGT_V101</t>
-  </si>
-  <si>
-    <t>Msus_exp_R101</t>
-  </si>
-  <si>
-    <t>Csus_exp_R101</t>
-  </si>
-  <si>
     <t>VB002</t>
   </si>
   <si>
@@ -1883,120 +1649,6 @@
     <t>PB002</t>
   </si>
   <si>
-    <t>TT-104</t>
-  </si>
-  <si>
-    <t>M-SV_R101</t>
-  </si>
-  <si>
-    <t>M-ST_R101</t>
-  </si>
-  <si>
-    <t>M_VGA_V102</t>
-  </si>
-  <si>
-    <t>M-PA_CH4_V102</t>
-  </si>
-  <si>
-    <t>M-PA_CO2_V102</t>
-  </si>
-  <si>
-    <t>M-PA_H2S_V102</t>
-  </si>
-  <si>
-    <t>M-PA_O2_V102</t>
-  </si>
-  <si>
-    <t>M-PA_H2_V102</t>
-  </si>
-  <si>
-    <t>M-molA_CH4_V102</t>
-  </si>
-  <si>
-    <t>M-molA_CO2_V102</t>
-  </si>
-  <si>
-    <t>M-molA_H2S_V102</t>
-  </si>
-  <si>
-    <t>M-molA_O2_V102</t>
-  </si>
-  <si>
-    <t>M-molA_H2_V102</t>
-  </si>
-  <si>
-    <t>M-molA_H2O_V102</t>
-  </si>
-  <si>
-    <t>P_acum_V102</t>
-  </si>
-  <si>
-    <t>M-VGT_V102</t>
-  </si>
-  <si>
-    <t>M_VGA_V107</t>
-  </si>
-  <si>
-    <t>M-PA_CH4_V107</t>
-  </si>
-  <si>
-    <t>M-PA_CO2_V107</t>
-  </si>
-  <si>
-    <t>M-PA_H2S_V107</t>
-  </si>
-  <si>
-    <t>M-PA_O2_V107</t>
-  </si>
-  <si>
-    <t>M-PA_H2_V107</t>
-  </si>
-  <si>
-    <t>M-molA_CH4_V107</t>
-  </si>
-  <si>
-    <t>M-molA_CO2_V107</t>
-  </si>
-  <si>
-    <t>M-molA_H2S_V107</t>
-  </si>
-  <si>
-    <t>M-molA_H2_V107</t>
-  </si>
-  <si>
-    <t>M-molA_O2_V107</t>
-  </si>
-  <si>
-    <t>M-molA_H2O_V107</t>
-  </si>
-  <si>
-    <t>P_acum_V107</t>
-  </si>
-  <si>
-    <t>M-VGT_V107</t>
-  </si>
-  <si>
-    <t>M-molT_CH4_V101</t>
-  </si>
-  <si>
-    <t>M-molT_CH4_V102</t>
-  </si>
-  <si>
-    <t>M-molT_CH4_V107</t>
-  </si>
-  <si>
-    <t>Csus_exp_R102</t>
-  </si>
-  <si>
-    <t>Msus_exp_R102</t>
-  </si>
-  <si>
-    <t>M-SV_R102</t>
-  </si>
-  <si>
-    <t>M-ST_R102</t>
-  </si>
-  <si>
     <t>TB002</t>
   </si>
   <si>
@@ -2012,15 +1664,6 @@
     <t>VG004</t>
   </si>
   <si>
-    <t>TE-102v</t>
-  </si>
-  <si>
-    <t>K_train</t>
-  </si>
-  <si>
-    <t>Ea_train</t>
-  </si>
-  <si>
     <t>Fundamental VL1</t>
   </si>
   <si>
@@ -2096,9 +1739,6 @@
     <t>Planta Biogás</t>
   </si>
   <si>
-    <t>DTPlantaBiogás</t>
-  </si>
-  <si>
     <t>device1</t>
   </si>
   <si>
@@ -2145,6 +1785,183 @@
   </si>
   <si>
     <t>Laboratorio_Energías</t>
+  </si>
+  <si>
+    <t>SE104</t>
+  </si>
+  <si>
+    <t>TE101A</t>
+  </si>
+  <si>
+    <t>TE101B</t>
+  </si>
+  <si>
+    <t>AT101</t>
+  </si>
+  <si>
+    <t>AT103A1</t>
+  </si>
+  <si>
+    <t>AT103A2</t>
+  </si>
+  <si>
+    <t>AT103A3</t>
+  </si>
+  <si>
+    <t>AT103A4</t>
+  </si>
+  <si>
+    <t>AT103A5</t>
+  </si>
+  <si>
+    <t>AT103B</t>
+  </si>
+  <si>
+    <t>MST</t>
+  </si>
+  <si>
+    <t>MSV</t>
+  </si>
+  <si>
+    <t>MCc</t>
+  </si>
+  <si>
+    <t>MCh</t>
+  </si>
+  <si>
+    <t>MCo</t>
+  </si>
+  <si>
+    <t>MCn</t>
+  </si>
+  <si>
+    <t>MCs</t>
+  </si>
+  <si>
+    <t>Md</t>
+  </si>
+  <si>
+    <t>PT101</t>
+  </si>
+  <si>
+    <t>PT103</t>
+  </si>
+  <si>
+    <t>TT103</t>
+  </si>
+  <si>
+    <t>SE108</t>
+  </si>
+  <si>
+    <t>SE101</t>
+  </si>
+  <si>
+    <t>TE102A</t>
+  </si>
+  <si>
+    <t>TE102B</t>
+  </si>
+  <si>
+    <t>AT102</t>
+  </si>
+  <si>
+    <t>AT104A1</t>
+  </si>
+  <si>
+    <t>AT104A2</t>
+  </si>
+  <si>
+    <t>AT104A3</t>
+  </si>
+  <si>
+    <t>AT104A4</t>
+  </si>
+  <si>
+    <t>AT104A5</t>
+  </si>
+  <si>
+    <t>AT104B</t>
+  </si>
+  <si>
+    <t>PT102</t>
+  </si>
+  <si>
+    <t>PT104</t>
+  </si>
+  <si>
+    <t>TT104</t>
+  </si>
+  <si>
+    <t>SE109</t>
+  </si>
+  <si>
+    <t>SE102</t>
+  </si>
+  <si>
+    <t>TT105</t>
+  </si>
+  <si>
+    <t>PT105</t>
+  </si>
+  <si>
+    <t>AT105A1</t>
+  </si>
+  <si>
+    <t>AT105A2</t>
+  </si>
+  <si>
+    <t>AT105A3</t>
+  </si>
+  <si>
+    <t>AT105A4</t>
+  </si>
+  <si>
+    <t>AT105A5</t>
+  </si>
+  <si>
+    <t>AT105B</t>
+  </si>
+  <si>
+    <t>MTRH</t>
+  </si>
+  <si>
+    <t>MFTP104</t>
+  </si>
+  <si>
+    <t>MTTOP104</t>
+  </si>
+  <si>
+    <t>MFTP101</t>
+  </si>
+  <si>
+    <t>MTTOP101</t>
+  </si>
+  <si>
+    <t>MQP101</t>
+  </si>
+  <si>
+    <t>MFTP102</t>
+  </si>
+  <si>
+    <t>MTTOP102</t>
+  </si>
+  <si>
+    <t>LT101</t>
+  </si>
+  <si>
+    <t>LT102</t>
+  </si>
+  <si>
+    <t>SV103</t>
+  </si>
+  <si>
+    <t>SV108</t>
+  </si>
+  <si>
+    <t>SV109</t>
+  </si>
+  <si>
+    <t>Módulo solareólico</t>
   </si>
 </sst>
 </file>
@@ -2518,7 +2335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FC6858-70D5-49A5-93A4-2D625DB38246}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
@@ -2560,7 +2377,7 @@
         <v>8086</v>
       </c>
       <c r="D2" t="s">
-        <v>689</v>
+        <v>569</v>
       </c>
       <c r="E2" t="s">
         <v>438</v>
@@ -2580,7 +2397,7 @@
         <v>8086</v>
       </c>
       <c r="D3" t="s">
-        <v>689</v>
+        <v>569</v>
       </c>
       <c r="E3" t="s">
         <v>438</v>
@@ -2600,7 +2417,7 @@
         <v>8086</v>
       </c>
       <c r="D4" t="s">
-        <v>689</v>
+        <v>569</v>
       </c>
       <c r="E4" t="s">
         <v>438</v>
@@ -2620,10 +2437,10 @@
         <v>8086</v>
       </c>
       <c r="D5" t="s">
-        <v>689</v>
+        <v>569</v>
       </c>
       <c r="E5" t="s">
-        <v>548</v>
+        <v>498</v>
       </c>
       <c r="F5" t="s">
         <v>497</v>
@@ -3834,7 +3651,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>649</v>
+        <v>530</v>
       </c>
       <c r="B30">
         <v>156</v>
@@ -3843,7 +3660,7 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>648</v>
+        <v>529</v>
       </c>
       <c r="E30" t="s">
         <v>411</v>
@@ -3855,7 +3672,7 @@
         <v>100</v>
       </c>
       <c r="H30" t="s">
-        <v>666</v>
+        <v>547</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -4224,7 +4041,7 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>651</v>
+        <v>532</v>
       </c>
       <c r="B45">
         <v>158</v>
@@ -4233,7 +4050,7 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>650</v>
+        <v>531</v>
       </c>
       <c r="E45" t="s">
         <v>411</v>
@@ -4245,7 +4062,7 @@
         <v>100</v>
       </c>
       <c r="H45" t="s">
-        <v>665</v>
+        <v>546</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -4614,7 +4431,7 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>652</v>
+        <v>533</v>
       </c>
       <c r="B60">
         <v>160</v>
@@ -4623,7 +4440,7 @@
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>653</v>
+        <v>534</v>
       </c>
       <c r="E60" t="s">
         <v>411</v>
@@ -4635,7 +4452,7 @@
         <v>100</v>
       </c>
       <c r="H60" t="s">
-        <v>664</v>
+        <v>545</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -5004,7 +4821,7 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>656</v>
+        <v>537</v>
       </c>
       <c r="B75">
         <v>164</v>
@@ -5013,10 +4830,10 @@
         <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E75" t="s">
-        <v>655</v>
+        <v>536</v>
       </c>
       <c r="F75" t="s">
         <v>440</v>
@@ -5025,7 +4842,7 @@
         <v>10000</v>
       </c>
       <c r="H75" t="s">
-        <v>661</v>
+        <v>542</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -5420,7 +5237,7 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>658</v>
+        <v>539</v>
       </c>
       <c r="B91">
         <v>166</v>
@@ -5429,10 +5246,10 @@
         <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>657</v>
+        <v>538</v>
       </c>
       <c r="E91" t="s">
-        <v>655</v>
+        <v>536</v>
       </c>
       <c r="F91" t="s">
         <v>440</v>
@@ -5441,7 +5258,7 @@
         <v>10000</v>
       </c>
       <c r="H91" t="s">
-        <v>662</v>
+        <v>543</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -5836,7 +5653,7 @@
     </row>
     <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>660</v>
+        <v>541</v>
       </c>
       <c r="B107">
         <v>168</v>
@@ -5845,10 +5662,10 @@
         <v>2</v>
       </c>
       <c r="D107" t="s">
-        <v>659</v>
+        <v>540</v>
       </c>
       <c r="E107" t="s">
-        <v>655</v>
+        <v>536</v>
       </c>
       <c r="F107" t="s">
         <v>440</v>
@@ -5857,7 +5674,7 @@
         <v>10000</v>
       </c>
       <c r="H107" t="s">
-        <v>663</v>
+        <v>544</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -6780,10 +6597,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D5969C-509B-4D3C-BD42-B92347445C5B}">
-  <dimension ref="A1:G207"/>
+  <dimension ref="A1:C147"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99:B158"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6795,13 +6612,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
-        <v>686</v>
+        <v>566</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>687</v>
+        <v>567</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>688</v>
+        <v>568</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6809,7 +6626,7 @@
         <v>464</v>
       </c>
       <c r="B2" t="s">
-        <v>667</v>
+        <v>548</v>
       </c>
       <c r="C2" t="s">
         <v>465</v>
@@ -6820,7 +6637,7 @@
         <v>464</v>
       </c>
       <c r="B3" t="s">
-        <v>667</v>
+        <v>548</v>
       </c>
       <c r="C3" t="s">
         <v>466</v>
@@ -6831,7 +6648,7 @@
         <v>464</v>
       </c>
       <c r="B4" t="s">
-        <v>667</v>
+        <v>548</v>
       </c>
       <c r="C4" t="s">
         <v>467</v>
@@ -6842,7 +6659,7 @@
         <v>464</v>
       </c>
       <c r="B5" t="s">
-        <v>667</v>
+        <v>548</v>
       </c>
       <c r="C5" t="s">
         <v>468</v>
@@ -6853,7 +6670,7 @@
         <v>464</v>
       </c>
       <c r="B6" t="s">
-        <v>667</v>
+        <v>548</v>
       </c>
       <c r="C6" t="s">
         <v>469</v>
@@ -6864,7 +6681,7 @@
         <v>464</v>
       </c>
       <c r="B7" t="s">
-        <v>667</v>
+        <v>548</v>
       </c>
       <c r="C7" t="s">
         <v>470</v>
@@ -6875,7 +6692,7 @@
         <v>464</v>
       </c>
       <c r="B8" t="s">
-        <v>667</v>
+        <v>548</v>
       </c>
       <c r="C8" t="s">
         <v>471</v>
@@ -6886,7 +6703,7 @@
         <v>464</v>
       </c>
       <c r="B9" t="s">
-        <v>668</v>
+        <v>549</v>
       </c>
       <c r="C9" t="s">
         <v>472</v>
@@ -6897,7 +6714,7 @@
         <v>464</v>
       </c>
       <c r="B10" t="s">
-        <v>669</v>
+        <v>550</v>
       </c>
       <c r="C10" t="s">
         <v>473</v>
@@ -6908,7 +6725,7 @@
         <v>464</v>
       </c>
       <c r="B11" t="s">
-        <v>668</v>
+        <v>549</v>
       </c>
       <c r="C11" t="s">
         <v>474</v>
@@ -6919,7 +6736,7 @@
         <v>464</v>
       </c>
       <c r="B12" t="s">
-        <v>669</v>
+        <v>550</v>
       </c>
       <c r="C12" t="s">
         <v>475</v>
@@ -6930,7 +6747,7 @@
         <v>464</v>
       </c>
       <c r="B13" t="s">
-        <v>668</v>
+        <v>549</v>
       </c>
       <c r="C13" t="s">
         <v>476</v>
@@ -6941,7 +6758,7 @@
         <v>464</v>
       </c>
       <c r="B14" t="s">
-        <v>669</v>
+        <v>550</v>
       </c>
       <c r="C14" t="s">
         <v>477</v>
@@ -6952,7 +6769,7 @@
         <v>464</v>
       </c>
       <c r="B15" t="s">
-        <v>669</v>
+        <v>550</v>
       </c>
       <c r="C15" t="s">
         <v>478</v>
@@ -6963,7 +6780,7 @@
         <v>464</v>
       </c>
       <c r="B16" t="s">
-        <v>668</v>
+        <v>549</v>
       </c>
       <c r="C16" t="s">
         <v>479</v>
@@ -6974,10 +6791,10 @@
         <v>464</v>
       </c>
       <c r="B17" t="s">
-        <v>668</v>
+        <v>549</v>
       </c>
       <c r="C17" t="s">
-        <v>579</v>
+        <v>519</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -6985,7 +6802,7 @@
         <v>464</v>
       </c>
       <c r="B18" t="s">
-        <v>668</v>
+        <v>549</v>
       </c>
       <c r="C18" t="s">
         <v>480</v>
@@ -6996,10 +6813,10 @@
         <v>464</v>
       </c>
       <c r="B19" t="s">
-        <v>669</v>
+        <v>550</v>
       </c>
       <c r="C19" t="s">
-        <v>599</v>
+        <v>521</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -7007,10 +6824,10 @@
         <v>464</v>
       </c>
       <c r="B20" t="s">
-        <v>669</v>
+        <v>550</v>
       </c>
       <c r="C20" t="s">
-        <v>600</v>
+        <v>522</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -7018,10 +6835,10 @@
         <v>464</v>
       </c>
       <c r="B21" t="s">
-        <v>669</v>
+        <v>550</v>
       </c>
       <c r="C21" t="s">
-        <v>601</v>
+        <v>523</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -7029,10 +6846,10 @@
         <v>464</v>
       </c>
       <c r="B22" t="s">
-        <v>669</v>
+        <v>550</v>
       </c>
       <c r="C22" t="s">
-        <v>563</v>
+        <v>503</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -7040,7 +6857,7 @@
         <v>464</v>
       </c>
       <c r="B23" t="s">
-        <v>669</v>
+        <v>550</v>
       </c>
       <c r="C23" t="s">
         <v>481</v>
@@ -7051,7 +6868,7 @@
         <v>464</v>
       </c>
       <c r="B24" t="s">
-        <v>670</v>
+        <v>551</v>
       </c>
       <c r="C24" t="s">
         <v>482</v>
@@ -7062,7 +6879,7 @@
         <v>464</v>
       </c>
       <c r="B25" t="s">
-        <v>670</v>
+        <v>551</v>
       </c>
       <c r="C25" t="s">
         <v>483</v>
@@ -7073,7 +6890,7 @@
         <v>464</v>
       </c>
       <c r="B26" t="s">
-        <v>671</v>
+        <v>552</v>
       </c>
       <c r="C26" t="s">
         <v>484</v>
@@ -7084,7 +6901,7 @@
         <v>464</v>
       </c>
       <c r="B27" t="s">
-        <v>671</v>
+        <v>552</v>
       </c>
       <c r="C27" t="s">
         <v>485</v>
@@ -7095,7 +6912,7 @@
         <v>464</v>
       </c>
       <c r="B28" t="s">
-        <v>671</v>
+        <v>552</v>
       </c>
       <c r="C28" t="s">
         <v>486</v>
@@ -7106,7 +6923,7 @@
         <v>464</v>
       </c>
       <c r="B29" t="s">
-        <v>671</v>
+        <v>552</v>
       </c>
       <c r="C29" t="s">
         <v>487</v>
@@ -7117,7 +6934,7 @@
         <v>464</v>
       </c>
       <c r="B30" t="s">
-        <v>668</v>
+        <v>549</v>
       </c>
       <c r="C30" t="s">
         <v>488</v>
@@ -7128,7 +6945,7 @@
         <v>464</v>
       </c>
       <c r="B31" t="s">
-        <v>668</v>
+        <v>549</v>
       </c>
       <c r="C31" t="s">
         <v>489</v>
@@ -7139,7 +6956,7 @@
         <v>464</v>
       </c>
       <c r="B32" t="s">
-        <v>668</v>
+        <v>549</v>
       </c>
       <c r="C32" t="s">
         <v>490</v>
@@ -7150,7 +6967,7 @@
         <v>464</v>
       </c>
       <c r="B33" t="s">
-        <v>668</v>
+        <v>549</v>
       </c>
       <c r="C33" t="s">
         <v>491</v>
@@ -7161,7 +6978,7 @@
         <v>464</v>
       </c>
       <c r="B34" t="s">
-        <v>668</v>
+        <v>549</v>
       </c>
       <c r="C34" t="s">
         <v>492</v>
@@ -7172,7 +6989,7 @@
         <v>464</v>
       </c>
       <c r="B35" t="s">
-        <v>668</v>
+        <v>549</v>
       </c>
       <c r="C35" t="s">
         <v>493</v>
@@ -7183,7 +7000,7 @@
         <v>464</v>
       </c>
       <c r="B36" t="s">
-        <v>670</v>
+        <v>551</v>
       </c>
       <c r="C36" t="s">
         <v>494</v>
@@ -7191,1707 +7008,1223 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="B37" t="s">
-        <v>674</v>
+        <v>554</v>
       </c>
       <c r="C37" t="s">
-        <v>498</v>
+        <v>570</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="B38" t="s">
-        <v>674</v>
+        <v>554</v>
       </c>
       <c r="C38" t="s">
-        <v>499</v>
+        <v>571</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="B39" t="s">
-        <v>674</v>
+        <v>554</v>
       </c>
       <c r="C39" t="s">
-        <v>500</v>
+        <v>572</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="B40" t="s">
-        <v>674</v>
+        <v>554</v>
       </c>
       <c r="C40" t="s">
-        <v>501</v>
+        <v>573</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="B41" t="s">
-        <v>674</v>
+        <v>554</v>
       </c>
       <c r="C41" t="s">
-        <v>502</v>
+        <v>574</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="B42" t="s">
-        <v>674</v>
+        <v>554</v>
       </c>
       <c r="C42" t="s">
-        <v>503</v>
+        <v>575</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="B43" t="s">
-        <v>674</v>
+        <v>554</v>
       </c>
       <c r="C43" t="s">
-        <v>504</v>
+        <v>576</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="B44" t="s">
-        <v>674</v>
+        <v>554</v>
       </c>
       <c r="C44" t="s">
-        <v>505</v>
+        <v>577</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="B45" t="s">
-        <v>674</v>
+        <v>554</v>
       </c>
       <c r="C45" t="s">
-        <v>506</v>
+        <v>578</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="B46" t="s">
-        <v>674</v>
+        <v>554</v>
       </c>
       <c r="C46" t="s">
-        <v>507</v>
+        <v>579</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="B47" t="s">
-        <v>674</v>
+        <v>554</v>
       </c>
       <c r="C47" t="s">
-        <v>508</v>
+        <v>580</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="B48" t="s">
-        <v>674</v>
+        <v>554</v>
       </c>
       <c r="C48" t="s">
-        <v>509</v>
+        <v>581</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="B49" t="s">
-        <v>674</v>
+        <v>554</v>
       </c>
       <c r="C49" t="s">
-        <v>510</v>
+        <v>582</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="B50" t="s">
-        <v>675</v>
+        <v>555</v>
       </c>
       <c r="C50" t="s">
-        <v>511</v>
+        <v>583</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="B51" t="s">
-        <v>675</v>
+        <v>555</v>
       </c>
       <c r="C51" t="s">
-        <v>512</v>
+        <v>584</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="B52" t="s">
-        <v>675</v>
+        <v>555</v>
       </c>
       <c r="C52" t="s">
-        <v>513</v>
+        <v>585</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="B53" t="s">
-        <v>675</v>
+        <v>555</v>
       </c>
       <c r="C53" t="s">
-        <v>514</v>
+        <v>586</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="B54" t="s">
-        <v>675</v>
+        <v>555</v>
       </c>
       <c r="C54" t="s">
-        <v>515</v>
+        <v>587</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="B55" t="s">
-        <v>675</v>
+        <v>555</v>
       </c>
       <c r="C55" t="s">
-        <v>516</v>
+        <v>588</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="B56" t="s">
-        <v>675</v>
+        <v>555</v>
       </c>
       <c r="C56" t="s">
-        <v>517</v>
+        <v>589</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="B57" t="s">
-        <v>675</v>
+        <v>555</v>
       </c>
       <c r="C57" t="s">
-        <v>518</v>
+        <v>590</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="B58" t="s">
-        <v>675</v>
+        <v>555</v>
       </c>
       <c r="C58" t="s">
-        <v>519</v>
+        <v>591</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="B59" t="s">
-        <v>675</v>
+        <v>555</v>
       </c>
       <c r="C59" t="s">
-        <v>520</v>
+        <v>592</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="B60" t="s">
-        <v>675</v>
+        <v>555</v>
       </c>
       <c r="C60" t="s">
-        <v>521</v>
+        <v>593</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="B61" t="s">
-        <v>675</v>
+        <v>555</v>
       </c>
       <c r="C61" t="s">
-        <v>522</v>
+        <v>594</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="B62" t="s">
-        <v>675</v>
+        <v>555</v>
       </c>
       <c r="C62" t="s">
-        <v>523</v>
+        <v>595</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="B63" t="s">
-        <v>676</v>
+        <v>556</v>
       </c>
       <c r="C63" t="s">
-        <v>524</v>
+        <v>596</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="B64" t="s">
-        <v>676</v>
+        <v>556</v>
       </c>
       <c r="C64" t="s">
-        <v>525</v>
+        <v>597</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="B65" t="s">
-        <v>676</v>
+        <v>556</v>
       </c>
       <c r="C65" t="s">
-        <v>526</v>
+        <v>598</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="B66" t="s">
-        <v>676</v>
+        <v>556</v>
       </c>
       <c r="C66" t="s">
-        <v>527</v>
+        <v>599</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="B67" t="s">
-        <v>676</v>
+        <v>556</v>
       </c>
       <c r="C67" t="s">
-        <v>528</v>
+        <v>600</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="B68" t="s">
-        <v>676</v>
+        <v>556</v>
       </c>
       <c r="C68" t="s">
-        <v>529</v>
+        <v>601</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="B69" t="s">
-        <v>676</v>
+        <v>556</v>
       </c>
       <c r="C69" t="s">
-        <v>530</v>
+        <v>602</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="B70" t="s">
-        <v>676</v>
+        <v>556</v>
       </c>
       <c r="C70" t="s">
-        <v>531</v>
+        <v>603</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="B71" t="s">
-        <v>676</v>
+        <v>556</v>
       </c>
       <c r="C71" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="B72" t="s">
-        <v>676</v>
+        <v>556</v>
       </c>
       <c r="C72" t="s">
-        <v>532</v>
+        <v>605</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="B73" t="s">
-        <v>676</v>
+        <v>556</v>
       </c>
       <c r="C73" t="s">
-        <v>533</v>
+        <v>606</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="B74" t="s">
-        <v>676</v>
+        <v>556</v>
       </c>
       <c r="C74" t="s">
-        <v>534</v>
+        <v>607</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="B75" t="s">
-        <v>676</v>
+        <v>556</v>
       </c>
       <c r="C75" t="s">
-        <v>535</v>
+        <v>608</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="B76" t="s">
-        <v>676</v>
+        <v>556</v>
       </c>
       <c r="C76" t="s">
-        <v>536</v>
+        <v>609</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="B77" t="s">
-        <v>676</v>
+        <v>556</v>
       </c>
       <c r="C77" t="s">
-        <v>537</v>
+        <v>610</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="B78" t="s">
-        <v>677</v>
+        <v>557</v>
       </c>
       <c r="C78" t="s">
-        <v>538</v>
+        <v>611</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="B79" t="s">
-        <v>677</v>
+        <v>557</v>
       </c>
       <c r="C79" t="s">
-        <v>539</v>
+        <v>612</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="B80" t="s">
-        <v>677</v>
+        <v>557</v>
       </c>
       <c r="C80" t="s">
-        <v>540</v>
+        <v>613</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="B81" t="s">
-        <v>677</v>
+        <v>557</v>
       </c>
       <c r="C81" t="s">
-        <v>541</v>
+        <v>614</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="B82" t="s">
-        <v>677</v>
+        <v>557</v>
       </c>
       <c r="C82" t="s">
-        <v>542</v>
+        <v>615</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="B83" t="s">
-        <v>677</v>
+        <v>557</v>
       </c>
       <c r="C83" t="s">
-        <v>543</v>
+        <v>616</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="B84" t="s">
-        <v>677</v>
+        <v>557</v>
       </c>
       <c r="C84" t="s">
-        <v>544</v>
+        <v>617</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="B85" t="s">
-        <v>674</v>
+        <v>554</v>
       </c>
       <c r="C85" t="s">
-        <v>498</v>
+        <v>570</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="B86" t="s">
-        <v>677</v>
+        <v>557</v>
       </c>
       <c r="C86" t="s">
-        <v>545</v>
+        <v>618</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="B87" t="s">
-        <v>677</v>
+        <v>557</v>
       </c>
       <c r="C87" t="s">
-        <v>549</v>
+        <v>619</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="B88" t="s">
-        <v>677</v>
+        <v>557</v>
       </c>
       <c r="C88" t="s">
-        <v>550</v>
+        <v>620</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="B89" t="s">
-        <v>675</v>
+        <v>555</v>
       </c>
       <c r="C89" t="s">
-        <v>520</v>
+        <v>592</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="B90" t="s">
-        <v>678</v>
+        <v>558</v>
       </c>
       <c r="C90" t="s">
-        <v>551</v>
+        <v>621</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="B91" t="s">
-        <v>678</v>
+        <v>558</v>
       </c>
       <c r="C91" t="s">
-        <v>552</v>
+        <v>622</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="B92" t="s">
-        <v>678</v>
+        <v>558</v>
       </c>
       <c r="C92" t="s">
-        <v>552</v>
+        <v>622</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="B93" t="s">
-        <v>676</v>
+        <v>556</v>
       </c>
       <c r="C93" t="s">
-        <v>533</v>
+        <v>606</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="B94" t="s">
-        <v>678</v>
+        <v>558</v>
       </c>
       <c r="C94" t="s">
-        <v>553</v>
+        <v>623</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="B95" t="s">
-        <v>678</v>
+        <v>558</v>
       </c>
       <c r="C95" t="s">
-        <v>554</v>
+        <v>624</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="B96" t="s">
-        <v>678</v>
+        <v>558</v>
       </c>
       <c r="C96" t="s">
-        <v>555</v>
+        <v>625</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="B97" t="s">
-        <v>678</v>
+        <v>558</v>
       </c>
       <c r="C97" t="s">
-        <v>556</v>
+        <v>626</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="B98" t="s">
-        <v>678</v>
+        <v>558</v>
       </c>
       <c r="C98" t="s">
-        <v>557</v>
+        <v>627</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>673</v>
+        <v>628</v>
+      </c>
+      <c r="B99" t="s">
+        <v>559</v>
       </c>
       <c r="C99" t="s">
-        <v>546</v>
+        <v>499</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>673</v>
+        <v>628</v>
+      </c>
+      <c r="B100" t="s">
+        <v>559</v>
       </c>
       <c r="C100" t="s">
-        <v>581</v>
+        <v>500</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>673</v>
+        <v>628</v>
+      </c>
+      <c r="B101" t="s">
+        <v>560</v>
       </c>
       <c r="C101" t="s">
-        <v>582</v>
+        <v>501</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>673</v>
+        <v>628</v>
+      </c>
+      <c r="B102" t="s">
+        <v>560</v>
       </c>
       <c r="C102" t="s">
-        <v>547</v>
+        <v>502</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>673</v>
+        <v>628</v>
+      </c>
+      <c r="B103" t="s">
+        <v>559</v>
       </c>
       <c r="C103" t="s">
-        <v>645</v>
+        <v>467</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>673</v>
+        <v>628</v>
+      </c>
+      <c r="B104" t="s">
+        <v>559</v>
       </c>
       <c r="C104" t="s">
-        <v>583</v>
+        <v>468</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>673</v>
+        <v>628</v>
+      </c>
+      <c r="B105" t="s">
+        <v>559</v>
       </c>
       <c r="C105" t="s">
-        <v>584</v>
+        <v>480</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>673</v>
+        <v>628</v>
+      </c>
+      <c r="B106" t="s">
+        <v>559</v>
       </c>
       <c r="C106" t="s">
-        <v>585</v>
+        <v>503</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>673</v>
+        <v>628</v>
+      </c>
+      <c r="B107" t="s">
+        <v>561</v>
       </c>
       <c r="C107" t="s">
-        <v>586</v>
+        <v>472</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>673</v>
+        <v>628</v>
+      </c>
+      <c r="B108" t="s">
+        <v>561</v>
       </c>
       <c r="C108" t="s">
-        <v>587</v>
+        <v>474</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>673</v>
+        <v>628</v>
+      </c>
+      <c r="B109" t="s">
+        <v>561</v>
       </c>
       <c r="C109" t="s">
-        <v>588</v>
+        <v>476</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>673</v>
+        <v>628</v>
+      </c>
+      <c r="B110" t="s">
+        <v>561</v>
       </c>
       <c r="C110" t="s">
-        <v>589</v>
+        <v>473</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>673</v>
+        <v>628</v>
+      </c>
+      <c r="B111" t="s">
+        <v>561</v>
       </c>
       <c r="C111" t="s">
-        <v>590</v>
+        <v>504</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>673</v>
+        <v>628</v>
+      </c>
+      <c r="B112" t="s">
+        <v>561</v>
       </c>
       <c r="C112" t="s">
-        <v>591</v>
+        <v>477</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>673</v>
+        <v>628</v>
+      </c>
+      <c r="B113" t="s">
+        <v>561</v>
       </c>
       <c r="C113" t="s">
-        <v>592</v>
+        <v>478</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>673</v>
+        <v>628</v>
+      </c>
+      <c r="B114" t="s">
+        <v>561</v>
       </c>
       <c r="C114" t="s">
-        <v>593</v>
+        <v>481</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>673</v>
+        <v>628</v>
+      </c>
+      <c r="B115" t="s">
+        <v>561</v>
       </c>
       <c r="C115" t="s">
-        <v>594</v>
+        <v>505</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>673</v>
+        <v>628</v>
+      </c>
+      <c r="B116" t="s">
+        <v>561</v>
       </c>
       <c r="C116" t="s">
-        <v>595</v>
+        <v>489</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>673</v>
+        <v>628</v>
+      </c>
+      <c r="B117" t="s">
+        <v>561</v>
       </c>
       <c r="C117" t="s">
-        <v>596</v>
+        <v>490</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>673</v>
+        <v>628</v>
+      </c>
+      <c r="B118" t="s">
+        <v>561</v>
       </c>
       <c r="C118" t="s">
-        <v>633</v>
+        <v>491</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>673</v>
+        <v>628</v>
+      </c>
+      <c r="B119" t="s">
+        <v>551</v>
       </c>
       <c r="C119" t="s">
-        <v>605</v>
+        <v>482</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>673</v>
+        <v>628</v>
+      </c>
+      <c r="B120" t="s">
+        <v>562</v>
       </c>
       <c r="C120" t="s">
-        <v>606</v>
+        <v>483</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>673</v>
+        <v>628</v>
+      </c>
+      <c r="B121" t="s">
+        <v>563</v>
       </c>
       <c r="C121" t="s">
-        <v>607</v>
+        <v>484</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>673</v>
+        <v>628</v>
+      </c>
+      <c r="B122" t="s">
+        <v>563</v>
       </c>
       <c r="C122" t="s">
-        <v>608</v>
+        <v>485</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>673</v>
+        <v>628</v>
+      </c>
+      <c r="B123" t="s">
+        <v>563</v>
       </c>
       <c r="C123" t="s">
-        <v>609</v>
+        <v>486</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>673</v>
+        <v>628</v>
+      </c>
+      <c r="B124" t="s">
+        <v>563</v>
       </c>
       <c r="C124" t="s">
-        <v>610</v>
+        <v>487</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>673</v>
+        <v>628</v>
+      </c>
+      <c r="B125" t="s">
+        <v>564</v>
       </c>
       <c r="C125" t="s">
-        <v>611</v>
+        <v>506</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>673</v>
+        <v>628</v>
+      </c>
+      <c r="B126" t="s">
+        <v>564</v>
       </c>
       <c r="C126" t="s">
-        <v>612</v>
+        <v>507</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>673</v>
+        <v>628</v>
+      </c>
+      <c r="B127" t="s">
+        <v>565</v>
       </c>
       <c r="C127" t="s">
-        <v>613</v>
+        <v>508</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>673</v>
+        <v>628</v>
+      </c>
+      <c r="B128" t="s">
+        <v>565</v>
       </c>
       <c r="C128" t="s">
-        <v>614</v>
+        <v>509</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>673</v>
+        <v>628</v>
+      </c>
+      <c r="B129" t="s">
+        <v>565</v>
       </c>
       <c r="C129" t="s">
-        <v>615</v>
+        <v>510</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>673</v>
+        <v>628</v>
+      </c>
+      <c r="B130" t="s">
+        <v>565</v>
       </c>
       <c r="C130" t="s">
-        <v>616</v>
+        <v>511</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>673</v>
+        <v>628</v>
+      </c>
+      <c r="B131" t="s">
+        <v>564</v>
       </c>
       <c r="C131" t="s">
-        <v>617</v>
+        <v>521</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>673</v>
+        <v>628</v>
+      </c>
+      <c r="B132" t="s">
+        <v>564</v>
       </c>
       <c r="C132" t="s">
-        <v>618</v>
+        <v>512</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>673</v>
+        <v>628</v>
+      </c>
+      <c r="B133" t="s">
+        <v>564</v>
       </c>
       <c r="C133" t="s">
-        <v>634</v>
+        <v>513</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>673</v>
+        <v>628</v>
+      </c>
+      <c r="B134" t="s">
+        <v>564</v>
       </c>
       <c r="C134" t="s">
-        <v>619</v>
+        <v>514</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>673</v>
+        <v>628</v>
+      </c>
+      <c r="B135" t="s">
+        <v>562</v>
       </c>
       <c r="C135" t="s">
-        <v>620</v>
+        <v>494</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>673</v>
+        <v>628</v>
+      </c>
+      <c r="B136" t="s">
+        <v>564</v>
       </c>
       <c r="C136" t="s">
-        <v>621</v>
+        <v>515</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>673</v>
+        <v>628</v>
+      </c>
+      <c r="B137" t="s">
+        <v>561</v>
       </c>
       <c r="C137" t="s">
-        <v>622</v>
+        <v>516</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>673</v>
+        <v>628</v>
+      </c>
+      <c r="B138" t="s">
+        <v>561</v>
       </c>
       <c r="C138" t="s">
-        <v>623</v>
+        <v>517</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>673</v>
+        <v>628</v>
+      </c>
+      <c r="B139" t="s">
+        <v>561</v>
       </c>
       <c r="C139" t="s">
-        <v>624</v>
+        <v>518</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>673</v>
+        <v>628</v>
+      </c>
+      <c r="B140" t="s">
+        <v>561</v>
       </c>
       <c r="C140" t="s">
-        <v>625</v>
+        <v>524</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>673</v>
+        <v>628</v>
+      </c>
+      <c r="B141" t="s">
+        <v>561</v>
       </c>
       <c r="C141" t="s">
-        <v>626</v>
+        <v>519</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>673</v>
+        <v>628</v>
+      </c>
+      <c r="B142" t="s">
+        <v>565</v>
       </c>
       <c r="C142" t="s">
-        <v>627</v>
+        <v>520</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>673</v>
+        <v>628</v>
+      </c>
+      <c r="B143" t="s">
+        <v>564</v>
       </c>
       <c r="C143" t="s">
-        <v>629</v>
+        <v>525</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>673</v>
+        <v>628</v>
+      </c>
+      <c r="B144" t="s">
+        <v>564</v>
       </c>
       <c r="C144" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="145" spans="1:7">
-      <c r="A145" t="s">
-        <v>673</v>
+      <c r="B145" t="s">
+        <v>564</v>
       </c>
       <c r="C145" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>673</v>
+        <v>628</v>
+      </c>
+      <c r="B146" t="s">
+        <v>564</v>
       </c>
       <c r="C146" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>673</v>
+        <v>628</v>
+      </c>
+      <c r="B147" t="s">
+        <v>564</v>
       </c>
       <c r="C147" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7">
-      <c r="A148" t="s">
-        <v>673</v>
-      </c>
-      <c r="C148" t="s">
-        <v>635</v>
-      </c>
-      <c r="F148" s="8"/>
-    </row>
-    <row r="149" spans="1:7">
-      <c r="A149" t="s">
-        <v>673</v>
-      </c>
-      <c r="C149" t="s">
-        <v>597</v>
-      </c>
-      <c r="F149" s="8"/>
-      <c r="G149" s="8"/>
-    </row>
-    <row r="150" spans="1:7">
-      <c r="A150" t="s">
-        <v>673</v>
-      </c>
-      <c r="C150" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7">
-      <c r="A151" t="s">
-        <v>673</v>
-      </c>
-      <c r="C151" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7">
-      <c r="A152" t="s">
-        <v>673</v>
-      </c>
-      <c r="C152" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7">
-      <c r="A153" t="s">
-        <v>673</v>
-      </c>
-      <c r="C153" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7">
-      <c r="A154" t="s">
-        <v>673</v>
-      </c>
-      <c r="C154" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7">
-      <c r="A155" t="s">
-        <v>673</v>
-      </c>
-      <c r="C155" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7">
-      <c r="A156" t="s">
-        <v>673</v>
-      </c>
-      <c r="C156" t="s">
-        <v>639</v>
-      </c>
-      <c r="E156" s="8"/>
-    </row>
-    <row r="157" spans="1:7">
-      <c r="A157" t="s">
-        <v>673</v>
-      </c>
-      <c r="C157" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7">
-      <c r="A158" t="s">
-        <v>673</v>
-      </c>
-      <c r="C158" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7">
-      <c r="A159" t="s">
-        <v>558</v>
-      </c>
-      <c r="B159" t="s">
-        <v>679</v>
-      </c>
-      <c r="C159" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7">
-      <c r="A160" t="s">
-        <v>558</v>
-      </c>
-      <c r="B160" t="s">
-        <v>679</v>
-      </c>
-      <c r="C160" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="A161" t="s">
-        <v>558</v>
-      </c>
-      <c r="B161" t="s">
-        <v>680</v>
-      </c>
-      <c r="C161" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162" t="s">
-        <v>558</v>
-      </c>
-      <c r="B162" t="s">
-        <v>680</v>
-      </c>
-      <c r="C162" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163" t="s">
-        <v>558</v>
-      </c>
-      <c r="B163" t="s">
-        <v>679</v>
-      </c>
-      <c r="C163" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
-      <c r="A164" t="s">
-        <v>558</v>
-      </c>
-      <c r="B164" t="s">
-        <v>679</v>
-      </c>
-      <c r="C164" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165" t="s">
-        <v>558</v>
-      </c>
-      <c r="B165" t="s">
-        <v>679</v>
-      </c>
-      <c r="C165" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="A166" t="s">
-        <v>558</v>
-      </c>
-      <c r="B166" t="s">
-        <v>679</v>
-      </c>
-      <c r="C166" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="A167" t="s">
-        <v>558</v>
-      </c>
-      <c r="B167" t="s">
-        <v>681</v>
-      </c>
-      <c r="C167" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="A168" t="s">
-        <v>558</v>
-      </c>
-      <c r="B168" t="s">
-        <v>681</v>
-      </c>
-      <c r="C168" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="A169" t="s">
-        <v>558</v>
-      </c>
-      <c r="B169" t="s">
-        <v>681</v>
-      </c>
-      <c r="C169" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="A170" t="s">
-        <v>558</v>
-      </c>
-      <c r="B170" t="s">
-        <v>681</v>
-      </c>
-      <c r="C170" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
-      <c r="A171" t="s">
-        <v>558</v>
-      </c>
-      <c r="B171" t="s">
-        <v>681</v>
-      </c>
-      <c r="C171" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
-      <c r="A172" t="s">
-        <v>558</v>
-      </c>
-      <c r="B172" t="s">
-        <v>681</v>
-      </c>
-      <c r="C172" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
-      <c r="A173" t="s">
-        <v>558</v>
-      </c>
-      <c r="B173" t="s">
-        <v>681</v>
-      </c>
-      <c r="C173" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
-      <c r="A174" t="s">
-        <v>558</v>
-      </c>
-      <c r="B174" t="s">
-        <v>681</v>
-      </c>
-      <c r="C174" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
-      <c r="A175" t="s">
-        <v>558</v>
-      </c>
-      <c r="B175" t="s">
-        <v>681</v>
-      </c>
-      <c r="C175" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
-      <c r="A176" t="s">
-        <v>558</v>
-      </c>
-      <c r="B176" t="s">
-        <v>681</v>
-      </c>
-      <c r="C176" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
-      <c r="A177" t="s">
-        <v>558</v>
-      </c>
-      <c r="B177" t="s">
-        <v>681</v>
-      </c>
-      <c r="C177" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
-      <c r="A178" t="s">
-        <v>558</v>
-      </c>
-      <c r="B178" t="s">
-        <v>681</v>
-      </c>
-      <c r="C178" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="A179" t="s">
-        <v>558</v>
-      </c>
-      <c r="B179" t="s">
-        <v>670</v>
-      </c>
-      <c r="C179" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
-      <c r="A180" t="s">
-        <v>558</v>
-      </c>
-      <c r="B180" t="s">
-        <v>682</v>
-      </c>
-      <c r="C180" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
-      <c r="A181" t="s">
-        <v>558</v>
-      </c>
-      <c r="B181" t="s">
-        <v>683</v>
-      </c>
-      <c r="C181" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
-      <c r="A182" t="s">
-        <v>558</v>
-      </c>
-      <c r="B182" t="s">
-        <v>683</v>
-      </c>
-      <c r="C182" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="A183" t="s">
-        <v>558</v>
-      </c>
-      <c r="B183" t="s">
-        <v>683</v>
-      </c>
-      <c r="C183" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
-      <c r="A184" t="s">
-        <v>558</v>
-      </c>
-      <c r="B184" t="s">
-        <v>683</v>
-      </c>
-      <c r="C184" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="A185" t="s">
-        <v>558</v>
-      </c>
-      <c r="B185" t="s">
-        <v>684</v>
-      </c>
-      <c r="C185" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
-      <c r="A186" t="s">
-        <v>558</v>
-      </c>
-      <c r="B186" t="s">
-        <v>684</v>
-      </c>
-      <c r="C186" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
-      <c r="A187" t="s">
-        <v>558</v>
-      </c>
-      <c r="B187" t="s">
-        <v>685</v>
-      </c>
-      <c r="C187" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
-      <c r="A188" t="s">
-        <v>558</v>
-      </c>
-      <c r="B188" t="s">
-        <v>685</v>
-      </c>
-      <c r="C188" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
-      <c r="A189" t="s">
-        <v>558</v>
-      </c>
-      <c r="B189" t="s">
-        <v>685</v>
-      </c>
-      <c r="C189" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
-      <c r="A190" t="s">
-        <v>558</v>
-      </c>
-      <c r="B190" t="s">
-        <v>685</v>
-      </c>
-      <c r="C190" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
-      <c r="A191" t="s">
-        <v>558</v>
-      </c>
-      <c r="B191" t="s">
-        <v>684</v>
-      </c>
-      <c r="C191" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
-      <c r="A192" t="s">
-        <v>558</v>
-      </c>
-      <c r="B192" t="s">
-        <v>684</v>
-      </c>
-      <c r="C192" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
-      <c r="A193" t="s">
-        <v>558</v>
-      </c>
-      <c r="B193" t="s">
-        <v>684</v>
-      </c>
-      <c r="C193" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
-      <c r="A194" t="s">
-        <v>558</v>
-      </c>
-      <c r="B194" t="s">
-        <v>684</v>
-      </c>
-      <c r="C194" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
-      <c r="A195" t="s">
-        <v>558</v>
-      </c>
-      <c r="B195" t="s">
-        <v>682</v>
-      </c>
-      <c r="C195" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="A196" t="s">
-        <v>558</v>
-      </c>
-      <c r="B196" t="s">
-        <v>684</v>
-      </c>
-      <c r="C196" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="A197" t="s">
-        <v>558</v>
-      </c>
-      <c r="B197" t="s">
-        <v>681</v>
-      </c>
-      <c r="C197" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
-      <c r="A198" t="s">
-        <v>558</v>
-      </c>
-      <c r="B198" t="s">
-        <v>681</v>
-      </c>
-      <c r="C198" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
-      <c r="A199" t="s">
-        <v>558</v>
-      </c>
-      <c r="B199" t="s">
-        <v>681</v>
-      </c>
-      <c r="C199" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
-      <c r="A200" t="s">
-        <v>558</v>
-      </c>
-      <c r="B200" t="s">
-        <v>681</v>
-      </c>
-      <c r="C200" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
-      <c r="A201" t="s">
-        <v>558</v>
-      </c>
-      <c r="B201" t="s">
-        <v>681</v>
-      </c>
-      <c r="C201" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
-      <c r="A202" t="s">
-        <v>558</v>
-      </c>
-      <c r="B202" t="s">
-        <v>685</v>
-      </c>
-      <c r="C202" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
-      <c r="A203" t="s">
-        <v>558</v>
-      </c>
-      <c r="B203" t="s">
-        <v>684</v>
-      </c>
-      <c r="C203" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
-      <c r="A204" t="s">
-        <v>558</v>
-      </c>
-      <c r="B204" t="s">
-        <v>684</v>
-      </c>
-      <c r="C204" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
-      <c r="A205" t="s">
-        <v>558</v>
-      </c>
-      <c r="B205" t="s">
-        <v>684</v>
-      </c>
-      <c r="C205" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
-      <c r="A206" t="s">
-        <v>558</v>
-      </c>
-      <c r="B206" t="s">
-        <v>684</v>
-      </c>
-      <c r="C206" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
-      <c r="A207" t="s">
-        <v>558</v>
-      </c>
-      <c r="B207" t="s">
-        <v>684</v>
-      </c>
-      <c r="C207" t="s">
-        <v>644</v>
+        <v>528</v>
       </c>
     </row>
   </sheetData>

--- a/backend/v1.0/tools/DB_Mapping.xlsx
+++ b/backend/v1.0/tools/DB_Mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Betan\Documents\GitHub\project-cali\backend\v1.0\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4AB34E5-433A-4FB5-8F81-111E38172132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCCBAAF-FD5F-4C39-9175-FE60F54D21CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConexionDB" sheetId="4" r:id="rId1"/>
@@ -2335,8 +2335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FC6858-70D5-49A5-93A4-2D625DB38246}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6599,7 +6599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D5969C-509B-4D3C-BD42-B92347445C5B}">
   <dimension ref="A1:C147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>

--- a/backend/v1.0/tools/DB_Mapping.xlsx
+++ b/backend/v1.0/tools/DB_Mapping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Betan\Documents\GitHub\project-cali\backend\v1.0\tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EUSSE\Desktop\proyecto-cali-backend\backend\v1.0\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCCBAAF-FD5F-4C39-9175-FE60F54D21CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A76457C-8646-46C8-933C-B28D1F0F1B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConexionDB" sheetId="4" r:id="rId1"/>
@@ -1562,9 +1562,6 @@
     <t>EI001</t>
   </si>
   <si>
-    <t xml:space="preserve">Test </t>
-  </si>
-  <si>
     <t>Laboratorio0. Token</t>
   </si>
   <si>
@@ -1962,6 +1959,9 @@
   </si>
   <si>
     <t>Módulo solareólico</t>
+  </si>
+  <si>
+    <t>Laboratorio</t>
   </si>
 </sst>
 </file>
@@ -2336,7 +2336,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2377,7 +2377,7 @@
         <v>8086</v>
       </c>
       <c r="D2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E2" t="s">
         <v>438</v>
@@ -2397,7 +2397,7 @@
         <v>8086</v>
       </c>
       <c r="D3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E3" t="s">
         <v>438</v>
@@ -2408,7 +2408,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>495</v>
+        <v>436</v>
       </c>
       <c r="B4" t="s">
         <v>437</v>
@@ -2417,13 +2417,13 @@
         <v>8086</v>
       </c>
       <c r="D4" t="s">
-        <v>569</v>
+        <v>628</v>
       </c>
       <c r="E4" t="s">
         <v>438</v>
       </c>
       <c r="F4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2437,13 +2437,13 @@
         <v>8086</v>
       </c>
       <c r="D5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3651,7 +3651,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B30">
         <v>156</v>
@@ -3660,7 +3660,7 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E30" t="s">
         <v>411</v>
@@ -3672,7 +3672,7 @@
         <v>100</v>
       </c>
       <c r="H30" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -4041,7 +4041,7 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B45">
         <v>158</v>
@@ -4050,7 +4050,7 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E45" t="s">
         <v>411</v>
@@ -4062,7 +4062,7 @@
         <v>100</v>
       </c>
       <c r="H45" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -4431,7 +4431,7 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B60">
         <v>160</v>
@@ -4440,7 +4440,7 @@
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E60" t="s">
         <v>411</v>
@@ -4452,7 +4452,7 @@
         <v>100</v>
       </c>
       <c r="H60" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -4821,7 +4821,7 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B75">
         <v>164</v>
@@ -4830,10 +4830,10 @@
         <v>2</v>
       </c>
       <c r="D75" t="s">
+        <v>534</v>
+      </c>
+      <c r="E75" t="s">
         <v>535</v>
-      </c>
-      <c r="E75" t="s">
-        <v>536</v>
       </c>
       <c r="F75" t="s">
         <v>440</v>
@@ -4842,7 +4842,7 @@
         <v>10000</v>
       </c>
       <c r="H75" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -5237,7 +5237,7 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B91">
         <v>166</v>
@@ -5246,10 +5246,10 @@
         <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E91" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F91" t="s">
         <v>440</v>
@@ -5258,7 +5258,7 @@
         <v>10000</v>
       </c>
       <c r="H91" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -5653,7 +5653,7 @@
     </row>
     <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B107">
         <v>168</v>
@@ -5662,10 +5662,10 @@
         <v>2</v>
       </c>
       <c r="D107" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E107" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F107" t="s">
         <v>440</v>
@@ -5674,7 +5674,7 @@
         <v>10000</v>
       </c>
       <c r="H107" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -6612,13 +6612,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>566</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>567</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6626,7 +6626,7 @@
         <v>464</v>
       </c>
       <c r="B2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C2" t="s">
         <v>465</v>
@@ -6637,7 +6637,7 @@
         <v>464</v>
       </c>
       <c r="B3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C3" t="s">
         <v>466</v>
@@ -6648,7 +6648,7 @@
         <v>464</v>
       </c>
       <c r="B4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C4" t="s">
         <v>467</v>
@@ -6659,7 +6659,7 @@
         <v>464</v>
       </c>
       <c r="B5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C5" t="s">
         <v>468</v>
@@ -6670,7 +6670,7 @@
         <v>464</v>
       </c>
       <c r="B6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C6" t="s">
         <v>469</v>
@@ -6681,7 +6681,7 @@
         <v>464</v>
       </c>
       <c r="B7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C7" t="s">
         <v>470</v>
@@ -6692,7 +6692,7 @@
         <v>464</v>
       </c>
       <c r="B8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C8" t="s">
         <v>471</v>
@@ -6703,7 +6703,7 @@
         <v>464</v>
       </c>
       <c r="B9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C9" t="s">
         <v>472</v>
@@ -6714,7 +6714,7 @@
         <v>464</v>
       </c>
       <c r="B10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C10" t="s">
         <v>473</v>
@@ -6725,7 +6725,7 @@
         <v>464</v>
       </c>
       <c r="B11" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C11" t="s">
         <v>474</v>
@@ -6736,7 +6736,7 @@
         <v>464</v>
       </c>
       <c r="B12" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C12" t="s">
         <v>475</v>
@@ -6747,7 +6747,7 @@
         <v>464</v>
       </c>
       <c r="B13" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C13" t="s">
         <v>476</v>
@@ -6758,7 +6758,7 @@
         <v>464</v>
       </c>
       <c r="B14" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C14" t="s">
         <v>477</v>
@@ -6769,7 +6769,7 @@
         <v>464</v>
       </c>
       <c r="B15" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C15" t="s">
         <v>478</v>
@@ -6780,7 +6780,7 @@
         <v>464</v>
       </c>
       <c r="B16" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C16" t="s">
         <v>479</v>
@@ -6791,10 +6791,10 @@
         <v>464</v>
       </c>
       <c r="B17" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -6802,7 +6802,7 @@
         <v>464</v>
       </c>
       <c r="B18" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C18" t="s">
         <v>480</v>
@@ -6813,10 +6813,10 @@
         <v>464</v>
       </c>
       <c r="B19" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C19" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -6824,10 +6824,10 @@
         <v>464</v>
       </c>
       <c r="B20" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C20" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -6835,10 +6835,10 @@
         <v>464</v>
       </c>
       <c r="B21" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C21" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -6846,10 +6846,10 @@
         <v>464</v>
       </c>
       <c r="B22" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C22" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -6857,7 +6857,7 @@
         <v>464</v>
       </c>
       <c r="B23" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C23" t="s">
         <v>481</v>
@@ -6868,7 +6868,7 @@
         <v>464</v>
       </c>
       <c r="B24" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C24" t="s">
         <v>482</v>
@@ -6879,7 +6879,7 @@
         <v>464</v>
       </c>
       <c r="B25" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C25" t="s">
         <v>483</v>
@@ -6890,7 +6890,7 @@
         <v>464</v>
       </c>
       <c r="B26" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C26" t="s">
         <v>484</v>
@@ -6901,7 +6901,7 @@
         <v>464</v>
       </c>
       <c r="B27" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C27" t="s">
         <v>485</v>
@@ -6912,7 +6912,7 @@
         <v>464</v>
       </c>
       <c r="B28" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C28" t="s">
         <v>486</v>
@@ -6923,7 +6923,7 @@
         <v>464</v>
       </c>
       <c r="B29" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C29" t="s">
         <v>487</v>
@@ -6934,7 +6934,7 @@
         <v>464</v>
       </c>
       <c r="B30" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C30" t="s">
         <v>488</v>
@@ -6945,7 +6945,7 @@
         <v>464</v>
       </c>
       <c r="B31" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C31" t="s">
         <v>489</v>
@@ -6956,7 +6956,7 @@
         <v>464</v>
       </c>
       <c r="B32" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C32" t="s">
         <v>490</v>
@@ -6967,7 +6967,7 @@
         <v>464</v>
       </c>
       <c r="B33" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C33" t="s">
         <v>491</v>
@@ -6978,7 +6978,7 @@
         <v>464</v>
       </c>
       <c r="B34" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C34" t="s">
         <v>492</v>
@@ -6989,7 +6989,7 @@
         <v>464</v>
       </c>
       <c r="B35" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C35" t="s">
         <v>493</v>
@@ -7000,7 +7000,7 @@
         <v>464</v>
       </c>
       <c r="B36" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C36" t="s">
         <v>494</v>
@@ -7008,736 +7008,736 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
+        <v>552</v>
+      </c>
+      <c r="B37" t="s">
         <v>553</v>
       </c>
-      <c r="B37" t="s">
-        <v>554</v>
-      </c>
       <c r="C37" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
+        <v>552</v>
+      </c>
+      <c r="B38" t="s">
         <v>553</v>
       </c>
-      <c r="B38" t="s">
-        <v>554</v>
-      </c>
       <c r="C38" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
+        <v>552</v>
+      </c>
+      <c r="B39" t="s">
         <v>553</v>
       </c>
-      <c r="B39" t="s">
-        <v>554</v>
-      </c>
       <c r="C39" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
+        <v>552</v>
+      </c>
+      <c r="B40" t="s">
         <v>553</v>
       </c>
-      <c r="B40" t="s">
-        <v>554</v>
-      </c>
       <c r="C40" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
+        <v>552</v>
+      </c>
+      <c r="B41" t="s">
         <v>553</v>
       </c>
-      <c r="B41" t="s">
-        <v>554</v>
-      </c>
       <c r="C41" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
+        <v>552</v>
+      </c>
+      <c r="B42" t="s">
         <v>553</v>
       </c>
-      <c r="B42" t="s">
-        <v>554</v>
-      </c>
       <c r="C42" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
+        <v>552</v>
+      </c>
+      <c r="B43" t="s">
         <v>553</v>
       </c>
-      <c r="B43" t="s">
-        <v>554</v>
-      </c>
       <c r="C43" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
+        <v>552</v>
+      </c>
+      <c r="B44" t="s">
         <v>553</v>
       </c>
-      <c r="B44" t="s">
-        <v>554</v>
-      </c>
       <c r="C44" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
+        <v>552</v>
+      </c>
+      <c r="B45" t="s">
         <v>553</v>
       </c>
-      <c r="B45" t="s">
-        <v>554</v>
-      </c>
       <c r="C45" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
+        <v>552</v>
+      </c>
+      <c r="B46" t="s">
         <v>553</v>
       </c>
-      <c r="B46" t="s">
-        <v>554</v>
-      </c>
       <c r="C46" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
+        <v>552</v>
+      </c>
+      <c r="B47" t="s">
         <v>553</v>
       </c>
-      <c r="B47" t="s">
-        <v>554</v>
-      </c>
       <c r="C47" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
+        <v>552</v>
+      </c>
+      <c r="B48" t="s">
         <v>553</v>
       </c>
-      <c r="B48" t="s">
-        <v>554</v>
-      </c>
       <c r="C48" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
+        <v>552</v>
+      </c>
+      <c r="B49" t="s">
         <v>553</v>
       </c>
-      <c r="B49" t="s">
-        <v>554</v>
-      </c>
       <c r="C49" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B50" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C50" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B51" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C51" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B52" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C52" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B53" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C53" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B54" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C54" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B55" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C55" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B56" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C56" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B57" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C57" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B58" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C58" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B59" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C59" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B60" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C60" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B61" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C61" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B62" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C62" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B63" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C63" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B64" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C64" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B65" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C65" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B66" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C66" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B67" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C67" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B68" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C68" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B69" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C69" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B70" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C70" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B71" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C71" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B72" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C72" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B73" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C73" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B74" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C74" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B75" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C75" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B76" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C76" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B77" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C77" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B78" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C78" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B79" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C79" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B80" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C80" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B81" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C81" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B82" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C82" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B83" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C83" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B84" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C84" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
+        <v>552</v>
+      </c>
+      <c r="B85" t="s">
         <v>553</v>
       </c>
-      <c r="B85" t="s">
-        <v>554</v>
-      </c>
       <c r="C85" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B86" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C86" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B87" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C87" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B88" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C88" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B89" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C89" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B90" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C90" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B91" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C91" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B92" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C92" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B93" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C93" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B94" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C94" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B95" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C95" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B96" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C96" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B97" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C97" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B98" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C98" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B99" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C99" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B100" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C100" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B101" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C101" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B102" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C102" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B103" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C103" t="s">
         <v>467</v>
@@ -7745,10 +7745,10 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B104" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C104" t="s">
         <v>468</v>
@@ -7756,10 +7756,10 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B105" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C105" t="s">
         <v>480</v>
@@ -7767,21 +7767,21 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B106" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C106" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B107" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C107" t="s">
         <v>472</v>
@@ -7789,10 +7789,10 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B108" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C108" t="s">
         <v>474</v>
@@ -7800,10 +7800,10 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B109" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C109" t="s">
         <v>476</v>
@@ -7811,10 +7811,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B110" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C110" t="s">
         <v>473</v>
@@ -7822,21 +7822,21 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B111" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C111" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B112" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C112" t="s">
         <v>477</v>
@@ -7844,10 +7844,10 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B113" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C113" t="s">
         <v>478</v>
@@ -7855,10 +7855,10 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B114" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C114" t="s">
         <v>481</v>
@@ -7866,21 +7866,21 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B115" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C115" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B116" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C116" t="s">
         <v>489</v>
@@ -7888,10 +7888,10 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B117" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C117" t="s">
         <v>490</v>
@@ -7899,10 +7899,10 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B118" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C118" t="s">
         <v>491</v>
@@ -7910,10 +7910,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B119" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C119" t="s">
         <v>482</v>
@@ -7921,10 +7921,10 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B120" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C120" t="s">
         <v>483</v>
@@ -7932,10 +7932,10 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B121" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C121" t="s">
         <v>484</v>
@@ -7943,10 +7943,10 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B122" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C122" t="s">
         <v>485</v>
@@ -7954,10 +7954,10 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B123" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C123" t="s">
         <v>486</v>
@@ -7965,10 +7965,10 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B124" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C124" t="s">
         <v>487</v>
@@ -7976,120 +7976,120 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B125" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C125" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B126" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C126" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B127" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C127" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B128" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C128" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B129" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C129" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B130" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C130" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B131" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C131" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B132" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C132" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B133" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C133" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B134" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C134" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B135" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C135" t="s">
         <v>494</v>
@@ -8097,134 +8097,134 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B136" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C136" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B137" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C137" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B138" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C138" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B139" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C139" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B140" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C140" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B141" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C141" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B142" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C142" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B143" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C143" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B144" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C144" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B145" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C145" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B146" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C146" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B147" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C147" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
   </sheetData>

--- a/backend/v1.0/tools/DB_Mapping.xlsx
+++ b/backend/v1.0/tools/DB_Mapping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EUSSE\Desktop\proyecto-cali-backend\backend\v1.0\tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Betan\Documents\GitHub\project-cali\backend\v1.0\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A76457C-8646-46C8-933C-B28D1F0F1B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCCBAAF-FD5F-4C39-9175-FE60F54D21CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConexionDB" sheetId="4" r:id="rId1"/>
@@ -1562,6 +1562,9 @@
     <t>EI001</t>
   </si>
   <si>
+    <t xml:space="preserve">Test </t>
+  </si>
+  <si>
     <t>Laboratorio0. Token</t>
   </si>
   <si>
@@ -1959,9 +1962,6 @@
   </si>
   <si>
     <t>Módulo solareólico</t>
-  </si>
-  <si>
-    <t>Laboratorio</t>
   </si>
 </sst>
 </file>
@@ -2336,7 +2336,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2377,7 +2377,7 @@
         <v>8086</v>
       </c>
       <c r="D2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E2" t="s">
         <v>438</v>
@@ -2397,7 +2397,7 @@
         <v>8086</v>
       </c>
       <c r="D3" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E3" t="s">
         <v>438</v>
@@ -2408,7 +2408,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>436</v>
+        <v>495</v>
       </c>
       <c r="B4" t="s">
         <v>437</v>
@@ -2417,13 +2417,13 @@
         <v>8086</v>
       </c>
       <c r="D4" t="s">
-        <v>628</v>
+        <v>569</v>
       </c>
       <c r="E4" t="s">
         <v>438</v>
       </c>
       <c r="F4" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2437,13 +2437,13 @@
         <v>8086</v>
       </c>
       <c r="D5" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E5" t="s">
+        <v>498</v>
+      </c>
+      <c r="F5" t="s">
         <v>497</v>
-      </c>
-      <c r="F5" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3651,7 +3651,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B30">
         <v>156</v>
@@ -3660,7 +3660,7 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E30" t="s">
         <v>411</v>
@@ -3672,7 +3672,7 @@
         <v>100</v>
       </c>
       <c r="H30" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -4041,7 +4041,7 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B45">
         <v>158</v>
@@ -4050,7 +4050,7 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E45" t="s">
         <v>411</v>
@@ -4062,7 +4062,7 @@
         <v>100</v>
       </c>
       <c r="H45" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -4431,7 +4431,7 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B60">
         <v>160</v>
@@ -4440,7 +4440,7 @@
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E60" t="s">
         <v>411</v>
@@ -4452,7 +4452,7 @@
         <v>100</v>
       </c>
       <c r="H60" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -4821,7 +4821,7 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B75">
         <v>164</v>
@@ -4830,10 +4830,10 @@
         <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E75" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F75" t="s">
         <v>440</v>
@@ -4842,7 +4842,7 @@
         <v>10000</v>
       </c>
       <c r="H75" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -5237,7 +5237,7 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B91">
         <v>166</v>
@@ -5246,10 +5246,10 @@
         <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E91" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F91" t="s">
         <v>440</v>
@@ -5258,7 +5258,7 @@
         <v>10000</v>
       </c>
       <c r="H91" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -5653,7 +5653,7 @@
     </row>
     <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B107">
         <v>168</v>
@@ -5662,10 +5662,10 @@
         <v>2</v>
       </c>
       <c r="D107" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E107" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F107" t="s">
         <v>440</v>
@@ -5674,7 +5674,7 @@
         <v>10000</v>
       </c>
       <c r="H107" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -6612,13 +6612,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6626,7 +6626,7 @@
         <v>464</v>
       </c>
       <c r="B2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C2" t="s">
         <v>465</v>
@@ -6637,7 +6637,7 @@
         <v>464</v>
       </c>
       <c r="B3" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C3" t="s">
         <v>466</v>
@@ -6648,7 +6648,7 @@
         <v>464</v>
       </c>
       <c r="B4" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C4" t="s">
         <v>467</v>
@@ -6659,7 +6659,7 @@
         <v>464</v>
       </c>
       <c r="B5" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C5" t="s">
         <v>468</v>
@@ -6670,7 +6670,7 @@
         <v>464</v>
       </c>
       <c r="B6" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C6" t="s">
         <v>469</v>
@@ -6681,7 +6681,7 @@
         <v>464</v>
       </c>
       <c r="B7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C7" t="s">
         <v>470</v>
@@ -6692,7 +6692,7 @@
         <v>464</v>
       </c>
       <c r="B8" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C8" t="s">
         <v>471</v>
@@ -6703,7 +6703,7 @@
         <v>464</v>
       </c>
       <c r="B9" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C9" t="s">
         <v>472</v>
@@ -6714,7 +6714,7 @@
         <v>464</v>
       </c>
       <c r="B10" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C10" t="s">
         <v>473</v>
@@ -6725,7 +6725,7 @@
         <v>464</v>
       </c>
       <c r="B11" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C11" t="s">
         <v>474</v>
@@ -6736,7 +6736,7 @@
         <v>464</v>
       </c>
       <c r="B12" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C12" t="s">
         <v>475</v>
@@ -6747,7 +6747,7 @@
         <v>464</v>
       </c>
       <c r="B13" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C13" t="s">
         <v>476</v>
@@ -6758,7 +6758,7 @@
         <v>464</v>
       </c>
       <c r="B14" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C14" t="s">
         <v>477</v>
@@ -6769,7 +6769,7 @@
         <v>464</v>
       </c>
       <c r="B15" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C15" t="s">
         <v>478</v>
@@ -6780,7 +6780,7 @@
         <v>464</v>
       </c>
       <c r="B16" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C16" t="s">
         <v>479</v>
@@ -6791,10 +6791,10 @@
         <v>464</v>
       </c>
       <c r="B17" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C17" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -6802,7 +6802,7 @@
         <v>464</v>
       </c>
       <c r="B18" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C18" t="s">
         <v>480</v>
@@ -6813,10 +6813,10 @@
         <v>464</v>
       </c>
       <c r="B19" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C19" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -6824,10 +6824,10 @@
         <v>464</v>
       </c>
       <c r="B20" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C20" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -6835,10 +6835,10 @@
         <v>464</v>
       </c>
       <c r="B21" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C21" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -6846,10 +6846,10 @@
         <v>464</v>
       </c>
       <c r="B22" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C22" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -6857,7 +6857,7 @@
         <v>464</v>
       </c>
       <c r="B23" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C23" t="s">
         <v>481</v>
@@ -6868,7 +6868,7 @@
         <v>464</v>
       </c>
       <c r="B24" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C24" t="s">
         <v>482</v>
@@ -6879,7 +6879,7 @@
         <v>464</v>
       </c>
       <c r="B25" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C25" t="s">
         <v>483</v>
@@ -6890,7 +6890,7 @@
         <v>464</v>
       </c>
       <c r="B26" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C26" t="s">
         <v>484</v>
@@ -6901,7 +6901,7 @@
         <v>464</v>
       </c>
       <c r="B27" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C27" t="s">
         <v>485</v>
@@ -6912,7 +6912,7 @@
         <v>464</v>
       </c>
       <c r="B28" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C28" t="s">
         <v>486</v>
@@ -6923,7 +6923,7 @@
         <v>464</v>
       </c>
       <c r="B29" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C29" t="s">
         <v>487</v>
@@ -6934,7 +6934,7 @@
         <v>464</v>
       </c>
       <c r="B30" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C30" t="s">
         <v>488</v>
@@ -6945,7 +6945,7 @@
         <v>464</v>
       </c>
       <c r="B31" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C31" t="s">
         <v>489</v>
@@ -6956,7 +6956,7 @@
         <v>464</v>
       </c>
       <c r="B32" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C32" t="s">
         <v>490</v>
@@ -6967,7 +6967,7 @@
         <v>464</v>
       </c>
       <c r="B33" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C33" t="s">
         <v>491</v>
@@ -6978,7 +6978,7 @@
         <v>464</v>
       </c>
       <c r="B34" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C34" t="s">
         <v>492</v>
@@ -6989,7 +6989,7 @@
         <v>464</v>
       </c>
       <c r="B35" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C35" t="s">
         <v>493</v>
@@ -7000,7 +7000,7 @@
         <v>464</v>
       </c>
       <c r="B36" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C36" t="s">
         <v>494</v>
@@ -7008,736 +7008,736 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B37" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C37" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B38" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C38" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B39" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C39" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B40" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C40" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B41" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C41" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B42" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C42" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B43" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C43" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B44" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C44" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B45" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C45" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B46" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C46" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B47" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C47" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B48" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C48" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B49" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C49" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B50" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C50" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B51" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C51" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B52" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C52" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B53" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C53" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B54" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C54" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B55" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C55" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B56" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C56" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B57" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C57" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B58" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C58" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B59" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C59" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B60" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C60" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B61" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C61" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B62" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C62" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B63" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C63" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B64" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C64" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B65" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C65" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B66" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C66" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B67" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C67" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B68" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C68" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B69" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C69" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B70" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C70" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B71" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C71" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B72" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C72" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B73" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C73" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B74" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C74" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B75" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C75" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B76" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C76" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B77" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C77" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B78" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C78" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B79" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C79" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B80" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C80" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B81" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C81" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B82" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C82" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B83" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C83" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B84" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C84" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B85" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C85" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B86" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C86" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B87" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C87" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B88" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C88" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B89" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C89" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B90" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C90" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B91" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C91" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B92" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C92" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B93" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C93" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B94" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C94" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B95" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C95" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B96" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C96" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B97" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C97" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B98" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C98" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B99" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C99" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B100" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C100" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B101" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C101" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B102" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C102" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B103" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C103" t="s">
         <v>467</v>
@@ -7745,10 +7745,10 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B104" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C104" t="s">
         <v>468</v>
@@ -7756,10 +7756,10 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B105" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C105" t="s">
         <v>480</v>
@@ -7767,21 +7767,21 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B106" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C106" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B107" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C107" t="s">
         <v>472</v>
@@ -7789,10 +7789,10 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B108" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C108" t="s">
         <v>474</v>
@@ -7800,10 +7800,10 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B109" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C109" t="s">
         <v>476</v>
@@ -7811,10 +7811,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B110" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C110" t="s">
         <v>473</v>
@@ -7822,21 +7822,21 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B111" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C111" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B112" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C112" t="s">
         <v>477</v>
@@ -7844,10 +7844,10 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B113" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C113" t="s">
         <v>478</v>
@@ -7855,10 +7855,10 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B114" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C114" t="s">
         <v>481</v>
@@ -7866,21 +7866,21 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B115" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C115" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B116" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C116" t="s">
         <v>489</v>
@@ -7888,10 +7888,10 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B117" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C117" t="s">
         <v>490</v>
@@ -7899,10 +7899,10 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B118" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C118" t="s">
         <v>491</v>
@@ -7910,10 +7910,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B119" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C119" t="s">
         <v>482</v>
@@ -7921,10 +7921,10 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B120" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C120" t="s">
         <v>483</v>
@@ -7932,10 +7932,10 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B121" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C121" t="s">
         <v>484</v>
@@ -7943,10 +7943,10 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B122" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C122" t="s">
         <v>485</v>
@@ -7954,10 +7954,10 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B123" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C123" t="s">
         <v>486</v>
@@ -7965,10 +7965,10 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B124" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C124" t="s">
         <v>487</v>
@@ -7976,120 +7976,120 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B125" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C125" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B126" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C126" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B127" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C127" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B128" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C128" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B129" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C129" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B130" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C130" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B131" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C131" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B132" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C132" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B133" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C133" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B134" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C134" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B135" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C135" t="s">
         <v>494</v>
@@ -8097,134 +8097,134 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B136" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C136" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B137" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C137" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B138" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C138" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B139" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C139" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B140" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C140" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B141" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C141" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B142" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C142" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B143" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C143" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B144" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C144" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B145" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C145" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B146" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C146" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B147" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C147" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
   </sheetData>
